--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\git_commands\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C869A632-02CF-4D19-9F5E-53EA30620489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="231">
   <si>
     <t>solution_name</t>
   </si>
@@ -40,6 +34,12 @@
     <t>Automated Application Launcher</t>
   </si>
   <si>
+    <t>cancer_classification</t>
+  </si>
+  <si>
+    <t>Calculator</t>
+  </si>
+  <si>
     <t>Chat Gpt Integration</t>
   </si>
   <si>
@@ -52,9 +52,18 @@
     <t>Configuring Settings</t>
   </si>
   <si>
+    <t>Convert MS Access to New Technology</t>
+  </si>
+  <si>
+    <t>corpus_learning_chatbot</t>
+  </si>
+  <si>
     <t>Correlation Heatmap</t>
   </si>
   <si>
+    <t>create_solution</t>
+  </si>
+  <si>
     <t>Curated Datasets</t>
   </si>
   <si>
@@ -79,9 +88,18 @@
     <t>Data Profiling</t>
   </si>
   <si>
+    <t>Data Sets</t>
+  </si>
+  <si>
     <t xml:space="preserve">Design Goals </t>
   </si>
   <si>
+    <t>Diabetes Risk Stratification.</t>
+  </si>
+  <si>
+    <t>diagrams</t>
+  </si>
+  <si>
     <t>Disease Progression Model</t>
   </si>
   <si>
@@ -115,10 +133,10 @@
     <t>Github Automation</t>
   </si>
   <si>
-    <t xml:space="preserve">Glossary Terms </t>
-  </si>
-  <si>
-    <t>Happy Datasets</t>
+    <t xml:space="preserve">Glossary Term </t>
+  </si>
+  <si>
+    <t>Happiness Datasets</t>
   </si>
   <si>
     <t>High Risk High Need</t>
@@ -127,6 +145,9 @@
     <t>Hugging Face Transformers</t>
   </si>
   <si>
+    <t>icd_10_cm_analysis</t>
+  </si>
+  <si>
     <t>Incremental Imports</t>
   </si>
   <si>
@@ -145,6 +166,9 @@
     <t xml:space="preserve">Intelligent Chatbot Web Scrapping  </t>
   </si>
   <si>
+    <t>inventory_your_python</t>
+  </si>
+  <si>
     <t>Kids Abc Book</t>
   </si>
   <si>
@@ -154,13 +178,22 @@
     <t>Logging And Debugging</t>
   </si>
   <si>
+    <t>Managing Personas</t>
+  </si>
+  <si>
     <t>Membership Matching</t>
   </si>
   <si>
     <t>Notebook Clone</t>
   </si>
   <si>
-    <t>Patient Complexity Index</t>
+    <t>patient_gaps_in_care</t>
+  </si>
+  <si>
+    <t>oncology_epidemiology</t>
+  </si>
+  <si>
+    <t>oncology_diagnostic_coding</t>
   </si>
   <si>
     <t>Patient Word Cloud</t>
@@ -169,30 +202,54 @@
     <t>Penguins</t>
   </si>
   <si>
+    <t xml:space="preserve">Patient Complexity Index </t>
+  </si>
+  <si>
     <t>Principal Component Analysis</t>
   </si>
   <si>
+    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
+  </si>
+  <si>
     <t>Progress Bar</t>
   </si>
   <si>
     <t>Python Foundation</t>
   </si>
   <si>
+    <t>Library for Logging And Debugging</t>
+  </si>
+  <si>
     <t>Remote Process Automation Excel</t>
   </si>
   <si>
     <t>Simple Chatbot Simple Nlp Response</t>
   </si>
   <si>
+    <t>Solution Template</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solution Registry </t>
   </si>
   <si>
+    <t>SQLite Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talking Code Library </t>
+  </si>
+  <si>
+    <t>Talking Code</t>
+  </si>
+  <si>
+    <t>Task Scheduling</t>
+  </si>
+  <si>
+    <t>titanic_survival_analysis</t>
+  </si>
+  <si>
     <t>System Information</t>
   </si>
   <si>
-    <t>Task Scheduling</t>
-  </si>
-  <si>
     <t>Unzip Automation</t>
   </si>
   <si>
@@ -208,6 +265,9 @@
     <t>World Mood</t>
   </si>
   <si>
+    <t>automating_windows_task_scheduler</t>
+  </si>
+  <si>
     <t>ai_prompt_response_generator</t>
   </si>
   <si>
@@ -217,6 +277,9 @@
     <t>automated_application_launcher</t>
   </si>
   <si>
+    <t>calculator</t>
+  </si>
+  <si>
     <t>chat_gpt_integration</t>
   </si>
   <si>
@@ -229,6 +292,9 @@
     <t>configuring_settings</t>
   </si>
   <si>
+    <t>convert_msaccess</t>
+  </si>
+  <si>
     <t>correlation_heatmap</t>
   </si>
   <si>
@@ -256,7 +322,13 @@
     <t>data_profiling</t>
   </si>
   <si>
-    <t>design_goals</t>
+    <t>data_sets</t>
+  </si>
+  <si>
+    <t>design_goal</t>
+  </si>
+  <si>
+    <t>diabetes_risk_stratification</t>
   </si>
   <si>
     <t>disease_progression_model</t>
@@ -292,10 +364,10 @@
     <t>github_automation</t>
   </si>
   <si>
-    <t>glossary_terms</t>
-  </si>
-  <si>
-    <t>happy_datasets</t>
+    <t>glossary_term</t>
+  </si>
+  <si>
+    <t>happiness_datasets</t>
   </si>
   <si>
     <t>high_risk_high_need</t>
@@ -331,45 +403,66 @@
     <t>logging_and_debugging</t>
   </si>
   <si>
+    <t>managing_personas</t>
+  </si>
+  <si>
     <t>membership_matching</t>
   </si>
   <si>
     <t>notebook_clone</t>
   </si>
   <si>
+    <t>patient_word_cloud</t>
+  </si>
+  <si>
+    <t>penguins</t>
+  </si>
+  <si>
     <t>patient_complexity_index</t>
   </si>
   <si>
-    <t>patient_word_cloud</t>
-  </si>
-  <si>
-    <t>penguins</t>
-  </si>
-  <si>
     <t>principal_component_analysis</t>
   </si>
   <si>
+    <t>poor_emotional_regulatory_control</t>
+  </si>
+  <si>
     <t>progress_bar</t>
   </si>
   <si>
     <t>python_foundation</t>
   </si>
   <si>
+    <t>quicklogging</t>
+  </si>
+  <si>
     <t>remote_process_automation_excel</t>
   </si>
   <si>
     <t>simple_chatbot_simple_nlp_response</t>
   </si>
   <si>
+    <t>solution_template</t>
+  </si>
+  <si>
     <t>solution_registry</t>
   </si>
   <si>
+    <t>sqlite_introduction</t>
+  </si>
+  <si>
+    <t>talkingcode</t>
+  </si>
+  <si>
+    <t>talking_code</t>
+  </si>
+  <si>
+    <t>task_scheduling</t>
+  </si>
+  <si>
     <t>system_information</t>
   </si>
   <si>
-    <t>task_scheduling</t>
-  </si>
-  <si>
     <t>unzip_automation</t>
   </si>
   <si>
@@ -394,6 +487,12 @@
     <t>Solution for Automated Application Launcher</t>
   </si>
   <si>
+    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
+  </si>
+  <si>
     <t>Solution for Chat Gpt Integration</t>
   </si>
   <si>
@@ -406,9 +505,18 @@
     <t>Solution for Configuring Settings</t>
   </si>
   <si>
+    <t xml:space="preserve">Soltuion for converting MS access into a new technology stack. </t>
+  </si>
+  <si>
+    <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
+  </si>
+  <si>
     <t>Solution for Correlation Heatmap</t>
   </si>
   <si>
+    <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
+  </si>
+  <si>
     <t>Solution for Curated Datasets</t>
   </si>
   <si>
@@ -433,6 +541,15 @@
     <t>Tells your EVERYTHING about your data.</t>
   </si>
   <si>
+    <t>A repostory of curated datasets for data science projects</t>
+  </si>
+  <si>
+    <t>Macine Learning Risk stratifcation - 3 different approaches</t>
+  </si>
+  <si>
+    <t>A repository for digrams</t>
+  </si>
+  <si>
     <t>Solution for Disease Progression Model</t>
   </si>
   <si>
@@ -460,13 +577,13 @@
     <t>Solution for Form Validator</t>
   </si>
   <si>
-    <t>Makes everything consistent throughout your business, yet allows for individual customizations.</t>
+    <t>Git is a distributed version control system designed to track changes in source code during software development.</t>
   </si>
   <si>
     <t xml:space="preserve">glossary of terms </t>
   </si>
   <si>
-    <t>Solution for Happy Datasets</t>
+    <t>A repository  for Happiness Datasets</t>
   </si>
   <si>
     <t>Solution for High Risk High Need</t>
@@ -475,10 +592,13 @@
     <t>Solution for Hugging Face Transformers</t>
   </si>
   <si>
+    <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
+  </si>
+  <si>
     <t>Solution for Incremental Imports</t>
   </si>
   <si>
-    <t xml:space="preserve">Backs up and saves your work.  Moves files wherever you need them. </t>
+    <t xml:space="preserve">Welcome to the **Infrastructure Setup ** repository! This project demonstrates how to a establish an Infrastructure Directory to copy, maintain, and archive All of your work in progress. NEVER LOSE YOUR WORK IN PROGRESS AGAIN!!!! .Backs up and saves your work.  Moves files wherever you need them. </t>
   </si>
   <si>
     <t xml:space="preserve">Chatbot instantly scrapes reads any corpus or dataset. Learns it and provides a conversation about it. </t>
@@ -502,13 +622,22 @@
     <t>Solution for Logging And Debugging</t>
   </si>
   <si>
+    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
+  </si>
+  <si>
     <t>Solution for Membership Matching</t>
   </si>
   <si>
     <t>Solution for Notebook Clone</t>
   </si>
   <si>
-    <t>Solution for Patient Complexity Index</t>
+    <t>A report on specific patients gaps in care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epidemiology methodology for oncology </t>
+  </si>
+  <si>
+    <t>Define and classify diagnosis for all forms of cancer.</t>
   </si>
   <si>
     <t>Solution for Patient Word Cloud</t>
@@ -517,27 +646,51 @@
     <t>Solution for Penguins</t>
   </si>
   <si>
+    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
+  </si>
+  <si>
     <t>Solution for Principal Component Analysis</t>
   </si>
   <si>
+    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
+  </si>
+  <si>
     <t>Solution for Progress Bar</t>
   </si>
   <si>
     <t>Solution for Python Foundation</t>
   </si>
   <si>
+    <t xml:space="preserve">.py library for easily using logging and debugging. </t>
+  </si>
+  <si>
     <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
   </si>
   <si>
     <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
   </si>
   <si>
+    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
+  </si>
+  <si>
+    <t>Solution Registry - houses a list of solutions</t>
+  </si>
+  <si>
+    <t>sqlite_introduction provides an introduction to SQL lite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A library .py file for text to speech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application for building sophisticated text to speech </t>
+  </si>
+  <si>
+    <t>Schedules tasks and executes runtimes</t>
+  </si>
+  <si>
     <t>Provides general system information including CURRENT  memory / CPU usage</t>
   </si>
   <si>
-    <t>Schedules tasks and executes runtimes</t>
-  </si>
-  <si>
     <t>Solution for Unzip Automation</t>
   </si>
   <si>
@@ -553,56 +706,14 @@
     <t>Solution for World Mood</t>
   </si>
   <si>
-    <t>Solution Registry - houses a list of solutions</t>
-  </si>
-  <si>
-    <t>sqlite_introduction</t>
-  </si>
-  <si>
-    <t>sqlite_introduction provides an introduction to SQL lite</t>
-  </si>
-  <si>
-    <t>SQLite Introduction</t>
-  </si>
-  <si>
-    <t>create_solution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
-  </si>
-  <si>
-    <t>Talking Code</t>
-  </si>
-  <si>
-    <t>talking_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application for building sophisticated text to speech </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talking Code Library </t>
-  </si>
-  <si>
-    <t>talkingcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A library .py file for text to speech </t>
-  </si>
-  <si>
-    <t>quicklogging</t>
-  </si>
-  <si>
-    <t>Library for Logging And Debugging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.py library for easily using logging and debugging. </t>
+    <t>This solution automates creating python script to run in windows task scheduler.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,21 +776,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -717,7 +820,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -751,7 +854,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -786,10 +888,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -962,733 +1063,1184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>66</v>
       </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>70</v>
       </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>76</v>
       </c>
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>78</v>
       </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="C20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C79" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>80</v>
       </c>
-      <c r="C21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C80" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>81</v>
       </c>
-      <c r="C22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C81" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" t="s">
-        <v>178</v>
-      </c>
-      <c r="C56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>186</v>
-      </c>
-      <c r="B57" t="s">
-        <v>187</v>
-      </c>
-      <c r="C57" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B58" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" t="s">
-        <v>176</v>
+      <c r="C83" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="241">
   <si>
     <t>solution_name</t>
   </si>
@@ -268,6 +268,21 @@
     <t>automating_windows_task_scheduler</t>
   </si>
   <si>
+    <t>cancer_treatment_modalities</t>
+  </si>
+  <si>
+    <t>cancer_survival_index</t>
+  </si>
+  <si>
+    <t>cancer_treatment_side_effects</t>
+  </si>
+  <si>
+    <t>term_frequency_inverse_document_frequency</t>
+  </si>
+  <si>
+    <t>cancer_staging</t>
+  </si>
+  <si>
     <t>ai_prompt_response_generator</t>
   </si>
   <si>
@@ -707,6 +722,21 @@
   </si>
   <si>
     <t>This solution automates creating python script to run in windows task scheduler.</t>
+  </si>
+  <si>
+    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
+  </si>
+  <si>
+    <t>quantifying of side affects associated with major treatment modalities</t>
+  </si>
+  <si>
+    <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
+  </si>
+  <si>
+    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1089,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1103,10 +1133,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1117,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1134,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1145,10 +1175,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1159,10 +1189,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1173,10 +1203,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1187,10 +1217,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1201,10 +1231,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1215,10 +1245,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1232,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1243,10 +1273,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1260,7 +1290,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1271,10 +1301,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1285,10 +1315,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1299,10 +1329,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1313,10 +1343,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1327,10 +1357,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1341,10 +1371,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1355,10 +1385,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1369,10 +1399,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1383,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1397,7 +1427,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1411,10 +1441,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1428,7 +1458,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1439,10 +1469,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1453,10 +1483,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1467,10 +1497,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1481,10 +1511,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1495,10 +1525,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1509,10 +1539,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1523,10 +1553,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1537,10 +1567,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1551,10 +1581,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1565,10 +1595,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1579,10 +1609,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1593,10 +1623,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1607,10 +1637,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1621,10 +1651,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1635,10 +1665,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1652,7 +1682,7 @@
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1663,10 +1693,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1677,10 +1707,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1691,10 +1721,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1705,10 +1735,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1719,10 +1749,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1733,10 +1763,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1761,10 +1791,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1775,10 +1805,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1789,10 +1819,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1803,10 +1833,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1817,10 +1847,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1831,10 +1861,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1848,7 +1878,7 @@
         <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1862,7 +1892,7 @@
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1876,7 +1906,7 @@
         <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1887,10 +1917,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1901,10 +1931,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1915,10 +1945,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1929,10 +1959,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1943,10 +1973,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1957,10 +1987,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1971,10 +2001,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1985,10 +2015,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1999,10 +2029,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2013,10 +2043,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2027,10 +2057,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2041,10 +2071,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2055,10 +2085,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2069,10 +2099,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2083,10 +2113,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D73" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2097,10 +2127,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2125,10 +2155,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2139,10 +2169,10 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2153,10 +2183,10 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2167,10 +2197,10 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2181,10 +2211,10 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D80" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2195,10 +2225,10 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2209,10 +2239,10 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D82" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2226,7 +2256,7 @@
         <v>83</v>
       </c>
       <c r="D83" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2240,7 +2270,77 @@
         <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="243">
   <si>
     <t>solution_name</t>
   </si>
@@ -283,6 +283,9 @@
     <t>cancer_staging</t>
   </si>
   <si>
+    <t>cancer_treatment_sequencing</t>
+  </si>
+  <si>
     <t>ai_prompt_response_generator</t>
   </si>
   <si>
@@ -737,6 +740,9 @@
   </si>
   <si>
     <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
+  </si>
+  <si>
+    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1119,10 +1125,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1133,10 +1139,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1147,10 +1153,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1164,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1175,10 +1181,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1189,10 +1195,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1203,10 +1209,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1217,10 +1223,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1231,10 +1237,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1245,10 +1251,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1262,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1273,10 +1279,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1290,7 +1296,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1301,10 +1307,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1315,10 +1321,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1329,10 +1335,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1343,10 +1349,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1357,10 +1363,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1371,10 +1377,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1385,10 +1391,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1399,10 +1405,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1413,10 +1419,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1427,7 +1433,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1441,10 +1447,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1458,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1469,10 +1475,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1483,10 +1489,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1497,10 +1503,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1511,10 +1517,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1525,10 +1531,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1539,10 +1545,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1553,10 +1559,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1567,10 +1573,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1581,10 +1587,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1595,10 +1601,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1609,10 +1615,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1623,10 +1629,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1637,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1651,10 +1657,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1665,10 +1671,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1682,7 +1688,7 @@
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1693,10 +1699,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1707,10 +1713,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1721,10 +1727,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1735,10 +1741,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1749,10 +1755,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1763,10 +1769,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1791,10 +1797,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1805,10 +1811,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1819,10 +1825,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1833,10 +1839,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1847,10 +1853,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1861,10 +1867,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1878,7 +1884,7 @@
         <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1892,7 +1898,7 @@
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1906,7 +1912,7 @@
         <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1917,10 +1923,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1931,10 +1937,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1945,10 +1951,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1959,10 +1965,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1973,10 +1979,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1987,10 +1993,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2001,10 +2007,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2015,10 +2021,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2029,10 +2035,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2043,10 +2049,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2057,10 +2063,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2071,10 +2077,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2085,10 +2091,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2099,10 +2105,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2113,10 +2119,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2127,10 +2133,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2155,10 +2161,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2169,10 +2175,10 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2183,10 +2189,10 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2197,10 +2203,10 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2211,10 +2217,10 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2225,10 +2231,10 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2239,10 +2245,10 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2256,7 +2262,7 @@
         <v>83</v>
       </c>
       <c r="D83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2270,7 +2276,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2284,7 +2290,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2298,7 +2304,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2312,7 +2318,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2326,7 +2332,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2340,7 +2346,21 @@
         <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DAD33C-586C-4411-9A1D-32A884C5F8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="250">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>solution_name</t>
   </si>
@@ -286,6 +295,12 @@
     <t>cancer_treatment_sequencing</t>
   </si>
   <si>
+    <t>quality_of_life_index</t>
+  </si>
+  <si>
+    <t>cancer_care_timeline</t>
+  </si>
+  <si>
     <t>ai_prompt_response_generator</t>
   </si>
   <si>
@@ -743,13 +758,25 @@
   </si>
   <si>
     <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
+  </si>
+  <si>
+    <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
+    <t>multi_disciplinary_cancer_care_team</t>
+  </si>
+  <si>
+    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,13 +839,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -856,7 +891,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -890,6 +925,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -924,9 +960,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1099,14 +1136,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,1251 +1160,1570 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="B7">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="B8">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
+      <c r="B9">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
+      <c r="B10">
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
+      <c r="B11">
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
+      <c r="B12">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
+      <c r="B13">
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
+      <c r="B14">
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
+      <c r="B15">
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
+      <c r="B16">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
+      <c r="B17">
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>19</v>
+      <c r="B18">
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
+      <c r="B19">
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
+      <c r="B20">
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
+      <c r="B21">
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>23</v>
+      <c r="B22">
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
+      <c r="B23">
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
+      <c r="B24">
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
+      <c r="B25">
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>27</v>
+      <c r="B26">
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>28</v>
+      <c r="B27">
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>29</v>
+      <c r="B28">
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>30</v>
+      <c r="B29">
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>31</v>
+      <c r="B30">
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>32</v>
+      <c r="B31">
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>33</v>
+      <c r="B32">
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="E32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>34</v>
+      <c r="B33">
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>120</v>
+      </c>
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>35</v>
+      <c r="B34">
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>121</v>
+      </c>
+      <c r="E34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>36</v>
+      <c r="B35">
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>122</v>
+      </c>
+      <c r="E35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>37</v>
+      <c r="B36">
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="E36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>38</v>
+      <c r="B37">
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>39</v>
+      <c r="B38">
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>40</v>
+      <c r="B39">
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>41</v>
+      <c r="B40">
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>42</v>
+      <c r="B41">
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="E41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>43</v>
+      <c r="B42">
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>44</v>
+      <c r="B43">
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>45</v>
+      <c r="B44">
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="E44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>46</v>
+      <c r="B45">
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="E45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>47</v>
+      <c r="B46">
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="E46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>48</v>
+      <c r="B47">
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="E47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>49</v>
+      <c r="B48">
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>50</v>
+      <c r="B49">
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>51</v>
+      <c r="B50">
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>135</v>
+      </c>
+      <c r="E50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>52</v>
+      <c r="B51">
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>136</v>
+      </c>
+      <c r="E51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>53</v>
+      <c r="B52">
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>54</v>
+      <c r="B53">
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>138</v>
+      </c>
+      <c r="E53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>55</v>
+      <c r="B54">
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
+        <v>139</v>
+      </c>
+      <c r="E54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>248</v>
+      </c>
+      <c r="E55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56">
         <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>140</v>
+      </c>
+      <c r="E56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57">
         <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58">
         <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="E58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>60</v>
       </c>
-      <c r="C59" t="s">
-        <v>138</v>
-      </c>
       <c r="D59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="E59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>61</v>
       </c>
-      <c r="C60" t="s">
-        <v>139</v>
-      </c>
       <c r="D60" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="E60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>62</v>
       </c>
-      <c r="C61" t="s">
-        <v>140</v>
-      </c>
       <c r="D61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="E61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>63</v>
       </c>
-      <c r="C62" t="s">
-        <v>141</v>
-      </c>
       <c r="D62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>143</v>
+      </c>
+      <c r="E62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>64</v>
       </c>
-      <c r="C63" t="s">
-        <v>142</v>
-      </c>
       <c r="D63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="E63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>65</v>
       </c>
-      <c r="C64" t="s">
-        <v>143</v>
-      </c>
       <c r="D64" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>145</v>
+      </c>
+      <c r="E64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>66</v>
       </c>
-      <c r="C65" t="s">
-        <v>144</v>
-      </c>
       <c r="D65" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>146</v>
+      </c>
+      <c r="E65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>67</v>
       </c>
-      <c r="C66" t="s">
-        <v>145</v>
-      </c>
       <c r="D66" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>147</v>
+      </c>
+      <c r="E66" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>68</v>
       </c>
-      <c r="C67" t="s">
-        <v>146</v>
-      </c>
       <c r="D67" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="E67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>69</v>
       </c>
-      <c r="C68" t="s">
-        <v>147</v>
-      </c>
       <c r="D68" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>149</v>
+      </c>
+      <c r="E68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>70</v>
       </c>
-      <c r="C69" t="s">
-        <v>148</v>
-      </c>
       <c r="D69" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>150</v>
+      </c>
+      <c r="E69" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>71</v>
       </c>
-      <c r="C70" t="s">
-        <v>149</v>
-      </c>
       <c r="D70" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>151</v>
+      </c>
+      <c r="E70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" t="s">
-        <v>150</v>
-      </c>
       <c r="D71" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>152</v>
+      </c>
+      <c r="E71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>73</v>
       </c>
-      <c r="C72" t="s">
-        <v>151</v>
-      </c>
       <c r="D72" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>153</v>
+      </c>
+      <c r="E72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>74</v>
       </c>
-      <c r="C73" t="s">
-        <v>152</v>
-      </c>
       <c r="D73" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>154</v>
+      </c>
+      <c r="E73" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>75</v>
       </c>
-      <c r="C74" t="s">
-        <v>153</v>
-      </c>
       <c r="D74" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>155</v>
+      </c>
+      <c r="E74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75">
         <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>76</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79">
         <v>77</v>
       </c>
-      <c r="C76" t="s">
-        <v>154</v>
-      </c>
-      <c r="D76" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80">
         <v>78</v>
       </c>
-      <c r="C78" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81">
         <v>79</v>
       </c>
-      <c r="C79" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82">
         <v>80</v>
       </c>
-      <c r="C80" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>80</v>
+      </c>
+      <c r="B83">
         <v>81</v>
-      </c>
-      <c r="C81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D81" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>83</v>
       </c>
       <c r="C83" t="s">
         <v>83</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="E83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
+        <v>81</v>
+      </c>
+      <c r="B84">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85">
         <v>83</v>
-      </c>
-      <c r="C84" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86">
         <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>85</v>
       </c>
       <c r="C86" t="s">
         <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87">
         <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88">
         <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>87</v>
       </c>
       <c r="C88" t="s">
         <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
+        <v>86</v>
+      </c>
+      <c r="B89">
         <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
+        <v>87</v>
+      </c>
+      <c r="B90">
         <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>89</v>
       </c>
       <c r="C90" t="s">
         <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>242</v>
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DAD33C-586C-4411-9A1D-32A884C5F8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="254">
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -43,264 +40,270 @@
     <t>Automated Application Launcher</t>
   </si>
   <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>Chat Gpt Integration</t>
+  </si>
+  <si>
+    <t>Chronic Disease Registry</t>
+  </si>
+  <si>
+    <t>Clinical Classification System</t>
+  </si>
+  <si>
+    <t>Configuring Settings</t>
+  </si>
+  <si>
+    <t>Convert MS Access to New Technology</t>
+  </si>
+  <si>
+    <t>Correlation Heatmap</t>
+  </si>
+  <si>
+    <t>Curated Datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Data Loader  </t>
+  </si>
+  <si>
+    <t>Data Cleansing</t>
+  </si>
+  <si>
+    <t>Data Delta Calculator</t>
+  </si>
+  <si>
+    <t>Data Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Loader Reference Tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Loader Transactional  Tables </t>
+  </si>
+  <si>
+    <t>Data Profiling</t>
+  </si>
+  <si>
+    <t>Data Sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Goals </t>
+  </si>
+  <si>
+    <t>Diabetes Risk Stratification.</t>
+  </si>
+  <si>
+    <t>Disease Progression Model</t>
+  </si>
+  <si>
+    <t>Email Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment Testing </t>
+  </si>
+  <si>
+    <t>Epidemiology Methodology</t>
+  </si>
+  <si>
+    <t>File Discovery</t>
+  </si>
+  <si>
+    <t>File Manager</t>
+  </si>
+  <si>
+    <t>File Removal</t>
+  </si>
+  <si>
+    <t>File Watchdog</t>
+  </si>
+  <si>
+    <t>Form Validator</t>
+  </si>
+  <si>
+    <t>Git Commands</t>
+  </si>
+  <si>
+    <t>Github Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glossary Term </t>
+  </si>
+  <si>
+    <t>Happiness Datasets</t>
+  </si>
+  <si>
+    <t>High Risk High Need</t>
+  </si>
+  <si>
+    <t>Hugging Face Transformers</t>
+  </si>
+  <si>
+    <t>Incremental Imports</t>
+  </si>
+  <si>
+    <t>Infrastructure Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Corpus Learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Data Serialization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Generative Digital Assistant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Web Scrapping  </t>
+  </si>
+  <si>
+    <t>Kids Abc Book</t>
+  </si>
+  <si>
+    <t>Library Installer</t>
+  </si>
+  <si>
+    <t>Library for Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Managing Personas</t>
+  </si>
+  <si>
+    <t>Membership Matching</t>
+  </si>
+  <si>
+    <t>Notebook Clone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Complexity Index </t>
+  </si>
+  <si>
+    <t>Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
+  </si>
+  <si>
+    <t>Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Progress Bar</t>
+  </si>
+  <si>
+    <t>Python Foundation</t>
+  </si>
+  <si>
+    <t>Remote Process Automation Excel</t>
+  </si>
+  <si>
+    <t>SQLite Introduction</t>
+  </si>
+  <si>
+    <t>Simple Chatbot Simple Nlp Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Registry </t>
+  </si>
+  <si>
+    <t>Solution Template</t>
+  </si>
+  <si>
+    <t>System Information</t>
+  </si>
+  <si>
+    <t>Talking Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talking Code Library </t>
+  </si>
+  <si>
+    <t>Task Scheduling</t>
+  </si>
+  <si>
+    <t>Unzip Automation</t>
+  </si>
+  <si>
+    <t>Updating Libraries</t>
+  </si>
+  <si>
+    <t>Web Automation</t>
+  </si>
+  <si>
+    <t>Word Cloud</t>
+  </si>
+  <si>
+    <t>World Mood</t>
+  </si>
+  <si>
+    <t>automating_windows_task_scheduler</t>
+  </si>
+  <si>
+    <t>cancer_care_timeline</t>
+  </si>
+  <si>
     <t>cancer_classification</t>
   </si>
   <si>
-    <t>Calculator</t>
-  </si>
-  <si>
-    <t>Chat Gpt Integration</t>
-  </si>
-  <si>
-    <t>Chronic Disease Registry</t>
-  </si>
-  <si>
-    <t>Clinical Classification System</t>
-  </si>
-  <si>
-    <t>Configuring Settings</t>
-  </si>
-  <si>
-    <t>Convert MS Access to New Technology</t>
+    <t>cancer_staging</t>
+  </si>
+  <si>
+    <t>cancer_survival_index</t>
+  </si>
+  <si>
+    <t>cancer_treatment_modalities</t>
+  </si>
+  <si>
+    <t>cancer_treatment_sequencing</t>
+  </si>
+  <si>
+    <t>cancer_treatment_side_effects</t>
   </si>
   <si>
     <t>corpus_learning_chatbot</t>
   </si>
   <si>
-    <t>Correlation Heatmap</t>
-  </si>
-  <si>
     <t>create_solution</t>
   </si>
   <si>
-    <t>Curated Datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Data Loader  </t>
-  </si>
-  <si>
-    <t>Data Cleansing</t>
-  </si>
-  <si>
-    <t>Data Delta Calculator</t>
-  </si>
-  <si>
-    <t>Data Discovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Loader Reference Tables </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Loader Transactional  Tables </t>
-  </si>
-  <si>
-    <t>Data Profiling</t>
-  </si>
-  <si>
-    <t>Data Sets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Goals </t>
-  </si>
-  <si>
-    <t>Diabetes Risk Stratification.</t>
-  </si>
-  <si>
     <t>diagrams</t>
   </si>
   <si>
-    <t>Disease Progression Model</t>
-  </si>
-  <si>
-    <t>Email Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment Testing </t>
-  </si>
-  <si>
-    <t>Epidemiology Methodology</t>
-  </si>
-  <si>
-    <t>File Discovery</t>
-  </si>
-  <si>
-    <t>File Manager</t>
-  </si>
-  <si>
-    <t>File Removal</t>
-  </si>
-  <si>
-    <t>File Watchdog</t>
-  </si>
-  <si>
-    <t>Form Validator</t>
-  </si>
-  <si>
-    <t>Git Commands</t>
-  </si>
-  <si>
-    <t>Github Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glossary Term </t>
-  </si>
-  <si>
-    <t>Happiness Datasets</t>
-  </si>
-  <si>
-    <t>High Risk High Need</t>
-  </si>
-  <si>
-    <t>Hugging Face Transformers</t>
-  </si>
-  <si>
     <t>icd_10_cm_analysis</t>
   </si>
   <si>
-    <t>Incremental Imports</t>
-  </si>
-  <si>
-    <t>Infrastructure Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Corpus Learning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Data Serialization </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Generative Digital Assistant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Web Scrapping  </t>
-  </si>
-  <si>
     <t>inventory_your_python</t>
   </si>
   <si>
-    <t>Kids Abc Book</t>
-  </si>
-  <si>
-    <t>Library Installer</t>
-  </si>
-  <si>
-    <t>Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Managing Personas</t>
-  </si>
-  <si>
-    <t>Membership Matching</t>
-  </si>
-  <si>
-    <t>Notebook Clone</t>
+    <t>multi_disciplinary_cancer_care_team</t>
+  </si>
+  <si>
+    <t>oncology_diagnostic_coding</t>
+  </si>
+  <si>
+    <t>oncology_epidemiology</t>
   </si>
   <si>
     <t>patient_gaps_in_care</t>
   </si>
   <si>
-    <t>oncology_epidemiology</t>
-  </si>
-  <si>
-    <t>oncology_diagnostic_coding</t>
-  </si>
-  <si>
-    <t>Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient Complexity Index </t>
-  </si>
-  <si>
-    <t>Principal Component Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
-  </si>
-  <si>
-    <t>Progress Bar</t>
-  </si>
-  <si>
-    <t>Python Foundation</t>
-  </si>
-  <si>
-    <t>Library for Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Remote Process Automation Excel</t>
-  </si>
-  <si>
-    <t>Simple Chatbot Simple Nlp Response</t>
-  </si>
-  <si>
-    <t>Solution Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Registry </t>
-  </si>
-  <si>
-    <t>SQLite Introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talking Code Library </t>
-  </si>
-  <si>
-    <t>Talking Code</t>
-  </si>
-  <si>
-    <t>Task Scheduling</t>
+    <t>quality_of_life_index</t>
+  </si>
+  <si>
+    <t>taipy_web_gui</t>
+  </si>
+  <si>
+    <t>term_frequency_inverse_document_frequency</t>
   </si>
   <si>
     <t>titanic_survival_analysis</t>
   </si>
   <si>
-    <t>System Information</t>
-  </si>
-  <si>
-    <t>Unzip Automation</t>
-  </si>
-  <si>
-    <t>Updating Libraries</t>
-  </si>
-  <si>
-    <t>Web Automation</t>
-  </si>
-  <si>
-    <t>Word Cloud</t>
-  </si>
-  <si>
-    <t>World Mood</t>
-  </si>
-  <si>
-    <t>automating_windows_task_scheduler</t>
-  </si>
-  <si>
-    <t>cancer_treatment_modalities</t>
-  </si>
-  <si>
-    <t>cancer_survival_index</t>
-  </si>
-  <si>
-    <t>cancer_treatment_side_effects</t>
-  </si>
-  <si>
-    <t>term_frequency_inverse_document_frequency</t>
-  </si>
-  <si>
-    <t>cancer_staging</t>
-  </si>
-  <si>
-    <t>cancer_treatment_sequencing</t>
-  </si>
-  <si>
-    <t>quality_of_life_index</t>
-  </si>
-  <si>
-    <t>cancer_care_timeline</t>
-  </si>
-  <si>
     <t>ai_prompt_response_generator</t>
   </si>
   <si>
@@ -433,6 +436,9 @@
     <t>library_installer</t>
   </si>
   <si>
+    <t>quicklogging</t>
+  </si>
+  <si>
     <t>logging_and_debugging</t>
   </si>
   <si>
@@ -445,57 +451,54 @@
     <t>notebook_clone</t>
   </si>
   <si>
+    <t>patient_complexity_index</t>
+  </si>
+  <si>
     <t>patient_word_cloud</t>
   </si>
   <si>
     <t>penguins</t>
   </si>
   <si>
-    <t>patient_complexity_index</t>
+    <t>poor_emotional_regulatory_control</t>
   </si>
   <si>
     <t>principal_component_analysis</t>
   </si>
   <si>
-    <t>poor_emotional_regulatory_control</t>
-  </si>
-  <si>
     <t>progress_bar</t>
   </si>
   <si>
     <t>python_foundation</t>
   </si>
   <si>
-    <t>quicklogging</t>
-  </si>
-  <si>
     <t>remote_process_automation_excel</t>
   </si>
   <si>
+    <t>sqlite_introduction</t>
+  </si>
+  <si>
     <t>simple_chatbot_simple_nlp_response</t>
   </si>
   <si>
+    <t>solution_registry</t>
+  </si>
+  <si>
     <t>solution_template</t>
   </si>
   <si>
-    <t>solution_registry</t>
-  </si>
-  <si>
-    <t>sqlite_introduction</t>
+    <t>system_information</t>
+  </si>
+  <si>
+    <t>talking_code</t>
   </si>
   <si>
     <t>talkingcode</t>
   </si>
   <si>
-    <t>talking_code</t>
-  </si>
-  <si>
     <t>task_scheduling</t>
   </si>
   <si>
-    <t>system_information</t>
-  </si>
-  <si>
     <t>unzip_automation</t>
   </si>
   <si>
@@ -520,263 +523,266 @@
     <t>Solution for Automated Application Launcher</t>
   </si>
   <si>
+    <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
+  </si>
+  <si>
+    <t>Solution for Chat Gpt Integration</t>
+  </si>
+  <si>
+    <t>Solution for Chronic Disease Registry</t>
+  </si>
+  <si>
+    <t>Solution for Clinical Classification System</t>
+  </si>
+  <si>
+    <t>Solution for Configuring Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soltuion for converting MS access into a new technology stack. </t>
+  </si>
+  <si>
+    <t>Solution for Correlation Heatmap</t>
+  </si>
+  <si>
+    <t>Solution for Curated Datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load a the LATEST DELTA of NEW TRANSACTIONS  into a relational datastore. Run periodically for freshness. </t>
+  </si>
+  <si>
+    <t>Solution for Data Cleansing</t>
+  </si>
+  <si>
+    <t>Calculates the structural difference between raw data sources. Compares to LAST LOAD to determine what is NEW. This is for loading data incrementally over time so that history isnt constantly re-loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finds ALL the valuable data assets on your system and registers them. </t>
+  </si>
+  <si>
+    <t>Load a series of reference tables into a relational datastore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load a large historical transactional tables into a relational datastore. One Time LOAD </t>
+  </si>
+  <si>
+    <t>Tells your EVERYTHING about your data.</t>
+  </si>
+  <si>
+    <t>A repostory of curated datasets for data science projects</t>
+  </si>
+  <si>
+    <t>Macine Learning Risk stratifcation - 3 different approaches</t>
+  </si>
+  <si>
+    <t>Solution for Disease Progression Model</t>
+  </si>
+  <si>
+    <t>Solution for Email Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes sure all your computing resources are ready to perform complex workflows. </t>
+  </si>
+  <si>
+    <t>The epidemiology_methodology establishes a versatile data science methodology for epidemiology projects spanning various conditions or diseasesThe approach begins with comprehensive data collection, encompassing demographics, environmental factors, and relevant health metrics. Employing advanced statistical analyses and machine learning algorithms, the methodology aims to discern patterns, identify risk factors, and optimize predictive models, fostering a holistic understanding of the factors influencing the studied health outcomes.</t>
+  </si>
+  <si>
+    <t>Solution for File Discovery</t>
+  </si>
+  <si>
+    <t>Solution for File Manager</t>
+  </si>
+  <si>
+    <t>Solution for File Removal</t>
+  </si>
+  <si>
+    <t>Solution for File Watchdog</t>
+  </si>
+  <si>
+    <t>Solution for Form Validator</t>
+  </si>
+  <si>
+    <t>Git is a distributed version control system designed to track changes in source code during software development.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glossary of terms </t>
+  </si>
+  <si>
+    <t>A repository  for Happiness Datasets</t>
+  </si>
+  <si>
+    <t>Solution for High Risk High Need</t>
+  </si>
+  <si>
+    <t>Solution for Hugging Face Transformers</t>
+  </si>
+  <si>
+    <t>Solution for Incremental Imports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to the **Infrastructure Setup ** repository! This project demonstrates how to a establish an Infrastructure Directory to copy, maintain, and archive All of your work in progress. NEVER LOSE YOUR WORK IN PROGRESS AGAIN!!!! .Backs up and saves your work.  Moves files wherever you need them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot instantly scrapes reads any corpus or dataset. Learns it and provides a conversation about it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot instantly scrapes reads any realtional datastore, excel spreadhseet and semantizes it. Uses NLP to for paragraphs and answer in naltural languiage.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot Assistant performs almost ANY task you can think of. This is your custom "Alexa" it opens mail, formats excel sheets, reads to you, tells jokes, and writes a swimming program for you.  Embedded ChatGPT 4. </t>
+  </si>
+  <si>
+    <t>Chatbot instantly scrapes your or anyone elses website. Learns it and provides a conversation about it. Use this to digitally engage your clients.</t>
+  </si>
+  <si>
+    <t>Solution for Kids Abc Book</t>
+  </si>
+  <si>
+    <t>Solution for Library Installer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.py library for easily using logging and debugging. </t>
+  </si>
+  <si>
+    <t>Solution for Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
+  </si>
+  <si>
+    <t>Solution for Membership Matching</t>
+  </si>
+  <si>
+    <t>Solution for Notebook Clone</t>
+  </si>
+  <si>
+    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
+  </si>
+  <si>
+    <t>Solution for Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Solution for Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
+  </si>
+  <si>
+    <t>Solution for Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Solution for Progress Bar</t>
+  </si>
+  <si>
+    <t>Solution for Python Foundation</t>
+  </si>
+  <si>
+    <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
+  </si>
+  <si>
+    <t>sqlite_introduction provides an introduction to SQL lite</t>
+  </si>
+  <si>
+    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
+  </si>
+  <si>
+    <t>Solution Registry - houses a list of solutions</t>
+  </si>
+  <si>
+    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
+  </si>
+  <si>
+    <t>Provides general system information including CURRENT  memory / CPU usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application for building sophisticated text to speech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A library .py file for text to speech </t>
+  </si>
+  <si>
+    <t>Schedules tasks and executes runtimes</t>
+  </si>
+  <si>
+    <t>Solution for Unzip Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes sure the LATEST technology is used. </t>
+  </si>
+  <si>
+    <t>Solution for Web Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produces a wordcloud using the3 most relevant terminology using whatever cloud shape is supplied. </t>
+  </si>
+  <si>
+    <t>Solution for World Mood</t>
+  </si>
+  <si>
+    <t>This solution automates creating python script to run in windows task scheduler.</t>
+  </si>
+  <si>
+    <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
+    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
   </si>
   <si>
-    <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
-  </si>
-  <si>
-    <t>Solution for Chat Gpt Integration</t>
-  </si>
-  <si>
-    <t>Solution for Chronic Disease Registry</t>
-  </si>
-  <si>
-    <t>Solution for Clinical Classification System</t>
-  </si>
-  <si>
-    <t>Solution for Configuring Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soltuion for converting MS access into a new technology stack. </t>
+    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
+  </si>
+  <si>
+    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
+  </si>
+  <si>
+    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
+  </si>
+  <si>
+    <t>quantifying of side affects associated with major treatment modalities</t>
   </si>
   <si>
     <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
   </si>
   <si>
-    <t>Solution for Correlation Heatmap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
   </si>
   <si>
-    <t>Solution for Curated Datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load a the LATEST DELTA of NEW TRANSACTIONS  into a relational datastore. Run periodically for freshness. </t>
-  </si>
-  <si>
-    <t>Solution for Data Cleansing</t>
-  </si>
-  <si>
-    <t>Calculates the structural difference between raw data sources. Compares to LAST LOAD to determine what is NEW. This is for loading data incrementally over time so that history isnt constantly re-loaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finds ALL the valuable data assets on your system and registers them. </t>
-  </si>
-  <si>
-    <t>Load a series of reference tables into a relational datastore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load a large historical transactional tables into a relational datastore. One Time LOAD </t>
-  </si>
-  <si>
-    <t>Tells your EVERYTHING about your data.</t>
-  </si>
-  <si>
-    <t>A repostory of curated datasets for data science projects</t>
-  </si>
-  <si>
-    <t>Macine Learning Risk stratifcation - 3 different approaches</t>
-  </si>
-  <si>
     <t>A repository for digrams</t>
   </si>
   <si>
-    <t>Solution for Disease Progression Model</t>
-  </si>
-  <si>
-    <t>Solution for Email Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes sure all your computing resources are ready to perform complex workflows. </t>
-  </si>
-  <si>
-    <t>The epidemiology_methodology establishes a versatile data science methodology for epidemiology projects spanning various conditions or diseasesThe approach begins with comprehensive data collection, encompassing demographics, environmental factors, and relevant health metrics. Employing advanced statistical analyses and machine learning algorithms, the methodology aims to discern patterns, identify risk factors, and optimize predictive models, fostering a holistic understanding of the factors influencing the studied health outcomes.</t>
-  </si>
-  <si>
-    <t>Solution for File Discovery</t>
-  </si>
-  <si>
-    <t>Solution for File Manager</t>
-  </si>
-  <si>
-    <t>Solution for File Removal</t>
-  </si>
-  <si>
-    <t>Solution for File Watchdog</t>
-  </si>
-  <si>
-    <t>Solution for Form Validator</t>
-  </si>
-  <si>
-    <t>Git is a distributed version control system designed to track changes in source code during software development.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glossary of terms </t>
-  </si>
-  <si>
-    <t>A repository  for Happiness Datasets</t>
-  </si>
-  <si>
-    <t>Solution for High Risk High Need</t>
-  </si>
-  <si>
-    <t>Solution for Hugging Face Transformers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
   </si>
   <si>
-    <t>Solution for Incremental Imports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to the **Infrastructure Setup ** repository! This project demonstrates how to a establish an Infrastructure Directory to copy, maintain, and archive All of your work in progress. NEVER LOSE YOUR WORK IN PROGRESS AGAIN!!!! .Backs up and saves your work.  Moves files wherever you need them. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot instantly scrapes reads any corpus or dataset. Learns it and provides a conversation about it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot instantly scrapes reads any realtional datastore, excel spreadhseet and semantizes it. Uses NLP to for paragraphs and answer in naltural languiage.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot Assistant performs almost ANY task you can think of. This is your custom "Alexa" it opens mail, formats excel sheets, reads to you, tells jokes, and writes a swimming program for you.  Embedded ChatGPT 4. </t>
-  </si>
-  <si>
-    <t>Chatbot instantly scrapes your or anyone elses website. Learns it and provides a conversation about it. Use this to digitally engage your clients.</t>
-  </si>
-  <si>
-    <t>Solution for Kids Abc Book</t>
-  </si>
-  <si>
-    <t>Solution for Library Installer</t>
-  </si>
-  <si>
-    <t>Solution for Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
-  </si>
-  <si>
-    <t>Solution for Membership Matching</t>
-  </si>
-  <si>
-    <t>Solution for Notebook Clone</t>
+    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
+  </si>
+  <si>
+    <t>Define and classify diagnosis for all forms of cancer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epidemiology methodology for oncology </t>
   </si>
   <si>
     <t>A report on specific patients gaps in care</t>
   </si>
   <si>
-    <t xml:space="preserve">Epidemiology methodology for oncology </t>
-  </si>
-  <si>
-    <t>Define and classify diagnosis for all forms of cancer.</t>
-  </si>
-  <si>
-    <t>Solution for Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Solution for Penguins</t>
-  </si>
-  <si>
-    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
-  </si>
-  <si>
-    <t>Solution for Principal Component Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
-  </si>
-  <si>
-    <t>Solution for Progress Bar</t>
-  </si>
-  <si>
-    <t>Solution for Python Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.py library for easily using logging and debugging. </t>
-  </si>
-  <si>
-    <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
-  </si>
-  <si>
-    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
-  </si>
-  <si>
-    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
-  </si>
-  <si>
-    <t>Solution Registry - houses a list of solutions</t>
-  </si>
-  <si>
-    <t>sqlite_introduction provides an introduction to SQL lite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A library .py file for text to speech </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application for building sophisticated text to speech </t>
-  </si>
-  <si>
-    <t>Schedules tasks and executes runtimes</t>
-  </si>
-  <si>
-    <t>Provides general system information including CURRENT  memory / CPU usage</t>
-  </si>
-  <si>
-    <t>Solution for Unzip Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes sure the LATEST technology is used. </t>
-  </si>
-  <si>
-    <t>Solution for Web Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produces a wordcloud using the3 most relevant terminology using whatever cloud shape is supplied. </t>
-  </si>
-  <si>
-    <t>Solution for World Mood</t>
-  </si>
-  <si>
-    <t>This solution automates creating python script to run in windows task scheduler.</t>
-  </si>
-  <si>
-    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
-  </si>
-  <si>
-    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
-  </si>
-  <si>
-    <t>quantifying of side affects associated with major treatment modalities</t>
+    <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
+  </si>
+  <si>
+    <t>Machine learning with Taipy web GUI and tensorflow ML</t>
   </si>
   <si>
     <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
-  </si>
-  <si>
-    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
-  </si>
-  <si>
-    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
-  </si>
-  <si>
-    <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
-  </si>
-  <si>
-    <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
-  </si>
-  <si>
-    <t>multi_disciplinary_cancer_care_team</t>
-  </si>
-  <si>
-    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,21 +845,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -891,7 +889,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -925,7 +923,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -960,10 +957,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1136,21 +1132,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,1567 +1152,1908 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
+      <c r="C7">
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
+      <c r="C8">
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
+      <c r="C9">
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
+      <c r="C10">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
+      <c r="C11">
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
+      <c r="C12">
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
+      <c r="C13">
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
+      <c r="C14">
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
+      <c r="C15">
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
+      <c r="C16">
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
+      <c r="C17">
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>20</v>
+      <c r="C18">
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>21</v>
+      <c r="C19">
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>22</v>
+      <c r="C20">
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>23</v>
+      <c r="C21">
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>24</v>
+      <c r="C22">
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>25</v>
+      <c r="C23">
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>26</v>
+      <c r="C24">
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>27</v>
+      <c r="C25">
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>28</v>
+      <c r="C26">
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
-        <v>29</v>
+      <c r="C27">
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
-        <v>30</v>
+      <c r="C28">
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="F28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
-        <v>31</v>
+      <c r="C29">
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>32</v>
+      <c r="C30">
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>33</v>
+      <c r="C31">
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
-        <v>34</v>
+      <c r="C32">
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
-        <v>35</v>
+      <c r="C33">
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="F33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
-        <v>36</v>
+      <c r="C34">
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="F34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
-        <v>37</v>
+      <c r="C35">
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="F35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
-      <c r="C36" t="s">
-        <v>38</v>
+      <c r="C36">
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="F36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>39</v>
+      <c r="C37">
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
-        <v>40</v>
+      <c r="C38">
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
-        <v>41</v>
+      <c r="C39">
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="F39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
-        <v>42</v>
+      <c r="C40">
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="F40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
-        <v>43</v>
+      <c r="C41">
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="F41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>44</v>
+      <c r="C42">
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="F42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>45</v>
+      <c r="C43">
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="F43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
-        <v>46</v>
+      <c r="C44">
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="F44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
-        <v>47</v>
+      <c r="C45">
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="F45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
-        <v>48</v>
+      <c r="C46">
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="F46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
-      <c r="C47" t="s">
-        <v>49</v>
+      <c r="C47">
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="F47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
-        <v>50</v>
+      <c r="C48">
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="F48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
-        <v>51</v>
+      <c r="C49">
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="F49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
         <v>48</v>
       </c>
-      <c r="C50" t="s">
-        <v>52</v>
+      <c r="C50">
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="F50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
         <v>49</v>
       </c>
-      <c r="C51" t="s">
-        <v>53</v>
+      <c r="C51">
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="F51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
-        <v>54</v>
+      <c r="C52">
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
         <v>51</v>
       </c>
-      <c r="C53" t="s">
-        <v>55</v>
+      <c r="C53">
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="F53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
         <v>52</v>
       </c>
-      <c r="C54" t="s">
-        <v>56</v>
+      <c r="C54">
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="F54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
       <c r="B55">
         <v>53</v>
       </c>
-      <c r="C55" t="s">
-        <v>248</v>
+      <c r="C55">
+        <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>248</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="F55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>54</v>
       </c>
-      <c r="C56" t="s">
-        <v>57</v>
+      <c r="C56">
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="F56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
-        <v>58</v>
+      <c r="C57">
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="F57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>56</v>
       </c>
-      <c r="C58" t="s">
-        <v>59</v>
+      <c r="C58">
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="F58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>57</v>
       </c>
-      <c r="C59" t="s">
-        <v>60</v>
+      <c r="C59">
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="F59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>58</v>
       </c>
-      <c r="C60" t="s">
-        <v>61</v>
+      <c r="C60">
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="F60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>59</v>
       </c>
-      <c r="C61" t="s">
-        <v>62</v>
+      <c r="C61">
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="F61" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>60</v>
       </c>
-      <c r="C62" t="s">
-        <v>63</v>
+      <c r="C62">
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="F62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>61</v>
       </c>
-      <c r="C63" t="s">
-        <v>64</v>
+      <c r="C63">
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="F63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>62</v>
       </c>
-      <c r="C64" t="s">
-        <v>65</v>
+      <c r="C64">
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F64" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>63</v>
       </c>
-      <c r="C65" t="s">
-        <v>66</v>
+      <c r="C65">
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="F65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>64</v>
       </c>
-      <c r="C66" t="s">
-        <v>67</v>
+      <c r="C66">
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F66" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>65</v>
       </c>
-      <c r="C67" t="s">
-        <v>68</v>
+      <c r="C67">
+        <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>66</v>
       </c>
-      <c r="C68" t="s">
-        <v>69</v>
+      <c r="C68">
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>67</v>
       </c>
-      <c r="C69" t="s">
-        <v>70</v>
+      <c r="C69">
+        <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="F69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>68</v>
       </c>
-      <c r="C70" t="s">
-        <v>71</v>
+      <c r="C70">
+        <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="F70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>69</v>
       </c>
-      <c r="C71" t="s">
-        <v>72</v>
+      <c r="C71">
+        <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="E71" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="F71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>70</v>
       </c>
-      <c r="C72" t="s">
-        <v>73</v>
+      <c r="C72">
+        <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="F72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>71</v>
       </c>
-      <c r="C73" t="s">
-        <v>74</v>
+      <c r="C73">
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>71</v>
       </c>
       <c r="B74">
         <v>72</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74">
+        <v>71</v>
+      </c>
+      <c r="D74" t="s">
         <v>75</v>
       </c>
-      <c r="D74" t="s">
-        <v>155</v>
-      </c>
       <c r="E74" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>73</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
         <v>76</v>
       </c>
-      <c r="D75" t="s">
-        <v>156</v>
-      </c>
       <c r="E75" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="F75" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>74</v>
       </c>
-      <c r="C76" t="s">
-        <v>77</v>
+      <c r="C76">
+        <v>94</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="F76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>75</v>
       </c>
-      <c r="C77" t="s">
-        <v>78</v>
+      <c r="C77">
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="E77" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>76</v>
       </c>
-      <c r="C78" t="s">
-        <v>76</v>
+      <c r="C78">
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="E78" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>77</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79">
+        <v>76</v>
+      </c>
+      <c r="D79" t="s">
         <v>79</v>
       </c>
-      <c r="D79" t="s">
-        <v>158</v>
-      </c>
       <c r="E79" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="F79" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>78</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80">
+        <v>77</v>
+      </c>
+      <c r="D80" t="s">
         <v>80</v>
       </c>
-      <c r="D80" t="s">
-        <v>159</v>
-      </c>
       <c r="E80" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>79</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81">
+        <v>78</v>
+      </c>
+      <c r="D81" t="s">
         <v>81</v>
       </c>
-      <c r="D81" t="s">
-        <v>160</v>
-      </c>
       <c r="E81" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="F81" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>80</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82">
+        <v>79</v>
+      </c>
+      <c r="D82" t="s">
         <v>82</v>
       </c>
-      <c r="D82" t="s">
-        <v>161</v>
-      </c>
       <c r="E82" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="F82" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>81</v>
       </c>
-      <c r="C83" t="s">
-        <v>83</v>
+      <c r="C83">
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="F83" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>82</v>
       </c>
-      <c r="C84" t="s">
-        <v>84</v>
+      <c r="C84">
+        <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="F84" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>83</v>
       </c>
-      <c r="C85" t="s">
-        <v>84</v>
+      <c r="C85">
+        <v>81</v>
       </c>
       <c r="D85" t="s">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="F85" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>84</v>
       </c>
-      <c r="C86" t="s">
-        <v>85</v>
+      <c r="C86">
+        <v>82</v>
       </c>
       <c r="D86" t="s">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F86" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>85</v>
       </c>
-      <c r="C87" t="s">
-        <v>86</v>
+      <c r="C87">
+        <v>83</v>
       </c>
       <c r="D87" t="s">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="F87" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>86</v>
       </c>
-      <c r="C88" t="s">
-        <v>87</v>
+      <c r="C88">
+        <v>84</v>
       </c>
       <c r="D88" t="s">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="F88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>87</v>
       </c>
-      <c r="C89" t="s">
-        <v>88</v>
+      <c r="C89">
+        <v>85</v>
       </c>
       <c r="D89" t="s">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="F89" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>88</v>
       </c>
-      <c r="C90" t="s">
-        <v>89</v>
+      <c r="C90">
+        <v>86</v>
       </c>
       <c r="D90" t="s">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="F90" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>89</v>
       </c>
-      <c r="C91" t="s">
-        <v>90</v>
+      <c r="C91">
+        <v>87</v>
       </c>
       <c r="D91" t="s">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="F91" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>90</v>
       </c>
-      <c r="C92" t="s">
-        <v>91</v>
+      <c r="C92">
+        <v>88</v>
       </c>
       <c r="D92" t="s">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F92" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>91</v>
       </c>
-      <c r="C93" t="s">
-        <v>92</v>
+      <c r="C93">
+        <v>89</v>
       </c>
       <c r="D93" t="s">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>247</v>
+        <v>92</v>
+      </c>
+      <c r="F93" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <v>90</v>
+      </c>
+      <c r="D94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>93</v>
+      </c>
+      <c r="F94" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>91</v>
+      </c>
+      <c r="D95" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>94</v>
+      </c>
+      <c r="F95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>92</v>
+      </c>
+      <c r="D96" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>95</v>
+      </c>
+      <c r="F96" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3818D7-95C7-4937-9B1B-05406E5AEE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="257">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>solution_name</t>
   </si>
@@ -34,9 +43,33 @@
     <t>Automated Application Launcher</t>
   </si>
   <si>
+    <t>automating_windows_task_scheduler</t>
+  </si>
+  <si>
     <t>Calculator</t>
   </si>
   <si>
+    <t>cancer_care_timeline</t>
+  </si>
+  <si>
+    <t>cancer_classification</t>
+  </si>
+  <si>
+    <t>cancer_staging</t>
+  </si>
+  <si>
+    <t>cancer_survival_index</t>
+  </si>
+  <si>
+    <t>cancer_treatment_modalities</t>
+  </si>
+  <si>
+    <t>cancer_treatment_sequencing</t>
+  </si>
+  <si>
+    <t>cancer_treatment_side_effects</t>
+  </si>
+  <si>
     <t>Chat Gpt Integration</t>
   </si>
   <si>
@@ -52,9 +85,15 @@
     <t>Convert MS Access to New Technology</t>
   </si>
   <si>
+    <t>corpus_learning_chatbot</t>
+  </si>
+  <si>
     <t>Correlation Heatmap</t>
   </si>
   <si>
+    <t>create_solution</t>
+  </si>
+  <si>
     <t>Curated Datasets</t>
   </si>
   <si>
@@ -88,6 +127,9 @@
     <t>Diabetes Risk Stratification.</t>
   </si>
   <si>
+    <t>diagrams</t>
+  </si>
+  <si>
     <t>Disease Progression Model</t>
   </si>
   <si>
@@ -133,6 +175,9 @@
     <t>Hugging Face Transformers</t>
   </si>
   <si>
+    <t>icd_10_cm_analysis</t>
+  </si>
+  <si>
     <t>Incremental Imports</t>
   </si>
   <si>
@@ -151,66 +196,90 @@
     <t xml:space="preserve">Intelligent Chatbot Web Scrapping  </t>
   </si>
   <si>
+    <t>inventory_your_python</t>
+  </si>
+  <si>
     <t>Kids Abc Book</t>
   </si>
   <si>
     <t>Library Installer</t>
   </si>
   <si>
+    <t>Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Managing Personas</t>
+  </si>
+  <si>
+    <t>Membership Matching</t>
+  </si>
+  <si>
+    <t>multi_disciplinary_cancer_care_team</t>
+  </si>
+  <si>
+    <t>Notebook Clone</t>
+  </si>
+  <si>
+    <t>oncology_diagnostic_coding</t>
+  </si>
+  <si>
+    <t>oncology_epidemiology</t>
+  </si>
+  <si>
+    <t>patient_cancer_risk_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Complexity Index </t>
+  </si>
+  <si>
+    <t>patient_gaps_in_care</t>
+  </si>
+  <si>
+    <t>Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
+  </si>
+  <si>
+    <t>Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Progress Bar</t>
+  </si>
+  <si>
+    <t>Python Foundation</t>
+  </si>
+  <si>
+    <t>quality_of_life_index</t>
+  </si>
+  <si>
     <t>Library for Logging And Debugging</t>
   </si>
   <si>
-    <t>Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Managing Personas</t>
-  </si>
-  <si>
-    <t>Membership Matching</t>
-  </si>
-  <si>
-    <t>Notebook Clone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient Complexity Index </t>
-  </si>
-  <si>
-    <t>Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
-  </si>
-  <si>
-    <t>Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Progress Bar</t>
-  </si>
-  <si>
-    <t>Python Foundation</t>
-  </si>
-  <si>
     <t>Remote Process Automation Excel</t>
   </si>
   <si>
+    <t>Simple Chatbot Simple Nlp Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Registry </t>
+  </si>
+  <si>
+    <t>Solution Template</t>
+  </si>
+  <si>
     <t>SQLite Introduction</t>
   </si>
   <si>
-    <t>Simple Chatbot Simple Nlp Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Registry </t>
-  </si>
-  <si>
-    <t>Solution Template</t>
-  </si>
-  <si>
     <t>System Information</t>
   </si>
   <si>
+    <t>taipy_web_gui</t>
+  </si>
+  <si>
     <t>Talking Code</t>
   </si>
   <si>
@@ -220,6 +289,12 @@
     <t>Task Scheduling</t>
   </si>
   <si>
+    <t>term_frequency_inverse_document_frequency</t>
+  </si>
+  <si>
+    <t>titanic_survival_analysis</t>
+  </si>
+  <si>
     <t>Unzip Automation</t>
   </si>
   <si>
@@ -235,72 +310,6 @@
     <t>World Mood</t>
   </si>
   <si>
-    <t>automating_windows_task_scheduler</t>
-  </si>
-  <si>
-    <t>cancer_care_timeline</t>
-  </si>
-  <si>
-    <t>cancer_classification</t>
-  </si>
-  <si>
-    <t>cancer_staging</t>
-  </si>
-  <si>
-    <t>cancer_survival_index</t>
-  </si>
-  <si>
-    <t>cancer_treatment_modalities</t>
-  </si>
-  <si>
-    <t>cancer_treatment_sequencing</t>
-  </si>
-  <si>
-    <t>cancer_treatment_side_effects</t>
-  </si>
-  <si>
-    <t>corpus_learning_chatbot</t>
-  </si>
-  <si>
-    <t>create_solution</t>
-  </si>
-  <si>
-    <t>diagrams</t>
-  </si>
-  <si>
-    <t>icd_10_cm_analysis</t>
-  </si>
-  <si>
-    <t>inventory_your_python</t>
-  </si>
-  <si>
-    <t>multi_disciplinary_cancer_care_team</t>
-  </si>
-  <si>
-    <t>oncology_diagnostic_coding</t>
-  </si>
-  <si>
-    <t>oncology_epidemiology</t>
-  </si>
-  <si>
-    <t>patient_cancer_risk_index</t>
-  </si>
-  <si>
-    <t>patient_gaps_in_care</t>
-  </si>
-  <si>
-    <t>quality_of_life_index</t>
-  </si>
-  <si>
-    <t>taipy_web_gui</t>
-  </si>
-  <si>
-    <t>term_frequency_inverse_document_frequency</t>
-  </si>
-  <si>
-    <t>titanic_survival_analysis</t>
-  </si>
-  <si>
     <t>ai_prompt_response_generator</t>
   </si>
   <si>
@@ -433,57 +442,57 @@
     <t>library_installer</t>
   </si>
   <si>
+    <t>logging_and_debugging</t>
+  </si>
+  <si>
+    <t>managing_personas</t>
+  </si>
+  <si>
+    <t>membership_matching</t>
+  </si>
+  <si>
+    <t>notebook_clone</t>
+  </si>
+  <si>
+    <t>patient_complexity_index</t>
+  </si>
+  <si>
+    <t>patient_word_cloud</t>
+  </si>
+  <si>
+    <t>penguins</t>
+  </si>
+  <si>
+    <t>poor_emotional_regulatory_control</t>
+  </si>
+  <si>
+    <t>principal_component_analysis</t>
+  </si>
+  <si>
+    <t>progress_bar</t>
+  </si>
+  <si>
+    <t>python_foundation</t>
+  </si>
+  <si>
     <t>quicklogging</t>
   </si>
   <si>
-    <t>logging_and_debugging</t>
-  </si>
-  <si>
-    <t>managing_personas</t>
-  </si>
-  <si>
-    <t>membership_matching</t>
-  </si>
-  <si>
-    <t>notebook_clone</t>
-  </si>
-  <si>
-    <t>patient_complexity_index</t>
-  </si>
-  <si>
-    <t>patient_word_cloud</t>
-  </si>
-  <si>
-    <t>penguins</t>
-  </si>
-  <si>
-    <t>poor_emotional_regulatory_control</t>
-  </si>
-  <si>
-    <t>principal_component_analysis</t>
-  </si>
-  <si>
-    <t>progress_bar</t>
-  </si>
-  <si>
-    <t>python_foundation</t>
-  </si>
-  <si>
     <t>remote_process_automation_excel</t>
   </si>
   <si>
+    <t>simple_chatbot_simple_nlp_response</t>
+  </si>
+  <si>
+    <t>solution_registry</t>
+  </si>
+  <si>
+    <t>solution_template</t>
+  </si>
+  <si>
     <t>sqlite_introduction</t>
   </si>
   <si>
-    <t>simple_chatbot_simple_nlp_response</t>
-  </si>
-  <si>
-    <t>solution_registry</t>
-  </si>
-  <si>
-    <t>solution_template</t>
-  </si>
-  <si>
     <t>system_information</t>
   </si>
   <si>
@@ -520,9 +529,36 @@
     <t>Solution for Automated Application Launcher</t>
   </si>
   <si>
+    <t>This solution automates creating python script to run in windows task scheduler.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
   </si>
   <si>
+    <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
+    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
+  </si>
+  <si>
+    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
+  </si>
+  <si>
+    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
+  </si>
+  <si>
+    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
+  </si>
+  <si>
+    <t>quantifying of side affects associated with major treatment modalities</t>
+  </si>
+  <si>
     <t>Solution for Chat Gpt Integration</t>
   </si>
   <si>
@@ -538,9 +574,15 @@
     <t xml:space="preserve">Soltuion for converting MS access into a new technology stack. </t>
   </si>
   <si>
+    <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
+  </si>
+  <si>
     <t>Solution for Correlation Heatmap</t>
   </si>
   <si>
+    <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
+  </si>
+  <si>
     <t>Solution for Curated Datasets</t>
   </si>
   <si>
@@ -571,6 +613,9 @@
     <t>Macine Learning Risk stratifcation - 3 different approaches</t>
   </si>
   <si>
+    <t>A repository for digrams</t>
+  </si>
+  <si>
     <t>Solution for Disease Progression Model</t>
   </si>
   <si>
@@ -613,6 +658,9 @@
     <t>Solution for Hugging Face Transformers</t>
   </si>
   <si>
+    <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
+  </si>
+  <si>
     <t>Solution for Incremental Imports</t>
   </si>
   <si>
@@ -637,60 +685,81 @@
     <t>Solution for Library Installer</t>
   </si>
   <si>
+    <t>Solution for Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
+  </si>
+  <si>
+    <t>Solution for Membership Matching</t>
+  </si>
+  <si>
+    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
+  </si>
+  <si>
+    <t>Solution for Notebook Clone</t>
+  </si>
+  <si>
+    <t>Define and classify diagnosis for all forms of cancer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epidemiology methodology for oncology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution for calculating  patients lieklihood to develop cancer within the next year. </t>
+  </si>
+  <si>
+    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
+  </si>
+  <si>
+    <t>A report on specific patients gaps in care</t>
+  </si>
+  <si>
+    <t>Solution for Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Solution for Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
+  </si>
+  <si>
+    <t>Solution for Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Solution for Progress Bar</t>
+  </si>
+  <si>
+    <t>Solution for Python Foundation</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
+  </si>
+  <si>
     <t xml:space="preserve">.py library for easily using logging and debugging. </t>
   </si>
   <si>
-    <t>Solution for Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
-  </si>
-  <si>
-    <t>Solution for Membership Matching</t>
-  </si>
-  <si>
-    <t>Solution for Notebook Clone</t>
-  </si>
-  <si>
-    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
-  </si>
-  <si>
-    <t>Solution for Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Solution for Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
-  </si>
-  <si>
-    <t>Solution for Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Solution for Progress Bar</t>
-  </si>
-  <si>
-    <t>Solution for Python Foundation</t>
-  </si>
-  <si>
     <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
   </si>
   <si>
+    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
+  </si>
+  <si>
+    <t>Solution Registry - houses a list of solutions</t>
+  </si>
+  <si>
+    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
+  </si>
+  <si>
     <t>sqlite_introduction provides an introduction to SQL lite</t>
   </si>
   <si>
-    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
-  </si>
-  <si>
-    <t>Solution Registry - houses a list of solutions</t>
-  </si>
-  <si>
-    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
-  </si>
-  <si>
     <t>Provides general system information including CURRENT  memory / CPU usage</t>
   </si>
   <si>
+    <t>Machine learning with Taipy web GUI and tensorflow ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">Application for building sophisticated text to speech </t>
   </si>
   <si>
@@ -700,6 +769,9 @@
     <t>Schedules tasks and executes runtimes</t>
   </si>
   <si>
+    <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
+  </si>
+  <si>
     <t>Solution for Unzip Automation</t>
   </si>
   <si>
@@ -715,74 +787,17 @@
     <t>Solution for World Mood</t>
   </si>
   <si>
-    <t>This solution automates creating python script to run in windows task scheduler.</t>
-  </si>
-  <si>
-    <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
-  </si>
-  <si>
-    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
-  </si>
-  <si>
-    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
-  </si>
-  <si>
-    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
-  </si>
-  <si>
-    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
-  </si>
-  <si>
-    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
-  </si>
-  <si>
-    <t>quantifying of side affects associated with major treatment modalities</t>
-  </si>
-  <si>
-    <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
-  </si>
-  <si>
-    <t>A repository for digrams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
-  </si>
-  <si>
-    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
-  </si>
-  <si>
-    <t>Define and classify diagnosis for all forms of cancer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epidemiology methodology for oncology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for calculating  patients lieklihood to develop cancer within the next year. </t>
-  </si>
-  <si>
-    <t>A report on specific patients gaps in care</t>
-  </si>
-  <si>
-    <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
-  </si>
-  <si>
-    <t>Machine learning with Taipy web GUI and tensorflow ML</t>
-  </si>
-  <si>
-    <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
+    <t>predicting_lung_cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using machine learning to predict lung cancer. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,13 +860,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -889,7 +912,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -923,6 +946,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -957,9 +981,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1132,1105 +1157,1115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>16</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>17</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>18</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>19</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>21</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>23</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>24</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>25</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>26</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>27</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>35</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>36</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>37</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>38</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>39</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>40</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>41</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>42</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>43</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>44</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>45</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>48</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>49</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>51</v>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>52</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>53</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>54</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>55</v>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>56</v>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>58</v>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
-        <v>59</v>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
-        <v>77</v>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>60</v>
       </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
         <v>140</v>
       </c>
-      <c r="D47" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
+      <c r="D62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
         <v>141</v>
       </c>
-      <c r="D48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1">
+      <c r="D63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
         <v>142</v>
       </c>
-      <c r="D49" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1">
+      <c r="D64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>64</v>
       </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
         <v>143</v>
       </c>
-      <c r="D50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
+      <c r="D66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>68</v>
       </c>
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
         <v>144</v>
       </c>
-      <c r="D51" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
+      <c r="D70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>70</v>
       </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
         <v>145</v>
       </c>
-      <c r="D52" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1">
+      <c r="D72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>71</v>
       </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
         <v>146</v>
       </c>
-      <c r="D53" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
+      <c r="D73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>72</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
-        <v>73</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1">
-        <v>74</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1">
-        <v>75</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
-        <v>78</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1">
-        <v>82</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1">
-        <v>79</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1">
-        <v>80</v>
-      </c>
-      <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1">
-        <v>81</v>
-      </c>
-      <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1">
-        <v>83</v>
-      </c>
-      <c r="B63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1">
-        <v>85</v>
-      </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
-        <v>86</v>
-      </c>
-      <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
-        <v>87</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
-        <v>88</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
-        <v>91</v>
-      </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="s">
-        <v>160</v>
-      </c>
-      <c r="D68" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
-        <v>92</v>
-      </c>
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
-        <v>93</v>
-      </c>
-      <c r="B70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
-        <v>94</v>
-      </c>
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" t="s">
-        <v>163</v>
-      </c>
-      <c r="D71" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
-        <v>95</v>
-      </c>
-      <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" t="s">
-        <v>164</v>
-      </c>
-      <c r="D72" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
-        <v>3</v>
-      </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
-        <v>4</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="D74" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
-        <v>6</v>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
-        <v>7</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>8</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
-        <v>9</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
-        <v>10</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
@@ -2239,180 +2274,180 @@
         <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
-        <v>11</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
-        <v>12</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="D81" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
-        <v>14</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1">
-        <v>13</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="D83" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1">
-        <v>20</v>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="D84" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1">
-        <v>22</v>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="D85" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1">
-        <v>34</v>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="D86" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1">
-        <v>50</v>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1">
-        <v>57</v>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1">
-        <v>63</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1">
-        <v>65</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="D90" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1">
-        <v>66</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D91" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="1">
-        <v>67</v>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>89</v>
@@ -2424,9 +2459,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="1">
-        <v>69</v>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>90</v>
@@ -2435,63 +2470,77 @@
         <v>90</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="1">
-        <v>76</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="1">
-        <v>84</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="D95" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="1">
-        <v>89</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="D96" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1">
-        <v>90</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>94</v>
       </c>
       <c r="C97" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="D97" t="s">
-        <v>94</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="258">
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1142,13 +1145,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,1654 +1164,1948 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="C5">
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
+      <c r="C6">
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
+      <c r="C7">
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
+      <c r="C8">
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
+      <c r="C9">
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
+      <c r="C10">
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
+      <c r="C11">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
+      <c r="C12">
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
+      <c r="C13">
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
+      <c r="C14">
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
+      <c r="C15">
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
+      <c r="C16">
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
+      <c r="C17">
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>20</v>
+      <c r="C18">
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>114</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>21</v>
+      <c r="C19">
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
-        <v>22</v>
+      <c r="C20">
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
-        <v>23</v>
+      <c r="C21">
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
-        <v>24</v>
+      <c r="C22">
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
-        <v>25</v>
+      <c r="C23">
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>119</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>26</v>
+      <c r="C24">
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
-        <v>27</v>
+      <c r="C25">
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>38</v>
       </c>
-      <c r="C26" t="s">
-        <v>28</v>
+      <c r="C26">
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
-        <v>29</v>
+      <c r="C27">
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="F27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
-        <v>30</v>
+      <c r="C28">
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>41</v>
       </c>
-      <c r="C29" t="s">
-        <v>31</v>
+      <c r="C29">
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>42</v>
       </c>
-      <c r="C30" t="s">
-        <v>32</v>
+      <c r="C30">
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>43</v>
       </c>
-      <c r="C31" t="s">
-        <v>33</v>
+      <c r="C31">
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>44</v>
       </c>
-      <c r="C32" t="s">
-        <v>34</v>
+      <c r="C32">
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
-        <v>35</v>
+      <c r="C33">
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>46</v>
       </c>
-      <c r="C34" t="s">
-        <v>36</v>
+      <c r="C34">
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>47</v>
       </c>
-      <c r="C35" t="s">
-        <v>37</v>
+      <c r="C35">
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="F35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>48</v>
       </c>
-      <c r="C36" t="s">
-        <v>38</v>
+      <c r="C36">
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>49</v>
       </c>
-      <c r="C37" t="s">
-        <v>39</v>
+      <c r="C37">
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>133</v>
+      </c>
+      <c r="F37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>51</v>
       </c>
-      <c r="C38" t="s">
-        <v>40</v>
+      <c r="C38">
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>134</v>
+      </c>
+      <c r="F38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>52</v>
       </c>
-      <c r="C39" t="s">
-        <v>41</v>
+      <c r="C39">
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>53</v>
       </c>
-      <c r="C40" t="s">
-        <v>42</v>
+      <c r="C40">
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>54</v>
       </c>
-      <c r="C41" t="s">
-        <v>43</v>
+      <c r="C41">
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>137</v>
+      </c>
+      <c r="F41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>55</v>
       </c>
-      <c r="C42" t="s">
-        <v>44</v>
+      <c r="C42">
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>56</v>
       </c>
-      <c r="C43" t="s">
-        <v>45</v>
+      <c r="C43">
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>139</v>
+      </c>
+      <c r="F43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>58</v>
       </c>
-      <c r="C44" t="s">
-        <v>46</v>
+      <c r="C44">
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>140</v>
+      </c>
+      <c r="F44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>59</v>
       </c>
-      <c r="C45" t="s">
-        <v>47</v>
+      <c r="C45">
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>78</v>
       </c>
-      <c r="C46" t="s">
-        <v>48</v>
+      <c r="C46">
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>142</v>
+      </c>
+      <c r="F46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>60</v>
       </c>
-      <c r="C47" t="s">
-        <v>49</v>
+      <c r="C47">
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>61</v>
       </c>
-      <c r="C48" t="s">
-        <v>50</v>
+      <c r="C48">
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>144</v>
+      </c>
+      <c r="F48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>62</v>
       </c>
-      <c r="C49" t="s">
-        <v>51</v>
+      <c r="C49">
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>145</v>
+      </c>
+      <c r="F49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>64</v>
       </c>
-      <c r="C50" t="s">
-        <v>52</v>
+      <c r="C50">
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>146</v>
+      </c>
+      <c r="F50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>68</v>
       </c>
-      <c r="C51" t="s">
-        <v>53</v>
+      <c r="C51">
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="F51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>70</v>
       </c>
-      <c r="C52" t="s">
-        <v>54</v>
+      <c r="C52">
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="F52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>71</v>
       </c>
-      <c r="C53" t="s">
-        <v>55</v>
+      <c r="C53">
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="F53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>72</v>
       </c>
-      <c r="C54" t="s">
-        <v>56</v>
+      <c r="C54">
+        <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="F54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>74</v>
       </c>
-      <c r="C55" t="s">
-        <v>57</v>
+      <c r="C55">
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>151</v>
+      </c>
+      <c r="F55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>75</v>
       </c>
-      <c r="C56" t="s">
-        <v>58</v>
+      <c r="C56">
+        <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>152</v>
+      </c>
+      <c r="F56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>76</v>
       </c>
-      <c r="C57" t="s">
-        <v>59</v>
+      <c r="C57">
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>153</v>
+      </c>
+      <c r="F57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>79</v>
       </c>
-      <c r="C58" t="s">
-        <v>60</v>
+      <c r="C58">
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>154</v>
+      </c>
+      <c r="F58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>83</v>
       </c>
-      <c r="C59" t="s">
-        <v>61</v>
+      <c r="C59">
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>155</v>
+      </c>
+      <c r="F59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>80</v>
       </c>
-      <c r="C60" t="s">
-        <v>62</v>
+      <c r="C60">
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>156</v>
+      </c>
+      <c r="F60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>81</v>
       </c>
-      <c r="C61" t="s">
-        <v>63</v>
+      <c r="C61">
+        <v>81</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="F61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>82</v>
       </c>
-      <c r="C62" t="s">
-        <v>64</v>
+      <c r="C62">
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="F62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>84</v>
       </c>
-      <c r="C63" t="s">
-        <v>65</v>
+      <c r="C63">
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>159</v>
+      </c>
+      <c r="F63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>86</v>
       </c>
-      <c r="C64" t="s">
-        <v>66</v>
+      <c r="C64">
+        <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="F64" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>87</v>
       </c>
-      <c r="C65" t="s">
-        <v>67</v>
+      <c r="C65">
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>161</v>
+      </c>
+      <c r="F65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>89</v>
       </c>
-      <c r="C66" t="s">
-        <v>68</v>
+      <c r="C66">
+        <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>162</v>
+      </c>
+      <c r="F66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>88</v>
       </c>
-      <c r="C67" t="s">
-        <v>68</v>
+      <c r="C67">
+        <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>162</v>
+      </c>
+      <c r="F67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>92</v>
       </c>
-      <c r="C68" t="s">
-        <v>69</v>
+      <c r="C68">
+        <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>163</v>
+      </c>
+      <c r="F68" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>93</v>
       </c>
-      <c r="C69" t="s">
-        <v>70</v>
+      <c r="C69">
+        <v>93</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>164</v>
+      </c>
+      <c r="F69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>94</v>
       </c>
-      <c r="C70" t="s">
-        <v>71</v>
+      <c r="C70">
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>165</v>
+      </c>
+      <c r="F70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>95</v>
       </c>
-      <c r="C71" t="s">
-        <v>72</v>
+      <c r="C71">
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="E71" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>166</v>
+      </c>
+      <c r="F71" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>96</v>
       </c>
-      <c r="C72" t="s">
-        <v>73</v>
+      <c r="C72">
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>167</v>
+      </c>
+      <c r="F72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-      <c r="C73" t="s">
-        <v>74</v>
+      <c r="C73">
+        <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>4</v>
       </c>
-      <c r="C74" t="s">
-        <v>74</v>
+      <c r="C74">
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
-      <c r="C75" t="s">
-        <v>75</v>
+      <c r="C75">
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>7</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" t="s">
+        <v>76</v>
+      </c>
+      <c r="F76" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
         <v>75</v>
-      </c>
-      <c r="D76" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>8</v>
       </c>
       <c r="B77">
         <v>8</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
         <v>76</v>
-      </c>
-      <c r="D77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
-        <v>9</v>
       </c>
       <c r="B78">
         <v>9</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
         <v>77</v>
-      </c>
-      <c r="D78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>10</v>
       </c>
       <c r="B79">
         <v>10</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
         <v>78</v>
-      </c>
-      <c r="D79" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>11</v>
       </c>
       <c r="B80">
         <v>11</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>80</v>
+      </c>
+      <c r="E80" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
         <v>79</v>
-      </c>
-      <c r="D80" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>12</v>
       </c>
       <c r="B81">
         <v>12</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="D81" t="s">
-        <v>80</v>
-      </c>
-      <c r="E81" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
+      <c r="B82">
         <v>13</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>14</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="D82" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
+      <c r="B83">
         <v>14</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>13</v>
       </c>
-      <c r="C83" t="s">
-        <v>81</v>
-      </c>
       <c r="D83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>82</v>
+      </c>
+      <c r="F83" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>20</v>
       </c>
-      <c r="C84" t="s">
-        <v>82</v>
+      <c r="C84">
+        <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>83</v>
+      </c>
+      <c r="F84" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>22</v>
       </c>
-      <c r="C85" t="s">
-        <v>83</v>
+      <c r="C85">
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="F85" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>34</v>
       </c>
-      <c r="C86" t="s">
-        <v>84</v>
+      <c r="C86">
+        <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>85</v>
+      </c>
+      <c r="F86" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>50</v>
       </c>
-      <c r="C87" t="s">
-        <v>85</v>
+      <c r="C87">
+        <v>50</v>
       </c>
       <c r="D87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>86</v>
+      </c>
+      <c r="F87" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>57</v>
       </c>
-      <c r="C88" t="s">
-        <v>86</v>
+      <c r="C88">
+        <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="F88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>63</v>
       </c>
-      <c r="C89" t="s">
-        <v>87</v>
+      <c r="C89">
+        <v>63</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="F89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>65</v>
       </c>
-      <c r="C90" t="s">
-        <v>88</v>
+      <c r="C90">
+        <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="F90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>66</v>
       </c>
-      <c r="C91" t="s">
-        <v>89</v>
+      <c r="C91">
+        <v>66</v>
       </c>
       <c r="D91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="F91" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>67</v>
       </c>
-      <c r="C92" t="s">
-        <v>90</v>
+      <c r="C92">
+        <v>67</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F92" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>69</v>
       </c>
-      <c r="C93" t="s">
-        <v>91</v>
+      <c r="C93">
+        <v>69</v>
       </c>
       <c r="D93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>92</v>
+      </c>
+      <c r="F93" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>73</v>
       </c>
-      <c r="C94" t="s">
-        <v>92</v>
+      <c r="C94">
+        <v>73</v>
       </c>
       <c r="D94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="F94" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>77</v>
       </c>
-      <c r="C95" t="s">
-        <v>93</v>
+      <c r="C95">
+        <v>77</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>94</v>
+      </c>
+      <c r="F95" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>85</v>
       </c>
-      <c r="C96" t="s">
-        <v>94</v>
+      <c r="C96">
+        <v>85</v>
       </c>
       <c r="D96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>95</v>
+      </c>
+      <c r="F96" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>90</v>
       </c>
-      <c r="C97" t="s">
-        <v>95</v>
+      <c r="C97">
+        <v>90</v>
       </c>
       <c r="D97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="F97" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>91</v>
       </c>
-      <c r="C98" t="s">
-        <v>96</v>
+      <c r="C98">
+        <v>91</v>
       </c>
       <c r="D98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="F98" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D3E93C-5128-4621-A1FB-6013654C69B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="258">
   <si>
     <t>solution_name</t>
   </si>
@@ -40,9 +34,33 @@
     <t>Automated Application Launcher</t>
   </si>
   <si>
+    <t>automating_windows_task_scheduler</t>
+  </si>
+  <si>
     <t>Calculator</t>
   </si>
   <si>
+    <t>cancer_care_timeline</t>
+  </si>
+  <si>
+    <t>cancer_classification</t>
+  </si>
+  <si>
+    <t>cancer_staging</t>
+  </si>
+  <si>
+    <t>cancer_survival_index</t>
+  </si>
+  <si>
+    <t>cancer_treatment_modalities</t>
+  </si>
+  <si>
+    <t>cancer_treatment_sequencing</t>
+  </si>
+  <si>
+    <t>cancer_treatment_side_effects</t>
+  </si>
+  <si>
     <t>Chat Gpt Integration</t>
   </si>
   <si>
@@ -58,9 +76,15 @@
     <t>Convert MS Access to New Technology</t>
   </si>
   <si>
+    <t>corpus_learning_chatbot</t>
+  </si>
+  <si>
     <t>Correlation Heatmap</t>
   </si>
   <si>
+    <t>create_solution</t>
+  </si>
+  <si>
     <t>Curated Datasets</t>
   </si>
   <si>
@@ -94,6 +118,9 @@
     <t>Diabetes Risk Stratification.</t>
   </si>
   <si>
+    <t>diagrams</t>
+  </si>
+  <si>
     <t>Disease Progression Model</t>
   </si>
   <si>
@@ -139,6 +166,9 @@
     <t>Hugging Face Transformers</t>
   </si>
   <si>
+    <t>icd_10_cm_analysis</t>
+  </si>
+  <si>
     <t>Incremental Imports</t>
   </si>
   <si>
@@ -157,66 +187,96 @@
     <t xml:space="preserve">Intelligent Chatbot Web Scrapping  </t>
   </si>
   <si>
+    <t>inventory_your_python</t>
+  </si>
+  <si>
     <t>Kids Abc Book</t>
   </si>
   <si>
     <t>Library Installer</t>
   </si>
   <si>
+    <t>Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Managing Personas</t>
+  </si>
+  <si>
+    <t>Membership Matching</t>
+  </si>
+  <si>
+    <t>multi_disciplinary_cancer_care_team</t>
+  </si>
+  <si>
+    <t>Notebook Clone</t>
+  </si>
+  <si>
+    <t>oncology_diagnostic_coding</t>
+  </si>
+  <si>
+    <t>oncology_epidemiology</t>
+  </si>
+  <si>
+    <t>patient_cancer_risk_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Complexity Index </t>
+  </si>
+  <si>
+    <t>patient_gaps_in_care</t>
+  </si>
+  <si>
+    <t>Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
+  </si>
+  <si>
+    <t>predicting_lung_cancer</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Progress Bar</t>
+  </si>
+  <si>
+    <t>Python Foundation</t>
+  </si>
+  <si>
+    <t>quality_of_life_index</t>
+  </si>
+  <si>
     <t>Library for Logging And Debugging</t>
   </si>
   <si>
-    <t>Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Managing Personas</t>
-  </si>
-  <si>
-    <t>Membership Matching</t>
-  </si>
-  <si>
-    <t>Notebook Clone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient Complexity Index </t>
-  </si>
-  <si>
-    <t>Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
-  </si>
-  <si>
-    <t>Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Progress Bar</t>
-  </si>
-  <si>
-    <t>Python Foundation</t>
+    <t>Reference Data Sets</t>
   </si>
   <si>
     <t>Remote Process Automation Excel</t>
   </si>
   <si>
+    <t>Simple Chatbot Simple Nlp Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Registry </t>
+  </si>
+  <si>
+    <t>Solution Template</t>
+  </si>
+  <si>
     <t>SQLite Introduction</t>
   </si>
   <si>
-    <t>Simple Chatbot Simple Nlp Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Registry </t>
-  </si>
-  <si>
-    <t>Solution Template</t>
-  </si>
-  <si>
     <t>System Information</t>
   </si>
   <si>
+    <t>taipy_web_gui</t>
+  </si>
+  <si>
     <t>Talking Code</t>
   </si>
   <si>
@@ -226,6 +286,12 @@
     <t>Task Scheduling</t>
   </si>
   <si>
+    <t>term_frequency_inverse_document_frequency</t>
+  </si>
+  <si>
+    <t>titanic_survival_analysis</t>
+  </si>
+  <si>
     <t>Unzip Automation</t>
   </si>
   <si>
@@ -241,75 +307,6 @@
     <t>World Mood</t>
   </si>
   <si>
-    <t>automating_windows_task_scheduler</t>
-  </si>
-  <si>
-    <t>cancer_care_timeline</t>
-  </si>
-  <si>
-    <t>cancer_classification</t>
-  </si>
-  <si>
-    <t>cancer_staging</t>
-  </si>
-  <si>
-    <t>cancer_survival_index</t>
-  </si>
-  <si>
-    <t>cancer_treatment_modalities</t>
-  </si>
-  <si>
-    <t>cancer_treatment_sequencing</t>
-  </si>
-  <si>
-    <t>cancer_treatment_side_effects</t>
-  </si>
-  <si>
-    <t>corpus_learning_chatbot</t>
-  </si>
-  <si>
-    <t>create_solution</t>
-  </si>
-  <si>
-    <t>diagrams</t>
-  </si>
-  <si>
-    <t>icd_10_cm_analysis</t>
-  </si>
-  <si>
-    <t>inventory_your_python</t>
-  </si>
-  <si>
-    <t>multi_disciplinary_cancer_care_team</t>
-  </si>
-  <si>
-    <t>oncology_diagnostic_coding</t>
-  </si>
-  <si>
-    <t>oncology_epidemiology</t>
-  </si>
-  <si>
-    <t>patient_cancer_risk_index</t>
-  </si>
-  <si>
-    <t>patient_gaps_in_care</t>
-  </si>
-  <si>
-    <t>predicting_lung_cancer</t>
-  </si>
-  <si>
-    <t>quality_of_life_index</t>
-  </si>
-  <si>
-    <t>taipy_web_gui</t>
-  </si>
-  <si>
-    <t>term_frequency_inverse_document_frequency</t>
-  </si>
-  <si>
-    <t>titanic_survival_analysis</t>
-  </si>
-  <si>
     <t>ai_prompt_response_generator</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>library_installer</t>
   </si>
   <si>
-    <t>quicklogging</t>
-  </si>
-  <si>
     <t>logging_and_debugging</t>
   </si>
   <si>
@@ -478,21 +472,27 @@
     <t>python_foundation</t>
   </si>
   <si>
+    <t>quicklogger</t>
+  </si>
+  <si>
+    <t>reference_datasets</t>
+  </si>
+  <si>
     <t>remote_process_automation_excel</t>
   </si>
   <si>
+    <t>simple_chatbot_simple_nlp_response</t>
+  </si>
+  <si>
+    <t>solution_registry</t>
+  </si>
+  <si>
+    <t>solution_template</t>
+  </si>
+  <si>
     <t>sqlite_introduction</t>
   </si>
   <si>
-    <t>simple_chatbot_simple_nlp_response</t>
-  </si>
-  <si>
-    <t>solution_registry</t>
-  </si>
-  <si>
-    <t>solution_template</t>
-  </si>
-  <si>
     <t>system_information</t>
   </si>
   <si>
@@ -529,9 +529,33 @@
     <t>Solution for Automated Application Launcher</t>
   </si>
   <si>
+    <t>This solution automates creating python script to run in windows task scheduler.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
   </si>
   <si>
+    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
+  </si>
+  <si>
+    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
+  </si>
+  <si>
+    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
+  </si>
+  <si>
+    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
+  </si>
+  <si>
+    <t>quantifying of side affects associated with major treatment modalities</t>
+  </si>
+  <si>
     <t>Solution for Chat Gpt Integration</t>
   </si>
   <si>
@@ -547,9 +571,15 @@
     <t xml:space="preserve">Soltuion for converting MS access into a new technology stack. </t>
   </si>
   <si>
+    <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
+  </si>
+  <si>
     <t>Solution for Correlation Heatmap</t>
   </si>
   <si>
+    <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
+  </si>
+  <si>
     <t>Solution for Curated Datasets</t>
   </si>
   <si>
@@ -580,6 +610,9 @@
     <t>Macine Learning Risk stratifcation - 3 different approaches</t>
   </si>
   <si>
+    <t>A repository for digrams</t>
+  </si>
+  <si>
     <t>Solution for Disease Progression Model</t>
   </si>
   <si>
@@ -622,6 +655,9 @@
     <t>Solution for Hugging Face Transformers</t>
   </si>
   <si>
+    <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
+  </si>
+  <si>
     <t>Solution for Incremental Imports</t>
   </si>
   <si>
@@ -646,60 +682,87 @@
     <t>Solution for Library Installer</t>
   </si>
   <si>
+    <t>Solution for Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
+  </si>
+  <si>
+    <t>Solution for Membership Matching</t>
+  </si>
+  <si>
+    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
+  </si>
+  <si>
+    <t>Solution for Notebook Clone</t>
+  </si>
+  <si>
+    <t>Define and classify diagnosis for all forms of cancer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epidemiology methodology for oncology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution for calculating  patients lieklihood to develop cancer within the next year. </t>
+  </si>
+  <si>
+    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
+  </si>
+  <si>
+    <t>A report on specific patients gaps in care</t>
+  </si>
+  <si>
+    <t>Solution for Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Solution for Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using machine learning to predict lung cancer. </t>
+  </si>
+  <si>
+    <t>Solution for Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Solution for Progress Bar</t>
+  </si>
+  <si>
+    <t>Solution for Python Foundation</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
+  </si>
+  <si>
     <t xml:space="preserve">.py library for easily using logging and debugging. </t>
   </si>
   <si>
-    <t>Solution for Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
-  </si>
-  <si>
-    <t>Solution for Membership Matching</t>
-  </si>
-  <si>
-    <t>Solution for Notebook Clone</t>
-  </si>
-  <si>
-    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
-  </si>
-  <si>
-    <t>Solution for Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Solution for Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
-  </si>
-  <si>
-    <t>Solution for Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Solution for Progress Bar</t>
-  </si>
-  <si>
-    <t>Solution for Python Foundation</t>
+    <t>Easy to use reference data sets for  your projects</t>
   </si>
   <si>
     <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
   </si>
   <si>
+    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
+  </si>
+  <si>
+    <t>Solution Registry - houses a list of solutions</t>
+  </si>
+  <si>
+    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
+  </si>
+  <si>
     <t>sqlite_introduction provides an introduction to SQL lite</t>
   </si>
   <si>
-    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
-  </si>
-  <si>
-    <t>Solution Registry - houses a list of solutions</t>
-  </si>
-  <si>
-    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
-  </si>
-  <si>
     <t>Provides general system information including CURRENT  memory / CPU usage</t>
   </si>
   <si>
+    <t>Machine learning with Taipy web GUI and tensorflow ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">Application for building sophisticated text to speech </t>
   </si>
   <si>
@@ -709,6 +772,9 @@
     <t>Schedules tasks and executes runtimes</t>
   </si>
   <si>
+    <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
+  </si>
+  <si>
     <t>Solution for Unzip Automation</t>
   </si>
   <si>
@@ -722,88 +788,13 @@
   </si>
   <si>
     <t>Solution for World Mood</t>
-  </si>
-  <si>
-    <t>This solution automates creating python script to run in windows task scheduler.</t>
-  </si>
-  <si>
-    <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
-  </si>
-  <si>
-    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
-  </si>
-  <si>
-    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
-  </si>
-  <si>
-    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
-  </si>
-  <si>
-    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
-  </si>
-  <si>
-    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
-  </si>
-  <si>
-    <t>quantifying of side affects associated with major treatment modalities</t>
-  </si>
-  <si>
-    <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
-  </si>
-  <si>
-    <t>A repository for digrams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
-  </si>
-  <si>
-    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
-  </si>
-  <si>
-    <t>Define and classify diagnosis for all forms of cancer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epidemiology methodology for oncology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for calculating  patients lieklihood to develop cancer within the next year. </t>
-  </si>
-  <si>
-    <t>A report on specific patients gaps in care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using machine learning to predict lung cancer. </t>
-  </si>
-  <si>
-    <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
-  </si>
-  <si>
-    <t>Machine learning with Taipy web GUI and tensorflow ML</t>
-  </si>
-  <si>
-    <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
-  </si>
-  <si>
-    <t>reference_datasets</t>
-  </si>
-  <si>
-    <t>Reference Data Sets</t>
-  </si>
-  <si>
-    <t>Easy to use reference data sets for  your projects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,21 +857,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -918,7 +901,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -952,7 +935,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -987,10 +969,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1163,21 +1144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.6640625" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,51 +1162,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1240,1030 +1214,997 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
         <v>151</v>
       </c>
-      <c r="C57" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" t="s">
         <v>257</v>
-      </c>
-      <c r="B58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C58" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>80</v>
-      </c>
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>82</v>
-      </c>
-      <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>84</v>
-      </c>
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>85</v>
-      </c>
-      <c r="B89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>86</v>
-      </c>
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>87</v>
-      </c>
-      <c r="B91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>89</v>
-      </c>
-      <c r="B93" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>90</v>
-      </c>
-      <c r="B94" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>91</v>
-      </c>
-      <c r="B95" t="s">
-        <v>91</v>
-      </c>
-      <c r="C95" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>92</v>
-      </c>
-      <c r="B96" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>95</v>
-      </c>
-      <c r="B99" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -34,12 +34,36 @@
     <t>Automated Application Launcher</t>
   </si>
   <si>
+    <t>automating_windows_task_scheduler</t>
+  </si>
+  <si>
     <t>Calculator</t>
   </si>
   <si>
     <t>Cancer Care Timeline</t>
   </si>
   <si>
+    <t>cancer_care_timeline</t>
+  </si>
+  <si>
+    <t>cancer_classification</t>
+  </si>
+  <si>
+    <t>cancer_staging</t>
+  </si>
+  <si>
+    <t>cancer_survival_index</t>
+  </si>
+  <si>
+    <t>cancer_treatment_modalities</t>
+  </si>
+  <si>
+    <t>cancer_treatment_sequencing</t>
+  </si>
+  <si>
+    <t>cancer_treatment_side_effects</t>
+  </si>
+  <si>
     <t>Cancer Treatment Side Effects</t>
   </si>
   <si>
@@ -58,12 +82,18 @@
     <t>Convert MS Access to New Technology</t>
   </si>
   <si>
+    <t>corpus_learning_chatbot</t>
+  </si>
+  <si>
     <t>Correlation Heatmap</t>
   </si>
   <si>
     <t>Create Readme Md</t>
   </si>
   <si>
+    <t>create_solution</t>
+  </si>
+  <si>
     <t>Curated Datasets</t>
   </si>
   <si>
@@ -97,6 +127,9 @@
     <t>Diabetes Risk Stratification.</t>
   </si>
   <si>
+    <t>diagrams</t>
+  </si>
+  <si>
     <t>Disease Progression Model</t>
   </si>
   <si>
@@ -142,6 +175,9 @@
     <t>Hugging Face Transformers</t>
   </si>
   <si>
+    <t>icd_10_cm_analysis</t>
+  </si>
+  <si>
     <t>Incremental Imports</t>
   </si>
   <si>
@@ -160,6 +196,9 @@
     <t xml:space="preserve">Intelligent Chatbot Web Scrapping  </t>
   </si>
   <si>
+    <t>inventory_your_python</t>
+  </si>
+  <si>
     <t>Jupyter Notebook Process Steps</t>
   </si>
   <si>
@@ -169,78 +208,102 @@
     <t>Library Installer</t>
   </si>
   <si>
+    <t>Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Managing Personas</t>
+  </si>
+  <si>
+    <t>Membership Matching</t>
+  </si>
+  <si>
+    <t>Multi Disciplinary Cancer Care Team</t>
+  </si>
+  <si>
+    <t>multi_disciplinary_cancer_care_team</t>
+  </si>
+  <si>
+    <t>Notebook Clone</t>
+  </si>
+  <si>
+    <t>oncology_diagnostic_coding</t>
+  </si>
+  <si>
+    <t>oncology_epidemiology</t>
+  </si>
+  <si>
+    <t>Oncology Procedures Classification</t>
+  </si>
+  <si>
+    <t>patient_cancer_risk_index</t>
+  </si>
+  <si>
+    <t>Patient Cancer Risk Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Complexity Index </t>
+  </si>
+  <si>
+    <t>patient_gaps_in_care</t>
+  </si>
+  <si>
+    <t>Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
+  </si>
+  <si>
+    <t>Predicting Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>Predicting Diabetes</t>
+  </si>
+  <si>
+    <t>predicting_lung_cancer</t>
+  </si>
+  <si>
+    <t>Predicting Lung Cancer</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Progress Bar</t>
+  </si>
+  <si>
+    <t>Python Foundation</t>
+  </si>
+  <si>
+    <t>quality_of_life_index</t>
+  </si>
+  <si>
     <t>Library for Logging And Debugging</t>
   </si>
   <si>
-    <t>Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Managing Personas</t>
-  </si>
-  <si>
-    <t>Membership Matching</t>
-  </si>
-  <si>
-    <t>Multi Disciplinary Cancer Care Team</t>
-  </si>
-  <si>
-    <t>Notebook Clone</t>
-  </si>
-  <si>
-    <t>Oncology Procedures Classification</t>
-  </si>
-  <si>
-    <t>Patient Cancer Risk Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient Complexity Index </t>
-  </si>
-  <si>
-    <t>Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
-  </si>
-  <si>
-    <t>Predicting Colorectal Cancer</t>
-  </si>
-  <si>
-    <t>Predicting Diabetes</t>
-  </si>
-  <si>
-    <t>Predicting Lung Cancer</t>
-  </si>
-  <si>
-    <t>Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Progress Bar</t>
-  </si>
-  <si>
-    <t>Python Foundation</t>
-  </si>
-  <si>
     <t>Remote Process Automation Excel</t>
   </si>
   <si>
+    <t>Simple Chatbot Simple Nlp Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Registry </t>
+  </si>
+  <si>
+    <t>Solution Template</t>
+  </si>
+  <si>
     <t>SQLite Introduction</t>
   </si>
   <si>
-    <t>Simple Chatbot Simple Nlp Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Registry </t>
-  </si>
-  <si>
-    <t>Solution Template</t>
-  </si>
-  <si>
     <t>System Information</t>
   </si>
   <si>
+    <t>taipy_web_gui</t>
+  </si>
+  <si>
     <t>Talking Code</t>
   </si>
   <si>
@@ -250,6 +313,12 @@
     <t>Task Scheduling</t>
   </si>
   <si>
+    <t>term_frequency_inverse_document_frequency</t>
+  </si>
+  <si>
+    <t>titanic_survival_analysis</t>
+  </si>
+  <si>
     <t>Unzip Automation</t>
   </si>
   <si>
@@ -268,75 +337,6 @@
     <t>World Mood</t>
   </si>
   <si>
-    <t>automating_windows_task_scheduler</t>
-  </si>
-  <si>
-    <t>cancer_care_timeline</t>
-  </si>
-  <si>
-    <t>cancer_classification</t>
-  </si>
-  <si>
-    <t>cancer_staging</t>
-  </si>
-  <si>
-    <t>cancer_survival_index</t>
-  </si>
-  <si>
-    <t>cancer_treatment_modalities</t>
-  </si>
-  <si>
-    <t>cancer_treatment_sequencing</t>
-  </si>
-  <si>
-    <t>cancer_treatment_side_effects</t>
-  </si>
-  <si>
-    <t>corpus_learning_chatbot</t>
-  </si>
-  <si>
-    <t>create_solution</t>
-  </si>
-  <si>
-    <t>diagrams</t>
-  </si>
-  <si>
-    <t>icd_10_cm_analysis</t>
-  </si>
-  <si>
-    <t>inventory_your_python</t>
-  </si>
-  <si>
-    <t>multi_disciplinary_cancer_care_team</t>
-  </si>
-  <si>
-    <t>oncology_diagnostic_coding</t>
-  </si>
-  <si>
-    <t>oncology_epidemiology</t>
-  </si>
-  <si>
-    <t>patient_cancer_risk_index</t>
-  </si>
-  <si>
-    <t>patient_gaps_in_care</t>
-  </si>
-  <si>
-    <t>predicting_lung_cancer</t>
-  </si>
-  <si>
-    <t>quality_of_life_index</t>
-  </si>
-  <si>
-    <t>taipy_web_gui</t>
-  </si>
-  <si>
-    <t>term_frequency_inverse_document_frequency</t>
-  </si>
-  <si>
-    <t>titanic_survival_analysis</t>
-  </si>
-  <si>
     <t>ai_prompt_response_generator</t>
   </si>
   <si>
@@ -475,66 +475,66 @@
     <t>library_installer</t>
   </si>
   <si>
+    <t>logging_and_debugging</t>
+  </si>
+  <si>
+    <t>managing_personas</t>
+  </si>
+  <si>
+    <t>membership_matching</t>
+  </si>
+  <si>
+    <t>notebook_clone</t>
+  </si>
+  <si>
+    <t>oncology_procedures_classification</t>
+  </si>
+  <si>
+    <t>patient_complexity_index</t>
+  </si>
+  <si>
+    <t>patient_word_cloud</t>
+  </si>
+  <si>
+    <t>penguins</t>
+  </si>
+  <si>
+    <t>poor_emotional_regulatory_control</t>
+  </si>
+  <si>
+    <t>predicting_colorectal_cancer</t>
+  </si>
+  <si>
+    <t>predicting_diabetes</t>
+  </si>
+  <si>
+    <t>principal_component_analysis</t>
+  </si>
+  <si>
+    <t>progress_bar</t>
+  </si>
+  <si>
+    <t>python_foundation</t>
+  </si>
+  <si>
     <t>quicklogging</t>
   </si>
   <si>
-    <t>logging_and_debugging</t>
-  </si>
-  <si>
-    <t>managing_personas</t>
-  </si>
-  <si>
-    <t>membership_matching</t>
-  </si>
-  <si>
-    <t>notebook_clone</t>
-  </si>
-  <si>
-    <t>oncology_procedures_classification</t>
-  </si>
-  <si>
-    <t>patient_complexity_index</t>
-  </si>
-  <si>
-    <t>patient_word_cloud</t>
-  </si>
-  <si>
-    <t>penguins</t>
-  </si>
-  <si>
-    <t>poor_emotional_regulatory_control</t>
-  </si>
-  <si>
-    <t>predicting_colorectal_cancer</t>
-  </si>
-  <si>
-    <t>predicting_diabetes</t>
-  </si>
-  <si>
-    <t>principal_component_analysis</t>
-  </si>
-  <si>
-    <t>progress_bar</t>
-  </si>
-  <si>
-    <t>python_foundation</t>
-  </si>
-  <si>
     <t>remote_process_automation_excel</t>
   </si>
   <si>
+    <t>simple_chatbot_simple_nlp_response</t>
+  </si>
+  <si>
+    <t>solution_registry</t>
+  </si>
+  <si>
+    <t>solution_template</t>
+  </si>
+  <si>
     <t>sqlite_introduction</t>
   </si>
   <si>
-    <t>simple_chatbot_simple_nlp_response</t>
-  </si>
-  <si>
-    <t>solution_registry</t>
-  </si>
-  <si>
-    <t>solution_template</t>
-  </si>
-  <si>
     <t>system_information</t>
   </si>
   <si>
@@ -574,12 +574,36 @@
     <t>Solution for Automated Application Launcher</t>
   </si>
   <si>
+    <t>This solution automates creating python script to run in windows task scheduler.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
   </si>
   <si>
     <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
   </si>
   <si>
+    <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
+  </si>
+  <si>
+    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
+  </si>
+  <si>
+    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
+  </si>
+  <si>
+    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
+  </si>
+  <si>
+    <t>quantifying of side affects associated with major treatment modalities</t>
+  </si>
+  <si>
     <t>quantifying of side affects associated with major cancer treatment modalities</t>
   </si>
   <si>
@@ -598,12 +622,18 @@
     <t xml:space="preserve">Soltuion for converting MS access into a new technology stack. </t>
   </si>
   <si>
+    <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
+  </si>
+  <si>
     <t>Solution for Correlation Heatmap</t>
   </si>
   <si>
     <t>Generate a beautifulk and effective readme.md file.</t>
   </si>
   <si>
+    <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
+  </si>
+  <si>
     <t>Solution for Curated Datasets</t>
   </si>
   <si>
@@ -634,6 +664,9 @@
     <t>Macine Learning Risk stratifcation - 3 different approaches</t>
   </si>
   <si>
+    <t>A repository for digrams</t>
+  </si>
+  <si>
     <t>Solution for Disease Progression Model</t>
   </si>
   <si>
@@ -676,6 +709,9 @@
     <t>Solution for Hugging Face Transformers</t>
   </si>
   <si>
+    <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
+  </si>
+  <si>
     <t>Solution for Incremental Imports</t>
   </si>
   <si>
@@ -703,78 +739,99 @@
     <t>Solution for Library Installer</t>
   </si>
   <si>
+    <t>Solution for Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
+  </si>
+  <si>
+    <t>Solution for Membership Matching</t>
+  </si>
+  <si>
+    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
+  </si>
+  <si>
+    <t>Solution for Notebook Clone</t>
+  </si>
+  <si>
+    <t>Define and classify diagnosis for all forms of cancer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epidemiology methodology for oncology </t>
+  </si>
+  <si>
+    <t>Process for classifying oncology procedures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution for calculating  patients lieklihood to develop cancer within the next year. </t>
+  </si>
+  <si>
+    <t>Analyzing each patients risk for developing cancer within next year.</t>
+  </si>
+  <si>
+    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
+  </si>
+  <si>
+    <t>A report on specific patients gaps in care</t>
+  </si>
+  <si>
+    <t>Solution for Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Solution for Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
+  </si>
+  <si>
+    <t>Machine learning for predicting colorectal cancer.</t>
+  </si>
+  <si>
+    <t>Machine learning for predicting diabetes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using machine learning to predict lung cancer. </t>
+  </si>
+  <si>
+    <t>Machine learning for predicting lung cancer.</t>
+  </si>
+  <si>
+    <t>Solution for Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Solution for Progress Bar</t>
+  </si>
+  <si>
+    <t>Solution for Python Foundation</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
+  </si>
+  <si>
     <t xml:space="preserve">.py library for easily using logging and debugging. </t>
   </si>
   <si>
-    <t>Solution for Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
-  </si>
-  <si>
-    <t>Solution for Membership Matching</t>
-  </si>
-  <si>
-    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
-  </si>
-  <si>
-    <t>Solution for Notebook Clone</t>
-  </si>
-  <si>
-    <t>Process for classifying oncology procedures.</t>
-  </si>
-  <si>
-    <t>Analyzing each patients risk for developing cancer within next year.</t>
-  </si>
-  <si>
-    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
-  </si>
-  <si>
-    <t>Solution for Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Solution for Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
-  </si>
-  <si>
-    <t>Machine learning for predicting colorectal cancer.</t>
-  </si>
-  <si>
-    <t>Machine learning for predicting diabetes.</t>
-  </si>
-  <si>
-    <t>Machine learning for predicting lung cancer.</t>
-  </si>
-  <si>
-    <t>Solution for Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Solution for Progress Bar</t>
-  </si>
-  <si>
-    <t>Solution for Python Foundation</t>
-  </si>
-  <si>
     <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
   </si>
   <si>
+    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
+  </si>
+  <si>
+    <t>Solution Registry - houses a list of solutions</t>
+  </si>
+  <si>
+    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
+  </si>
+  <si>
     <t>sqlite_introduction provides an introduction to SQL lite</t>
   </si>
   <si>
-    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
-  </si>
-  <si>
-    <t>Solution Registry - houses a list of solutions</t>
-  </si>
-  <si>
-    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
-  </si>
-  <si>
     <t>Provides general system information including CURRENT  memory / CPU usage</t>
   </si>
   <si>
+    <t>Machine learning with Taipy web GUI and tensorflow ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">Application for building sophisticated text to speech </t>
   </si>
   <si>
@@ -784,6 +841,9 @@
     <t>Schedules tasks and executes runtimes</t>
   </si>
   <si>
+    <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
+  </si>
+  <si>
     <t>Solution for Unzip Automation</t>
   </si>
   <si>
@@ -800,66 +860,6 @@
   </si>
   <si>
     <t>Solution for World Mood</t>
-  </si>
-  <si>
-    <t>This solution automates creating python script to run in windows task scheduler.</t>
-  </si>
-  <si>
-    <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
-  </si>
-  <si>
-    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
-  </si>
-  <si>
-    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
-  </si>
-  <si>
-    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
-  </si>
-  <si>
-    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
-  </si>
-  <si>
-    <t>quantifying of side affects associated with major treatment modalities</t>
-  </si>
-  <si>
-    <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
-  </si>
-  <si>
-    <t>A repository for digrams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
-  </si>
-  <si>
-    <t>Define and classify diagnosis for all forms of cancer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epidemiology methodology for oncology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for calculating  patients lieklihood to develop cancer within the next year. </t>
-  </si>
-  <si>
-    <t>A report on specific patients gaps in care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using machine learning to predict lung cancer. </t>
-  </si>
-  <si>
-    <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
-  </si>
-  <si>
-    <t>Machine learning with Taipy web GUI and tensorflow ML</t>
-  </si>
-  <si>
-    <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1272,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>186</v>
@@ -1280,893 +1280,893 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2174,10 +2174,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="C87" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2185,10 +2185,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="C88" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2199,7 +2199,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2207,10 +2207,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2218,10 +2218,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2229,10 +2229,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="C92" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2240,87 +2240,87 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="C94" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="C98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="C100" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2328,7 +2328,7 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="C101" t="s">
         <v>274</v>
@@ -2353,7 +2353,7 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>276</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2361,10 +2361,10 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="C104" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2372,10 +2372,10 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="C105" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2383,10 +2383,10 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="C106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2394,10 +2394,10 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="C107" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2405,10 +2405,10 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="C108" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2416,10 +2416,10 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="C109" t="s">
-        <v>106</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="286">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>solution_name</t>
   </si>
@@ -40,12 +43,12 @@
     <t>Calculator</t>
   </si>
   <si>
+    <t>cancer_care_timeline</t>
+  </si>
+  <si>
     <t>Cancer Care Timeline</t>
   </si>
   <si>
-    <t>cancer_care_timeline</t>
-  </si>
-  <si>
     <t>cancer_classification</t>
   </si>
   <si>
@@ -217,12 +220,12 @@
     <t>Membership Matching</t>
   </si>
   <si>
+    <t>multi_disciplinary_cancer_care_team</t>
+  </si>
+  <si>
     <t>Multi Disciplinary Cancer Care Team</t>
   </si>
   <si>
-    <t>multi_disciplinary_cancer_care_team</t>
-  </si>
-  <si>
     <t>Notebook Clone</t>
   </si>
   <si>
@@ -289,6 +292,9 @@
     <t>Simple Chatbot Simple Nlp Response</t>
   </si>
   <si>
+    <t>Smart Mini Proposal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solution Registry </t>
   </si>
   <si>
@@ -526,6 +532,9 @@
     <t>simple_chatbot_simple_nlp_response</t>
   </si>
   <si>
+    <t>smart_mini_proposal</t>
+  </si>
+  <si>
     <t>solution_registry</t>
   </si>
   <si>
@@ -815,6 +824,9 @@
   </si>
   <si>
     <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
+  </si>
+  <si>
+    <t>Creates a mini proposal using a template and SMART criteria.</t>
   </si>
   <si>
     <t>Solution Registry - houses a list of solutions</t>
@@ -1217,13 +1229,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,1193 +1245,1534 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>8</v>
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
         <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>4</v>
+      </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="D10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>97</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>67</v>
+        <v>157</v>
+      </c>
+      <c r="D68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>98</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
         <v>68</v>
       </c>
+      <c r="D69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>52</v>
+      </c>
       <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
         <v>68</v>
       </c>
-      <c r="C70" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="D70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>53</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>99</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>54</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>56</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>102</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>57</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>59</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>61</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>103</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>62</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>63</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>64</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>65</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>104</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>66</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>68</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>171</v>
+      </c>
+      <c r="D92" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>108</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>67</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>175</v>
+      </c>
+      <c r="D96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>176</v>
+      </c>
+      <c r="D97" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>177</v>
+      </c>
+      <c r="D99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>75</v>
+      </c>
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>179</v>
+      </c>
+      <c r="D102" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>160</v>
-      </c>
-      <c r="C80" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>182</v>
+      </c>
+      <c r="D107" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>183</v>
+      </c>
+      <c r="D108" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>166</v>
-      </c>
-      <c r="C88" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>168</v>
-      </c>
-      <c r="C91" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>169</v>
-      </c>
-      <c r="C92" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>170</v>
-      </c>
-      <c r="C93" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>171</v>
-      </c>
-      <c r="C94" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>172</v>
-      </c>
-      <c r="C95" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>173</v>
-      </c>
-      <c r="C96" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>174</v>
-      </c>
-      <c r="C98" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>175</v>
-      </c>
-      <c r="C99" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>176</v>
-      </c>
-      <c r="C100" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" t="s">
-        <v>99</v>
-      </c>
-      <c r="C102" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" t="s">
-        <v>178</v>
-      </c>
-      <c r="C105" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" t="s">
-        <v>181</v>
-      </c>
-      <c r="C108" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>106</v>
-      </c>
-      <c r="B109" t="s">
-        <v>182</v>
-      </c>
-      <c r="C109" t="s">
-        <v>281</v>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -220,10 +220,10 @@
     <t>Membership Matching</t>
   </si>
   <si>
+    <t>Multi Disciplinary Cancer Care Team</t>
+  </si>
+  <si>
     <t>multi_disciplinary_cancer_care_team</t>
-  </si>
-  <si>
-    <t>Multi Disciplinary Cancer Care Team</t>
   </si>
   <si>
     <t>Notebook Clone</t>
@@ -2189,13 +2189,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
         <v>247</v>
@@ -2203,13 +2203,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
         <v>247</v>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="286">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="292">
   <si>
     <t>solution_name</t>
   </si>
@@ -37,18 +34,255 @@
     <t>Automated Application Launcher</t>
   </si>
   <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>Cancer Care Timeline</t>
+  </si>
+  <si>
+    <t>Cancer Treatment Outcomes</t>
+  </si>
+  <si>
+    <t>Cancer Treatment Side Effects</t>
+  </si>
+  <si>
+    <t>Chat Gpt Integration</t>
+  </si>
+  <si>
+    <t>Chronic Disease Registry</t>
+  </si>
+  <si>
+    <t>Clinical Classification System</t>
+  </si>
+  <si>
+    <t>Configuring Settings</t>
+  </si>
+  <si>
+    <t>Convert MS Access to New Technology</t>
+  </si>
+  <si>
+    <t>Correlation Heatmap</t>
+  </si>
+  <si>
+    <t>Create Readme Md</t>
+  </si>
+  <si>
+    <t>Curated Datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Data Loader  </t>
+  </si>
+  <si>
+    <t>Data Cleansing</t>
+  </si>
+  <si>
+    <t>Data Delta Calculator</t>
+  </si>
+  <si>
+    <t>Data Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Loader Reference Tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Loader Transactional  Tables </t>
+  </si>
+  <si>
+    <t>Data Profiling</t>
+  </si>
+  <si>
+    <t>Data Sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Goals </t>
+  </si>
+  <si>
+    <t>Diabetes Outcome Analysis</t>
+  </si>
+  <si>
+    <t>Diabetes Risk Stratification.</t>
+  </si>
+  <si>
+    <t>Disease Progression Model</t>
+  </si>
+  <si>
+    <t>Email Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment Testing </t>
+  </si>
+  <si>
+    <t>Epidemiology Methodology</t>
+  </si>
+  <si>
+    <t>File Discovery</t>
+  </si>
+  <si>
+    <t>File Manager</t>
+  </si>
+  <si>
+    <t>File Removal</t>
+  </si>
+  <si>
+    <t>File Watchdog</t>
+  </si>
+  <si>
+    <t>Form Validator</t>
+  </si>
+  <si>
+    <t>Git Commands</t>
+  </si>
+  <si>
+    <t>Github Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glossary Term </t>
+  </si>
+  <si>
+    <t>Happiness Datasets</t>
+  </si>
+  <si>
+    <t>High Risk High Need</t>
+  </si>
+  <si>
+    <t>Hugging Face Transformers</t>
+  </si>
+  <si>
+    <t>Incremental Imports</t>
+  </si>
+  <si>
+    <t>Infrastructure Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Corpus Learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Data Serialization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Generative Digital Assistant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Web Scrapping  </t>
+  </si>
+  <si>
+    <t>Jupyter Notebook Process Steps</t>
+  </si>
+  <si>
+    <t>Kids Abc Book</t>
+  </si>
+  <si>
+    <t>Library Installer</t>
+  </si>
+  <si>
+    <t>Library for Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Managing Personas</t>
+  </si>
+  <si>
+    <t>Membership Matching</t>
+  </si>
+  <si>
+    <t>Multi Disciplinary Cancer Care Team</t>
+  </si>
+  <si>
+    <t>Notebook Clone</t>
+  </si>
+  <si>
+    <t>Oncology Procedures Classification</t>
+  </si>
+  <si>
+    <t>Patient Cancer Risk Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Complexity Index </t>
+  </si>
+  <si>
+    <t>Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
+  </si>
+  <si>
+    <t>Predicting Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>Predicting Diabetes</t>
+  </si>
+  <si>
+    <t>Predicting Lung Cancer</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Progress Bar</t>
+  </si>
+  <si>
+    <t>Python Foundation</t>
+  </si>
+  <si>
+    <t>Remote Process Automation Excel</t>
+  </si>
+  <si>
+    <t>SQLite Introduction</t>
+  </si>
+  <si>
+    <t>Simple Chatbot Simple Nlp Response</t>
+  </si>
+  <si>
+    <t>Smart Mini Proposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Registry </t>
+  </si>
+  <si>
+    <t>Solution Template</t>
+  </si>
+  <si>
+    <t>System Information</t>
+  </si>
+  <si>
+    <t>Talking Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talking Code Library </t>
+  </si>
+  <si>
+    <t>Task Scheduling</t>
+  </si>
+  <si>
+    <t>Unzip Automation</t>
+  </si>
+  <si>
+    <t>Update Solution Images</t>
+  </si>
+  <si>
+    <t>Updating Libraries</t>
+  </si>
+  <si>
+    <t>Web Automation</t>
+  </si>
+  <si>
+    <t>Word Cloud</t>
+  </si>
+  <si>
+    <t>World Mood</t>
+  </si>
+  <si>
     <t>automating_windows_task_scheduler</t>
   </si>
   <si>
-    <t>Calculator</t>
-  </si>
-  <si>
     <t>cancer_care_timeline</t>
   </si>
   <si>
-    <t>Cancer Care Timeline</t>
-  </si>
-  <si>
     <t>cancer_classification</t>
   </si>
   <si>
@@ -67,282 +301,51 @@
     <t>cancer_treatment_side_effects</t>
   </si>
   <si>
-    <t>Cancer Treatment Side Effects</t>
-  </si>
-  <si>
-    <t>Chat Gpt Integration</t>
-  </si>
-  <si>
-    <t>Chronic Disease Registry</t>
-  </si>
-  <si>
-    <t>Clinical Classification System</t>
-  </si>
-  <si>
-    <t>Configuring Settings</t>
-  </si>
-  <si>
-    <t>Convert MS Access to New Technology</t>
-  </si>
-  <si>
     <t>corpus_learning_chatbot</t>
   </si>
   <si>
-    <t>Correlation Heatmap</t>
-  </si>
-  <si>
-    <t>Create Readme Md</t>
-  </si>
-  <si>
     <t>create_solution</t>
   </si>
   <si>
-    <t>Curated Datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Data Loader  </t>
-  </si>
-  <si>
-    <t>Data Cleansing</t>
-  </si>
-  <si>
-    <t>Data Delta Calculator</t>
-  </si>
-  <si>
-    <t>Data Discovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Loader Reference Tables </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Loader Transactional  Tables </t>
-  </si>
-  <si>
-    <t>Data Profiling</t>
-  </si>
-  <si>
-    <t>Data Sets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Goals </t>
-  </si>
-  <si>
-    <t>Diabetes Risk Stratification.</t>
-  </si>
-  <si>
     <t>diagrams</t>
   </si>
   <si>
-    <t>Disease Progression Model</t>
-  </si>
-  <si>
-    <t>Email Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment Testing </t>
-  </si>
-  <si>
-    <t>Epidemiology Methodology</t>
-  </si>
-  <si>
-    <t>File Discovery</t>
-  </si>
-  <si>
-    <t>File Manager</t>
-  </si>
-  <si>
-    <t>File Removal</t>
-  </si>
-  <si>
-    <t>File Watchdog</t>
-  </si>
-  <si>
-    <t>Form Validator</t>
-  </si>
-  <si>
-    <t>Git Commands</t>
-  </si>
-  <si>
-    <t>Github Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glossary Term </t>
-  </si>
-  <si>
-    <t>Happiness Datasets</t>
-  </si>
-  <si>
-    <t>High Risk High Need</t>
-  </si>
-  <si>
-    <t>Hugging Face Transformers</t>
-  </si>
-  <si>
     <t>icd_10_cm_analysis</t>
   </si>
   <si>
-    <t>Incremental Imports</t>
-  </si>
-  <si>
-    <t>Infrastructure Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Corpus Learning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Data Serialization </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Generative Digital Assistant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Web Scrapping  </t>
-  </si>
-  <si>
     <t>inventory_your_python</t>
   </si>
   <si>
-    <t>Jupyter Notebook Process Steps</t>
-  </si>
-  <si>
-    <t>Kids Abc Book</t>
-  </si>
-  <si>
-    <t>Library Installer</t>
-  </si>
-  <si>
-    <t>Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Managing Personas</t>
-  </si>
-  <si>
-    <t>Membership Matching</t>
-  </si>
-  <si>
-    <t>Multi Disciplinary Cancer Care Team</t>
-  </si>
-  <si>
     <t>multi_disciplinary_cancer_care_team</t>
   </si>
   <si>
-    <t>Notebook Clone</t>
-  </si>
-  <si>
     <t>oncology_diagnostic_coding</t>
   </si>
   <si>
     <t>oncology_epidemiology</t>
   </si>
   <si>
-    <t>Oncology Procedures Classification</t>
-  </si>
-  <si>
     <t>patient_cancer_risk_index</t>
   </si>
   <si>
-    <t>Patient Cancer Risk Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient Complexity Index </t>
-  </si>
-  <si>
     <t>patient_gaps_in_care</t>
   </si>
   <si>
-    <t>Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
-  </si>
-  <si>
-    <t>Predicting Colorectal Cancer</t>
-  </si>
-  <si>
-    <t>Predicting Diabetes</t>
-  </si>
-  <si>
     <t>predicting_lung_cancer</t>
   </si>
   <si>
-    <t>Predicting Lung Cancer</t>
-  </si>
-  <si>
-    <t>Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Progress Bar</t>
-  </si>
-  <si>
-    <t>Python Foundation</t>
-  </si>
-  <si>
     <t>quality_of_life_index</t>
   </si>
   <si>
-    <t>Library for Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Remote Process Automation Excel</t>
-  </si>
-  <si>
-    <t>Simple Chatbot Simple Nlp Response</t>
-  </si>
-  <si>
-    <t>Smart Mini Proposal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Registry </t>
-  </si>
-  <si>
-    <t>Solution Template</t>
-  </si>
-  <si>
-    <t>SQLite Introduction</t>
-  </si>
-  <si>
-    <t>System Information</t>
-  </si>
-  <si>
     <t>taipy_web_gui</t>
   </si>
   <si>
-    <t>Talking Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talking Code Library </t>
-  </si>
-  <si>
-    <t>Task Scheduling</t>
-  </si>
-  <si>
     <t>term_frequency_inverse_document_frequency</t>
   </si>
   <si>
     <t>titanic_survival_analysis</t>
   </si>
   <si>
-    <t>Unzip Automation</t>
-  </si>
-  <si>
-    <t>Update Solution Images</t>
-  </si>
-  <si>
-    <t>Updating Libraries</t>
-  </si>
-  <si>
-    <t>Web Automation</t>
-  </si>
-  <si>
-    <t>Word Cloud</t>
-  </si>
-  <si>
-    <t>World Mood</t>
-  </si>
-  <si>
     <t>ai_prompt_response_generator</t>
   </si>
   <si>
@@ -355,6 +358,9 @@
     <t>calculator</t>
   </si>
   <si>
+    <t>cancer_treatment_outcomes</t>
+  </si>
+  <si>
     <t>chat_gpt_integration</t>
   </si>
   <si>
@@ -406,6 +412,9 @@
     <t>design_goal</t>
   </si>
   <si>
+    <t>diabetes_outcome_analysis</t>
+  </si>
+  <si>
     <t>diabetes_risk_stratification</t>
   </si>
   <si>
@@ -481,6 +490,9 @@
     <t>library_installer</t>
   </si>
   <si>
+    <t>quicklogging</t>
+  </si>
+  <si>
     <t>logging_and_debugging</t>
   </si>
   <si>
@@ -523,12 +535,12 @@
     <t>python_foundation</t>
   </si>
   <si>
-    <t>quicklogging</t>
-  </si>
-  <si>
     <t>remote_process_automation_excel</t>
   </si>
   <si>
+    <t>sqlite_introduction</t>
+  </si>
+  <si>
     <t>simple_chatbot_simple_nlp_response</t>
   </si>
   <si>
@@ -541,9 +553,6 @@
     <t>solution_template</t>
   </si>
   <si>
-    <t>sqlite_introduction</t>
-  </si>
-  <si>
     <t>system_information</t>
   </si>
   <si>
@@ -583,15 +592,249 @@
     <t>Solution for Automated Application Launcher</t>
   </si>
   <si>
+    <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
+  </si>
+  <si>
+    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
+    <t>Analysis of outcomes related to cancer treatment.</t>
+  </si>
+  <si>
+    <t>quantifying of side affects associated with major cancer treatment modalities</t>
+  </si>
+  <si>
+    <t>A analysis of side effects related to cancer treatments</t>
+  </si>
+  <si>
+    <t>Solution for Chat Gpt Integration</t>
+  </si>
+  <si>
+    <t>Solution for Chronic Disease Registry</t>
+  </si>
+  <si>
+    <t>Solution for Clinical Classification System</t>
+  </si>
+  <si>
+    <t>Solution for Configuring Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soltuion for converting MS access into a new technology stack. </t>
+  </si>
+  <si>
+    <t>Solution for Correlation Heatmap</t>
+  </si>
+  <si>
+    <t>Generate a beautifulk and effective readme.md file.</t>
+  </si>
+  <si>
+    <t>Solution for Curated Datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load a the LATEST DELTA of NEW TRANSACTIONS  into a relational datastore. Run periodically for freshness. </t>
+  </si>
+  <si>
+    <t>Solution for Data Cleansing</t>
+  </si>
+  <si>
+    <t>Calculates the structural difference between raw data sources. Compares to LAST LOAD to determine what is NEW. This is for loading data incrementally over time so that history isnt constantly re-loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finds ALL the valuable data assets on your system and registers them. </t>
+  </si>
+  <si>
+    <t>Load a series of reference tables into a relational datastore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load a large historical transactional tables into a relational datastore. One Time LOAD </t>
+  </si>
+  <si>
+    <t>Tells your EVERYTHING about your data.</t>
+  </si>
+  <si>
+    <t>A repostory of curated datasets for data science projects</t>
+  </si>
+  <si>
+    <t>A analysis of outcomes related to diabetes treatments</t>
+  </si>
+  <si>
+    <t>Macine Learning Risk stratifcation - 3 different approaches</t>
+  </si>
+  <si>
+    <t>Solution for Disease Progression Model</t>
+  </si>
+  <si>
+    <t>Solution for Email Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes sure all your computing resources are ready to perform complex workflows. </t>
+  </si>
+  <si>
+    <t>The epidemiology_methodology establishes a versatile data science methodology for epidemiology projects spanning various conditions or diseasesThe approach begins with comprehensive data collection, encompassing demographics, environmental factors, and relevant health metrics. Employing advanced statistical analyses and machine learning algorithms, the methodology aims to discern patterns, identify risk factors, and optimize predictive models, fostering a holistic understanding of the factors influencing the studied health outcomes.</t>
+  </si>
+  <si>
+    <t>Solution for File Discovery</t>
+  </si>
+  <si>
+    <t>Solution for File Manager</t>
+  </si>
+  <si>
+    <t>Solution for File Removal</t>
+  </si>
+  <si>
+    <t>Solution for File Watchdog</t>
+  </si>
+  <si>
+    <t>Solution for Form Validator</t>
+  </si>
+  <si>
+    <t>Git is a distributed version control system designed to track changes in source code during software development.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glossary of terms </t>
+  </si>
+  <si>
+    <t>A repository  for Happiness Datasets</t>
+  </si>
+  <si>
+    <t>Solution for High Risk High Need</t>
+  </si>
+  <si>
+    <t>Solution for Hugging Face Transformers</t>
+  </si>
+  <si>
+    <t>Solution for Incremental Imports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to the **Infrastructure Setup ** repository! This project demonstrates how to a establish an Infrastructure Directory to copy, maintain, and archive All of your work in progress. NEVER LOSE YOUR WORK IN PROGRESS AGAIN!!!! .Backs up and saves your work.  Moves files wherever you need them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot instantly scrapes reads any corpus or dataset. Learns it and provides a conversation about it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot instantly scrapes reads any realtional datastore, excel spreadhseet and semantizes it. Uses NLP to for paragraphs and answer in naltural languiage.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot Assistant performs almost ANY task you can think of. This is your custom "Alexa" it opens mail, formats excel sheets, reads to you, tells jokes, and writes a swimming program for you.  Embedded ChatGPT 4. </t>
+  </si>
+  <si>
+    <t>Chatbot instantly scrapes your or anyone elses website. Learns it and provides a conversation about it. Use this to digitally engage your clients.</t>
+  </si>
+  <si>
+    <t>Routine for extracting the major steps or workflow from any notebook.</t>
+  </si>
+  <si>
+    <t>Solution for Kids Abc Book</t>
+  </si>
+  <si>
+    <t>Solution for Library Installer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.py library for easily using logging and debugging. </t>
+  </si>
+  <si>
+    <t>Solution for Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
+  </si>
+  <si>
+    <t>Solution for Membership Matching</t>
+  </si>
+  <si>
+    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
+  </si>
+  <si>
+    <t>Solution for Notebook Clone</t>
+  </si>
+  <si>
+    <t>Process for classifying oncology procedures.</t>
+  </si>
+  <si>
+    <t>Analyzing each patients risk for developing cancer within next year.</t>
+  </si>
+  <si>
+    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
+  </si>
+  <si>
+    <t>Solution for Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Solution for Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
+  </si>
+  <si>
+    <t>Machine learning for predicting colorectal cancer.</t>
+  </si>
+  <si>
+    <t>Machine learning for predicting diabetes.</t>
+  </si>
+  <si>
+    <t>Machine learning for predicting lung cancer.</t>
+  </si>
+  <si>
+    <t>Solution for Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Solution for Progress Bar</t>
+  </si>
+  <si>
+    <t>Solution for Python Foundation</t>
+  </si>
+  <si>
+    <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
+  </si>
+  <si>
+    <t>sqlite_introduction provides an introduction to SQL lite</t>
+  </si>
+  <si>
+    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
+  </si>
+  <si>
+    <t>Creates a mini proposal using a template and SMART criteria.</t>
+  </si>
+  <si>
+    <t>Solution Registry - houses a list of solutions</t>
+  </si>
+  <si>
+    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
+  </si>
+  <si>
+    <t>Provides general system information including CURRENT  memory / CPU usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application for building sophisticated text to speech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A library .py file for text to speech </t>
+  </si>
+  <si>
+    <t>Schedules tasks and executes runtimes</t>
+  </si>
+  <si>
+    <t>Solution for Unzip Automation</t>
+  </si>
+  <si>
+    <t>Provide a set of images designed to brand and represent each unique solution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes sure the LATEST technology is used. </t>
+  </si>
+  <si>
+    <t>Solution for Web Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produces a wordcloud using the3 most relevant terminology using whatever cloud shape is supplied. </t>
+  </si>
+  <si>
+    <t>Solution for World Mood</t>
+  </si>
+  <si>
     <t>This solution automates creating python script to run in windows task scheduler.</t>
   </si>
   <si>
-    <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
-  </si>
-  <si>
-    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
-  </si>
-  <si>
     <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
   </si>
   <si>
@@ -613,265 +856,40 @@
     <t>quantifying of side affects associated with major treatment modalities</t>
   </si>
   <si>
-    <t>quantifying of side affects associated with major cancer treatment modalities</t>
-  </si>
-  <si>
-    <t>Solution for Chat Gpt Integration</t>
-  </si>
-  <si>
-    <t>Solution for Chronic Disease Registry</t>
-  </si>
-  <si>
-    <t>Solution for Clinical Classification System</t>
-  </si>
-  <si>
-    <t>Solution for Configuring Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soltuion for converting MS access into a new technology stack. </t>
-  </si>
-  <si>
     <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
   </si>
   <si>
-    <t>Solution for Correlation Heatmap</t>
-  </si>
-  <si>
-    <t>Generate a beautifulk and effective readme.md file.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
   </si>
   <si>
-    <t>Solution for Curated Datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load a the LATEST DELTA of NEW TRANSACTIONS  into a relational datastore. Run periodically for freshness. </t>
-  </si>
-  <si>
-    <t>Solution for Data Cleansing</t>
-  </si>
-  <si>
-    <t>Calculates the structural difference between raw data sources. Compares to LAST LOAD to determine what is NEW. This is for loading data incrementally over time so that history isnt constantly re-loaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finds ALL the valuable data assets on your system and registers them. </t>
-  </si>
-  <si>
-    <t>Load a series of reference tables into a relational datastore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load a large historical transactional tables into a relational datastore. One Time LOAD </t>
-  </si>
-  <si>
-    <t>Tells your EVERYTHING about your data.</t>
-  </si>
-  <si>
-    <t>A repostory of curated datasets for data science projects</t>
-  </si>
-  <si>
-    <t>Macine Learning Risk stratifcation - 3 different approaches</t>
-  </si>
-  <si>
     <t>A repository for digrams</t>
   </si>
   <si>
-    <t>Solution for Disease Progression Model</t>
-  </si>
-  <si>
-    <t>Solution for Email Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes sure all your computing resources are ready to perform complex workflows. </t>
-  </si>
-  <si>
-    <t>The epidemiology_methodology establishes a versatile data science methodology for epidemiology projects spanning various conditions or diseasesThe approach begins with comprehensive data collection, encompassing demographics, environmental factors, and relevant health metrics. Employing advanced statistical analyses and machine learning algorithms, the methodology aims to discern patterns, identify risk factors, and optimize predictive models, fostering a holistic understanding of the factors influencing the studied health outcomes.</t>
-  </si>
-  <si>
-    <t>Solution for File Discovery</t>
-  </si>
-  <si>
-    <t>Solution for File Manager</t>
-  </si>
-  <si>
-    <t>Solution for File Removal</t>
-  </si>
-  <si>
-    <t>Solution for File Watchdog</t>
-  </si>
-  <si>
-    <t>Solution for Form Validator</t>
-  </si>
-  <si>
-    <t>Git is a distributed version control system designed to track changes in source code during software development.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glossary of terms </t>
-  </si>
-  <si>
-    <t>A repository  for Happiness Datasets</t>
-  </si>
-  <si>
-    <t>Solution for High Risk High Need</t>
-  </si>
-  <si>
-    <t>Solution for Hugging Face Transformers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
   </si>
   <si>
-    <t>Solution for Incremental Imports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to the **Infrastructure Setup ** repository! This project demonstrates how to a establish an Infrastructure Directory to copy, maintain, and archive All of your work in progress. NEVER LOSE YOUR WORK IN PROGRESS AGAIN!!!! .Backs up and saves your work.  Moves files wherever you need them. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot instantly scrapes reads any corpus or dataset. Learns it and provides a conversation about it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot instantly scrapes reads any realtional datastore, excel spreadhseet and semantizes it. Uses NLP to for paragraphs and answer in naltural languiage.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot Assistant performs almost ANY task you can think of. This is your custom "Alexa" it opens mail, formats excel sheets, reads to you, tells jokes, and writes a swimming program for you.  Embedded ChatGPT 4. </t>
-  </si>
-  <si>
-    <t>Chatbot instantly scrapes your or anyone elses website. Learns it and provides a conversation about it. Use this to digitally engage your clients.</t>
-  </si>
-  <si>
-    <t>Routine for extracting the major steps or workflow from any notebook.</t>
-  </si>
-  <si>
-    <t>Solution for Kids Abc Book</t>
-  </si>
-  <si>
-    <t>Solution for Library Installer</t>
-  </si>
-  <si>
-    <t>Solution for Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
-  </si>
-  <si>
-    <t>Solution for Membership Matching</t>
-  </si>
-  <si>
-    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
-  </si>
-  <si>
-    <t>Solution for Notebook Clone</t>
-  </si>
-  <si>
     <t>Define and classify diagnosis for all forms of cancer.</t>
   </si>
   <si>
     <t xml:space="preserve">Epidemiology methodology for oncology </t>
   </si>
   <si>
-    <t>Process for classifying oncology procedures.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solution for calculating  patients lieklihood to develop cancer within the next year. </t>
   </si>
   <si>
-    <t>Analyzing each patients risk for developing cancer within next year.</t>
-  </si>
-  <si>
-    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
-  </si>
-  <si>
     <t>A report on specific patients gaps in care</t>
   </si>
   <si>
-    <t>Solution for Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Solution for Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
-  </si>
-  <si>
-    <t>Machine learning for predicting colorectal cancer.</t>
-  </si>
-  <si>
-    <t>Machine learning for predicting diabetes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Using machine learning to predict lung cancer. </t>
   </si>
   <si>
-    <t>Machine learning for predicting lung cancer.</t>
-  </si>
-  <si>
-    <t>Solution for Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Solution for Progress Bar</t>
-  </si>
-  <si>
-    <t>Solution for Python Foundation</t>
-  </si>
-  <si>
     <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
   </si>
   <si>
-    <t xml:space="preserve">.py library for easily using logging and debugging. </t>
-  </si>
-  <si>
-    <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
-  </si>
-  <si>
-    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
-  </si>
-  <si>
-    <t>Creates a mini proposal using a template and SMART criteria.</t>
-  </si>
-  <si>
-    <t>Solution Registry - houses a list of solutions</t>
-  </si>
-  <si>
-    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
-  </si>
-  <si>
-    <t>sqlite_introduction provides an introduction to SQL lite</t>
-  </si>
-  <si>
-    <t>Provides general system information including CURRENT  memory / CPU usage</t>
-  </si>
-  <si>
     <t>Machine learning with Taipy web GUI and tensorflow ML</t>
   </si>
   <si>
-    <t xml:space="preserve">Application for building sophisticated text to speech </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A library .py file for text to speech </t>
-  </si>
-  <si>
-    <t>Schedules tasks and executes runtimes</t>
-  </si>
-  <si>
     <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
-  </si>
-  <si>
-    <t>Solution for Unzip Automation</t>
-  </si>
-  <si>
-    <t>Provide a set of images designed to brand and represent each unique solution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes sure the LATEST technology is used. </t>
-  </si>
-  <si>
-    <t>Solution for Web Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produces a wordcloud using the3 most relevant terminology using whatever cloud shape is supplied. </t>
-  </si>
-  <si>
-    <t>Solution for World Mood</t>
   </si>
 </sst>
 </file>
@@ -1229,1550 +1247,1603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>83</v>
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>3</v>
+      <c r="A7" s="1">
+        <v>111</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>112</v>
       </c>
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>84</v>
-      </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9">
-        <v>85</v>
+      <c r="A9" s="1">
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>87</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>91</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>92</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18">
-        <v>5</v>
+      <c r="A18" s="1">
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19">
-        <v>6</v>
+      <c r="A19" s="1">
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20">
-        <v>7</v>
+      <c r="A20" s="1">
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21">
-        <v>8</v>
+      <c r="A21" s="1">
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22">
-        <v>9</v>
+      <c r="A22" s="1">
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23">
-        <v>10</v>
+      <c r="A23" s="1">
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24">
-        <v>93</v>
+      <c r="A24" s="1">
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25">
-        <v>11</v>
+      <c r="A25" s="1">
+        <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26">
-        <v>12</v>
+      <c r="A26" s="1">
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27">
-        <v>94</v>
+      <c r="A27" s="1">
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28">
-        <v>13</v>
+      <c r="A28" s="1">
+        <v>110</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29">
-        <v>14</v>
+      <c r="A29" s="1">
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30">
-        <v>15</v>
+      <c r="A30" s="1">
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31">
-        <v>16</v>
+      <c r="A31" s="1">
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32">
-        <v>17</v>
+      <c r="A32" s="1">
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33">
-        <v>18</v>
+      <c r="A33" s="1">
+        <v>27</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34">
-        <v>19</v>
+      <c r="A34" s="1">
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35">
-        <v>20</v>
+      <c r="A35" s="1">
+        <v>29</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36">
-        <v>21</v>
+      <c r="A36" s="1">
+        <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37">
-        <v>22</v>
+      <c r="A37" s="1">
+        <v>31</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38">
-        <v>23</v>
+      <c r="A38" s="1">
+        <v>32</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39">
-        <v>95</v>
+      <c r="A39" s="1">
+        <v>33</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40">
-        <v>24</v>
+      <c r="A40" s="1">
+        <v>34</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41">
-        <v>25</v>
+      <c r="A41" s="1">
+        <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42">
-        <v>26</v>
+      <c r="A42" s="1">
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43">
-        <v>27</v>
+      <c r="A43" s="1">
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44">
-        <v>28</v>
+      <c r="A44" s="1">
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45">
-        <v>29</v>
+      <c r="A45" s="1">
+        <v>39</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46">
-        <v>30</v>
+      <c r="A46" s="1">
+        <v>40</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47">
-        <v>31</v>
+      <c r="A47" s="1">
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D47" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48">
-        <v>32</v>
+      <c r="A48" s="1">
+        <v>42</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49">
-        <v>33</v>
+      <c r="A49" s="1">
+        <v>43</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50">
-        <v>34</v>
+      <c r="A50" s="1">
+        <v>44</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51">
-        <v>35</v>
+      <c r="A51" s="1">
+        <v>45</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52">
-        <v>36</v>
+      <c r="A52" s="1">
+        <v>46</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53">
-        <v>37</v>
+      <c r="A53" s="1">
+        <v>47</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54">
-        <v>38</v>
+      <c r="A54" s="1">
+        <v>48</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55">
-        <v>96</v>
+      <c r="A55" s="1">
+        <v>49</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56">
-        <v>39</v>
+      <c r="A56" s="1">
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57">
-        <v>40</v>
+      <c r="A57" s="1">
+        <v>51</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58">
-        <v>41</v>
+      <c r="A58" s="1">
+        <v>52</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59">
-        <v>42</v>
+      <c r="A59" s="1">
+        <v>53</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60">
-        <v>43</v>
+      <c r="A60" s="1">
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61">
-        <v>44</v>
+      <c r="A61" s="1">
+        <v>55</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62">
-        <v>97</v>
+      <c r="A62" s="1">
+        <v>56</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63">
-        <v>45</v>
+      <c r="A63" s="1">
+        <v>57</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D63" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64">
-        <v>46</v>
+      <c r="A64" s="1">
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65">
-        <v>47</v>
+      <c r="A65" s="1">
+        <v>59</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D65" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66">
-        <v>49</v>
+      <c r="A66" s="1">
+        <v>60</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67">
-        <v>50</v>
+      <c r="A67" s="1">
+        <v>61</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D67" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68">
-        <v>51</v>
+      <c r="A68" s="1">
+        <v>62</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69">
-        <v>52</v>
+      <c r="A69" s="1">
+        <v>63</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70">
-        <v>98</v>
+      <c r="A70" s="1">
+        <v>64</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="D70" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71">
-        <v>53</v>
+      <c r="A71" s="1">
+        <v>65</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D71" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72">
-        <v>99</v>
+      <c r="A72" s="1">
+        <v>66</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73">
-        <v>100</v>
+      <c r="A73" s="1">
+        <v>67</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="D73" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74">
-        <v>54</v>
+      <c r="A74" s="1">
+        <v>68</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75">
-        <v>101</v>
+      <c r="A75" s="1">
+        <v>108</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="D75" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76">
-        <v>55</v>
+      <c r="A76" s="1">
+        <v>69</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77">
-        <v>56</v>
+      <c r="A77" s="1">
+        <v>70</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D77" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78">
-        <v>102</v>
+      <c r="A78" s="1">
+        <v>71</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="D78" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79">
-        <v>57</v>
+      <c r="A79" s="1">
+        <v>72</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80">
-        <v>58</v>
+      <c r="A80" s="1">
+        <v>73</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D80" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81">
-        <v>59</v>
+      <c r="A81" s="1">
+        <v>74</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82">
-        <v>60</v>
+      <c r="A82" s="1">
+        <v>75</v>
       </c>
       <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>61</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
         <v>82</v>
       </c>
-      <c r="C83" t="s">
-        <v>165</v>
-      </c>
-      <c r="D83" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
+      <c r="C84" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>78</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>79</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>80</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>81</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>82</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>84</v>
+      </c>
+      <c r="B91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>85</v>
+      </c>
+      <c r="B92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>86</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>87</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>88</v>
+      </c>
+      <c r="B95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" t="s">
+        <v>91</v>
+      </c>
+      <c r="D95" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>89</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>90</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>91</v>
+      </c>
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>92</v>
+      </c>
+      <c r="B99" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>93</v>
+      </c>
+      <c r="B100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>94</v>
+      </c>
+      <c r="B101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>95</v>
+      </c>
+      <c r="B102" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>96</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>97</v>
+      </c>
+      <c r="B104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>98</v>
+      </c>
+      <c r="B105" t="s">
+        <v>100</v>
+      </c>
+      <c r="C105" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>99</v>
+      </c>
+      <c r="B106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>100</v>
+      </c>
+      <c r="B107" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>101</v>
+      </c>
+      <c r="B108" t="s">
         <v>103</v>
       </c>
-      <c r="B84" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>62</v>
-      </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>63</v>
-      </c>
-      <c r="B86" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" t="s">
-        <v>166</v>
-      </c>
-      <c r="D86" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>64</v>
-      </c>
-      <c r="B87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" t="s">
-        <v>167</v>
-      </c>
-      <c r="D87" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>65</v>
-      </c>
-      <c r="B88" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" t="s">
-        <v>168</v>
-      </c>
-      <c r="D88" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
+      <c r="C108" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>102</v>
+      </c>
+      <c r="B109" t="s">
         <v>104</v>
       </c>
-      <c r="B89" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>48</v>
-      </c>
-      <c r="B90" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>66</v>
-      </c>
-      <c r="B91" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" t="s">
-        <v>170</v>
-      </c>
-      <c r="D91" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>68</v>
-      </c>
-      <c r="B92" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" t="s">
-        <v>171</v>
-      </c>
-      <c r="D92" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
+      <c r="C109" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>103</v>
+      </c>
+      <c r="B110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" t="s">
+        <v>105</v>
+      </c>
+      <c r="D110" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>104</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>105</v>
+      </c>
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>106</v>
+      </c>
+      <c r="B113" t="s">
         <v>108</v>
       </c>
-      <c r="B93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" t="s">
-        <v>172</v>
-      </c>
-      <c r="D93" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>69</v>
-      </c>
-      <c r="B94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" t="s">
-        <v>173</v>
-      </c>
-      <c r="D94" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>70</v>
-      </c>
-      <c r="B95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" t="s">
-        <v>174</v>
-      </c>
-      <c r="D95" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>67</v>
-      </c>
-      <c r="B96" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" t="s">
-        <v>175</v>
-      </c>
-      <c r="D96" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>71</v>
-      </c>
-      <c r="B97" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" t="s">
-        <v>176</v>
-      </c>
-      <c r="D97" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>105</v>
-      </c>
-      <c r="B98" t="s">
-        <v>97</v>
-      </c>
-      <c r="C98" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>72</v>
-      </c>
-      <c r="B99" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" t="s">
-        <v>177</v>
-      </c>
-      <c r="D99" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
-        <v>73</v>
-      </c>
-      <c r="B100" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" t="s">
-        <v>178</v>
-      </c>
-      <c r="D100" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
-        <v>75</v>
-      </c>
-      <c r="B101" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" t="s">
-        <v>179</v>
-      </c>
-      <c r="D101" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
-        <v>74</v>
-      </c>
-      <c r="B102" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" t="s">
-        <v>179</v>
-      </c>
-      <c r="D102" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>106</v>
-      </c>
-      <c r="B103" t="s">
-        <v>101</v>
-      </c>
-      <c r="C103" t="s">
-        <v>101</v>
-      </c>
-      <c r="D103" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>107</v>
       </c>
-      <c r="B104" t="s">
-        <v>102</v>
-      </c>
-      <c r="C104" t="s">
-        <v>102</v>
-      </c>
-      <c r="D104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>76</v>
-      </c>
-      <c r="B105" t="s">
-        <v>103</v>
-      </c>
-      <c r="C105" t="s">
-        <v>180</v>
-      </c>
-      <c r="D105" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106">
-        <v>77</v>
-      </c>
-      <c r="B106" t="s">
-        <v>104</v>
-      </c>
-      <c r="C106" t="s">
-        <v>181</v>
-      </c>
-      <c r="D106" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>78</v>
-      </c>
-      <c r="B107" t="s">
-        <v>105</v>
-      </c>
-      <c r="C107" t="s">
-        <v>182</v>
-      </c>
-      <c r="D107" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>79</v>
-      </c>
-      <c r="B108" t="s">
-        <v>106</v>
-      </c>
-      <c r="C108" t="s">
-        <v>183</v>
-      </c>
-      <c r="D108" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>80</v>
-      </c>
-      <c r="B109" t="s">
-        <v>107</v>
-      </c>
-      <c r="C109" t="s">
-        <v>184</v>
-      </c>
-      <c r="D109" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110">
-        <v>81</v>
-      </c>
-      <c r="B110" t="s">
-        <v>108</v>
-      </c>
-      <c r="C110" t="s">
-        <v>185</v>
-      </c>
-      <c r="D110" t="s">
-        <v>285</v>
+      <c r="B114" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114" t="s">
+        <v>109</v>
+      </c>
+      <c r="D114" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="296">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>solution_name</t>
   </si>
@@ -25,6 +28,9 @@
     <t>solution_definition</t>
   </si>
   <si>
+    <t>Cancer Treatment Outcomes</t>
+  </si>
+  <si>
     <t>Ai Prompt Response Generator</t>
   </si>
   <si>
@@ -40,6 +46,9 @@
     <t>Calculator</t>
   </si>
   <si>
+    <t>Cancer Care Timeline</t>
+  </si>
+  <si>
     <t>cancer_care_timeline</t>
   </si>
   <si>
@@ -55,15 +64,15 @@
     <t>cancer_treatment_modalities</t>
   </si>
   <si>
-    <t>Cancer Treatment Outcomes</t>
-  </si>
-  <si>
     <t>cancer_treatment_sequencing</t>
   </si>
   <si>
     <t>Cancer Treatment Side Effects</t>
   </si>
   <si>
+    <t>cancer_treatment_side_effects</t>
+  </si>
+  <si>
     <t>Chat Gpt Integration</t>
   </si>
   <si>
@@ -217,6 +226,9 @@
     <t>Membership Matching</t>
   </si>
   <si>
+    <t>multi_disciplinary_cancer_care_team</t>
+  </si>
+  <si>
     <t>Multi Disciplinary Cancer Care Team</t>
   </si>
   <si>
@@ -232,6 +244,12 @@
     <t>Oncology Procedures Classification</t>
   </si>
   <si>
+    <t>Oncology Terminology</t>
+  </si>
+  <si>
+    <t>patient_cancer_risk_index</t>
+  </si>
+  <si>
     <t>Patient Cancer Risk Index</t>
   </si>
   <si>
@@ -349,9 +367,6 @@
     <t>cancer_treatment_outcomes</t>
   </si>
   <si>
-    <t>cancer_treatment_side_effects</t>
-  </si>
-  <si>
     <t>chat_gpt_integration</t>
   </si>
   <si>
@@ -490,16 +505,13 @@
     <t>membership_matching</t>
   </si>
   <si>
-    <t>multi_disciplinary_cancer_care_team</t>
-  </si>
-  <si>
     <t>notebook_clone</t>
   </si>
   <si>
     <t>oncology_procedures_classification</t>
   </si>
   <si>
-    <t>patient_cancer_risk_index</t>
+    <t>oncology_terminology</t>
   </si>
   <si>
     <t>patient_complexity_index</t>
@@ -580,6 +592,9 @@
     <t>world_mood</t>
   </si>
   <si>
+    <t>Analysis of outcomes related to cancer treatment.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Allows you to embed and record AI solutions such as CHATGPT4 into your solutions using API's, Automate ANYTHING and make your life easier. </t>
   </si>
   <si>
@@ -595,6 +610,9 @@
     <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
   </si>
   <si>
+    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
     <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
   </si>
   <si>
@@ -610,15 +628,18 @@
     <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
   </si>
   <si>
-    <t>Analysis of outcomes related to cancer treatment.</t>
-  </si>
-  <si>
     <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
   </si>
   <si>
     <t>quantifying of side affects associated with major cancer treatment modalities</t>
   </si>
   <si>
+    <t>quantifying of side affects associated with major treatment modalities</t>
+  </si>
+  <si>
+    <t>A analysis of side effects related to cancer treatments</t>
+  </si>
+  <si>
     <t>Solution for Chat Gpt Integration</t>
   </si>
   <si>
@@ -776,6 +797,12 @@
   </si>
   <si>
     <t>Process for classifying oncology procedures.</t>
+  </si>
+  <si>
+    <t>A dictionary of oncology  terminology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution for calculating  patients lieklihood to develop cancer within the next year. </t>
   </si>
   <si>
     <t>Analyzing each patients risk for developing cancer within next year.</t>
@@ -1232,13 +1259,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,1149 +1275,1604 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>111</v>
+      </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>9</v>
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
         <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>86</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>110</v>
-      </c>
       <c r="C13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>49</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>52</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>53</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>54</v>
+      </c>
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>113</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>55</v>
+      </c>
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>57</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>59</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>60</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>61</v>
+      </c>
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>62</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>63</v>
+      </c>
+      <c r="B91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>64</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>65</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>104</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>48</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>175</v>
+      </c>
+      <c r="D95" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>66</v>
+      </c>
+      <c r="B96" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>68</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>177</v>
+      </c>
+      <c r="D97" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>108</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>69</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>70</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>67</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>71</v>
+      </c>
+      <c r="B102" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
+        <v>182</v>
+      </c>
+      <c r="D102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>72</v>
+      </c>
+      <c r="B104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" t="s">
+        <v>183</v>
+      </c>
+      <c r="D104" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>73</v>
+      </c>
+      <c r="B105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>184</v>
+      </c>
+      <c r="D105" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>75</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>185</v>
+      </c>
+      <c r="D106" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>74</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>185</v>
+      </c>
+      <c r="D107" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>76</v>
+      </c>
+      <c r="B110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>77</v>
+      </c>
+      <c r="B111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" t="s">
+        <v>187</v>
+      </c>
+      <c r="D111" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>78</v>
+      </c>
+      <c r="B112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>79</v>
+      </c>
+      <c r="B113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" t="s">
+        <v>189</v>
+      </c>
+      <c r="D113" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>80</v>
+      </c>
+      <c r="B114" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" t="s">
+        <v>190</v>
+      </c>
+      <c r="D114" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>81</v>
+      </c>
+      <c r="B115" t="s">
         <v>111</v>
       </c>
-      <c r="C15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>161</v>
-      </c>
-      <c r="C72" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>167</v>
-      </c>
-      <c r="C79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>174</v>
-      </c>
-      <c r="C89" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>175</v>
-      </c>
-      <c r="C90" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>176</v>
-      </c>
-      <c r="C91" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>177</v>
-      </c>
-      <c r="C92" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>179</v>
-      </c>
-      <c r="C95" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>180</v>
-      </c>
-      <c r="C96" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>181</v>
-      </c>
-      <c r="C97" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>182</v>
-      </c>
-      <c r="C100" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>183</v>
-      </c>
-      <c r="C101" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>184</v>
-      </c>
-      <c r="C102" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>185</v>
-      </c>
-      <c r="C103" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
-        <v>186</v>
-      </c>
-      <c r="C104" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
-        <v>187</v>
-      </c>
-      <c r="C105" t="s">
-        <v>286</v>
+      <c r="C115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="296">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="295">
   <si>
     <t>solution_name</t>
   </si>
@@ -28,42 +25,42 @@
     <t>solution_definition</t>
   </si>
   <si>
+    <t>Ai Prompt Response Generator</t>
+  </si>
+  <si>
+    <t>Archival Automation</t>
+  </si>
+  <si>
+    <t>Automated Application Launcher</t>
+  </si>
+  <si>
+    <t>automating_windows_task_scheduler</t>
+  </si>
+  <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>Cancer Care Timeline</t>
+  </si>
+  <si>
+    <t>cancer_care_timeline</t>
+  </si>
+  <si>
+    <t>cancer_classification</t>
+  </si>
+  <si>
+    <t>cancer_staging</t>
+  </si>
+  <si>
+    <t>cancer_survival_index</t>
+  </si>
+  <si>
+    <t>cancer_treatment_modalities</t>
+  </si>
+  <si>
     <t>Cancer Treatment Outcomes</t>
   </si>
   <si>
-    <t>Ai Prompt Response Generator</t>
-  </si>
-  <si>
-    <t>Archival Automation</t>
-  </si>
-  <si>
-    <t>Automated Application Launcher</t>
-  </si>
-  <si>
-    <t>automating_windows_task_scheduler</t>
-  </si>
-  <si>
-    <t>Calculator</t>
-  </si>
-  <si>
-    <t>Cancer Care Timeline</t>
-  </si>
-  <si>
-    <t>cancer_care_timeline</t>
-  </si>
-  <si>
-    <t>cancer_classification</t>
-  </si>
-  <si>
-    <t>cancer_staging</t>
-  </si>
-  <si>
-    <t>cancer_survival_index</t>
-  </si>
-  <si>
-    <t>cancer_treatment_modalities</t>
-  </si>
-  <si>
     <t>cancer_treatment_sequencing</t>
   </si>
   <si>
@@ -226,12 +223,12 @@
     <t>Membership Matching</t>
   </si>
   <si>
+    <t>Multi Disciplinary Cancer Care Team</t>
+  </si>
+  <si>
     <t>multi_disciplinary_cancer_care_team</t>
   </si>
   <si>
-    <t>Multi Disciplinary Cancer Care Team</t>
-  </si>
-  <si>
     <t>Notebook Clone</t>
   </si>
   <si>
@@ -592,40 +589,40 @@
     <t>world_mood</t>
   </si>
   <si>
+    <t xml:space="preserve">Allows you to embed and record AI solutions such as CHATGPT4 into your solutions using API's, Automate ANYTHING and make your life easier. </t>
+  </si>
+  <si>
+    <t>Solution for Archival Automation</t>
+  </si>
+  <si>
+    <t>Solution for Automated Application Launcher</t>
+  </si>
+  <si>
+    <t>This solution automates creating python script to run in windows task scheduler.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
+  </si>
+  <si>
+    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
+    <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
+  </si>
+  <si>
+    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
+  </si>
+  <si>
+    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
+  </si>
+  <si>
     <t>Analysis of outcomes related to cancer treatment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows you to embed and record AI solutions such as CHATGPT4 into your solutions using API's, Automate ANYTHING and make your life easier. </t>
-  </si>
-  <si>
-    <t>Solution for Archival Automation</t>
-  </si>
-  <si>
-    <t>Solution for Automated Application Launcher</t>
-  </si>
-  <si>
-    <t>This solution automates creating python script to run in windows task scheduler.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
-  </si>
-  <si>
-    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
-  </si>
-  <si>
-    <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
-  </si>
-  <si>
-    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
-  </si>
-  <si>
-    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
-  </si>
-  <si>
-    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
   </si>
   <si>
     <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
@@ -1259,13 +1256,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,1497 +1272,1176 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>114</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>115</v>
       </c>
-      <c r="D8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>87</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>112</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>90</v>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>5</v>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>91</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>92</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>109</v>
-      </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>6</v>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>7</v>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>8</v>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>10</v>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="D26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
       <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>11</v>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>12</v>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>123</v>
       </c>
-      <c r="D29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>94</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
       <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>13</v>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>14</v>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>15</v>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>16</v>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>17</v>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>18</v>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>19</v>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>20</v>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>21</v>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>36</v>
       </c>
       <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" t="s">
         <v>36</v>
       </c>
-      <c r="C39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>22</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>110</v>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>23</v>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
         <v>135</v>
       </c>
-      <c r="D42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>95</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
       <c r="C43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>24</v>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>25</v>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>26</v>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>27</v>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>28</v>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>29</v>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>30</v>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>31</v>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>32</v>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>33</v>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>34</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>35</v>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>36</v>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>37</v>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>38</v>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>55</v>
       </c>
       <c r="C58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
         <v>150</v>
       </c>
-      <c r="D58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>96</v>
-      </c>
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
       <c r="C59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>39</v>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>40</v>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>41</v>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>42</v>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>43</v>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>44</v>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
       </c>
       <c r="C65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
         <v>156</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C66" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>97</v>
-      </c>
-      <c r="B66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>45</v>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>46</v>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>47</v>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>49</v>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>50</v>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>51</v>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>98</v>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>70</v>
       </c>
       <c r="B73" t="s">
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>52</v>
-      </c>
-      <c r="B74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>53</v>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>72</v>
       </c>
       <c r="B75" t="s">
         <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
-      </c>
-      <c r="D75" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>99</v>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>73</v>
       </c>
       <c r="B76" t="s">
         <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>100</v>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>54</v>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
-      </c>
-      <c r="D78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>113</v>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>76</v>
       </c>
       <c r="C79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
         <v>165</v>
       </c>
-      <c r="D79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>101</v>
-      </c>
-      <c r="B80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D80" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>55</v>
-      </c>
-      <c r="B81" t="s">
-        <v>78</v>
-      </c>
       <c r="C81" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>56</v>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>79</v>
       </c>
       <c r="C82" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
         <v>166</v>
       </c>
-      <c r="D82" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>102</v>
-      </c>
-      <c r="B83" t="s">
-        <v>80</v>
-      </c>
       <c r="C83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>57</v>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
-      </c>
-      <c r="D84" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>58</v>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>59</v>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
-      </c>
-      <c r="D86" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>60</v>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
-      </c>
-      <c r="D87" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>61</v>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>85</v>
       </c>
       <c r="B88" t="s">
         <v>85</v>
       </c>
       <c r="C88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
         <v>171</v>
       </c>
-      <c r="D88" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>103</v>
-      </c>
-      <c r="B89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>62</v>
-      </c>
-      <c r="B90" t="s">
-        <v>87</v>
-      </c>
       <c r="C90" t="s">
-        <v>86</v>
-      </c>
-      <c r="D90" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>63</v>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
-      </c>
-      <c r="D91" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>64</v>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
-      </c>
-      <c r="D92" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
-        <v>65</v>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>90</v>
       </c>
       <c r="C93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
         <v>174</v>
       </c>
-      <c r="D93" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>104</v>
-      </c>
-      <c r="B94" t="s">
-        <v>91</v>
-      </c>
       <c r="C94" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>48</v>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
-      </c>
-      <c r="D95" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>66</v>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
-      </c>
-      <c r="D96" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>68</v>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
-      </c>
-      <c r="D97" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>108</v>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>69</v>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
-        <v>70</v>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
-      </c>
-      <c r="D100" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
-        <v>67</v>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
-      </c>
-      <c r="D101" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
-        <v>71</v>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>99</v>
       </c>
       <c r="B102" t="s">
         <v>99</v>
       </c>
       <c r="C102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
         <v>182</v>
       </c>
-      <c r="D102" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>105</v>
-      </c>
-      <c r="B103" t="s">
-        <v>100</v>
-      </c>
       <c r="C103" t="s">
-        <v>100</v>
-      </c>
-      <c r="D103" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>72</v>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
-      </c>
-      <c r="D104" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>73</v>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>102</v>
       </c>
       <c r="B105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>102</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
         <v>184</v>
       </c>
-      <c r="D105" t="s">
+      <c r="C106" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106">
-        <v>75</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>103</v>
-      </c>
-      <c r="C106" t="s">
-        <v>185</v>
-      </c>
-      <c r="D106" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>74</v>
       </c>
       <c r="B107" t="s">
         <v>103</v>
       </c>
       <c r="C107" t="s">
-        <v>185</v>
-      </c>
-      <c r="D107" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>106</v>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>104</v>
       </c>
       <c r="B108" t="s">
         <v>104</v>
@@ -2773,106 +2449,71 @@
       <c r="C108" t="s">
         <v>104</v>
       </c>
-      <c r="D108" t="s">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
-        <v>105</v>
-      </c>
-      <c r="C109" t="s">
-        <v>105</v>
-      </c>
-      <c r="D109" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110">
-        <v>76</v>
-      </c>
-      <c r="B110" t="s">
-        <v>106</v>
-      </c>
-      <c r="C110" t="s">
-        <v>186</v>
-      </c>
-      <c r="D110" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111">
-        <v>77</v>
-      </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="C111" t="s">
-        <v>187</v>
-      </c>
-      <c r="D111" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112">
-        <v>78</v>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
-      </c>
-      <c r="D112" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113">
-        <v>79</v>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="C113" t="s">
-        <v>189</v>
-      </c>
-      <c r="D113" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114">
-        <v>80</v>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="C114" t="s">
-        <v>190</v>
-      </c>
-      <c r="D114" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115">
-        <v>81</v>
-      </c>
-      <c r="B115" t="s">
-        <v>111</v>
-      </c>
-      <c r="C115" t="s">
-        <v>191</v>
-      </c>
-      <c r="D115" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5427FC-789B-4259-83F8-C829DB598B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="290">
   <si>
     <t>solution_name</t>
   </si>
@@ -40,9 +46,6 @@
     <t>Calculator</t>
   </si>
   <si>
-    <t>Cancer Care Timeline</t>
-  </si>
-  <si>
     <t>cancer_care_timeline</t>
   </si>
   <si>
@@ -607,9 +610,6 @@
     <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
   </si>
   <si>
-    <t>Analyzing each patients tempopral pathway through their cancer treatment and survivorship.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
   </si>
   <si>
@@ -628,12 +628,6 @@
     <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
   </si>
   <si>
-    <t>quantifying of side affects associated with major cancer treatment modalities</t>
-  </si>
-  <si>
-    <t>quantifying of side affects associated with major treatment modalities</t>
-  </si>
-  <si>
     <t>A analysis of side effects related to cancer treatments</t>
   </si>
   <si>
@@ -824,9 +818,6 @@
   </si>
   <si>
     <t>Machine learning for predicting diabetes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using machine learning to predict lung cancer. </t>
   </si>
   <si>
     <t>Machine learning for predicting lung cancer.</t>
@@ -904,8 +895,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,13 +959,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1012,7 +1011,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1046,6 +1045,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1080,9 +1080,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1255,14 +1256,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,40 +1281,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1314,34 +1322,34 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1350,1173 +1358,1086 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C87" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C94" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C97" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C98" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C101" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="C102" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C103" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C104" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>103</v>
-      </c>
-      <c r="B107" t="s">
-        <v>103</v>
-      </c>
-      <c r="C107" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>104</v>
-      </c>
-      <c r="B108" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>105</v>
-      </c>
-      <c r="B109" t="s">
-        <v>185</v>
-      </c>
-      <c r="C109" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>106</v>
-      </c>
-      <c r="B110" t="s">
-        <v>186</v>
-      </c>
-      <c r="C110" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>107</v>
-      </c>
-      <c r="B111" t="s">
-        <v>187</v>
-      </c>
-      <c r="C111" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>108</v>
-      </c>
-      <c r="B112" t="s">
-        <v>188</v>
-      </c>
-      <c r="C112" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>109</v>
-      </c>
-      <c r="B113" t="s">
-        <v>189</v>
-      </c>
-      <c r="C113" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>110</v>
-      </c>
-      <c r="B114" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="298">
   <si>
     <t>solution_name</t>
   </si>
@@ -25,7 +25,7 @@
     <t>solution_definition</t>
   </si>
   <si>
-    <t>Ai Prompt Response Generator</t>
+    <t>solution_description</t>
   </si>
   <si>
     <t>Archival Automation</t>
@@ -223,12 +223,12 @@
     <t>Membership Matching</t>
   </si>
   <si>
+    <t>Multi Disciplinary Cancer Care Team</t>
+  </si>
+  <si>
     <t>multi_disciplinary_cancer_care_team</t>
   </si>
   <si>
-    <t>Multi Disciplinary Cancer Care Team</t>
-  </si>
-  <si>
     <t>Notebook Clone</t>
   </si>
   <si>
@@ -265,6 +265,9 @@
     <t xml:space="preserve">Poor Emotional Regulatory Control </t>
   </si>
   <si>
+    <t>Precision Oncology</t>
+  </si>
+  <si>
     <t>Predicting Colorectal Cancer</t>
   </si>
   <si>
@@ -292,6 +295,9 @@
     <t>Remote Process Automation Excel</t>
   </si>
   <si>
+    <t>Rules Engine</t>
+  </si>
+  <si>
     <t>Simple Chatbot Simple Nlp Response</t>
   </si>
   <si>
@@ -346,9 +352,6 @@
     <t>World Mood</t>
   </si>
   <si>
-    <t>ai_prompt_response_generator</t>
-  </si>
-  <si>
     <t>archival_automation</t>
   </si>
   <si>
@@ -526,6 +529,9 @@
     <t>poor_emotional_regulatory_control</t>
   </si>
   <si>
+    <t>precision_oncology</t>
+  </si>
+  <si>
     <t>predicting_colorectal_cancer</t>
   </si>
   <si>
@@ -550,6 +556,9 @@
     <t>remote_process_automation_excel</t>
   </si>
   <si>
+    <t>rules_engine</t>
+  </si>
+  <si>
     <t>simple_chatbot_simple_nlp_response</t>
   </si>
   <si>
@@ -595,9 +604,6 @@
     <t>world_mood</t>
   </si>
   <si>
-    <t xml:space="preserve">Allows you to embed and record AI solutions such as CHATGPT4 into your solutions using API's, Automate ANYTHING and make your life easier. </t>
-  </si>
-  <si>
     <t>Archival Automation automatically backs up your data and puts a archive  stamp on it.</t>
   </si>
   <si>
@@ -658,7 +664,7 @@
     <t>A correlation heatmap provides insights to critical relationships within Data</t>
   </si>
   <si>
-    <t>Generate a beautiful  and effective readme.md file.</t>
+    <t>Generate a beautifulk and effective readme.md file.</t>
   </si>
   <si>
     <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
@@ -823,6 +829,9 @@
     <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
   </si>
   <si>
+    <t>Analysis of needs for current state of precision oncology.</t>
+  </si>
+  <si>
     <t>Machine learning for predicting colorectal cancer.</t>
   </si>
   <si>
@@ -848,6 +857,9 @@
   </si>
   <si>
     <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
+  </si>
+  <si>
+    <t>Automated rules engine for dynamically analyzing data quality.</t>
   </si>
   <si>
     <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
@@ -1253,13 +1265,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,1303 +1281,1520 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>197</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>199</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>201</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>203</v>
+      </c>
+      <c r="D10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>204</v>
+      </c>
+      <c r="D11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>205</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>206</v>
+      </c>
+      <c r="D13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>207</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>208</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>210</v>
+      </c>
+      <c r="D17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>211</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>212</v>
+      </c>
+      <c r="D19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>213</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>214</v>
+      </c>
+      <c r="D21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>251</v>
+      </c>
+      <c r="D59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" t="s">
+        <v>259</v>
+      </c>
+      <c r="D69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>260</v>
+      </c>
+      <c r="D70" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>264</v>
+      </c>
+      <c r="D74" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>266</v>
+      </c>
+      <c r="D76" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>267</v>
+      </c>
+      <c r="D77" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>268</v>
+      </c>
+      <c r="D78" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" t="s">
+        <v>272</v>
+      </c>
+      <c r="D82" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>273</v>
+      </c>
+      <c r="D83" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" t="s">
+        <v>274</v>
+      </c>
+      <c r="D84" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" t="s">
+        <v>275</v>
+      </c>
+      <c r="D85" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>278</v>
+      </c>
+      <c r="D88" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" t="s">
+        <v>279</v>
+      </c>
+      <c r="D89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" t="s">
+        <v>280</v>
+      </c>
+      <c r="D90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" t="s">
+        <v>283</v>
+      </c>
+      <c r="D93" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" t="s">
+        <v>284</v>
+      </c>
+      <c r="D94" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" t="s">
+        <v>286</v>
+      </c>
+      <c r="D96" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" t="s">
+        <v>287</v>
+      </c>
+      <c r="D97" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>288</v>
+      </c>
+      <c r="D98" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" t="s">
+        <v>289</v>
+      </c>
+      <c r="D99" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" t="s">
+        <v>290</v>
+      </c>
+      <c r="D100" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>292</v>
+      </c>
+      <c r="D102" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" t="s">
+        <v>293</v>
+      </c>
+      <c r="D104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>76</v>
-      </c>
-      <c r="B81" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B83" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" t="s">
-        <v>167</v>
-      </c>
-      <c r="C86" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" t="s">
-        <v>168</v>
-      </c>
-      <c r="C87" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" t="s">
-        <v>169</v>
-      </c>
-      <c r="C88" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" t="s">
-        <v>170</v>
-      </c>
-      <c r="C90" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>84</v>
-      </c>
-      <c r="B92" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>85</v>
-      </c>
-      <c r="B93" t="s">
-        <v>172</v>
-      </c>
-      <c r="C93" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B95" t="s">
-        <v>173</v>
-      </c>
-      <c r="C95" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" t="s">
-        <v>174</v>
-      </c>
-      <c r="C96" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" t="s">
-        <v>175</v>
-      </c>
-      <c r="C97" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>89</v>
-      </c>
-      <c r="B98" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>90</v>
-      </c>
-      <c r="B99" t="s">
-        <v>176</v>
-      </c>
-      <c r="C99" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>91</v>
-      </c>
-      <c r="B100" t="s">
-        <v>177</v>
-      </c>
-      <c r="C100" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>92</v>
-      </c>
-      <c r="B101" t="s">
-        <v>178</v>
-      </c>
-      <c r="C101" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>93</v>
-      </c>
-      <c r="B102" t="s">
-        <v>179</v>
-      </c>
-      <c r="C102" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>93</v>
-      </c>
-      <c r="B103" t="s">
-        <v>179</v>
-      </c>
-      <c r="C103" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>94</v>
-      </c>
-      <c r="B104" t="s">
-        <v>180</v>
-      </c>
-      <c r="C104" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" t="s">
-        <v>181</v>
-      </c>
-      <c r="C105" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>294</v>
+      </c>
+      <c r="D106" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>295</v>
+      </c>
+      <c r="D107" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="C108" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>296</v>
+      </c>
+      <c r="D108" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C109" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>100</v>
-      </c>
-      <c r="B110" t="s">
-        <v>185</v>
-      </c>
-      <c r="C110" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>102</v>
-      </c>
-      <c r="B112" t="s">
-        <v>102</v>
-      </c>
-      <c r="C112" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>103</v>
-      </c>
-      <c r="B113" t="s">
-        <v>103</v>
-      </c>
-      <c r="C113" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>104</v>
-      </c>
-      <c r="B114" t="s">
-        <v>187</v>
-      </c>
-      <c r="C114" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115" t="s">
-        <v>188</v>
-      </c>
-      <c r="C115" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>106</v>
-      </c>
-      <c r="B116" t="s">
-        <v>189</v>
-      </c>
-      <c r="C116" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>107</v>
-      </c>
-      <c r="B117" t="s">
-        <v>190</v>
-      </c>
-      <c r="C117" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>108</v>
-      </c>
-      <c r="B118" t="s">
-        <v>191</v>
-      </c>
-      <c r="C118" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>109</v>
-      </c>
-      <c r="B119" t="s">
-        <v>192</v>
-      </c>
-      <c r="C119" t="s">
-        <v>293</v>
+        <v>297</v>
+      </c>
+      <c r="D109" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864DF9D9-6CE8-4A56-B613-2C3C65ECC650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E7B25F-47E1-40E5-8740-C17F29BA8088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="307">
   <si>
     <t>solution_name</t>
   </si>
@@ -932,6 +932,15 @@
   </si>
   <si>
     <t xml:space="preserve">A very tiny example of supervised learning. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chorpleth Map </t>
+  </si>
+  <si>
+    <t>choropleth_map</t>
+  </si>
+  <si>
+    <t>Mapping solution for global and local choropleth maps</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C74" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1482,13 +1491,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="D13" t="s">
         <v>209</v>
@@ -1496,349 +1505,349 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D38" t="s">
         <v>233</v>
@@ -1846,601 +1855,601 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="D80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="C81" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="D81" t="s">
         <v>275</v>
@@ -2448,421 +2457,435 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="D86" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="D87" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D89" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="D92" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D95" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="D102" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="D103" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="D104" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>300</v>
+      </c>
+      <c r="D111" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>112</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>112</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D112" t="s">
         <v>112</v>
       </c>
     </row>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="319">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>solution_name</t>
   </si>
@@ -34,15 +37,36 @@
     <t>Automated Application Launcher</t>
   </si>
   <si>
+    <t>automating_windows_task_scheduler</t>
+  </si>
+  <si>
     <t>Calculator</t>
   </si>
   <si>
     <t>Cancer Care Timeline</t>
   </si>
   <si>
+    <t>cancer_care_timeline</t>
+  </si>
+  <si>
+    <t>cancer_classification</t>
+  </si>
+  <si>
+    <t>cancer_staging</t>
+  </si>
+  <si>
+    <t>cancer_survival_index</t>
+  </si>
+  <si>
+    <t>cancer_treatment_modalities</t>
+  </si>
+  <si>
     <t>Cancer Treatment Outcomes</t>
   </si>
   <si>
+    <t>cancer_treatment_sequencing</t>
+  </si>
+  <si>
     <t>Cancer Treatment Side Effects</t>
   </si>
   <si>
@@ -67,6 +91,9 @@
     <t>Corpus</t>
   </si>
   <si>
+    <t>corpus_learning_chatbot</t>
+  </si>
+  <si>
     <t>Correlation Heatmap</t>
   </si>
   <si>
@@ -76,12 +103,15 @@
     <t>Create Sign</t>
   </si>
   <si>
+    <t>create_solution</t>
+  </si>
+  <si>
+    <t>Create Solution Sign</t>
+  </si>
+  <si>
     <t>Create Solution Definition</t>
   </si>
   <si>
-    <t>Create Solution Sign</t>
-  </si>
-  <si>
     <t>Create Solution Word Cloud</t>
   </si>
   <si>
@@ -121,6 +151,9 @@
     <t>Diabetes Risk Stratification.</t>
   </si>
   <si>
+    <t>diagrams</t>
+  </si>
+  <si>
     <t>Disease Progression Model</t>
   </si>
   <si>
@@ -169,6 +202,9 @@
     <t>Hugging Face Transformers</t>
   </si>
   <si>
+    <t>icd_10_cm_analysis</t>
+  </si>
+  <si>
     <t>Incremental Imports</t>
   </si>
   <si>
@@ -187,6 +223,9 @@
     <t xml:space="preserve">Intelligent Chatbot Web Scrapping  </t>
   </si>
   <si>
+    <t>inventory_your_python</t>
+  </si>
+  <si>
     <t>Jupyter Notebook Process Steps</t>
   </si>
   <si>
@@ -196,93 +235,114 @@
     <t>Library Installer</t>
   </si>
   <si>
+    <t>Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Managing Personas</t>
+  </si>
+  <si>
+    <t>Membership Matching</t>
+  </si>
+  <si>
+    <t>multi_disciplinary_cancer_care_team</t>
+  </si>
+  <si>
+    <t>Multi Disciplinary Cancer Care Team</t>
+  </si>
+  <si>
+    <t>Notebook Clone</t>
+  </si>
+  <si>
+    <t>oncology_diagnostic_coding</t>
+  </si>
+  <si>
+    <t>oncology_epidemiology</t>
+  </si>
+  <si>
+    <t>Oncology Procedures Classification</t>
+  </si>
+  <si>
+    <t>Oncology Terminology</t>
+  </si>
+  <si>
+    <t>patient_cancer_risk_index</t>
+  </si>
+  <si>
+    <t>Patient Cancer Risk Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Complexity Index </t>
+  </si>
+  <si>
+    <t>patient_gaps_in_care</t>
+  </si>
+  <si>
+    <t>Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
+  </si>
+  <si>
+    <t>Precision Oncology</t>
+  </si>
+  <si>
+    <t>Predicting Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>Predicting Diabetes</t>
+  </si>
+  <si>
+    <t>Predicting Lung Cancer</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Progress Bar</t>
+  </si>
+  <si>
+    <t>Python Foundation</t>
+  </si>
+  <si>
+    <t>quality_of_life_index</t>
+  </si>
+  <si>
     <t>Library for Logging And Debugging</t>
   </si>
   <si>
-    <t>Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Managing Personas</t>
-  </si>
-  <si>
-    <t>Membership Matching</t>
-  </si>
-  <si>
-    <t>Multi Disciplinary Cancer Care Team</t>
-  </si>
-  <si>
-    <t>Notebook Clone</t>
-  </si>
-  <si>
-    <t>Oncology Procedures Classification</t>
-  </si>
-  <si>
-    <t>Oncology Terminology</t>
-  </si>
-  <si>
-    <t>Patient Cancer Risk Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient Complexity Index </t>
-  </si>
-  <si>
-    <t>Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
-  </si>
-  <si>
-    <t>Precision Oncology</t>
-  </si>
-  <si>
-    <t>Predicting Colorectal Cancer</t>
-  </si>
-  <si>
-    <t>Predicting Diabetes</t>
-  </si>
-  <si>
-    <t>Predicting Lung Cancer</t>
-  </si>
-  <si>
-    <t>Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Progress Bar</t>
-  </si>
-  <si>
-    <t>Python Foundation</t>
-  </si>
-  <si>
     <t>Remote Process Automation Excel</t>
   </si>
   <si>
     <t>Rules Engine</t>
   </si>
   <si>
+    <t>Simple Chatbot Simple Nlp Response</t>
+  </si>
+  <si>
+    <t>Smart Mini Proposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Registry </t>
+  </si>
+  <si>
+    <t>Solution Template</t>
+  </si>
+  <si>
     <t>SQLite Introduction</t>
   </si>
   <si>
-    <t>Simple Chatbot Simple Nlp Response</t>
-  </si>
-  <si>
-    <t>Smart Mini Proposal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Registry </t>
-  </si>
-  <si>
-    <t>Solution Template</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supervised Learning </t>
   </si>
   <si>
     <t>System Information</t>
   </si>
   <si>
+    <t>taipy_web_gui</t>
+  </si>
+  <si>
     <t>Talking Code</t>
   </si>
   <si>
@@ -292,6 +352,12 @@
     <t>Task Scheduling</t>
   </si>
   <si>
+    <t>term_frequency_inverse_document_frequency</t>
+  </si>
+  <si>
+    <t>titanic_survival_analysis</t>
+  </si>
+  <si>
     <t>Unzip Automation</t>
   </si>
   <si>
@@ -310,69 +376,6 @@
     <t>World Mood</t>
   </si>
   <si>
-    <t>automating_windows_task_scheduler</t>
-  </si>
-  <si>
-    <t>cancer_care_timeline</t>
-  </si>
-  <si>
-    <t>cancer_classification</t>
-  </si>
-  <si>
-    <t>cancer_staging</t>
-  </si>
-  <si>
-    <t>cancer_survival_index</t>
-  </si>
-  <si>
-    <t>cancer_treatment_modalities</t>
-  </si>
-  <si>
-    <t>cancer_treatment_sequencing</t>
-  </si>
-  <si>
-    <t>corpus_learning_chatbot</t>
-  </si>
-  <si>
-    <t>create_solution</t>
-  </si>
-  <si>
-    <t>diagrams</t>
-  </si>
-  <si>
-    <t>icd_10_cm_analysis</t>
-  </si>
-  <si>
-    <t>inventory_your_python</t>
-  </si>
-  <si>
-    <t>multi_disciplinary_cancer_care_team</t>
-  </si>
-  <si>
-    <t>oncology_diagnostic_coding</t>
-  </si>
-  <si>
-    <t>oncology_epidemiology</t>
-  </si>
-  <si>
-    <t>patient_cancer_risk_index</t>
-  </si>
-  <si>
-    <t>patient_gaps_in_care</t>
-  </si>
-  <si>
-    <t>quality_of_life_index</t>
-  </si>
-  <si>
-    <t>taipy_web_gui</t>
-  </si>
-  <si>
-    <t>term_frequency_inverse_document_frequency</t>
-  </si>
-  <si>
-    <t>titanic_survival_analysis</t>
-  </si>
-  <si>
     <t>archival_automation</t>
   </si>
   <si>
@@ -418,12 +421,12 @@
     <t>create_sign</t>
   </si>
   <si>
+    <t>create_solution sign</t>
+  </si>
+  <si>
     <t>create_solution_definition</t>
   </si>
   <si>
-    <t>create_solution sign</t>
-  </si>
-  <si>
     <t>create_solution_word_cloud</t>
   </si>
   <si>
@@ -538,81 +541,81 @@
     <t>library_installer</t>
   </si>
   <si>
+    <t>logging_and_debugging</t>
+  </si>
+  <si>
+    <t>managing_personas</t>
+  </si>
+  <si>
+    <t>membership_matching</t>
+  </si>
+  <si>
+    <t>notebook_clone</t>
+  </si>
+  <si>
+    <t>oncology_procedures_classification</t>
+  </si>
+  <si>
+    <t>oncology_terminology</t>
+  </si>
+  <si>
+    <t>patient_complexity_index</t>
+  </si>
+  <si>
+    <t>patient_word_cloud</t>
+  </si>
+  <si>
+    <t>penguins</t>
+  </si>
+  <si>
+    <t>poor_emotional_regulatory_control</t>
+  </si>
+  <si>
+    <t>precision_oncology</t>
+  </si>
+  <si>
+    <t>predicting_colorectal_cancer</t>
+  </si>
+  <si>
+    <t>predicting_diabetes</t>
+  </si>
+  <si>
+    <t>predicting_lung_cancer</t>
+  </si>
+  <si>
+    <t>principal_component_analysis</t>
+  </si>
+  <si>
+    <t>progress_bar</t>
+  </si>
+  <si>
+    <t>python_foundation</t>
+  </si>
+  <si>
     <t>quicklogging</t>
   </si>
   <si>
-    <t>logging_and_debugging</t>
-  </si>
-  <si>
-    <t>managing_personas</t>
-  </si>
-  <si>
-    <t>membership_matching</t>
-  </si>
-  <si>
-    <t>notebook_clone</t>
-  </si>
-  <si>
-    <t>oncology_procedures_classification</t>
-  </si>
-  <si>
-    <t>oncology_terminology</t>
-  </si>
-  <si>
-    <t>patient_complexity_index</t>
-  </si>
-  <si>
-    <t>patient_word_cloud</t>
-  </si>
-  <si>
-    <t>penguins</t>
-  </si>
-  <si>
-    <t>poor_emotional_regulatory_control</t>
-  </si>
-  <si>
-    <t>precision_oncology</t>
-  </si>
-  <si>
-    <t>predicting_colorectal_cancer</t>
-  </si>
-  <si>
-    <t>predicting_diabetes</t>
-  </si>
-  <si>
-    <t>predicting_lung_cancer</t>
-  </si>
-  <si>
-    <t>principal_component_analysis</t>
-  </si>
-  <si>
-    <t>progress_bar</t>
-  </si>
-  <si>
-    <t>python_foundation</t>
-  </si>
-  <si>
     <t>remote_process_automation_excel</t>
   </si>
   <si>
     <t>rules_engine</t>
   </si>
   <si>
+    <t>simple_chatbot_simple_nlp_response</t>
+  </si>
+  <si>
+    <t>smart_mini_proposal</t>
+  </si>
+  <si>
+    <t>solution_registry</t>
+  </si>
+  <si>
+    <t>solution_template</t>
+  </si>
+  <si>
     <t>sqlite_introduction</t>
   </si>
   <si>
-    <t>simple_chatbot_simple_nlp_response</t>
-  </si>
-  <si>
-    <t>smart_mini_proposal</t>
-  </si>
-  <si>
-    <t>solution_registry</t>
-  </si>
-  <si>
-    <t>solution_template</t>
-  </si>
-  <si>
     <t>supervised_learning</t>
   </si>
   <si>
@@ -652,15 +655,33 @@
     <t>Automated Application Launcher launches any application you want on a schedule or through voice commands</t>
   </si>
   <si>
+    <t>This solution automates creating python script to run in windows task scheduler.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Build a simple calulator using python and tkinter to enhance your programming skills </t>
   </si>
   <si>
     <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
   </si>
   <si>
+    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
+  </si>
+  <si>
+    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
+  </si>
+  <si>
+    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Provides a list of measureable otucomes for Cancer Care including remission, ongoing treatment, active survellance, detah, etc.  </t>
   </si>
   <si>
+    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
+  </si>
+  <si>
     <t>quantifying of side affects associated with major cancer treatment modalities</t>
   </si>
   <si>
@@ -685,6 +706,9 @@
     <t>Provide a set of images designed to brand and represent each unique solution.</t>
   </si>
   <si>
+    <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
+  </si>
+  <si>
     <t>A correlation heatmap provides insights to critical relationships within Data</t>
   </si>
   <si>
@@ -694,6 +718,9 @@
     <t>A tiny utility to create PNG signs.</t>
   </si>
   <si>
+    <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
+  </si>
+  <si>
     <t>A utility to create a new PNG sign for every solution.</t>
   </si>
   <si>
@@ -733,6 +760,9 @@
     <t>Macine Learning Risk stratifcation - 3 different approaches</t>
   </si>
   <si>
+    <t>A repository for digrams</t>
+  </si>
+  <si>
     <t>Solution for Disease Progression Model</t>
   </si>
   <si>
@@ -781,6 +811,9 @@
     <t>Solution for Hugging Face Transformers</t>
   </si>
   <si>
+    <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
+  </si>
+  <si>
     <t>Solution for Incremental Imports</t>
   </si>
   <si>
@@ -808,93 +841,111 @@
     <t>Solution for Library Installer</t>
   </si>
   <si>
+    <t>Solution for Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
+  </si>
+  <si>
+    <t>Solution for Membership Matching</t>
+  </si>
+  <si>
+    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
+  </si>
+  <si>
+    <t>Solution for Notebook Clone</t>
+  </si>
+  <si>
+    <t>Define and classify diagnosis for all forms of cancer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epidemiology methodology for oncology </t>
+  </si>
+  <si>
+    <t>Process for classifying oncology procedures.</t>
+  </si>
+  <si>
+    <t>A dictionary of oncology  terminology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution for calculating  patients lieklihood to develop cancer within the next year. </t>
+  </si>
+  <si>
+    <t>Analyzing each patients risk for developing cancer within next year.</t>
+  </si>
+  <si>
+    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
+  </si>
+  <si>
+    <t>A report on specific patients gaps in care</t>
+  </si>
+  <si>
+    <t>Solution for Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Solution for Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
+  </si>
+  <si>
+    <t>Analysis of needs for current state of precision oncology.</t>
+  </si>
+  <si>
+    <t>Machine learning for predicting colorectal cancer.</t>
+  </si>
+  <si>
+    <t>Machine learning for predicting diabetes.</t>
+  </si>
+  <si>
+    <t>Machine learning for predicting lung cancer.</t>
+  </si>
+  <si>
+    <t>Solution for Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Solution for Progress Bar</t>
+  </si>
+  <si>
+    <t>Solution for Python Foundation</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
+  </si>
+  <si>
     <t xml:space="preserve">.py library for easily using logging and debugging. </t>
   </si>
   <si>
-    <t>Solution for Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Genterate and mangae personas of any type to Mmake Chat GPT even MORE AMAZING !!!!</t>
-  </si>
-  <si>
-    <t>Solution for Membership Matching</t>
-  </si>
-  <si>
-    <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
-  </si>
-  <si>
-    <t>Solution for Notebook Clone</t>
-  </si>
-  <si>
-    <t>Process for classifying oncology procedures.</t>
-  </si>
-  <si>
-    <t>A dictionary of oncology  terminology.</t>
-  </si>
-  <si>
-    <t>Analyzing each patients risk for developing cancer within next year.</t>
-  </si>
-  <si>
-    <t>Solution for calculating a patients complexity based upon their diagnostic profile.</t>
-  </si>
-  <si>
-    <t>Solution for Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Solution for Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific contol bahaviors (eating disorders, binge driking, or substance abuse </t>
-  </si>
-  <si>
-    <t>Analysis of needs for current state of precision oncology.</t>
-  </si>
-  <si>
-    <t>Machine learning for predicting colorectal cancer.</t>
-  </si>
-  <si>
-    <t>Machine learning for predicting diabetes.</t>
-  </si>
-  <si>
-    <t>Machine learning for predicting lung cancer.</t>
-  </si>
-  <si>
-    <t>Solution for Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Solution for Progress Bar</t>
-  </si>
-  <si>
-    <t>Solution for Python Foundation</t>
-  </si>
-  <si>
     <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
   </si>
   <si>
     <t>Automated rules engine for dynamically analyzing data quality.</t>
   </si>
   <si>
+    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
+  </si>
+  <si>
+    <t>Creates a mini proposal using a template and SMART criteria.</t>
+  </si>
+  <si>
+    <t>Solution Registry - houses a list of solutions</t>
+  </si>
+  <si>
+    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
+  </si>
+  <si>
     <t>sqlite_introduction provides an introduction to SQL lite</t>
   </si>
   <si>
-    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
-  </si>
-  <si>
-    <t>Creates a mini proposal using a template and SMART criteria.</t>
-  </si>
-  <si>
-    <t>Solution Registry - houses a list of solutions</t>
-  </si>
-  <si>
-    <t>Solution template - Template to Kick start amzing A.I. Applications</t>
-  </si>
-  <si>
     <t xml:space="preserve">A very tiny example of supervised learning. </t>
   </si>
   <si>
     <t>Provides general system information including CURRENT  memory / CPU usage</t>
   </si>
   <si>
+    <t>Machine learning with Taipy web GUI and tensorflow ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">Application for building sophisticated text to speech </t>
   </si>
   <si>
@@ -904,6 +955,9 @@
     <t>Schedules tasks and executes runtimes</t>
   </si>
   <si>
+    <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
+  </si>
+  <si>
     <t>Solution for Unzip Automation</t>
   </si>
   <si>
@@ -917,57 +971,6 @@
   </si>
   <si>
     <t>Solution for World Mood</t>
-  </si>
-  <si>
-    <t>This solution automates creating python script to run in windows task scheduler.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
-  </si>
-  <si>
-    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumer-Nodes-Metasticies</t>
-  </si>
-  <si>
-    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
-  </si>
-  <si>
-    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
-  </si>
-  <si>
-    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
-  </si>
-  <si>
-    <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
-  </si>
-  <si>
-    <t>A repository for digrams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
-  </si>
-  <si>
-    <t>Define and classify diagnosis for all forms of cancer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epidemiology methodology for oncology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for calculating  patients lieklihood to develop cancer within the next year. </t>
-  </si>
-  <si>
-    <t>A report on specific patients gaps in care</t>
-  </si>
-  <si>
-    <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
-  </si>
-  <si>
-    <t>Machine learning with Taipy web GUI and tensorflow ML</t>
-  </si>
-  <si>
-    <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
   </si>
 </sst>
 </file>
@@ -1332,113 +1335,116 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>215</v>
@@ -1448,14 +1454,14 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>13</v>
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>216</v>
@@ -1465,31 +1471,31 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>14</v>
+      <c r="A9">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>15</v>
+      <c r="A10">
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>218</v>
@@ -1499,14 +1505,14 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>16</v>
+      <c r="A11">
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>219</v>
@@ -1516,14 +1522,14 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>17</v>
+      <c r="A12">
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
         <v>220</v>
@@ -1533,14 +1539,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>18</v>
+      <c r="A13">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>221</v>
@@ -1550,14 +1556,14 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>19</v>
+      <c r="A14">
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
         <v>222</v>
@@ -1567,14 +1573,14 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>21</v>
+      <c r="A15">
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
         <v>223</v>
@@ -1584,31 +1590,31 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>22</v>
+      <c r="A16">
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
         <v>224</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>111</v>
+      <c r="A17">
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
         <v>225</v>
@@ -1618,201 +1624,201 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
         <v>115</v>
       </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
         <v>113</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>112</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
         <v>136</v>
-      </c>
-      <c r="D21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" t="s">
-        <v>232</v>
-      </c>
-      <c r="E26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" t="s">
-        <v>234</v>
-      </c>
-      <c r="E28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>144</v>
       </c>
       <c r="D29" t="s">
         <v>235</v>
@@ -1822,14 +1828,14 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="1">
+      <c r="A30">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
         <v>236</v>
@@ -1839,184 +1845,184 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>239</v>
+      </c>
+      <c r="E33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
         <v>146</v>
       </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
+      <c r="D39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" t="s">
-        <v>237</v>
-      </c>
-      <c r="E32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
         <v>148</v>
-      </c>
-      <c r="D33" t="s">
-        <v>238</v>
-      </c>
-      <c r="E33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" t="s">
-        <v>239</v>
-      </c>
-      <c r="E34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" t="s">
-        <v>240</v>
-      </c>
-      <c r="E35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" t="s">
-        <v>241</v>
-      </c>
-      <c r="E36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" t="s">
-        <v>244</v>
-      </c>
-      <c r="E39" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" t="s">
-        <v>245</v>
-      </c>
-      <c r="E40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" t="s">
-        <v>156</v>
       </c>
       <c r="D41" t="s">
         <v>246</v>
@@ -2026,14 +2032,14 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>45</v>
+      <c r="A42">
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
         <v>247</v>
@@ -2043,31 +2049,31 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>46</v>
+      <c r="A43">
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
         <v>248</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>47</v>
+      <c r="A44">
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
         <v>249</v>
@@ -2077,14 +2083,14 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>48</v>
+      <c r="A45">
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
         <v>250</v>
@@ -2094,14 +2100,14 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>49</v>
+      <c r="A46">
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
         <v>251</v>
@@ -2111,14 +2117,14 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>50</v>
+      <c r="A47">
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
         <v>252</v>
@@ -2128,14 +2134,14 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>51</v>
+      <c r="A48">
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
         <v>253</v>
@@ -2145,14 +2151,14 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>52</v>
+      <c r="A49">
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
         <v>254</v>
@@ -2162,14 +2168,14 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>54</v>
+      <c r="A50">
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
         <v>255</v>
@@ -2179,14 +2185,14 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>55</v>
+      <c r="A51">
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
         <v>256</v>
@@ -2196,14 +2202,14 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>56</v>
+      <c r="A52">
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D52" t="s">
         <v>257</v>
@@ -2213,31 +2219,31 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>57</v>
+      <c r="A53">
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
         <v>258</v>
       </c>
       <c r="E53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>58</v>
+      <c r="A54">
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
         <v>259</v>
@@ -2247,14 +2253,14 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>59</v>
+      <c r="A55">
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
         <v>260</v>
@@ -2264,14 +2270,14 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>61</v>
+      <c r="A56">
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
         <v>261</v>
@@ -2281,14 +2287,14 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>62</v>
+      <c r="A57">
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
         <v>262</v>
@@ -2298,14 +2304,14 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>63</v>
+      <c r="A58">
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
         <v>263</v>
@@ -2315,14 +2321,14 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>89</v>
+      <c r="A59">
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
         <v>264</v>
@@ -2332,14 +2338,14 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>64</v>
+      <c r="A60">
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
         <v>265</v>
@@ -2349,14 +2355,14 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>65</v>
+      <c r="A61">
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
         <v>266</v>
@@ -2366,14 +2372,14 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>66</v>
+      <c r="A62">
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
         <v>267</v>
@@ -2383,14 +2389,14 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>67</v>
+      <c r="A63">
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
         <v>268</v>
@@ -2400,14 +2406,14 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>69</v>
+      <c r="A64">
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D64" t="s">
         <v>269</v>
@@ -2417,14 +2423,14 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="1">
-        <v>72</v>
+      <c r="A65">
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D65" t="s">
         <v>270</v>
@@ -2434,14 +2440,14 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="1">
-        <v>73</v>
+      <c r="A66">
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>271</v>
@@ -2451,558 +2457,558 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="1">
+      <c r="A67">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" t="s">
+        <v>272</v>
+      </c>
+      <c r="E68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>64</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
         <v>74</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C72" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" t="s">
+        <v>276</v>
+      </c>
+      <c r="E72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>66</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" t="s">
+        <v>277</v>
+      </c>
+      <c r="E73" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
         <v>68</v>
       </c>
-      <c r="C67" t="s">
-        <v>113</v>
-      </c>
-      <c r="D67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E67" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
+      <c r="B74" t="s">
         <v>76</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>67</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
+        <v>278</v>
+      </c>
+      <c r="E75" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
         <v>69</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" t="s">
+        <v>279</v>
+      </c>
+      <c r="E76" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>280</v>
+      </c>
+      <c r="E77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" t="s">
+        <v>282</v>
+      </c>
+      <c r="E79" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" t="s">
+        <v>283</v>
+      </c>
+      <c r="E80" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>75</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" t="s">
+        <v>284</v>
+      </c>
+      <c r="E81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>74</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" t="s">
+        <v>285</v>
+      </c>
+      <c r="E82" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
         <v>181</v>
       </c>
-      <c r="D68" t="s">
-        <v>273</v>
-      </c>
-      <c r="E68" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1">
+      <c r="D83" t="s">
+        <v>286</v>
+      </c>
+      <c r="E83" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" t="s">
+        <v>287</v>
+      </c>
+      <c r="E84" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
         <v>78</v>
       </c>
-      <c r="B69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
         <v>182</v>
       </c>
-      <c r="D69" t="s">
-        <v>274</v>
-      </c>
-      <c r="E69" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1">
+      <c r="D85" t="s">
+        <v>288</v>
+      </c>
+      <c r="E85" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
         <v>79</v>
       </c>
-      <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
         <v>183</v>
       </c>
-      <c r="D70" t="s">
-        <v>275</v>
-      </c>
-      <c r="E70" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
+      <c r="D86" t="s">
+        <v>289</v>
+      </c>
+      <c r="E86" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
         <v>80</v>
       </c>
-      <c r="B71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
         <v>184</v>
       </c>
-      <c r="D71" t="s">
-        <v>276</v>
-      </c>
-      <c r="E71" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
+      <c r="D87" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
         <v>81</v>
       </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
         <v>185</v>
       </c>
-      <c r="D72" t="s">
-        <v>277</v>
-      </c>
-      <c r="E72" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
+      <c r="D88" t="s">
+        <v>291</v>
+      </c>
+      <c r="E88" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
         <v>82</v>
       </c>
-      <c r="B73" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
         <v>186</v>
       </c>
-      <c r="D73" t="s">
-        <v>278</v>
-      </c>
-      <c r="E73" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
+      <c r="D89" t="s">
+        <v>292</v>
+      </c>
+      <c r="E89" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
         <v>83</v>
       </c>
-      <c r="B74" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
         <v>187</v>
       </c>
-      <c r="D74" t="s">
-        <v>279</v>
-      </c>
-      <c r="E74" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
+      <c r="D90" t="s">
+        <v>293</v>
+      </c>
+      <c r="E90" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
         <v>84</v>
       </c>
-      <c r="B75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
         <v>188</v>
       </c>
-      <c r="D75" t="s">
-        <v>280</v>
-      </c>
-      <c r="E75" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
+      <c r="D91" t="s">
+        <v>294</v>
+      </c>
+      <c r="E91" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
         <v>85</v>
       </c>
-      <c r="B76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
         <v>189</v>
       </c>
-      <c r="D76" t="s">
-        <v>281</v>
-      </c>
-      <c r="E76" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
+      <c r="D92" t="s">
+        <v>295</v>
+      </c>
+      <c r="E92" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
         <v>86</v>
       </c>
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
         <v>190</v>
       </c>
-      <c r="D77" t="s">
-        <v>282</v>
-      </c>
-      <c r="E77" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
+      <c r="D93" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
         <v>87</v>
       </c>
-      <c r="B78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
         <v>191</v>
       </c>
-      <c r="D78" t="s">
-        <v>283</v>
-      </c>
-      <c r="E78" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
+      <c r="D94" t="s">
+        <v>297</v>
+      </c>
+      <c r="E94" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>88</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" t="s">
+        <v>298</v>
+      </c>
+      <c r="E95" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>89</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" t="s">
+        <v>299</v>
+      </c>
+      <c r="E96" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
         <v>90</v>
       </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>192</v>
-      </c>
-      <c r="D79" t="s">
-        <v>284</v>
-      </c>
-      <c r="E79" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" t="s">
+        <v>300</v>
+      </c>
+      <c r="E97" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
         <v>91</v>
       </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" t="s">
-        <v>193</v>
-      </c>
-      <c r="D80" t="s">
-        <v>285</v>
-      </c>
-      <c r="E80" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>96</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
         <v>194</v>
       </c>
-      <c r="D81" t="s">
-        <v>286</v>
-      </c>
-      <c r="E81" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
+      <c r="D98" t="s">
+        <v>301</v>
+      </c>
+      <c r="E98" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
         <v>92</v>
       </c>
-      <c r="B82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
         <v>195</v>
-      </c>
-      <c r="D82" t="s">
-        <v>287</v>
-      </c>
-      <c r="E82" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
-        <v>93</v>
-      </c>
-      <c r="B83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" t="s">
-        <v>288</v>
-      </c>
-      <c r="E83" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>94</v>
-      </c>
-      <c r="B84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" t="s">
-        <v>197</v>
-      </c>
-      <c r="D84" t="s">
-        <v>289</v>
-      </c>
-      <c r="E84" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>95</v>
-      </c>
-      <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" t="s">
-        <v>290</v>
-      </c>
-      <c r="E85" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>97</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" t="s">
-        <v>199</v>
-      </c>
-      <c r="D86" t="s">
-        <v>291</v>
-      </c>
-      <c r="E86" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
-        <v>98</v>
-      </c>
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" t="s">
-        <v>200</v>
-      </c>
-      <c r="D87" t="s">
-        <v>292</v>
-      </c>
-      <c r="E87" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
-        <v>100</v>
-      </c>
-      <c r="B88" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" t="s">
-        <v>201</v>
-      </c>
-      <c r="D88" t="s">
-        <v>293</v>
-      </c>
-      <c r="E88" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
-        <v>101</v>
-      </c>
-      <c r="B89" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" t="s">
-        <v>202</v>
-      </c>
-      <c r="D89" t="s">
-        <v>294</v>
-      </c>
-      <c r="E89" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
-        <v>102</v>
-      </c>
-      <c r="B90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" t="s">
-        <v>203</v>
-      </c>
-      <c r="D90" t="s">
-        <v>295</v>
-      </c>
-      <c r="E90" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
-        <v>105</v>
-      </c>
-      <c r="B91" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" t="s">
-        <v>296</v>
-      </c>
-      <c r="E91" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
-        <v>106</v>
-      </c>
-      <c r="B92" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" t="s">
-        <v>205</v>
-      </c>
-      <c r="D92" t="s">
-        <v>222</v>
-      </c>
-      <c r="E92" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
-        <v>107</v>
-      </c>
-      <c r="B93" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" t="s">
-        <v>206</v>
-      </c>
-      <c r="D93" t="s">
-        <v>297</v>
-      </c>
-      <c r="E93" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
-        <v>108</v>
-      </c>
-      <c r="B94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94" t="s">
-        <v>207</v>
-      </c>
-      <c r="D94" t="s">
-        <v>298</v>
-      </c>
-      <c r="E94" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
-        <v>109</v>
-      </c>
-      <c r="B95" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" t="s">
-        <v>208</v>
-      </c>
-      <c r="D95" t="s">
-        <v>299</v>
-      </c>
-      <c r="E95" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
-        <v>110</v>
-      </c>
-      <c r="B96" t="s">
-        <v>97</v>
-      </c>
-      <c r="C96" t="s">
-        <v>209</v>
-      </c>
-      <c r="D96" t="s">
-        <v>300</v>
-      </c>
-      <c r="E96" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1">
-        <v>2</v>
-      </c>
-      <c r="B97" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" t="s">
-        <v>301</v>
-      </c>
-      <c r="E97" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1">
-        <v>5</v>
-      </c>
-      <c r="B98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98" t="s">
-        <v>213</v>
-      </c>
-      <c r="E98" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1">
-        <v>6</v>
-      </c>
-      <c r="B99" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99" t="s">
-        <v>100</v>
       </c>
       <c r="D99" t="s">
         <v>302</v>
@@ -3012,14 +3018,14 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="1">
-        <v>7</v>
+      <c r="A100">
+        <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="D100" t="s">
         <v>303</v>
@@ -3029,14 +3035,14 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="1">
-        <v>8</v>
+      <c r="A101">
+        <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="D101" t="s">
         <v>304</v>
@@ -3046,14 +3052,14 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="1">
-        <v>9</v>
+      <c r="A102">
+        <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="D102" t="s">
         <v>305</v>
@@ -3063,14 +3069,14 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="1">
-        <v>11</v>
+      <c r="A103">
+        <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="D103" t="s">
         <v>306</v>
@@ -3080,31 +3086,31 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="1">
-        <v>20</v>
+      <c r="A104">
+        <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="D104" t="s">
         <v>307</v>
       </c>
       <c r="E104" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="1">
-        <v>23</v>
+      <c r="A105">
+        <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="D105" t="s">
         <v>308</v>
@@ -3114,14 +3120,14 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="1">
-        <v>36</v>
+      <c r="A106">
+        <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D106" t="s">
         <v>309</v>
@@ -3131,14 +3137,14 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="1">
-        <v>53</v>
+      <c r="A107">
+        <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="D107" t="s">
         <v>310</v>
@@ -3148,116 +3154,116 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="1">
-        <v>60</v>
+      <c r="A108">
+        <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="D108" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="E108" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="1">
-        <v>68</v>
+      <c r="A109">
+        <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="D109" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="E109" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="1">
-        <v>70</v>
+      <c r="A110">
+        <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D110" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E110" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="1">
-        <v>71</v>
+      <c r="A111">
+        <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>312</v>
+        <v>113</v>
       </c>
       <c r="E111" t="s">
-        <v>312</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="1">
-        <v>75</v>
+      <c r="A112">
+        <v>105</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="D112" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E112" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="1">
-        <v>77</v>
+      <c r="A113">
+        <v>106</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="D113" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="E113" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="1">
-        <v>88</v>
+      <c r="A114">
+        <v>107</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D114" t="s">
         <v>315</v>
@@ -3267,14 +3273,14 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="1">
-        <v>99</v>
+      <c r="A115">
+        <v>108</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="D115" t="s">
         <v>316</v>
@@ -3284,14 +3290,14 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="1">
-        <v>103</v>
+      <c r="A116">
+        <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="D116" t="s">
         <v>317</v>
@@ -3301,20 +3307,20 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="1">
-        <v>104</v>
+      <c r="A117">
+        <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="D117" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="E117" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155E5215-3414-411D-B20B-F677EC3F4DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C8BDFA-4AF9-41E4-A1DC-375CADD26716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="329">
   <si>
     <t>solution_name</t>
   </si>
@@ -998,6 +998,15 @@
   </si>
   <si>
     <t>Calculated stage of cancer - Brigham Young T-N-M  Tumor-Nodes-Metastasis</t>
+  </si>
+  <si>
+    <t>Predicting Breast Cancer</t>
+  </si>
+  <si>
+    <t>predicting_breast_cancer</t>
+  </si>
+  <si>
+    <t>Machine learning for predicting breast cancer.</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D107" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,195 +2398,195 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="D75" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D79" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C80" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="D80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C81" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="D81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="D84" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="D85" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D86" t="s">
         <v>275</v>
@@ -2585,421 +2594,435 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C88" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="D91" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="D92" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C94" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="D94" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="D95" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="C96" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D96" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="D97" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="D99" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D100" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="D101" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="D105" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="D106" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="D107" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="D108" t="s">
-        <v>253</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="D109" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D111" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D112" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D113" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D115" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>297</v>
+      </c>
+      <c r="D116" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>118</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>118</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>118</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>118</v>
       </c>
     </row>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C8BDFA-4AF9-41E4-A1DC-375CADD26716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253CFE2B-B43E-4B84-A791-C7456B2E02AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="332">
   <si>
     <t>solution_name</t>
   </si>
@@ -1007,6 +1007,15 @@
   </si>
   <si>
     <t>Machine learning for predicting breast cancer.</t>
+  </si>
+  <si>
+    <t>A.I. Prompt Generator</t>
+  </si>
+  <si>
+    <t>ai_prompt_generator</t>
+  </si>
+  <si>
+    <t>Produce high quality prompts to get the most out of AI.</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,587 +1413,587 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="D29" t="s">
-        <v>306</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="D36" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="D43" t="s">
         <v>238</v>
@@ -1992,615 +2001,615 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="D52" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="D53" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="D55" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="D56" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="D57" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="D60" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="D70" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>327</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="D75" t="s">
-        <v>328</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
       <c r="C76" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="D76" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D79" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="D81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="D85" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C87" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
         <v>275</v>
@@ -2608,421 +2617,435 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="D90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="D92" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C93" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="D93" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C94" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D94" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="D95" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="D98" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="D99" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="D100" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D101" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="D102" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="D106" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="D107" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="D108" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="D109" t="s">
-        <v>253</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="D110" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D111" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D112" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D114" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D115" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="s">
+        <v>297</v>
+      </c>
+      <c r="D117" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>118</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>118</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>118</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>118</v>
       </c>
     </row>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253CFE2B-B43E-4B84-A791-C7456B2E02AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F12586-8A1B-40F3-80E1-5651EF747CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="331">
   <si>
     <t>solution_name</t>
   </si>
@@ -877,9 +877,6 @@
     <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
   </si>
   <si>
-    <t>Calculated index of monthly survival from initial (denovo) diagnosis</t>
-  </si>
-  <si>
     <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
   </si>
   <si>
@@ -982,12 +979,6 @@
     <t xml:space="preserve">Produces a word cloud using the3 most relevant terminology using whatever cloud shape is supplied. </t>
   </si>
   <si>
-    <t>Calculated stage of cancer - Brigham Young T-N-M  Tomer-Nodes-Metastasis</t>
-  </si>
-  <si>
-    <t>Calculated index of monthly survival from initial (DiNovo) diagnosis</t>
-  </si>
-  <si>
     <t>A repository for diagrams</t>
   </si>
   <si>
@@ -1016,6 +1007,12 @@
   </si>
   <si>
     <t>Produce high quality prompts to get the most out of AI.</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly survival from initial (De Novo) diagnosis</t>
+  </si>
+  <si>
+    <t>Calculated index of monthly survival from initial (De novo) diagnosis</t>
   </si>
 </sst>
 </file>
@@ -1385,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D89" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1413,16 +1410,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,10 +1458,10 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1489,10 +1486,10 @@
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1517,10 +1514,10 @@
         <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,10 +1584,10 @@
         <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1629,10 +1626,10 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,10 +1654,10 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,10 +1724,10 @@
         <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1741,10 +1738,10 @@
         <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,10 +1808,10 @@
         <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1853,10 +1850,10 @@
         <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1909,10 +1906,10 @@
         <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1993,7 +1990,7 @@
         <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D43" t="s">
         <v>238</v>
@@ -2133,10 +2130,10 @@
         <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2161,10 +2158,10 @@
         <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2189,10 +2186,10 @@
         <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2217,7 +2214,7 @@
         <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D59" t="s">
         <v>250</v>
@@ -2245,10 +2242,10 @@
         <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2385,10 +2382,10 @@
         <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D71" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2449,16 +2446,16 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B76" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C76" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2539,7 +2536,7 @@
         <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D82" t="s">
         <v>270</v>
@@ -2595,10 +2592,10 @@
         <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2651,7 +2648,7 @@
         <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D90" t="s">
         <v>277</v>
@@ -2735,10 +2732,10 @@
         <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2805,10 +2802,10 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D101" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2819,10 +2816,10 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D102" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2833,10 +2830,10 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2847,10 +2844,10 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2861,10 +2858,10 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2875,10 +2872,10 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2889,10 +2886,10 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D107" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2903,10 +2900,10 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D108" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2945,10 +2942,10 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D111" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2959,10 +2956,10 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D112" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2973,10 +2970,10 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D113" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2987,10 +2984,10 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D114" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3001,10 +2998,10 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D115" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3015,10 +3012,10 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3029,10 +3026,10 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F12586-8A1B-40F3-80E1-5651EF747CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5078EDC9-894A-4920-B249-C3DE8925B65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,9 +673,6 @@
     <t xml:space="preserve">This solution extends and enhances the ICD-10-CM diagnosis standard to include disease classifications that can be used for registries and care outreach. </t>
   </si>
   <si>
-    <t>Solution for Configuring Settings. The config.ini file in Python serves as a centralized repository for storing configuration parameters, offering a structured way to manage settings such as API keys, database connections, and application behavior. Utilizing this file streamlines the customization process by allowing developers to easily modify settings without altering the core codebase, enhancing flexibility and scalability in solution development.</t>
-  </si>
-  <si>
     <t>Provide a set of images designed to brand and represent each unique solution.</t>
   </si>
   <si>
@@ -1013,6 +1010,9 @@
   </si>
   <si>
     <t>Calculated index of monthly survival from initial (De novo) diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution for Configuring Settings. The config.ini file in Python serves as a centralized repository for storing configuration parameters, </t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D89" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,16 +1410,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" t="s">
         <v>326</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>327</v>
       </c>
-      <c r="C2" t="s">
-        <v>328</v>
-      </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1458,10 +1458,10 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1486,10 +1486,10 @@
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,10 +1514,10 @@
         <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
         <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,10 +1570,10 @@
         <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1584,10 +1584,10 @@
         <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1598,10 +1598,10 @@
         <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1612,10 +1612,10 @@
         <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1626,10 +1626,10 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1640,10 +1640,10 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,10 +1654,10 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1668,10 +1668,10 @@
         <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1682,10 +1682,10 @@
         <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1696,10 +1696,10 @@
         <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1710,10 +1710,10 @@
         <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,10 +1724,10 @@
         <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1738,10 +1738,10 @@
         <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1752,10 +1752,10 @@
         <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1766,10 +1766,10 @@
         <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,10 +1780,10 @@
         <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1794,10 +1794,10 @@
         <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1808,10 +1808,10 @@
         <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1836,10 +1836,10 @@
         <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1850,10 +1850,10 @@
         <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1864,10 +1864,10 @@
         <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,10 +1878,10 @@
         <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1892,10 +1892,10 @@
         <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1906,10 +1906,10 @@
         <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1920,10 +1920,10 @@
         <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1934,10 +1934,10 @@
         <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1948,10 +1948,10 @@
         <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1962,10 +1962,10 @@
         <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1976,10 +1976,10 @@
         <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1990,10 +1990,10 @@
         <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2004,10 +2004,10 @@
         <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2018,10 +2018,10 @@
         <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2032,10 +2032,10 @@
         <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2046,10 +2046,10 @@
         <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2060,10 +2060,10 @@
         <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2074,10 +2074,10 @@
         <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2088,10 +2088,10 @@
         <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2102,10 +2102,10 @@
         <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2116,10 +2116,10 @@
         <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2130,10 +2130,10 @@
         <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2144,10 +2144,10 @@
         <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,10 +2158,10 @@
         <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2172,10 +2172,10 @@
         <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2186,10 +2186,10 @@
         <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2200,10 +2200,10 @@
         <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2214,10 +2214,10 @@
         <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2228,10 +2228,10 @@
         <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2242,10 +2242,10 @@
         <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,10 +2256,10 @@
         <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2270,10 +2270,10 @@
         <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2284,10 +2284,10 @@
         <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2298,10 +2298,10 @@
         <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2312,10 +2312,10 @@
         <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2326,10 +2326,10 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2340,10 +2340,10 @@
         <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2354,10 +2354,10 @@
         <v>182</v>
       </c>
       <c r="C69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2368,10 +2368,10 @@
         <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2382,10 +2382,10 @@
         <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2396,10 +2396,10 @@
         <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2410,10 +2410,10 @@
         <v>186</v>
       </c>
       <c r="C73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2424,10 +2424,10 @@
         <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2438,24 +2438,24 @@
         <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D75" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>322</v>
+      </c>
+      <c r="B76" t="s">
         <v>323</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>324</v>
       </c>
-      <c r="C76" t="s">
-        <v>325</v>
-      </c>
       <c r="D76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2466,10 +2466,10 @@
         <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2480,10 +2480,10 @@
         <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2494,10 +2494,10 @@
         <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2522,10 +2522,10 @@
         <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2536,10 +2536,10 @@
         <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D82" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2550,10 +2550,10 @@
         <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2564,10 +2564,10 @@
         <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D84" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2578,10 +2578,10 @@
         <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2592,10 +2592,10 @@
         <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2606,10 +2606,10 @@
         <v>199</v>
       </c>
       <c r="C87" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" t="s">
         <v>274</v>
-      </c>
-      <c r="D87" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2620,10 +2620,10 @@
         <v>200</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2634,10 +2634,10 @@
         <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2648,10 +2648,10 @@
         <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2662,10 +2662,10 @@
         <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D91" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2676,10 +2676,10 @@
         <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2690,10 +2690,10 @@
         <v>205</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2704,10 +2704,10 @@
         <v>206</v>
       </c>
       <c r="C94" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2718,10 +2718,10 @@
         <v>207</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2732,10 +2732,10 @@
         <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D96" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2746,10 +2746,10 @@
         <v>209</v>
       </c>
       <c r="C97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2760,10 +2760,10 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2788,10 +2788,10 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2802,10 +2802,10 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D101" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2816,10 +2816,10 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
+        <v>328</v>
+      </c>
+      <c r="D102" t="s">
         <v>329</v>
-      </c>
-      <c r="D102" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2830,10 +2830,10 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2844,10 +2844,10 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2858,10 +2858,10 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2872,10 +2872,10 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2886,10 +2886,10 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2900,10 +2900,10 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D108" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2928,10 +2928,10 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D110" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2942,10 +2942,10 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D111" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2956,10 +2956,10 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D112" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2970,10 +2970,10 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D113" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2984,10 +2984,10 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D114" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2998,10 +2998,10 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D115" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3012,10 +3012,10 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3026,10 +3026,10 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5078EDC9-894A-4920-B249-C3DE8925B65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A73C87-33A7-4C6A-8AAF-4D658F571349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,9 +754,6 @@
     <t>Solution for Incremental Imports</t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome to the **Infrastructure Setup ** repository! This project demonstrates how to a establish an Infrastructure Directory to copy, maintain, and archive All of your work in progress. NEVER LOSE YOUR WORK IN PROGRESS AGAIN!!!! .Backs up and saves your work.  Moves files wherever you need them. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chatbot instantly scrapes reads any corpus or dataset. Learns it and provides a conversation about it. </t>
   </si>
   <si>
@@ -1013,6 +1010,9 @@
   </si>
   <si>
     <t xml:space="preserve">Solution for Configuring Settings. The config.ini file in Python serves as a centralized repository for storing configuration parameters, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to the **Infrastructure Setup ** repository! This project demonstrates how to a establish an Infrastructure Directory to copy, maintain, and archive All of your work in progress.  </t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,16 +1410,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" t="s">
         <v>325</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>326</v>
       </c>
-      <c r="C2" t="s">
-        <v>327</v>
-      </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1458,10 +1458,10 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1486,10 +1486,10 @@
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,10 +1514,10 @@
         <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,10 +1570,10 @@
         <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1584,10 +1584,10 @@
         <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1626,10 +1626,10 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,10 +1654,10 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,10 +1724,10 @@
         <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1738,10 +1738,10 @@
         <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1808,10 +1808,10 @@
         <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1850,10 +1850,10 @@
         <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1906,10 +1906,10 @@
         <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1990,7 +1990,7 @@
         <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D43" t="s">
         <v>237</v>
@@ -2102,10 +2102,10 @@
         <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="D51" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2116,10 +2116,10 @@
         <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2130,10 +2130,10 @@
         <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2144,10 +2144,10 @@
         <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,10 +2158,10 @@
         <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2172,10 +2172,10 @@
         <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2186,10 +2186,10 @@
         <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2200,10 +2200,10 @@
         <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2214,10 +2214,10 @@
         <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2228,10 +2228,10 @@
         <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2242,10 +2242,10 @@
         <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,10 +2256,10 @@
         <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2270,10 +2270,10 @@
         <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2284,10 +2284,10 @@
         <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2298,10 +2298,10 @@
         <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2312,10 +2312,10 @@
         <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2326,10 +2326,10 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2340,10 +2340,10 @@
         <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2354,10 +2354,10 @@
         <v>182</v>
       </c>
       <c r="C69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2368,10 +2368,10 @@
         <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2382,10 +2382,10 @@
         <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2396,10 +2396,10 @@
         <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2410,10 +2410,10 @@
         <v>186</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2424,10 +2424,10 @@
         <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2438,24 +2438,24 @@
         <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>321</v>
+      </c>
+      <c r="B76" t="s">
         <v>322</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>323</v>
       </c>
-      <c r="C76" t="s">
-        <v>324</v>
-      </c>
       <c r="D76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2466,10 +2466,10 @@
         <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2480,10 +2480,10 @@
         <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2494,10 +2494,10 @@
         <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2522,10 +2522,10 @@
         <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2536,10 +2536,10 @@
         <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2550,10 +2550,10 @@
         <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2564,10 +2564,10 @@
         <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2578,10 +2578,10 @@
         <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2592,10 +2592,10 @@
         <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D86" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2606,10 +2606,10 @@
         <v>199</v>
       </c>
       <c r="C87" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" t="s">
         <v>273</v>
-      </c>
-      <c r="D87" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2620,10 +2620,10 @@
         <v>200</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2634,10 +2634,10 @@
         <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2648,10 +2648,10 @@
         <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2662,10 +2662,10 @@
         <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2676,10 +2676,10 @@
         <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2704,10 +2704,10 @@
         <v>206</v>
       </c>
       <c r="C94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2718,10 +2718,10 @@
         <v>207</v>
       </c>
       <c r="C95" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2732,10 +2732,10 @@
         <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2746,10 +2746,10 @@
         <v>209</v>
       </c>
       <c r="C97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2760,10 +2760,10 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2788,10 +2788,10 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2802,10 +2802,10 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2816,10 +2816,10 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" t="s">
         <v>328</v>
-      </c>
-      <c r="D102" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2830,10 +2830,10 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2844,10 +2844,10 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2858,10 +2858,10 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2872,10 +2872,10 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2886,10 +2886,10 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D107" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2900,10 +2900,10 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2928,10 +2928,10 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2942,10 +2942,10 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D111" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2956,10 +2956,10 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D112" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2970,10 +2970,10 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D113" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2984,10 +2984,10 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D114" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2998,10 +2998,10 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3012,10 +3012,10 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3026,10 +3026,10 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A73C87-33A7-4C6A-8AAF-4D658F571349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5240F446-36E1-40DB-9E3C-3222BBD54FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
     <t xml:space="preserve">Solution for Configuring Settings. The config.ini file in Python serves as a centralized repository for storing configuration parameters, </t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome to the **Infrastructure Setup ** repository! This project demonstrates how to a establish an Infrastructure Directory to copy, maintain, and archive All of your work in progress.  </t>
+    <t xml:space="preserve"> This solution establishes an Infrastructure Directory to copy, secure. maintain, and archive All of your work in progress.  </t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D38" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5240F446-36E1-40DB-9E3C-3222BBD54FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40872474-4867-4C44-98CF-89F40D800AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="332">
   <si>
     <t>solution_name</t>
   </si>
@@ -703,9 +703,6 @@
     <t xml:space="preserve">Load a large historical transactional tables into a relational datastore. One Time LOAD </t>
   </si>
   <si>
-    <t>Tells you **EVERYTHING** about your data. Descriptive statistics allows you to easily discover any issues in your data</t>
-  </si>
-  <si>
     <t>A analysis of outcomes related to diabetes treatments</t>
   </si>
   <si>
@@ -1013,6 +1010,12 @@
   </si>
   <si>
     <t xml:space="preserve"> This solution establishes an Infrastructure Directory to copy, secure. maintain, and archive All of your work in progress.  </t>
+  </si>
+  <si>
+    <t>Tells you **EVERYTHING** about your data.</t>
+  </si>
+  <si>
+    <t>Tells you **EVERYTHING** about your data…  **easily** discover any issues in your data</t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D38" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,16 +1413,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
         <v>324</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>325</v>
       </c>
-      <c r="C2" t="s">
-        <v>326</v>
-      </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1458,10 +1461,10 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1486,10 +1489,10 @@
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,10 +1517,10 @@
         <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,10 +1573,10 @@
         <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1584,10 +1587,10 @@
         <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1626,10 +1629,10 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,10 +1657,10 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,10 +1727,10 @@
         <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1738,10 +1741,10 @@
         <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1794,10 +1797,10 @@
         <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="D29" t="s">
-        <v>227</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1808,10 +1811,10 @@
         <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1836,10 +1839,10 @@
         <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1850,10 +1853,10 @@
         <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1864,10 +1867,10 @@
         <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,10 +1881,10 @@
         <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1892,10 +1895,10 @@
         <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1906,10 +1909,10 @@
         <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1920,10 +1923,10 @@
         <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1934,10 +1937,10 @@
         <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1948,10 +1951,10 @@
         <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1962,10 +1965,10 @@
         <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1976,10 +1979,10 @@
         <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1990,10 +1993,10 @@
         <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2004,10 +2007,10 @@
         <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2018,10 +2021,10 @@
         <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2032,10 +2035,10 @@
         <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2046,10 +2049,10 @@
         <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2060,10 +2063,10 @@
         <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2074,10 +2077,10 @@
         <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2088,10 +2091,10 @@
         <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2102,10 +2105,10 @@
         <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2116,10 +2119,10 @@
         <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2130,10 +2133,10 @@
         <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2144,10 +2147,10 @@
         <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,10 +2161,10 @@
         <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2172,10 +2175,10 @@
         <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2186,10 +2189,10 @@
         <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2200,10 +2203,10 @@
         <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2214,10 +2217,10 @@
         <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2228,10 +2231,10 @@
         <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2242,10 +2245,10 @@
         <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,10 +2259,10 @@
         <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2270,10 +2273,10 @@
         <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2284,10 +2287,10 @@
         <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2298,10 +2301,10 @@
         <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2312,10 +2315,10 @@
         <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2326,10 +2329,10 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2340,10 +2343,10 @@
         <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2354,10 +2357,10 @@
         <v>182</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2368,10 +2371,10 @@
         <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2382,10 +2385,10 @@
         <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2396,10 +2399,10 @@
         <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2410,10 +2413,10 @@
         <v>186</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2424,10 +2427,10 @@
         <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2438,24 +2441,24 @@
         <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>320</v>
+      </c>
+      <c r="B76" t="s">
         <v>321</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>322</v>
       </c>
-      <c r="C76" t="s">
-        <v>323</v>
-      </c>
       <c r="D76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2466,10 +2469,10 @@
         <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2480,10 +2483,10 @@
         <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2494,10 +2497,10 @@
         <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2508,10 +2511,10 @@
         <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2522,10 +2525,10 @@
         <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2536,10 +2539,10 @@
         <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2550,10 +2553,10 @@
         <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2564,10 +2567,10 @@
         <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2578,10 +2581,10 @@
         <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2592,10 +2595,10 @@
         <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D86" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2606,10 +2609,10 @@
         <v>199</v>
       </c>
       <c r="C87" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" t="s">
         <v>272</v>
-      </c>
-      <c r="D87" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2620,10 +2623,10 @@
         <v>200</v>
       </c>
       <c r="C88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2634,10 +2637,10 @@
         <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D89" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2648,10 +2651,10 @@
         <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2662,10 +2665,10 @@
         <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2676,10 +2679,10 @@
         <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2704,10 +2707,10 @@
         <v>206</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2718,10 +2721,10 @@
         <v>207</v>
       </c>
       <c r="C95" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2732,10 +2735,10 @@
         <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D96" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2746,10 +2749,10 @@
         <v>209</v>
       </c>
       <c r="C97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2760,10 +2763,10 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2788,10 +2791,10 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2802,10 +2805,10 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2816,10 +2819,10 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" t="s">
         <v>327</v>
-      </c>
-      <c r="D102" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2830,10 +2833,10 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2844,10 +2847,10 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2858,10 +2861,10 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2872,10 +2875,10 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2886,10 +2889,10 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D107" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2900,10 +2903,10 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D108" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2928,10 +2931,10 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2942,10 +2945,10 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2956,10 +2959,10 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D112" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2970,10 +2973,10 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D113" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2984,10 +2987,10 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2998,10 +3001,10 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D115" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3012,10 +3015,10 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D116" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3026,10 +3029,10 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D117" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD32090-E367-4C17-A13E-05B940026253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D9C2AA-BBD1-485B-A2B3-025766DFE11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1394,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="325">
   <si>
     <t>solution_name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Automated Application Launcher</t>
   </si>
   <si>
+    <t xml:space="preserve">Automating Windows Task Scheduler </t>
+  </si>
+  <si>
     <t>Calculator</t>
   </si>
   <si>
@@ -322,78 +325,63 @@
     <t>automating_windows_task_scheduler</t>
   </si>
   <si>
+    <t>corpus_learning_chatbot</t>
+  </si>
+  <si>
+    <t>create_solution</t>
+  </si>
+  <si>
+    <t>diagrams</t>
+  </si>
+  <si>
+    <t>icd_10_cm_analysis</t>
+  </si>
+  <si>
+    <t>inventory_your_python</t>
+  </si>
+  <si>
+    <t>multi_disciplinary_cancer_care_team</t>
+  </si>
+  <si>
+    <t>oncology_diagnostic_coding</t>
+  </si>
+  <si>
+    <t>oncology_epidemiology</t>
+  </si>
+  <si>
+    <t>patient_cancer_risk_index</t>
+  </si>
+  <si>
+    <t>patient_gaps_in_care</t>
+  </si>
+  <si>
+    <t>quality_of_life_index</t>
+  </si>
+  <si>
+    <t>taipy_web_gui</t>
+  </si>
+  <si>
+    <t>term_frequency_inverse_document_frequency</t>
+  </si>
+  <si>
+    <t>titanic_survival_analysis</t>
+  </si>
+  <si>
+    <t>ai_prompt_generator</t>
+  </si>
+  <si>
+    <t>archival_automation</t>
+  </si>
+  <si>
+    <t>automated_application_launcher</t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
     <t>cancer_care_timeline</t>
   </si>
   <si>
-    <t>cancer_classification</t>
-  </si>
-  <si>
-    <t>cancer_staging</t>
-  </si>
-  <si>
-    <t>cancer_survival_index</t>
-  </si>
-  <si>
-    <t>cancer_treatment_modalities</t>
-  </si>
-  <si>
-    <t>cancer_treatment_sequencing</t>
-  </si>
-  <si>
-    <t>corpus_learning_chatbot</t>
-  </si>
-  <si>
-    <t>create_solution</t>
-  </si>
-  <si>
-    <t>diagrams</t>
-  </si>
-  <si>
-    <t>icd_10_cm_analysis</t>
-  </si>
-  <si>
-    <t>inventory_your_python</t>
-  </si>
-  <si>
-    <t>multi_disciplinary_cancer_care_team</t>
-  </si>
-  <si>
-    <t>oncology_diagnostic_coding</t>
-  </si>
-  <si>
-    <t>oncology_epidemiology</t>
-  </si>
-  <si>
-    <t>patient_cancer_risk_index</t>
-  </si>
-  <si>
-    <t>patient_gaps_in_care</t>
-  </si>
-  <si>
-    <t>quality_of_life_index</t>
-  </si>
-  <si>
-    <t>taipy_web_gui</t>
-  </si>
-  <si>
-    <t>term_frequency_inverse_document_frequency</t>
-  </si>
-  <si>
-    <t>titanic_survival_analysis</t>
-  </si>
-  <si>
-    <t>ai_prompt_generator</t>
-  </si>
-  <si>
-    <t>archival_automation</t>
-  </si>
-  <si>
-    <t>automated_application_launcher</t>
-  </si>
-  <si>
-    <t>calculator</t>
-  </si>
-  <si>
     <t>cancer_treatment_outcomes</t>
   </si>
   <si>
@@ -433,7 +421,7 @@
     <t>create_solution_definition</t>
   </si>
   <si>
-    <t>create_solution sign</t>
+    <t>create_solution_sign</t>
   </si>
   <si>
     <t>create_solution_word_cloud</t>
@@ -673,6 +661,9 @@
     <t>Automated Application Launcher launches any application you want on a schedule or through voice commands</t>
   </si>
   <si>
+    <t>This solution automates creating python script to run in windows task scheduler.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Build a simple calculator using python and tkinter to enhance your programming skills </t>
   </si>
   <si>
@@ -949,24 +940,6 @@
     <t>Solution for World Mood</t>
   </si>
   <si>
-    <t>This solution automates creating python script to run in windows task scheduler.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for classifying cancer and performing staging </t>
-  </si>
-  <si>
-    <t>Calculated stage of cancer - Brigham Young T-N-M  Tumor-Nodes-Metastasis</t>
-  </si>
-  <si>
-    <t>Calculated index of monthly survival from initial (De Novo) diagnosis</t>
-  </si>
-  <si>
-    <t>Analysis of major treatment modalities and the cancers (tumors type) they treat</t>
-  </si>
-  <si>
-    <t>Analyzing the most effective sequence of cancer treatment or combining modalities to achieve therapeutic response.</t>
-  </si>
-  <si>
     <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
   </si>
   <si>
@@ -1016,9 +989,6 @@
   </si>
   <si>
     <t xml:space="preserve">A library .py file for text to speech </t>
-  </si>
-  <si>
-    <t>Calculated index of monthly survival from initial (De novo) diagnosis</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1401,13 +1371,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1415,13 +1385,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1429,13 +1399,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1443,13 +1413,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1457,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1471,13 +1441,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1485,13 +1455,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1499,13 +1469,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1513,13 +1483,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1527,13 +1497,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1541,13 +1511,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1555,13 +1525,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1569,13 +1539,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1583,13 +1553,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1597,13 +1567,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1611,13 +1581,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1625,13 +1595,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1639,13 +1609,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1653,13 +1623,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1667,13 +1637,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1681,13 +1651,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1695,13 +1665,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1709,13 +1679,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1723,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1737,13 +1707,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1751,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1765,13 +1735,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1779,13 +1749,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1793,13 +1763,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1807,13 +1777,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1821,13 +1791,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1835,13 +1805,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1849,13 +1819,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1863,13 +1833,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D35" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1877,13 +1847,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1891,13 +1861,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1905,13 +1875,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D38" t="s">
-        <v>329</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1919,13 +1889,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1933,13 +1903,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D40" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1947,13 +1917,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D41" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1961,13 +1931,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1975,13 +1945,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1989,13 +1959,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D44" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2003,13 +1973,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D45" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2017,13 +1987,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2031,13 +2001,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D47" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2045,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2059,13 +2029,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D49" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2073,13 +2043,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D50" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2087,13 +2057,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D51" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2101,13 +2071,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2115,13 +2085,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D53" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2129,13 +2099,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C54" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D54" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2143,13 +2113,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D55" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2157,13 +2127,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D56" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2171,13 +2141,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D57" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2185,13 +2155,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D58" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2199,13 +2169,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D59" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2213,13 +2183,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D60" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2227,13 +2197,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D61" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2241,13 +2211,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D62" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2255,13 +2225,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D63" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2269,13 +2239,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2283,13 +2253,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D65" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2297,13 +2267,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D66" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2311,13 +2281,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D67" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2325,13 +2295,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D68" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2339,13 +2309,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D69" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2353,13 +2323,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D70" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2367,13 +2337,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D71" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2381,13 +2351,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D72" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2395,13 +2365,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D73" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2409,13 +2379,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D74" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2423,13 +2393,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2437,13 +2407,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D76" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2451,13 +2421,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D77" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2465,13 +2435,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2479,13 +2449,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D79" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2493,13 +2463,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2507,13 +2477,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2521,13 +2491,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D82" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2535,13 +2505,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D83" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2549,13 +2519,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D84" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2563,13 +2533,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D85" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2577,13 +2547,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D86" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2591,13 +2561,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C87" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D87" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2605,13 +2575,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C88" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D88" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2619,13 +2589,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D89" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2633,13 +2603,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D90" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2647,13 +2617,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D91" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2661,13 +2631,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D92" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2675,13 +2645,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C93" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D93" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2689,13 +2659,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="D94" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2703,13 +2673,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C95" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="D95" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2717,13 +2687,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2731,13 +2701,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D97" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2745,13 +2715,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D98" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2759,13 +2729,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D99" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2776,10 +2746,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D100" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2790,10 +2760,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D101" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2804,10 +2774,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D102" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2818,10 +2788,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D103" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2832,10 +2802,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D104" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2846,10 +2816,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>316</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2860,10 +2830,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="D106" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2874,10 +2844,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D107" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2888,10 +2858,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D108" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2902,10 +2872,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D109" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2916,10 +2886,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="D110" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2930,10 +2900,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="D111" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2944,10 +2914,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D112" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2958,10 +2928,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D113" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2972,80 +2942,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>323</v>
+        <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" t="s">
-        <v>117</v>
-      </c>
-      <c r="C115" t="s">
-        <v>324</v>
-      </c>
-      <c r="D115" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" t="s">
-        <v>118</v>
-      </c>
-      <c r="C116" t="s">
-        <v>325</v>
-      </c>
-      <c r="D116" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" t="s">
-        <v>119</v>
-      </c>
-      <c r="C117" t="s">
-        <v>326</v>
-      </c>
-      <c r="D117" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" t="s">
-        <v>120</v>
-      </c>
-      <c r="C118" t="s">
-        <v>327</v>
-      </c>
-      <c r="D118" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" t="s">
-        <v>121</v>
-      </c>
-      <c r="C119" t="s">
-        <v>121</v>
-      </c>
-      <c r="D119" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A405EDE5-642A-457B-AF41-17452D996CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="324">
   <si>
     <t>solution_name</t>
   </si>
@@ -541,9 +547,6 @@
     <t>library_installer</t>
   </si>
   <si>
-    <t>quicklogging</t>
-  </si>
-  <si>
     <t>logging_and_debugging</t>
   </si>
   <si>
@@ -826,9 +829,6 @@
     <t>Solution for Library Installer</t>
   </si>
   <si>
-    <t xml:space="preserve">.pie library for easily using logging and debugging. </t>
-  </si>
-  <si>
     <t>Solution for Logging And Debugging</t>
   </si>
   <si>
@@ -989,13 +989,16 @@
   </si>
   <si>
     <t xml:space="preserve">A library .py file for text to speech </t>
+  </si>
+  <si>
+    <t>quick_logger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,13 +1061,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1102,7 +1113,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1136,6 +1147,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1170,9 +1182,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1345,14 +1358,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1374,13 +1394,13 @@
         <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1388,13 +1408,13 @@
         <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1402,13 +1422,13 @@
         <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1416,13 +1436,13 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1430,13 +1450,13 @@
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1444,13 +1464,13 @@
         <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1458,13 +1478,13 @@
         <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1472,13 +1492,13 @@
         <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1486,13 +1506,13 @@
         <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1500,13 +1520,13 @@
         <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1514,13 +1534,13 @@
         <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1528,13 +1548,13 @@
         <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1542,13 +1562,13 @@
         <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1556,13 +1576,13 @@
         <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1570,13 +1590,13 @@
         <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1584,13 +1604,13 @@
         <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1598,13 +1618,13 @@
         <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1612,13 +1632,13 @@
         <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1626,13 +1646,13 @@
         <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1640,13 +1660,13 @@
         <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1654,13 +1674,13 @@
         <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1668,13 +1688,13 @@
         <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1682,13 +1702,13 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1696,13 +1716,13 @@
         <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1710,13 +1730,13 @@
         <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1724,13 +1744,13 @@
         <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1738,13 +1758,13 @@
         <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1752,13 +1772,13 @@
         <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1766,13 +1786,13 @@
         <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1780,13 +1800,13 @@
         <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1794,13 +1814,13 @@
         <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1814,7 +1834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1822,13 +1842,13 @@
         <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1836,13 +1856,13 @@
         <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1850,13 +1870,13 @@
         <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1864,13 +1884,13 @@
         <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1878,13 +1898,13 @@
         <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1892,13 +1912,13 @@
         <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D39" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1906,13 +1926,13 @@
         <v>154</v>
       </c>
       <c r="C40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1920,13 +1940,13 @@
         <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1934,13 +1954,13 @@
         <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1948,13 +1968,13 @@
         <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1962,13 +1982,13 @@
         <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1976,13 +1996,13 @@
         <v>159</v>
       </c>
       <c r="C45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" t="s">
         <v>254</v>
       </c>
-      <c r="D45" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1990,13 +2010,13 @@
         <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2004,13 +2024,13 @@
         <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2018,13 +2038,13 @@
         <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2032,13 +2052,13 @@
         <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2046,13 +2066,13 @@
         <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2060,13 +2080,13 @@
         <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2074,13 +2094,13 @@
         <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2088,13 +2108,13 @@
         <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2102,13 +2122,13 @@
         <v>168</v>
       </c>
       <c r="C54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2116,13 +2136,13 @@
         <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2130,13 +2150,13 @@
         <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D56" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2144,13 +2164,13 @@
         <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D57" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2158,13 +2178,13 @@
         <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D58" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2172,13 +2192,13 @@
         <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2186,69 +2206,69 @@
         <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>323</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="D61" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D62" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D63" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D64" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2256,55 +2276,55 @@
         <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D65" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C66" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D66" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D68" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2312,433 +2332,433 @@
         <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D69" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D71" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D72" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D73" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D74" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D75" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D76" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C79" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D79" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D80" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C81" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D81" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D82" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C83" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D84" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D85" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D86" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D87" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D88" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C90" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D91" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D92" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D94" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D95" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C96" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C97" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C98" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C99" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -2746,13 +2766,13 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D100" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -2760,13 +2780,13 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D101" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -2774,13 +2794,13 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -2788,13 +2808,13 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -2802,13 +2822,13 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D104" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2822,7 +2842,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -2830,13 +2850,13 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D106" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -2844,13 +2864,13 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D107" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -2858,13 +2878,13 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D108" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -2872,13 +2892,13 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D109" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -2886,13 +2906,13 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D110" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -2900,13 +2920,13 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D111" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -2914,13 +2934,13 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D112" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -2928,13 +2948,13 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D113" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A405EDE5-642A-457B-AF41-17452D996CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01570EA0-47BA-4639-A26D-5302CF3C4A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="350">
   <si>
     <t>solution_name</t>
   </si>
@@ -763,9 +763,6 @@
     <t xml:space="preserve">Makes sure all your computing resources are ready to perform complex workflows. </t>
   </si>
   <si>
-    <t>The epidemiology_methodology establishes a versatile data science methodology for epidemiology projects spanning various conditions or diseases The approach begins with comprehensive data collection, encompassing demographics, environmental factors, and relevant health metrics. Employing advanced statistical analyses and machine learning algorithms, the methodology aims to discern patterns, identify risk factors, and optimize predictive models, fostering a holistic understanding of the factors influencing the studied health outcomes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Discovers where your critical data is and provides archives. </t>
   </si>
   <si>
@@ -781,9 +778,6 @@
     <t>Solution for Form Validator</t>
   </si>
   <si>
-    <t>Install Django and get setup for web development</t>
-  </si>
-  <si>
     <t xml:space="preserve">Git allows you to quickly download pre-built solutions  </t>
   </si>
   <si>
@@ -820,9 +814,6 @@
     <t>Chatbot instantly scrapes your or anyone else's website. Learns it and provides a conversation about it. Use this to digitally engage your clients.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pandas is a powerful Library for data analysis and manipulation. A pnadas dataframe is like having a programmable excel spreadsheet for your data. </t>
-  </si>
-  <si>
     <t>Solution for Kids ABC Book</t>
   </si>
   <si>
@@ -992,13 +983,119 @@
   </si>
   <si>
     <t>quick_logger</t>
+  </si>
+  <si>
+    <t>Data Science Report Generator</t>
+  </si>
+  <si>
+    <t>data_science_report_generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This project creates a word document for data science projects that produces a report of the scientific </t>
+  </si>
+  <si>
+    <t xml:space="preserve">process used to analyze the data. </t>
+  </si>
+  <si>
+    <t>A **data science report or storyboard** is a tool used to plan, visualize, and communicate the sequence of steps, findings, and insights throughout a data science project. It is particularly valuable for conveying complex analyses and results to both technical and non-technical stakeholders in an organized and engaging manner.</t>
+  </si>
+  <si>
+    <t>Key Uses of a Data Science Storyboard:</t>
+  </si>
+  <si>
+    <t>1. **Project Planning**: It helps in outlining the objectives, hypotheses, data sources, and analytical approaches to be used in the project. This can guide the team through the project phases.</t>
+  </si>
+  <si>
+    <t>2. **Narrative Construction**: A storyboard helps in constructing a clear and compelling narrative around the data analysis. It allows data scientists to tell a story that connects the data, the analysis, and the insights in a logical flow.</t>
+  </si>
+  <si>
+    <t>3. **Visualization of Findings**: The storyboard provides a framework to visually represent key findings through charts, graphs, and other visual aids, making it easier to understand complex data.</t>
+  </si>
+  <si>
+    <t>4. **Stakeholder Communication**: It is a crucial tool for communicating progress and results to stakeholders. By presenting data and insights in a structured manner, it ensures that the message is clear and accessible to a wide audience.</t>
+  </si>
+  <si>
+    <t>5. **Iterative Feedback**: As a living document, the storyboard can be updated as the project progresses, allowing for iterative feedback and adjustments to the analysis or narrative.</t>
+  </si>
+  <si>
+    <t>6. **Documentation**: It serves as a record of the analytical process and decisions made throughout the project, which can be useful for future reference or for onboarding new team members.</t>
+  </si>
+  <si>
+    <t>In essence, a data science storyboard bridges the gap between data analysis and actionable insights by providing a coherent and visually appealing narrative.</t>
+  </si>
+  <si>
+    <t>Step 0 - Process End - display log</t>
+  </si>
+  <si>
+    <t>[5]:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Calculate and classify the process performance </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">status </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> ql.calculate_process_performance(solution_name, start_time)</t>
+    </r>
+  </si>
+  <si>
+    <t>print(ql.append_log_file(solution_name))</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,381 - INFO - START solution_temple =============================================</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,381 - INFO - START solution_temple Start Time = 2024-03-15 10:39:07</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,381 - INFO - solution_temple Step 0 - Initialize the configuration file parser</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,382 - INFO - Process solution_temple Step 0 - Initializing and starting Logging Process.</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple The total process duration was:0.01</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple Stop Time = 2024-03-15 10:39:07</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple Short process duration less than 3 Seconds:0.01</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple Performance optimization is not reccomended</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,391 - INFO - END solution_temple =============================================</t>
+  </si>
+  <si>
+    <t>https://github.com/JoeEberle/ -- josepheberle@outlook.com</t>
+  </si>
+  <si>
+    <t>Click to add a cell.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,6 +1111,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Var(--jp-cell-prompt-font-famil"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Var(--jp-content-font-family)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1023,7 +1161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1046,17 +1184,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1359,20 +1541,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1582,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1596,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1428,7 +1610,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +1624,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1456,7 +1638,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1652,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1666,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1498,7 +1680,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1512,7 +1694,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1526,7 +1708,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +1722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1554,7 +1736,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1568,7 +1750,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +1764,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1596,7 +1778,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1610,7 +1792,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1624,7 +1806,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1638,7 +1820,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1652,7 +1834,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1666,7 +1848,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1680,7 +1862,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1694,7 +1876,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1708,7 +1890,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1904,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1736,7 +1918,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1750,7 +1932,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1764,7 +1946,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1778,7 +1960,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1789,10 +1971,10 @@
         <v>239</v>
       </c>
       <c r="D30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1806,1169 +1988,1156 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>146</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" t="s">
         <v>241</v>
       </c>
-      <c r="D32" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>147</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" t="s">
         <v>35</v>
       </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>148</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" t="s">
         <v>242</v>
       </c>
-      <c r="D34" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>149</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" t="s">
         <v>243</v>
       </c>
-      <c r="D35" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>150</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D37" t="s">
         <v>244</v>
       </c>
-      <c r="D36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>151</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D38" t="s">
         <v>245</v>
       </c>
-      <c r="D37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>152</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" t="s">
         <v>246</v>
       </c>
-      <c r="D38" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>153</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D40" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s">
         <v>247</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D58" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>320</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D63" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D67" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.6">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" t="s">
+        <v>275</v>
+      </c>
+      <c r="D72" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" t="s">
+        <v>278</v>
+      </c>
+      <c r="D75" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" t="s">
+        <v>279</v>
+      </c>
+      <c r="D76" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" t="s">
+        <v>281</v>
+      </c>
+      <c r="D78" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" t="s">
+        <v>283</v>
+      </c>
+      <c r="D80" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
+        <v>285</v>
+      </c>
+      <c r="D82" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" t="s">
+        <v>286</v>
+      </c>
+      <c r="D83" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" t="s">
+        <v>288</v>
+      </c>
+      <c r="D85" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" t="s">
-        <v>249</v>
-      </c>
-      <c r="D41" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" t="s">
-        <v>250</v>
-      </c>
-      <c r="D42" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" t="s">
-        <v>251</v>
-      </c>
-      <c r="D43" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" t="s">
-        <v>252</v>
-      </c>
-      <c r="D44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" t="s">
-        <v>253</v>
-      </c>
-      <c r="D45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" t="s">
-        <v>254</v>
-      </c>
-      <c r="D46" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" t="s">
-        <v>255</v>
-      </c>
-      <c r="D47" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" t="s">
-        <v>256</v>
-      </c>
-      <c r="D48" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" t="s">
-        <v>257</v>
-      </c>
-      <c r="D49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" t="s">
-        <v>258</v>
-      </c>
-      <c r="D50" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" t="s">
-        <v>259</v>
-      </c>
-      <c r="D51" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D52" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" t="s">
-        <v>261</v>
-      </c>
-      <c r="D53" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" t="s">
-        <v>262</v>
-      </c>
-      <c r="D54" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" t="s">
-        <v>263</v>
-      </c>
-      <c r="D55" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" t="s">
-        <v>264</v>
-      </c>
-      <c r="D56" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" t="s">
-        <v>265</v>
-      </c>
-      <c r="D57" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" t="s">
-        <v>266</v>
-      </c>
-      <c r="D58" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" t="s">
-        <v>267</v>
-      </c>
-      <c r="D59" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" t="s">
-        <v>268</v>
-      </c>
-      <c r="D60" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="s">
-        <v>323</v>
-      </c>
-      <c r="C61" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" t="s">
+        <v>289</v>
+      </c>
+      <c r="D86" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" t="s">
+        <v>290</v>
+      </c>
+      <c r="D87" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" t="s">
+        <v>291</v>
+      </c>
+      <c r="D88" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" t="s">
+        <v>292</v>
+      </c>
+      <c r="D89" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
+        <v>294</v>
+      </c>
+      <c r="D91" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" t="s">
+        <v>295</v>
+      </c>
+      <c r="D92" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" t="s">
+        <v>296</v>
+      </c>
+      <c r="D93" t="s">
         <v>319</v>
       </c>
-      <c r="D61" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
+        <v>297</v>
+      </c>
+      <c r="D94" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" t="s">
+        <v>299</v>
+      </c>
+      <c r="D97" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
+        <v>300</v>
+      </c>
+      <c r="D98" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" t="s">
+        <v>301</v>
+      </c>
+      <c r="D99" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" t="s">
+        <v>302</v>
+      </c>
+      <c r="D100" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>303</v>
+      </c>
+      <c r="D102" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>304</v>
+      </c>
+      <c r="D103" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>305</v>
+      </c>
+      <c r="D104" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>306</v>
+      </c>
+      <c r="D105" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
         <v>269</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D107" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="s">
-        <v>176</v>
-      </c>
-      <c r="C63" t="s">
-        <v>270</v>
-      </c>
-      <c r="D63" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="s">
-        <v>177</v>
-      </c>
-      <c r="C64" t="s">
-        <v>271</v>
-      </c>
-      <c r="D64" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" t="s">
-        <v>272</v>
-      </c>
-      <c r="D65" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" t="s">
-        <v>273</v>
-      </c>
-      <c r="D66" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" t="s">
-        <v>274</v>
-      </c>
-      <c r="D67" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="s">
-        <v>180</v>
-      </c>
-      <c r="C68" t="s">
-        <v>275</v>
-      </c>
-      <c r="D68" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>307</v>
+      </c>
+      <c r="D108" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D109" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
         <v>111</v>
       </c>
-      <c r="C69" t="s">
-        <v>276</v>
-      </c>
-      <c r="D69" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" t="s">
-        <v>277</v>
-      </c>
-      <c r="D70" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>182</v>
-      </c>
-      <c r="C71" t="s">
-        <v>278</v>
-      </c>
-      <c r="D71" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="s">
-        <v>183</v>
-      </c>
-      <c r="C72" t="s">
-        <v>279</v>
-      </c>
-      <c r="D72" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="s">
-        <v>184</v>
-      </c>
-      <c r="C73" t="s">
-        <v>280</v>
-      </c>
-      <c r="D73" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" t="s">
-        <v>281</v>
-      </c>
-      <c r="D74" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" t="s">
-        <v>282</v>
-      </c>
-      <c r="D75" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" t="s">
-        <v>283</v>
-      </c>
-      <c r="D76" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" t="s">
-        <v>284</v>
-      </c>
-      <c r="D77" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="s">
-        <v>189</v>
-      </c>
-      <c r="C78" t="s">
-        <v>285</v>
-      </c>
-      <c r="D78" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>190</v>
-      </c>
-      <c r="C79" t="s">
-        <v>286</v>
-      </c>
-      <c r="D79" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" t="s">
-        <v>287</v>
-      </c>
-      <c r="D80" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" t="s">
-        <v>288</v>
-      </c>
-      <c r="D81" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" t="s">
-        <v>289</v>
-      </c>
-      <c r="D82" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C83" t="s">
-        <v>290</v>
-      </c>
-      <c r="D83" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="s">
-        <v>195</v>
-      </c>
-      <c r="C84" t="s">
-        <v>291</v>
-      </c>
-      <c r="D84" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="s">
-        <v>196</v>
-      </c>
-      <c r="C85" t="s">
-        <v>292</v>
-      </c>
-      <c r="D85" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="s">
-        <v>197</v>
-      </c>
-      <c r="C86" t="s">
-        <v>293</v>
-      </c>
-      <c r="D86" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" t="s">
-        <v>294</v>
-      </c>
-      <c r="D87" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="s">
-        <v>199</v>
-      </c>
-      <c r="C88" t="s">
-        <v>295</v>
-      </c>
-      <c r="D88" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" t="s">
-        <v>296</v>
-      </c>
-      <c r="D89" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="s">
-        <v>201</v>
-      </c>
-      <c r="C90" t="s">
-        <v>297</v>
-      </c>
-      <c r="D90" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91" t="s">
-        <v>298</v>
-      </c>
-      <c r="D91" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="s">
-        <v>203</v>
-      </c>
-      <c r="C92" t="s">
-        <v>299</v>
-      </c>
-      <c r="D92" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" t="s">
-        <v>300</v>
-      </c>
-      <c r="D93" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C94" t="s">
-        <v>301</v>
-      </c>
-      <c r="D94" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95" t="s">
-        <v>225</v>
-      </c>
-      <c r="D95" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="s">
-        <v>207</v>
-      </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
-      <c r="D96" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="s">
-        <v>208</v>
-      </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
-      <c r="D97" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>209</v>
-      </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
-      <c r="D98" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="s">
-        <v>210</v>
-      </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
-      <c r="D99" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="s">
-        <v>103</v>
-      </c>
-      <c r="C101" t="s">
-        <v>306</v>
-      </c>
-      <c r="D101" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" t="s">
-        <v>307</v>
-      </c>
-      <c r="D102" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="s">
-        <v>105</v>
-      </c>
-      <c r="C103" t="s">
-        <v>308</v>
-      </c>
-      <c r="D103" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
         <v>309</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D110" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="s">
-        <v>107</v>
-      </c>
-      <c r="C105" t="s">
-        <v>107</v>
-      </c>
-      <c r="D105" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" t="s">
-        <v>272</v>
-      </c>
-      <c r="D106" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C107" t="s">
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
         <v>310</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D111" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" t="s">
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
         <v>311</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D112" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" t="s">
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
         <v>312</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D113" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" t="s">
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
         <v>313</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D114" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="s">
-        <v>113</v>
-      </c>
-      <c r="C111" t="s">
-        <v>314</v>
-      </c>
-      <c r="D111" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="s">
-        <v>114</v>
-      </c>
-      <c r="C112" t="s">
-        <v>315</v>
-      </c>
-      <c r="D112" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113" t="s">
-        <v>316</v>
-      </c>
-      <c r="D113" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
         <v>116</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>116</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>116</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D115" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C53" r:id="rId1" location="Step-0---Process-End---display-log" display="http://localhost:8888/notebooks/data_science_report_generator/data_science_report_generator.ipynb - Step-0---Process-End---display-log" xr:uid="{5B5F64D1-CE8C-4F53-9EAC-504901E2F5D5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3BB720-6FCA-445E-939B-1285C7EA6CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="360">
   <si>
     <t>solution_name</t>
   </si>
@@ -1064,13 +1070,43 @@
   </si>
   <si>
     <t xml:space="preserve">A library .py file for text to speech </t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_1</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_2</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_3</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_4</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_5</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_6</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_7</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_8</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_9</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,6 +1128,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1146,13 +1188,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1190,7 +1240,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1224,6 +1274,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1258,9 +1309,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1433,1926 +1485,1702 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
         <v>214</v>
       </c>
-      <c r="E2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
         <v>215</v>
       </c>
-      <c r="E3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
         <v>216</v>
       </c>
-      <c r="E4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
         <v>217</v>
       </c>
-      <c r="E5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
         <v>218</v>
       </c>
-      <c r="E6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
         <v>219</v>
       </c>
-      <c r="E7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
         <v>220</v>
       </c>
-      <c r="E8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
         <v>221</v>
       </c>
-      <c r="E9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
         <v>222</v>
       </c>
-      <c r="E10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
         <v>224</v>
       </c>
-      <c r="E12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D13" t="s">
         <v>225</v>
       </c>
-      <c r="E13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
         <v>226</v>
       </c>
-      <c r="E14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
         <v>227</v>
       </c>
-      <c r="E15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="D16" t="s">
         <v>228</v>
       </c>
-      <c r="E16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
         <v>229</v>
       </c>
-      <c r="E17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s">
         <v>230</v>
       </c>
-      <c r="E18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>17</v>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="D19" t="s">
         <v>231</v>
       </c>
-      <c r="E19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>18</v>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
         <v>232</v>
       </c>
-      <c r="E20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>19</v>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="D21" t="s">
         <v>233</v>
       </c>
-      <c r="E21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>20</v>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
         <v>234</v>
       </c>
-      <c r="E22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>21</v>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s">
         <v>235</v>
       </c>
-      <c r="E23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>22</v>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="D24" t="s">
         <v>236</v>
       </c>
-      <c r="E24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>23</v>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="D25" t="s">
         <v>237</v>
       </c>
-      <c r="E25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>24</v>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="D26" t="s">
         <v>238</v>
       </c>
-      <c r="E26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>25</v>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="D27" t="s">
         <v>239</v>
       </c>
-      <c r="E27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>26</v>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="D28" t="s">
         <v>240</v>
       </c>
-      <c r="E28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>27</v>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
         <v>241</v>
       </c>
-      <c r="E29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>28</v>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="D30" t="s">
-        <v>242</v>
-      </c>
-      <c r="E30" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>30</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>29</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="D32" t="s">
         <v>244</v>
       </c>
-      <c r="E32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>31</v>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E33" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>32</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
       </c>
       <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>33</v>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="D35" t="s">
-        <v>246</v>
-      </c>
-      <c r="E35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>34</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
         <v>151</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>35</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="D37" t="s">
-        <v>247</v>
-      </c>
-      <c r="E37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>36</v>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="D38" t="s">
-        <v>248</v>
-      </c>
-      <c r="E38" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>37</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
         <v>154</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D39" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>38</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
-      </c>
-      <c r="E40" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>39</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
         <v>156</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>40</v>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
-      </c>
-      <c r="E42" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>41</v>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
         <v>158</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>42</v>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
-      </c>
-      <c r="E44" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>43</v>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
         <v>160</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>44</v>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>252</v>
-      </c>
-      <c r="E46" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>45</v>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
         <v>162</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>46</v>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>47</v>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
         <v>164</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>48</v>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
-      </c>
-      <c r="E50" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>49</v>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
         <v>166</v>
       </c>
-      <c r="E51" t="s">
+      <c r="D51" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>50</v>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" t="s">
         <v>167</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>51</v>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="D53" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>52</v>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" t="s">
         <v>169</v>
       </c>
-      <c r="E54" t="s">
+      <c r="D54" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>53</v>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="D55" t="s">
-        <v>256</v>
-      </c>
-      <c r="E55" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>54</v>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="D56" t="s">
-        <v>257</v>
-      </c>
-      <c r="E56" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>55</v>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>258</v>
-      </c>
-      <c r="E57" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>56</v>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="D58" t="s">
-        <v>259</v>
-      </c>
-      <c r="E58" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>57</v>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="D59" t="s">
-        <v>260</v>
-      </c>
-      <c r="E59" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>58</v>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="D60" t="s">
-        <v>261</v>
-      </c>
-      <c r="E60" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>59</v>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
-      </c>
-      <c r="E61" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>60</v>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="D62" t="s">
-        <v>263</v>
-      </c>
-      <c r="E62" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>61</v>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>264</v>
-      </c>
-      <c r="E63" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>62</v>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="D64" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1">
-        <v>63</v>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
-      </c>
-      <c r="E65" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1">
-        <v>64</v>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>350</v>
+      </c>
+      <c r="B68" t="s">
+        <v>350</v>
+      </c>
+      <c r="C68" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>351</v>
+      </c>
+      <c r="B69" t="s">
+        <v>351</v>
+      </c>
+      <c r="C69" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>352</v>
+      </c>
+      <c r="B70" t="s">
+        <v>352</v>
+      </c>
+      <c r="C70" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>353</v>
+      </c>
+      <c r="B71" t="s">
+        <v>353</v>
+      </c>
+      <c r="C71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>354</v>
+      </c>
+      <c r="B72" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>355</v>
+      </c>
+      <c r="B73" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>356</v>
+      </c>
+      <c r="B74" t="s">
+        <v>356</v>
+      </c>
+      <c r="C74" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>357</v>
+      </c>
+      <c r="B75" t="s">
+        <v>357</v>
+      </c>
+      <c r="C75" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>358</v>
+      </c>
+      <c r="B76" t="s">
+        <v>358</v>
+      </c>
+      <c r="C76" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>359</v>
+      </c>
+      <c r="B77" t="s">
+        <v>359</v>
+      </c>
+      <c r="C77" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" t="s">
+        <v>272</v>
+      </c>
+      <c r="D83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" t="s">
+        <v>275</v>
+      </c>
+      <c r="D86" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" t="s">
+        <v>278</v>
+      </c>
+      <c r="D89" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" t="s">
+        <v>279</v>
+      </c>
+      <c r="D90" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" t="s">
+        <v>281</v>
+      </c>
+      <c r="D92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" t="s">
+        <v>283</v>
+      </c>
+      <c r="D94" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" t="s">
+        <v>285</v>
+      </c>
+      <c r="D96" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" t="s">
+        <v>288</v>
+      </c>
+      <c r="D99" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" t="s">
+        <v>289</v>
+      </c>
+      <c r="D100" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="s">
+        <v>291</v>
+      </c>
+      <c r="D102" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" t="s">
+        <v>292</v>
+      </c>
+      <c r="D103" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
+        <v>293</v>
+      </c>
+      <c r="D104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" t="s">
+        <v>294</v>
+      </c>
+      <c r="D105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
+        <v>228</v>
+      </c>
+      <c r="D106" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D107" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" t="s">
+        <v>296</v>
+      </c>
+      <c r="D108" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" t="s">
+        <v>297</v>
+      </c>
+      <c r="D109" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D110" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>103</v>
+      </c>
+      <c r="B111" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" t="s">
+        <v>299</v>
+      </c>
+      <c r="D112" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" t="s">
+        <v>105</v>
+      </c>
+      <c r="C113" t="s">
+        <v>300</v>
+      </c>
+      <c r="D113" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" t="s">
+        <v>301</v>
+      </c>
+      <c r="D114" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" t="s">
+        <v>107</v>
+      </c>
+      <c r="C115" t="s">
+        <v>302</v>
+      </c>
+      <c r="D115" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B116" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>109</v>
       </c>
-      <c r="D66" t="s">
-        <v>267</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="B117" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" t="s">
-        <v>268</v>
-      </c>
-      <c r="E67" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" t="s">
-        <v>182</v>
-      </c>
-      <c r="E68" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" t="s">
-        <v>183</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E69" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D117" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>110</v>
+      </c>
+      <c r="B118" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118" t="s">
+        <v>304</v>
+      </c>
+      <c r="D118" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" t="s">
+        <v>305</v>
+      </c>
+      <c r="D119" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>112</v>
       </c>
-      <c r="E70" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" t="s">
-        <v>270</v>
-      </c>
-      <c r="E71" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" t="s">
-        <v>185</v>
-      </c>
-      <c r="D72" t="s">
-        <v>271</v>
-      </c>
-      <c r="E72" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" t="s">
-        <v>273</v>
-      </c>
-      <c r="E74" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" t="s">
-        <v>188</v>
-      </c>
-      <c r="D75" t="s">
-        <v>274</v>
-      </c>
-      <c r="E75" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" t="s">
-        <v>275</v>
-      </c>
-      <c r="E76" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" t="s">
-        <v>190</v>
-      </c>
-      <c r="D77" t="s">
-        <v>276</v>
-      </c>
-      <c r="E77" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" t="s">
-        <v>277</v>
-      </c>
-      <c r="E78" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" t="s">
-        <v>192</v>
-      </c>
-      <c r="D79" t="s">
-        <v>278</v>
-      </c>
-      <c r="E79" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" t="s">
-        <v>193</v>
-      </c>
-      <c r="D80" t="s">
-        <v>279</v>
-      </c>
-      <c r="E80" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" t="s">
-        <v>194</v>
-      </c>
-      <c r="D81" t="s">
-        <v>280</v>
-      </c>
-      <c r="E81" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" t="s">
-        <v>195</v>
-      </c>
-      <c r="D82" t="s">
-        <v>281</v>
-      </c>
-      <c r="E82" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" t="s">
-        <v>282</v>
-      </c>
-      <c r="E83" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>197</v>
-      </c>
-      <c r="D84" t="s">
-        <v>283</v>
-      </c>
-      <c r="E84" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" t="s">
-        <v>284</v>
-      </c>
-      <c r="E85" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" t="s">
-        <v>199</v>
-      </c>
-      <c r="D86" t="s">
-        <v>285</v>
-      </c>
-      <c r="E86" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" t="s">
-        <v>200</v>
-      </c>
-      <c r="D87" t="s">
-        <v>286</v>
-      </c>
-      <c r="E87" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88" t="s">
-        <v>201</v>
-      </c>
-      <c r="D88" t="s">
-        <v>287</v>
-      </c>
-      <c r="E88" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" t="s">
-        <v>202</v>
-      </c>
-      <c r="D89" t="s">
-        <v>288</v>
-      </c>
-      <c r="E89" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" t="s">
-        <v>203</v>
-      </c>
-      <c r="D90" t="s">
-        <v>289</v>
-      </c>
-      <c r="E90" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" t="s">
-        <v>290</v>
-      </c>
-      <c r="E91" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" t="s">
-        <v>205</v>
-      </c>
-      <c r="D92" t="s">
-        <v>291</v>
-      </c>
-      <c r="E92" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>95</v>
-      </c>
-      <c r="C93" t="s">
-        <v>206</v>
-      </c>
-      <c r="D93" t="s">
-        <v>292</v>
-      </c>
-      <c r="E93" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" t="s">
-        <v>207</v>
-      </c>
-      <c r="D94" t="s">
-        <v>293</v>
-      </c>
-      <c r="E94" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95" t="s">
-        <v>208</v>
-      </c>
-      <c r="D95" t="s">
-        <v>294</v>
-      </c>
-      <c r="E95" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" t="s">
-        <v>209</v>
-      </c>
-      <c r="D96" t="s">
-        <v>228</v>
-      </c>
-      <c r="E96" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" t="s">
-        <v>210</v>
-      </c>
-      <c r="D97" t="s">
-        <v>295</v>
-      </c>
-      <c r="E97" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C98" t="s">
-        <v>211</v>
-      </c>
-      <c r="D98" t="s">
-        <v>296</v>
-      </c>
-      <c r="E98" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" t="s">
-        <v>212</v>
-      </c>
-      <c r="D99" t="s">
-        <v>297</v>
-      </c>
-      <c r="E99" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" t="s">
-        <v>213</v>
-      </c>
-      <c r="D100" t="s">
-        <v>298</v>
-      </c>
-      <c r="E100" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>103</v>
-      </c>
-      <c r="C101" t="s">
-        <v>103</v>
-      </c>
-      <c r="D101" t="s">
-        <v>217</v>
-      </c>
-      <c r="E101" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" t="s">
-        <v>104</v>
-      </c>
-      <c r="D102" t="s">
-        <v>299</v>
-      </c>
-      <c r="E102" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>105</v>
-      </c>
-      <c r="C103" t="s">
-        <v>105</v>
-      </c>
-      <c r="D103" t="s">
-        <v>300</v>
-      </c>
-      <c r="E103" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104" t="s">
-        <v>106</v>
-      </c>
-      <c r="D104" t="s">
-        <v>301</v>
-      </c>
-      <c r="E104" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>107</v>
-      </c>
-      <c r="C105" t="s">
-        <v>107</v>
-      </c>
-      <c r="D105" t="s">
-        <v>302</v>
-      </c>
-      <c r="E105" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" t="s">
-        <v>108</v>
-      </c>
-      <c r="D106" t="s">
-        <v>108</v>
-      </c>
-      <c r="E106" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C107" t="s">
-        <v>109</v>
-      </c>
-      <c r="D107" t="s">
-        <v>303</v>
-      </c>
-      <c r="E107" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" t="s">
-        <v>110</v>
-      </c>
-      <c r="D108" t="s">
-        <v>304</v>
-      </c>
-      <c r="E108" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" t="s">
-        <v>305</v>
-      </c>
-      <c r="E109" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="B120" t="s">
         <v>112</v>
       </c>
-      <c r="C110" t="s">
-        <v>112</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="C120" t="s">
         <v>306</v>
       </c>
-      <c r="E110" t="s">
+      <c r="D120" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>113</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B121" t="s">
         <v>113</v>
       </c>
-      <c r="D111" t="s">
+      <c r="C121" t="s">
         <v>307</v>
       </c>
-      <c r="E111" t="s">
+      <c r="D121" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>114</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B122" t="s">
         <v>114</v>
       </c>
-      <c r="D112" t="s">
+      <c r="C122" t="s">
         <v>308</v>
       </c>
-      <c r="E112" t="s">
+      <c r="D122" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>115</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B123" t="s">
         <v>115</v>
       </c>
-      <c r="D113" t="s">
+      <c r="C123" t="s">
         <v>309</v>
       </c>
-      <c r="E113" t="s">
+      <c r="D123" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>116</v>
       </c>
-      <c r="C114" t="s">
+      <c r="B124" t="s">
         <v>116</v>
       </c>
-      <c r="D114" t="s">
+      <c r="C124" t="s">
         <v>310</v>
       </c>
-      <c r="E114" t="s">
+      <c r="D124" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>117</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B125" t="s">
         <v>117</v>
       </c>
-      <c r="D115" t="s">
+      <c r="C125" t="s">
         <v>117</v>
       </c>
-      <c r="E115" t="s">
+      <c r="D125" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D69" r:id="rId1"/>
+    <hyperlink ref="C79" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3BB720-6FCA-445E-939B-1285C7EA6CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED89A98-2776-4F61-8D81-250B5CAC17F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="384">
   <si>
     <t>solution_name</t>
   </si>
@@ -229,6 +229,36 @@
     <t>Multi Disciplinary Cancer Care Team</t>
   </si>
   <si>
+    <t>NSP_OEC_Training_Chapter_1</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_10</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_2</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_3</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_4</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_5</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_6</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_7</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_8</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_9</t>
+  </si>
+  <si>
     <t>Notebook Clone</t>
   </si>
   <si>
@@ -1072,34 +1102,76 @@
     <t xml:space="preserve">A library .py file for text to speech </t>
   </si>
   <si>
-    <t>NSP_OEC_Training_Chapter_1</t>
-  </si>
-  <si>
-    <t>NSP_OEC_Training_Chapter_2</t>
-  </si>
-  <si>
-    <t>NSP_OEC_Training_Chapter_3</t>
-  </si>
-  <si>
-    <t>NSP_OEC_Training_Chapter_4</t>
-  </si>
-  <si>
-    <t>NSP_OEC_Training_Chapter_5</t>
-  </si>
-  <si>
-    <t>NSP_OEC_Training_Chapter_6</t>
-  </si>
-  <si>
-    <t>NSP_OEC_Training_Chapter_7</t>
-  </si>
-  <si>
-    <t>NSP_OEC_Training_Chapter_8</t>
-  </si>
-  <si>
-    <t>NSP_OEC_Training_Chapter_9</t>
-  </si>
-  <si>
-    <t>NSP_OEC_Training_Chapter_10</t>
+    <t>NSP_OEC_Training_Chapter_11</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_12</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_13</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_14</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_15</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_16</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_17</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_18</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_19</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_20</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_21</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_22</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_23</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_24</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_25</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_26</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_27</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_28</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_29</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_30</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_31</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_32</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_33</t>
+  </si>
+  <si>
+    <t>NSP_OEC_Training_Chapter_34</t>
   </si>
 </sst>
 </file>
@@ -1486,17 +1558,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1518,13 +1591,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1532,13 +1605,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1546,13 +1619,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1560,13 +1633,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1574,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1588,13 +1661,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1602,13 +1675,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1616,13 +1689,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,13 +1703,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1644,13 +1717,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1658,13 +1731,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1672,13 +1745,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,13 +1759,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1700,13 +1773,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1714,13 +1787,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1728,13 +1801,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,13 +1815,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1756,13 +1829,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,13 +1843,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1784,13 +1857,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1798,13 +1871,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1812,13 +1885,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1826,13 +1899,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1840,13 +1913,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1854,13 +1927,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1868,13 +1941,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1882,13 +1955,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1896,13 +1969,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1910,13 +1983,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D30" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1924,10 +1997,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1935,13 +2008,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1949,13 +2022,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D33" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1963,7 +2036,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1974,13 +2047,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D35" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1988,10 +2061,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1999,13 +2072,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D37" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2013,13 +2086,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D38" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2027,10 +2100,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2038,13 +2111,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D40" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2052,10 +2125,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2063,13 +2136,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D42" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2077,10 +2150,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2088,13 +2161,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D44" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2102,10 +2175,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,13 +2186,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D46" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2127,10 +2200,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2138,13 +2211,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D48" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2152,10 +2225,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D49" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2163,13 +2236,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D50" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2177,10 +2250,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2188,10 +2261,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2199,13 +2272,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D53" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2213,10 +2286,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2224,13 +2297,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D55" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2238,13 +2311,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,13 +2325,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2266,13 +2339,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D58" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2280,13 +2353,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D59" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2294,13 +2367,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D60" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2308,13 +2381,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D61" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2322,13 +2395,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C62" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D62" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2336,13 +2409,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D63" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2350,13 +2423,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D64" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2364,13 +2437,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D65" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2378,13 +2451,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D66" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2392,795 +2465,1161 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>268</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>342</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>350</v>
+        <v>71</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>351</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>351</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>351</v>
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>352</v>
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>353</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>353</v>
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>354</v>
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>355</v>
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>356</v>
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>357</v>
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>358</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>358</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>70</v>
+      </c>
+      <c r="D76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C77" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="D77" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>361</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>361</v>
+      </c>
+      <c r="C78" t="s">
+        <v>361</v>
       </c>
       <c r="D78" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>362</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>269</v>
+        <v>362</v>
+      </c>
+      <c r="C79" t="s">
+        <v>362</v>
       </c>
       <c r="D79" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>363</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>363</v>
+      </c>
+      <c r="C80" t="s">
+        <v>363</v>
       </c>
       <c r="D80" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>364</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="D81" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="B82" t="s">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>366</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>367</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="D84" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="C85" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="D85" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>369</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="C87" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>371</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>372</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>372</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="B90" t="s">
-        <v>193</v>
+        <v>373</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="B91" t="s">
-        <v>194</v>
+        <v>374</v>
       </c>
       <c r="C91" t="s">
-        <v>280</v>
+        <v>374</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>375</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>376</v>
       </c>
       <c r="C93" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="D93" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>377</v>
       </c>
       <c r="B94" t="s">
-        <v>197</v>
+        <v>377</v>
       </c>
       <c r="C94" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
       <c r="D94" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>378</v>
       </c>
       <c r="B95" t="s">
-        <v>198</v>
+        <v>378</v>
       </c>
       <c r="C95" t="s">
-        <v>284</v>
+        <v>378</v>
       </c>
       <c r="D95" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>379</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
+        <v>379</v>
       </c>
       <c r="D96" t="s">
-        <v>285</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>380</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="D97" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>201</v>
+        <v>381</v>
       </c>
       <c r="C98" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="D98" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>382</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>382</v>
       </c>
       <c r="C99" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="D99" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>383</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>383</v>
       </c>
       <c r="C100" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="D100" t="s">
-        <v>290</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C101" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D101" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
-      </c>
-      <c r="C102" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="D102" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" t="s">
-        <v>292</v>
+        <v>193</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="D103" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
-      </c>
-      <c r="C104" t="s">
-        <v>293</v>
+        <v>122</v>
       </c>
       <c r="D104" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C105" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D105" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C106" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="D106" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C107" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D107" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D108" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C109" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D109" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C110" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D110" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="C111" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="D111" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="C112" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D112" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D113" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="C114" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D114" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="C115" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D115" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="C116" t="s">
-        <v>108</v>
+        <v>291</v>
       </c>
       <c r="D116" t="s">
-        <v>108</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="C117" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D117" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="C118" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D118" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B119" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="C119" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D119" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B120" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="C120" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D120" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="C121" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D121" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="C122" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D122" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="C123" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D123" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="C124" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D124" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" t="s">
+        <v>300</v>
+      </c>
+      <c r="D125" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126" t="s">
+        <v>301</v>
+      </c>
+      <c r="D126" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" t="s">
+        <v>302</v>
+      </c>
+      <c r="D127" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" t="s">
+        <v>303</v>
+      </c>
+      <c r="D128" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" t="s">
+        <v>304</v>
+      </c>
+      <c r="D129" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" t="s">
+        <v>238</v>
+      </c>
+      <c r="D130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" t="s">
+        <v>305</v>
+      </c>
+      <c r="D131" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" t="s">
+        <v>221</v>
+      </c>
+      <c r="C132" t="s">
+        <v>306</v>
+      </c>
+      <c r="D132" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>111</v>
+      </c>
+      <c r="B133" t="s">
+        <v>222</v>
+      </c>
+      <c r="C133" t="s">
+        <v>307</v>
+      </c>
+      <c r="D133" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" t="s">
+        <v>223</v>
+      </c>
+      <c r="C134" t="s">
+        <v>308</v>
+      </c>
+      <c r="D134" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" t="s">
+        <v>227</v>
+      </c>
+      <c r="D135" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>114</v>
+      </c>
+      <c r="B136" t="s">
+        <v>114</v>
+      </c>
+      <c r="C136" t="s">
+        <v>309</v>
+      </c>
+      <c r="D136" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>115</v>
+      </c>
+      <c r="B137" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" t="s">
+        <v>310</v>
+      </c>
+      <c r="D137" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>116</v>
+      </c>
+      <c r="B138" t="s">
+        <v>116</v>
+      </c>
+      <c r="C138" t="s">
+        <v>311</v>
+      </c>
+      <c r="D138" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>117</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B139" t="s">
         <v>117</v>
       </c>
-      <c r="C125" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" t="s">
-        <v>117</v>
+      <c r="C139" t="s">
+        <v>312</v>
+      </c>
+      <c r="D139" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>118</v>
+      </c>
+      <c r="B140" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>119</v>
+      </c>
+      <c r="B141" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" t="s">
+        <v>313</v>
+      </c>
+      <c r="D141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>120</v>
+      </c>
+      <c r="B142" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" t="s">
+        <v>314</v>
+      </c>
+      <c r="D142" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>121</v>
+      </c>
+      <c r="B143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C143" t="s">
+        <v>315</v>
+      </c>
+      <c r="D143" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>122</v>
+      </c>
+      <c r="B144" t="s">
+        <v>122</v>
+      </c>
+      <c r="C144" t="s">
+        <v>316</v>
+      </c>
+      <c r="D144" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>123</v>
+      </c>
+      <c r="B145" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" t="s">
+        <v>317</v>
+      </c>
+      <c r="D145" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" t="s">
+        <v>124</v>
+      </c>
+      <c r="C146" t="s">
+        <v>318</v>
+      </c>
+      <c r="D146" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" t="s">
+        <v>125</v>
+      </c>
+      <c r="C147" t="s">
+        <v>319</v>
+      </c>
+      <c r="D147" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>126</v>
+      </c>
+      <c r="B148" t="s">
+        <v>126</v>
+      </c>
+      <c r="C148" t="s">
+        <v>320</v>
+      </c>
+      <c r="D148" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" t="s">
+        <v>127</v>
+      </c>
+      <c r="C149" t="s">
+        <v>127</v>
+      </c>
+      <c r="D149" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C79" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C103" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="445">
   <si>
     <t>solution_name</t>
   </si>
@@ -37,6 +37,12 @@
     <t>Ai Agent</t>
   </si>
   <si>
+    <t>Ai Exploration Infrastructure Summary</t>
+  </si>
+  <si>
+    <t>Ai Exploration Infrastructure Technical</t>
+  </si>
+  <si>
     <t>Archival Automation</t>
   </si>
   <si>
@@ -518,6 +524,12 @@
   </si>
   <si>
     <t>AI_Agent</t>
+  </si>
+  <si>
+    <t>AI_exploration_infrastructure_summary</t>
+  </si>
+  <si>
+    <t>AI_exploration_infrastructure_technical</t>
   </si>
   <si>
     <t>archival_automation</t>
@@ -1707,7 +1719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1735,18 +1747,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1755,1256 +1767,1256 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E16" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E22" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E26" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E27" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E29" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="D30" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E30" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D31" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E31" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E34" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E35" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E36" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E37" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>305</v>
+        <v>308</v>
+      </c>
+      <c r="E38" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>307</v>
-      </c>
-      <c r="E40" t="s">
-        <v>417</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>310</v>
+      </c>
+      <c r="E41" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>311</v>
+      </c>
+      <c r="E42" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s">
-        <v>309</v>
-      </c>
-      <c r="E43" t="s">
-        <v>309</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="E45" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D51" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D53" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D55" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D57" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
-        <v>323</v>
-      </c>
-      <c r="E58" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="E60" t="s">
-        <v>419</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D61" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="E61" t="s">
-        <v>323</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D62" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E62" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="E63" t="s">
-        <v>421</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D64" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E64" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D65" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="E65" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D66" t="s">
-        <v>325</v>
+        <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D67" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E67" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D68" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E68" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D69" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E69" t="s">
-        <v>328</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D70" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E70" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D71" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E71" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E72" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D73" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E73" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D74" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E74" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="D75" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E75" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E76" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E77" t="s">
-        <v>408</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E79" t="s">
-        <v>81</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
@@ -3013,7 +3025,7 @@
         <v>82</v>
       </c>
       <c r="D80" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E80" t="s">
         <v>82</v>
@@ -3021,7 +3033,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
@@ -3030,7 +3042,7 @@
         <v>83</v>
       </c>
       <c r="D81" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E81" t="s">
         <v>83</v>
@@ -3038,7 +3050,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
         <v>84</v>
@@ -3047,7 +3059,7 @@
         <v>84</v>
       </c>
       <c r="D82" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E82" t="s">
         <v>84</v>
@@ -3055,7 +3067,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
@@ -3064,7 +3076,7 @@
         <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E83" t="s">
         <v>85</v>
@@ -3072,7 +3084,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
         <v>86</v>
@@ -3081,7 +3093,7 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E84" t="s">
         <v>86</v>
@@ -3089,7 +3101,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
@@ -3098,7 +3110,7 @@
         <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E85" t="s">
         <v>87</v>
@@ -3106,7 +3118,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
         <v>88</v>
@@ -3115,7 +3127,7 @@
         <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E86" t="s">
         <v>88</v>
@@ -3123,7 +3135,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
         <v>89</v>
@@ -3132,7 +3144,7 @@
         <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E87" t="s">
         <v>89</v>
@@ -3140,7 +3152,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
         <v>90</v>
@@ -3149,7 +3161,7 @@
         <v>90</v>
       </c>
       <c r="D88" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E88" t="s">
         <v>90</v>
@@ -3157,7 +3169,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
         <v>91</v>
@@ -3166,7 +3178,7 @@
         <v>91</v>
       </c>
       <c r="D89" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E89" t="s">
         <v>91</v>
@@ -3174,7 +3186,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
@@ -3183,7 +3195,7 @@
         <v>92</v>
       </c>
       <c r="D90" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E90" t="s">
         <v>92</v>
@@ -3191,7 +3203,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
@@ -3200,7 +3212,7 @@
         <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E91" t="s">
         <v>93</v>
@@ -3208,7 +3220,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
         <v>94</v>
@@ -3217,7 +3229,7 @@
         <v>94</v>
       </c>
       <c r="D92" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E92" t="s">
         <v>94</v>
@@ -3225,7 +3237,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
         <v>95</v>
@@ -3234,7 +3246,7 @@
         <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E93" t="s">
         <v>95</v>
@@ -3242,7 +3254,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
         <v>96</v>
@@ -3251,7 +3263,7 @@
         <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E94" t="s">
         <v>96</v>
@@ -3259,7 +3271,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
         <v>97</v>
@@ -3268,7 +3280,7 @@
         <v>97</v>
       </c>
       <c r="D95" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E95" t="s">
         <v>97</v>
@@ -3276,7 +3288,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
         <v>98</v>
@@ -3285,7 +3297,7 @@
         <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E96" t="s">
         <v>98</v>
@@ -3293,7 +3305,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
@@ -3302,7 +3314,7 @@
         <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E97" t="s">
         <v>99</v>
@@ -3310,7 +3322,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
@@ -3319,7 +3331,7 @@
         <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E98" t="s">
         <v>100</v>
@@ -3327,7 +3339,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
@@ -3336,7 +3348,7 @@
         <v>101</v>
       </c>
       <c r="D99" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E99" t="s">
         <v>101</v>
@@ -3344,7 +3356,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
         <v>102</v>
@@ -3353,7 +3365,7 @@
         <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E100" t="s">
         <v>102</v>
@@ -3361,7 +3373,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
         <v>103</v>
@@ -3370,7 +3382,7 @@
         <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E101" t="s">
         <v>103</v>
@@ -3378,7 +3390,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
         <v>104</v>
@@ -3387,7 +3399,7 @@
         <v>104</v>
       </c>
       <c r="D102" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E102" t="s">
         <v>104</v>
@@ -3395,7 +3407,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
         <v>105</v>
@@ -3404,7 +3416,7 @@
         <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E103" t="s">
         <v>105</v>
@@ -3412,7 +3424,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
         <v>106</v>
@@ -3421,7 +3433,7 @@
         <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E104" t="s">
         <v>106</v>
@@ -3429,7 +3441,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
         <v>107</v>
@@ -3438,7 +3450,7 @@
         <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E105" t="s">
         <v>107</v>
@@ -3446,7 +3458,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
         <v>108</v>
@@ -3455,7 +3467,7 @@
         <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E106" t="s">
         <v>108</v>
@@ -3463,7 +3475,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
         <v>109</v>
@@ -3472,7 +3484,7 @@
         <v>109</v>
       </c>
       <c r="D107" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E107" t="s">
         <v>109</v>
@@ -3480,7 +3492,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
         <v>110</v>
@@ -3489,7 +3501,7 @@
         <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E108" t="s">
         <v>110</v>
@@ -3497,7 +3509,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
         <v>111</v>
@@ -3506,7 +3518,7 @@
         <v>111</v>
       </c>
       <c r="D109" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E109" t="s">
         <v>111</v>
@@ -3514,7 +3526,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
@@ -3523,7 +3535,7 @@
         <v>112</v>
       </c>
       <c r="D110" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E110" t="s">
         <v>112</v>
@@ -3531,7 +3543,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
         <v>113</v>
@@ -3540,7 +3552,7 @@
         <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E111" t="s">
         <v>113</v>
@@ -3548,630 +3560,630 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="D112" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E112" t="s">
-        <v>433</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>115</v>
+      </c>
+      <c r="D113" t="s">
+        <v>374</v>
       </c>
       <c r="E113" t="s">
-        <v>434</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>238</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>372</v>
+        <v>240</v>
+      </c>
+      <c r="D114" t="s">
+        <v>375</v>
       </c>
       <c r="E114" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="E115" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
-      </c>
-      <c r="D116" t="s">
-        <v>373</v>
+        <v>242</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="E116" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>240</v>
-      </c>
-      <c r="D117" t="s">
-        <v>374</v>
+        <v>162</v>
       </c>
       <c r="E117" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D118" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E118" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D119" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E119" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D120" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E120" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D121" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E121" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D122" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E122" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D123" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E123" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D124" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E124" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D125" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E125" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D126" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E126" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D127" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E127" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D128" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E128" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D129" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E129" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D130" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E130" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D131" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E131" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D132" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E132" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D133" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E133" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D134" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E134" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D135" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E135" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D136" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E136" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D137" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E137" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D138" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E138" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D139" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E139" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D140" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E140" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D141" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E141" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D142" t="s">
-        <v>288</v>
+        <v>401</v>
       </c>
       <c r="E142" t="s">
-        <v>288</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D143" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E143" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D144" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="E144" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D145" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E145" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D146" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E146" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c r="D147" t="s">
-        <v>276</v>
+        <v>405</v>
       </c>
       <c r="E147" t="s">
-        <v>276</v>
+        <v>405</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="D148" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E148" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
         <v>151</v>
@@ -4180,15 +4192,15 @@
         <v>151</v>
       </c>
       <c r="D149" t="s">
-        <v>404</v>
+        <v>280</v>
       </c>
       <c r="E149" t="s">
-        <v>404</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
         <v>152</v>
@@ -4197,15 +4209,15 @@
         <v>152</v>
       </c>
       <c r="D150" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E150" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
         <v>153</v>
@@ -4214,15 +4226,15 @@
         <v>153</v>
       </c>
       <c r="D151" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E151" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
         <v>154</v>
@@ -4231,15 +4243,15 @@
         <v>154</v>
       </c>
       <c r="D152" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E152" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
         <v>155</v>
@@ -4248,15 +4260,15 @@
         <v>155</v>
       </c>
       <c r="D153" t="s">
-        <v>155</v>
+        <v>410</v>
       </c>
       <c r="E153" t="s">
-        <v>155</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B154" t="s">
         <v>156</v>
@@ -4265,15 +4277,15 @@
         <v>156</v>
       </c>
       <c r="D154" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="E154" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
         <v>157</v>
@@ -4282,15 +4294,15 @@
         <v>157</v>
       </c>
       <c r="D155" t="s">
-        <v>408</v>
+        <v>157</v>
       </c>
       <c r="E155" t="s">
-        <v>408</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
         <v>158</v>
@@ -4299,15 +4311,15 @@
         <v>158</v>
       </c>
       <c r="D156" t="s">
-        <v>409</v>
+        <v>338</v>
       </c>
       <c r="E156" t="s">
-        <v>409</v>
+        <v>338</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
         <v>159</v>
@@ -4316,15 +4328,15 @@
         <v>159</v>
       </c>
       <c r="D157" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E157" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
         <v>160</v>
@@ -4333,15 +4345,15 @@
         <v>160</v>
       </c>
       <c r="D158" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E158" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
         <v>161</v>
@@ -4350,15 +4362,15 @@
         <v>161</v>
       </c>
       <c r="D159" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E159" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
         <v>162</v>
@@ -4367,15 +4379,15 @@
         <v>162</v>
       </c>
       <c r="D160" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E160" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
         <v>163</v>
@@ -4384,15 +4396,15 @@
         <v>163</v>
       </c>
       <c r="D161" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E161" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
         <v>164</v>
@@ -4401,15 +4413,15 @@
         <v>164</v>
       </c>
       <c r="D162" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E162" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
         <v>165</v>
@@ -4418,15 +4430,49 @@
         <v>165</v>
       </c>
       <c r="D163" t="s">
-        <v>165</v>
+        <v>418</v>
       </c>
       <c r="E163" t="s">
-        <v>165</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>160</v>
+      </c>
+      <c r="B164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C164" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164" t="s">
+        <v>419</v>
+      </c>
+      <c r="E164" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>161</v>
+      </c>
+      <c r="B165" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" t="s">
+        <v>167</v>
+      </c>
+      <c r="D165" t="s">
+        <v>167</v>
+      </c>
+      <c r="E165" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D114" r:id="rId1"/>
+    <hyperlink ref="D116" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="448">
   <si>
     <t>solution_name</t>
   </si>
@@ -241,6 +241,9 @@
     <t>Kids Abc Book</t>
   </si>
   <si>
+    <t>Knowledge Transfer Solution</t>
+  </si>
+  <si>
     <t>Library Installer</t>
   </si>
   <si>
@@ -721,6 +724,9 @@
     <t>kids_abc_book</t>
   </si>
   <si>
+    <t>Knowledge_Transfer_Solution</t>
+  </si>
+  <si>
     <t>library_installer</t>
   </si>
   <si>
@@ -1016,6 +1022,9 @@
   </si>
   <si>
     <t>2024-03-15 10:39:07,381 - INFO - START solution_temple Start Time = 2024-03-15 10:39:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge Transfer for AI Solutions - Transfering REPOS. </t>
   </si>
   <si>
     <t>2024-03-15 10:39:07,381 - INFO - solution_temple Step 0 - Initialize the configuration file parser</t>
@@ -1719,7 +1728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1747,13 +1756,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1767,10 +1776,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1781,667 +1790,667 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E19" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E20" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D25" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E27" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E29" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E30" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E33" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E36" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E37" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E38" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E39" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E41" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E42" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -2449,234 +2458,234 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D44" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D46" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D49" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D50" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D51" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D52" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D54" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D56" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D57" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D58" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D59" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
@@ -2685,355 +2694,355 @@
         <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E60" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E61" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E62" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D63" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E63" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E65" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E67" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D68" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E68" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D69" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E69" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E70" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D71" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E71" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D72" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E72" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E73" t="s">
-        <v>432</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D74" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E74" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E75" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E76" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="D77" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E77" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E78" t="s">
-        <v>436</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="D79" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E79" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E80" t="s">
-        <v>82</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
@@ -3042,7 +3051,7 @@
         <v>83</v>
       </c>
       <c r="D81" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E81" t="s">
         <v>83</v>
@@ -3050,7 +3059,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>84</v>
@@ -3059,7 +3068,7 @@
         <v>84</v>
       </c>
       <c r="D82" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E82" t="s">
         <v>84</v>
@@ -3067,7 +3076,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
@@ -3076,7 +3085,7 @@
         <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E83" t="s">
         <v>85</v>
@@ -3084,7 +3093,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
         <v>86</v>
@@ -3093,7 +3102,7 @@
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E84" t="s">
         <v>86</v>
@@ -3101,7 +3110,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
@@ -3110,7 +3119,7 @@
         <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E85" t="s">
         <v>87</v>
@@ -3118,7 +3127,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
         <v>88</v>
@@ -3127,7 +3136,7 @@
         <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E86" t="s">
         <v>88</v>
@@ -3135,7 +3144,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
         <v>89</v>
@@ -3144,7 +3153,7 @@
         <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E87" t="s">
         <v>89</v>
@@ -3152,7 +3161,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
         <v>90</v>
@@ -3161,7 +3170,7 @@
         <v>90</v>
       </c>
       <c r="D88" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E88" t="s">
         <v>90</v>
@@ -3169,7 +3178,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
         <v>91</v>
@@ -3178,7 +3187,7 @@
         <v>91</v>
       </c>
       <c r="D89" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E89" t="s">
         <v>91</v>
@@ -3186,7 +3195,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
@@ -3195,7 +3204,7 @@
         <v>92</v>
       </c>
       <c r="D90" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E90" t="s">
         <v>92</v>
@@ -3203,7 +3212,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
@@ -3212,7 +3221,7 @@
         <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E91" t="s">
         <v>93</v>
@@ -3220,7 +3229,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
         <v>94</v>
@@ -3229,7 +3238,7 @@
         <v>94</v>
       </c>
       <c r="D92" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E92" t="s">
         <v>94</v>
@@ -3237,7 +3246,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>95</v>
@@ -3246,7 +3255,7 @@
         <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E93" t="s">
         <v>95</v>
@@ -3254,7 +3263,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
         <v>96</v>
@@ -3263,7 +3272,7 @@
         <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E94" t="s">
         <v>96</v>
@@ -3271,7 +3280,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
         <v>97</v>
@@ -3280,7 +3289,7 @@
         <v>97</v>
       </c>
       <c r="D95" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E95" t="s">
         <v>97</v>
@@ -3288,7 +3297,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
         <v>98</v>
@@ -3297,7 +3306,7 @@
         <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E96" t="s">
         <v>98</v>
@@ -3305,7 +3314,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
@@ -3314,7 +3323,7 @@
         <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E97" t="s">
         <v>99</v>
@@ -3322,7 +3331,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
@@ -3331,7 +3340,7 @@
         <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E98" t="s">
         <v>100</v>
@@ -3339,7 +3348,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
@@ -3348,7 +3357,7 @@
         <v>101</v>
       </c>
       <c r="D99" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E99" t="s">
         <v>101</v>
@@ -3356,7 +3365,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
         <v>102</v>
@@ -3365,7 +3374,7 @@
         <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E100" t="s">
         <v>102</v>
@@ -3373,7 +3382,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
         <v>103</v>
@@ -3382,7 +3391,7 @@
         <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E101" t="s">
         <v>103</v>
@@ -3390,7 +3399,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
         <v>104</v>
@@ -3399,7 +3408,7 @@
         <v>104</v>
       </c>
       <c r="D102" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E102" t="s">
         <v>104</v>
@@ -3407,7 +3416,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
         <v>105</v>
@@ -3416,7 +3425,7 @@
         <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E103" t="s">
         <v>105</v>
@@ -3424,7 +3433,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
         <v>106</v>
@@ -3433,7 +3442,7 @@
         <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E104" t="s">
         <v>106</v>
@@ -3441,7 +3450,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
         <v>107</v>
@@ -3450,7 +3459,7 @@
         <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E105" t="s">
         <v>107</v>
@@ -3458,7 +3467,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
         <v>108</v>
@@ -3467,7 +3476,7 @@
         <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E106" t="s">
         <v>108</v>
@@ -3475,7 +3484,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
         <v>109</v>
@@ -3484,7 +3493,7 @@
         <v>109</v>
       </c>
       <c r="D107" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E107" t="s">
         <v>109</v>
@@ -3492,7 +3501,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
         <v>110</v>
@@ -3501,7 +3510,7 @@
         <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E108" t="s">
         <v>110</v>
@@ -3509,7 +3518,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
         <v>111</v>
@@ -3518,7 +3527,7 @@
         <v>111</v>
       </c>
       <c r="D109" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E109" t="s">
         <v>111</v>
@@ -3526,7 +3535,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
@@ -3535,7 +3544,7 @@
         <v>112</v>
       </c>
       <c r="D110" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E110" t="s">
         <v>112</v>
@@ -3543,7 +3552,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
         <v>113</v>
@@ -3552,7 +3561,7 @@
         <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E111" t="s">
         <v>113</v>
@@ -3560,7 +3569,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
         <v>114</v>
@@ -3569,7 +3578,7 @@
         <v>114</v>
       </c>
       <c r="D112" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E112" t="s">
         <v>114</v>
@@ -3577,7 +3586,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
         <v>115</v>
@@ -3586,7 +3595,7 @@
         <v>115</v>
       </c>
       <c r="D113" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E113" t="s">
         <v>115</v>
@@ -3594,613 +3603,613 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E114" t="s">
-        <v>437</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="D115" t="s">
+        <v>378</v>
       </c>
       <c r="E115" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>242</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>376</v>
+        <v>243</v>
       </c>
       <c r="E116" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>162</v>
+        <v>244</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="E117" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>243</v>
-      </c>
-      <c r="D118" t="s">
-        <v>377</v>
+        <v>163</v>
       </c>
       <c r="E118" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D119" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E119" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D120" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E120" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D121" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E121" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D122" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E122" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D123" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E123" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D124" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E124" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D125" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E125" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D126" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E126" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B127" t="s">
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D127" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E127" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D128" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E128" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D129" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E129" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D130" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E130" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D131" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E131" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D132" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E132" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D133" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E133" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D134" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E134" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D135" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E135" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D136" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E136" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D137" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E137" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D138" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E138" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D139" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E139" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D140" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E140" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D141" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E141" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D142" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E142" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D143" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E143" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D144" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="E144" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D145" t="s">
-        <v>403</v>
+        <v>294</v>
       </c>
       <c r="E145" t="s">
-        <v>403</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D146" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E146" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D147" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E147" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D148" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E148" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B149" t="s">
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="D149" t="s">
-        <v>280</v>
+        <v>409</v>
       </c>
       <c r="E149" t="s">
-        <v>280</v>
+        <v>409</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
         <v>152</v>
@@ -4209,15 +4218,15 @@
         <v>152</v>
       </c>
       <c r="D150" t="s">
-        <v>407</v>
+        <v>282</v>
       </c>
       <c r="E150" t="s">
-        <v>407</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B151" t="s">
         <v>153</v>
@@ -4226,15 +4235,15 @@
         <v>153</v>
       </c>
       <c r="D151" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E151" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B152" t="s">
         <v>154</v>
@@ -4243,15 +4252,15 @@
         <v>154</v>
       </c>
       <c r="D152" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E152" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B153" t="s">
         <v>155</v>
@@ -4260,15 +4269,15 @@
         <v>155</v>
       </c>
       <c r="D153" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E153" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B154" t="s">
         <v>156</v>
@@ -4277,15 +4286,15 @@
         <v>156</v>
       </c>
       <c r="D154" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E154" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B155" t="s">
         <v>157</v>
@@ -4294,15 +4303,15 @@
         <v>157</v>
       </c>
       <c r="D155" t="s">
-        <v>157</v>
+        <v>414</v>
       </c>
       <c r="E155" t="s">
-        <v>157</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B156" t="s">
         <v>158</v>
@@ -4311,15 +4320,15 @@
         <v>158</v>
       </c>
       <c r="D156" t="s">
-        <v>338</v>
+        <v>158</v>
       </c>
       <c r="E156" t="s">
-        <v>338</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B157" t="s">
         <v>159</v>
@@ -4328,15 +4337,15 @@
         <v>159</v>
       </c>
       <c r="D157" t="s">
-        <v>412</v>
+        <v>341</v>
       </c>
       <c r="E157" t="s">
-        <v>412</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B158" t="s">
         <v>160</v>
@@ -4345,15 +4354,15 @@
         <v>160</v>
       </c>
       <c r="D158" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E158" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B159" t="s">
         <v>161</v>
@@ -4362,15 +4371,15 @@
         <v>161</v>
       </c>
       <c r="D159" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E159" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s">
         <v>162</v>
@@ -4379,15 +4388,15 @@
         <v>162</v>
       </c>
       <c r="D160" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E160" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B161" t="s">
         <v>163</v>
@@ -4396,15 +4405,15 @@
         <v>163</v>
       </c>
       <c r="D161" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E161" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B162" t="s">
         <v>164</v>
@@ -4413,15 +4422,15 @@
         <v>164</v>
       </c>
       <c r="D162" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E162" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B163" t="s">
         <v>165</v>
@@ -4430,15 +4439,15 @@
         <v>165</v>
       </c>
       <c r="D163" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E163" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B164" t="s">
         <v>166</v>
@@ -4447,15 +4456,15 @@
         <v>166</v>
       </c>
       <c r="D164" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E164" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B165" t="s">
         <v>167</v>
@@ -4464,15 +4473,32 @@
         <v>167</v>
       </c>
       <c r="D165" t="s">
-        <v>167</v>
+        <v>422</v>
       </c>
       <c r="E165" t="s">
-        <v>167</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>163</v>
+      </c>
+      <c r="B166" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" t="s">
+        <v>168</v>
+      </c>
+      <c r="D166" t="s">
+        <v>168</v>
+      </c>
+      <c r="E166" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D116" r:id="rId1"/>
+    <hyperlink ref="D117" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="451">
   <si>
     <t>solution_name</t>
   </si>
@@ -211,6 +211,9 @@
     <t>High Risk High Need</t>
   </si>
   <si>
+    <t>Hole In One</t>
+  </si>
+  <si>
     <t>Html To Document</t>
   </si>
   <si>
@@ -694,6 +697,9 @@
     <t>high_risk_high_need</t>
   </si>
   <si>
+    <t>hole_in_one</t>
+  </si>
+  <si>
     <t>HTML_to_document</t>
   </si>
   <si>
@@ -1004,6 +1010,9 @@
   </si>
   <si>
     <t>A utility to create a word document docx out of HTML documents.</t>
+  </si>
+  <si>
+    <t>A proven holistic approach to a better life with greater happiness.</t>
   </si>
   <si>
     <t>[5]:</t>
@@ -1728,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1756,13 +1765,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1776,10 +1785,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1790,13 +1799,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1807,38 +1816,38 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>173</v>
@@ -1852,877 +1861,877 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E17" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>185</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>190</v>
       </c>
       <c r="D25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>193</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="D32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E38" t="s">
-        <v>423</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E39" t="s">
-        <v>310</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="E40" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
-      </c>
-      <c r="E41" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
         <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E42" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>315</v>
+      </c>
+      <c r="E43" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
         <v>208</v>
       </c>
       <c r="D44" t="s">
-        <v>314</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
         <v>209</v>
       </c>
       <c r="D45" t="s">
-        <v>315</v>
-      </c>
-      <c r="E45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
         <v>210</v>
       </c>
       <c r="D46" t="s">
-        <v>316</v>
+        <v>317</v>
+      </c>
+      <c r="E46" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
         <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
         <v>212</v>
       </c>
       <c r="D48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
         <v>213</v>
       </c>
       <c r="D49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>214</v>
       </c>
       <c r="D50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
         <v>215</v>
       </c>
       <c r="D51" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
         <v>216</v>
       </c>
       <c r="D52" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
         <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
         <v>218</v>
       </c>
       <c r="D54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
         <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
         <v>220</v>
       </c>
       <c r="D56" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
         <v>221</v>
       </c>
       <c r="D57" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
         <v>222</v>
       </c>
       <c r="D58" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
         <v>223</v>
       </c>
       <c r="D59" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="D60" t="s">
-        <v>329</v>
-      </c>
-      <c r="E60" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="E61" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
         <v>225</v>
@@ -2731,66 +2740,66 @@
         <v>225</v>
       </c>
       <c r="E62" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
         <v>226</v>
       </c>
       <c r="D63" t="s">
-        <v>329</v>
+        <v>226</v>
       </c>
       <c r="E63" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
         <v>227</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="E64" t="s">
-        <v>427</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>228</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>331</v>
       </c>
       <c r="E65" t="s">
-        <v>428</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
         <v>229</v>
@@ -2799,1239 +2808,1239 @@
         <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
         <v>230</v>
       </c>
       <c r="D67" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
         <v>231</v>
       </c>
       <c r="D68" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="E68" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
         <v>232</v>
       </c>
       <c r="D69" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E69" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
         <v>233</v>
       </c>
       <c r="D70" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E70" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
         <v>234</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E71" t="s">
-        <v>334</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
         <v>235</v>
       </c>
       <c r="D72" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E72" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
         <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
         <v>237</v>
       </c>
       <c r="D74" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E74" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
         <v>238</v>
       </c>
       <c r="D75" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E75" t="s">
-        <v>436</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
         <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E76" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
         <v>240</v>
       </c>
       <c r="D77" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E77" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="D78" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E78" t="s">
-        <v>341</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D79" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E79" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
         <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E80" t="s">
-        <v>415</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="D81" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="D82" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E82" t="s">
-        <v>84</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D83" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D85" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D86" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D87" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D93" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D94" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D95" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D96" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D97" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D98" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D101" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D102" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D103" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D104" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D106" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D107" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D108" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D112" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D113" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D114" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>242</v>
+        <v>116</v>
       </c>
       <c r="D115" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E115" t="s">
-        <v>440</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>243</v>
+        <v>117</v>
+      </c>
+      <c r="D116" t="s">
+        <v>380</v>
       </c>
       <c r="E116" t="s">
-        <v>441</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
         <v>244</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>379</v>
+      <c r="D117" t="s">
+        <v>381</v>
       </c>
       <c r="E117" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="E118" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
-      </c>
-      <c r="D119" t="s">
-        <v>380</v>
+        <v>246</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="E119" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>246</v>
-      </c>
-      <c r="D120" t="s">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="E120" t="s">
-        <v>381</v>
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
         <v>247</v>
       </c>
       <c r="D121" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E121" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
         <v>248</v>
       </c>
       <c r="D122" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E122" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
         <v>249</v>
       </c>
       <c r="D123" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E123" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
         <v>250</v>
       </c>
       <c r="D124" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E124" t="s">
-        <v>385</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" t="s">
         <v>251</v>
       </c>
       <c r="D125" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E125" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
         <v>252</v>
       </c>
       <c r="D126" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E126" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
         <v>253</v>
       </c>
       <c r="D127" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E127" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
         <v>254</v>
       </c>
       <c r="D128" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E128" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" t="s">
         <v>255</v>
       </c>
       <c r="D129" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E129" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
         <v>256</v>
       </c>
       <c r="D130" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E130" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
         <v>257</v>
       </c>
       <c r="D131" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E131" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
         <v>258</v>
       </c>
       <c r="D132" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E132" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
         <v>259</v>
       </c>
       <c r="D133" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E133" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
         <v>260</v>
       </c>
       <c r="D134" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E134" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
         <v>261</v>
       </c>
       <c r="D135" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E135" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
         <v>262</v>
       </c>
       <c r="D136" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E136" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
         <v>263</v>
       </c>
       <c r="D137" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E137" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
         <v>264</v>
       </c>
       <c r="D138" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E138" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
         <v>265</v>
       </c>
       <c r="D139" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E139" t="s">
         <v>401</v>
@@ -4039,466 +4048,500 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
         <v>266</v>
       </c>
       <c r="D140" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E140" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
         <v>267</v>
       </c>
       <c r="D141" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E141" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
         <v>268</v>
       </c>
       <c r="D142" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E142" t="s">
-        <v>447</v>
+        <v>404</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
         <v>269</v>
       </c>
       <c r="D143" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E143" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
         <v>270</v>
       </c>
       <c r="D144" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E144" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
         <v>271</v>
       </c>
       <c r="D145" t="s">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="E145" t="s">
-        <v>294</v>
+        <v>407</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
         <v>272</v>
       </c>
       <c r="D146" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E146" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
         <v>273</v>
       </c>
       <c r="D147" t="s">
-        <v>407</v>
+        <v>296</v>
       </c>
       <c r="E147" t="s">
-        <v>407</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
         <v>274</v>
       </c>
       <c r="D148" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E148" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
         <v>275</v>
       </c>
       <c r="D149" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E149" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>152</v>
+        <v>276</v>
       </c>
       <c r="D150" t="s">
-        <v>282</v>
+        <v>411</v>
       </c>
       <c r="E150" t="s">
-        <v>282</v>
+        <v>411</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="D151" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E151" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D152" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="E152" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D153" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E153" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D154" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E154" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D155" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E155" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D156" t="s">
-        <v>158</v>
+        <v>416</v>
       </c>
       <c r="E156" t="s">
-        <v>158</v>
+        <v>416</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D157" t="s">
-        <v>341</v>
+        <v>417</v>
       </c>
       <c r="E157" t="s">
-        <v>341</v>
+        <v>417</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D158" t="s">
-        <v>415</v>
+        <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>415</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D159" t="s">
-        <v>416</v>
+        <v>344</v>
       </c>
       <c r="E159" t="s">
-        <v>416</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D160" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E160" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D161" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E161" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D162" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E162" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D163" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E163" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D164" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E164" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D165" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E165" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1">
+        <v>162</v>
+      </c>
+      <c r="B166" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166" t="s">
+        <v>424</v>
+      </c>
+      <c r="E166" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
         <v>163</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>168</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>168</v>
       </c>
-      <c r="D166" t="s">
-        <v>168</v>
-      </c>
-      <c r="E166" t="s">
-        <v>168</v>
+      <c r="D167" t="s">
+        <v>425</v>
+      </c>
+      <c r="E167" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>164</v>
+      </c>
+      <c r="B168" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" t="s">
+        <v>169</v>
+      </c>
+      <c r="E168" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D117" r:id="rId1"/>
+    <hyperlink ref="D119" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA13D29-B0DC-4AF9-80C3-76D96AE7AF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29FC0481-E4E3-4E3C-90AD-30A4D0772725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1378,7 +1378,7 @@
     <t xml:space="preserve">A library .py file for text to speech </t>
   </si>
   <si>
-    <t>NSP_Common_ski_injuries</t>
+    <t>NSP_common_skiing_injuries</t>
   </si>
 </sst>
 </file>
@@ -1761,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4088,6 +4088,9 @@
       <sortCondition ref="A1:A169"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D169">
+    <sortCondition ref="A1:A169"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="C129" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="470">
   <si>
     <t>solution_name</t>
   </si>
@@ -379,6 +379,21 @@
     <t>Notebook Clone</t>
   </si>
   <si>
+    <t>Nsp Skill Airway Management</t>
+  </si>
+  <si>
+    <t>Nsp Skill Eye Assessment</t>
+  </si>
+  <si>
+    <t>Nsp Skill Patient Asessment</t>
+  </si>
+  <si>
+    <t>Nsp Skill Reading Blood Pressure</t>
+  </si>
+  <si>
+    <t>Nsp Skill Respitory Assessment</t>
+  </si>
+  <si>
     <t>Oncology Procedures Classification</t>
   </si>
   <si>
@@ -760,6 +775,21 @@
     <t>notebook_clone</t>
   </si>
   <si>
+    <t>NSP_Skill_Airway_Management</t>
+  </si>
+  <si>
+    <t>NSP_Skill_Eye_Assessment</t>
+  </si>
+  <si>
+    <t>NSP_Skill_Patient_Asessment</t>
+  </si>
+  <si>
+    <t>NSP_Skill_Reading_Blood_Pressure</t>
+  </si>
+  <si>
+    <t>NSP_Skill_Respitory_Assessment</t>
+  </si>
+  <si>
     <t>oncology_procedures_classification</t>
   </si>
   <si>
@@ -1172,6 +1202,21 @@
   </si>
   <si>
     <t>2024-03-15 10:39:07,391 - INFO - END solution_temple =============================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performing fingers swept, inserting tues, applying oxygen . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ski Patrol Skill for performing a Pupil assessment and asessing eye movement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ski Patrol Skill for performing a patient assessment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ski Patrol Skill for performing a Blood Pressure Reading. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ski Patrol Skill for performing a Respitory assessment - breathing. </t>
   </si>
   <si>
     <t>https://github.com/JoeEberle/ -- josepheberle@outlook.com</t>
@@ -1749,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1774,13 +1819,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1791,10 +1836,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1802,13 +1847,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1816,13 +1861,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1830,13 +1875,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1844,13 +1889,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1858,13 +1903,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1872,13 +1917,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1886,13 +1931,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1900,13 +1945,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1914,13 +1959,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1928,13 +1973,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1942,13 +1987,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1956,13 +2001,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1970,13 +2015,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1984,13 +2029,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1998,13 +2043,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2012,13 +2057,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2026,13 +2071,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D20" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2040,13 +2085,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D21" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2054,13 +2099,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2068,13 +2113,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2082,13 +2127,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D24" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2096,13 +2141,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D25" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2110,13 +2155,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D26" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2124,13 +2169,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D27" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2138,13 +2183,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D28" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2152,13 +2197,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C29" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D29" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2166,13 +2211,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D30" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2180,13 +2225,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D31" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2194,13 +2239,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2208,13 +2253,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D33" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2222,13 +2267,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D34" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2236,13 +2281,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D35" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2250,13 +2295,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D36" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2264,13 +2309,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D37" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2278,13 +2323,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D38" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2292,13 +2337,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D39" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2306,13 +2351,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D40" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2320,13 +2365,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D41" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2334,10 +2379,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2345,13 +2390,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C43" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D43" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2359,13 +2404,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D44" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2373,7 +2418,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
@@ -2384,10 +2429,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C46" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2395,13 +2440,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D47" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2409,10 +2454,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C48" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2420,10 +2465,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2431,10 +2476,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2442,10 +2487,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C51" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2453,10 +2498,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2464,10 +2509,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2475,10 +2520,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2486,10 +2531,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C55" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2497,10 +2542,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2508,10 +2553,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C57" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2519,10 +2564,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2530,10 +2575,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C59" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2541,10 +2586,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C60" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2552,10 +2597,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C61" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2566,10 +2611,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D62" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2577,13 +2622,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C63" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2591,13 +2636,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2605,13 +2650,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C65" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D65" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2619,13 +2664,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C66" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D66" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2633,13 +2678,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D67" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2647,13 +2692,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2661,13 +2706,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D69" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2675,13 +2720,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C70" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D70" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2689,13 +2734,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C71" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D71" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2703,13 +2748,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C72" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D72" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2717,13 +2762,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D73" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2731,13 +2776,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C74" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D74" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2745,13 +2790,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C75" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D75" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2759,13 +2804,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C76" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D76" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2773,13 +2818,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C77" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D77" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2787,13 +2832,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D78" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2801,13 +2846,13 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C79" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="D79" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2815,13 +2860,13 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C80" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D80" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2829,13 +2874,13 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D81" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2843,13 +2888,13 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C82" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D82" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2857,13 +2902,13 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D83" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2874,7 +2919,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D84" t="s">
         <v>85</v>
@@ -2888,7 +2933,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D85" t="s">
         <v>86</v>
@@ -2902,7 +2947,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D86" t="s">
         <v>87</v>
@@ -2916,7 +2961,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
@@ -2930,7 +2975,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D88" t="s">
         <v>89</v>
@@ -2944,7 +2989,7 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D89" t="s">
         <v>90</v>
@@ -2958,7 +3003,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D90" t="s">
         <v>91</v>
@@ -2972,7 +3017,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D91" t="s">
         <v>92</v>
@@ -2986,7 +3031,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D92" t="s">
         <v>93</v>
@@ -3000,7 +3045,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D93" t="s">
         <v>94</v>
@@ -3014,7 +3059,7 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D94" t="s">
         <v>95</v>
@@ -3028,7 +3073,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D95" t="s">
         <v>96</v>
@@ -3042,7 +3087,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D96" t="s">
         <v>97</v>
@@ -3056,7 +3101,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D97" t="s">
         <v>98</v>
@@ -3070,7 +3115,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D98" t="s">
         <v>99</v>
@@ -3084,7 +3129,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D99" t="s">
         <v>100</v>
@@ -3098,7 +3143,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D100" t="s">
         <v>101</v>
@@ -3112,7 +3157,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D101" t="s">
         <v>102</v>
@@ -3126,7 +3171,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D102" t="s">
         <v>103</v>
@@ -3140,7 +3185,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D103" t="s">
         <v>104</v>
@@ -3154,7 +3199,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D104" t="s">
         <v>105</v>
@@ -3168,7 +3213,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D105" t="s">
         <v>106</v>
@@ -3182,7 +3227,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D106" t="s">
         <v>107</v>
@@ -3196,7 +3241,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D107" t="s">
         <v>108</v>
@@ -3210,7 +3255,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D108" t="s">
         <v>109</v>
@@ -3224,7 +3269,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D109" t="s">
         <v>110</v>
@@ -3238,7 +3283,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D110" t="s">
         <v>111</v>
@@ -3252,7 +3297,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D111" t="s">
         <v>112</v>
@@ -3266,7 +3311,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D112" t="s">
         <v>113</v>
@@ -3280,7 +3325,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D113" t="s">
         <v>114</v>
@@ -3294,7 +3339,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D114" t="s">
         <v>115</v>
@@ -3308,7 +3353,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D115" t="s">
         <v>116</v>
@@ -3322,7 +3367,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D116" t="s">
         <v>117</v>
@@ -3336,7 +3381,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D117" t="s">
         <v>118</v>
@@ -3361,13 +3406,13 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C119" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D119" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3375,712 +3420,810 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="C120" t="s">
+        <v>396</v>
       </c>
       <c r="D120" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>249</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>386</v>
+        <v>253</v>
+      </c>
+      <c r="C121" t="s">
+        <v>396</v>
       </c>
       <c r="D121" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>166</v>
+        <v>254</v>
+      </c>
+      <c r="C122" t="s">
+        <v>397</v>
       </c>
       <c r="D122" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C123" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D123" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="D124" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C125" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D125" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C126" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D126" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
-      </c>
-      <c r="C127" t="s">
-        <v>391</v>
+        <v>258</v>
       </c>
       <c r="D127" t="s">
-        <v>391</v>
+        <v>463</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
-      </c>
-      <c r="C128" t="s">
-        <v>392</v>
+        <v>259</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="D128" t="s">
-        <v>392</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
-      </c>
-      <c r="C129" t="s">
-        <v>393</v>
+        <v>171</v>
       </c>
       <c r="D129" t="s">
-        <v>393</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C130" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D130" t="s">
-        <v>394</v>
+        <v>466</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C131" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D131" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C132" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D132" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C133" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D133" t="s">
-        <v>397</v>
+        <v>467</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C134" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D134" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C135" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D135" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C136" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D136" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C137" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D137" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C138" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D138" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C139" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D139" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C140" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D140" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C141" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D141" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C142" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D142" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C143" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D143" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C144" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D144" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C145" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D145" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C146" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D146" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C147" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D147" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C148" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D148" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C149" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="D149" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C150" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D150" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C151" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="D151" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C152" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D152" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C153" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="D153" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="C154" t="s">
-        <v>287</v>
+        <v>426</v>
       </c>
       <c r="D154" t="s">
-        <v>287</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="C155" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D155" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="C156" t="s">
-        <v>418</v>
+        <v>310</v>
       </c>
       <c r="D156" t="s">
-        <v>418</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="C157" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D157" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="C158" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D158" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>289</v>
       </c>
       <c r="C159" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D159" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>431</v>
       </c>
       <c r="D160" t="s">
-        <v>161</v>
+        <v>431</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="D161" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D162" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D163" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D164" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="D165" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D166" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>427</v>
+        <v>166</v>
       </c>
       <c r="D167" t="s">
-        <v>427</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>428</v>
+        <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>428</v>
+        <v>358</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D169" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>438</v>
+      </c>
+      <c r="D170" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>439</v>
+      </c>
+      <c r="D171" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B172" t="s">
         <v>171</v>
       </c>
-      <c r="C170" t="s">
-        <v>171</v>
-      </c>
-      <c r="D170" t="s">
-        <v>171</v>
+      <c r="C172" t="s">
+        <v>440</v>
+      </c>
+      <c r="D172" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>441</v>
+      </c>
+      <c r="D173" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>442</v>
+      </c>
+      <c r="D174" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>443</v>
+      </c>
+      <c r="D175" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>444</v>
+      </c>
+      <c r="D176" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>176</v>
+      </c>
+      <c r="D177" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C121" r:id="rId1"/>
+    <hyperlink ref="C128" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226DB802-AE9A-41DF-84F2-BB80A12D431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="475">
   <si>
     <t>solution_name</t>
   </si>
@@ -391,6 +397,9 @@
     <t>Nsp Skill Reading Blood Pressure</t>
   </si>
   <si>
+    <t>Nsp Skill Respiratory Assessment</t>
+  </si>
+  <si>
     <t>Nsp Skill Respitory Assessment</t>
   </si>
   <si>
@@ -436,6 +445,9 @@
     <t>Principal Component Analysis Sn</t>
   </si>
   <si>
+    <t>Producing The Voice Over</t>
+  </si>
+  <si>
     <t>Progress Bar</t>
   </si>
   <si>
@@ -787,6 +799,9 @@
     <t>NSP_Skill_Reading_Blood_Pressure</t>
   </si>
   <si>
+    <t>NSP_Skill_Respiratory_Assessment</t>
+  </si>
+  <si>
     <t>NSP_Skill_Respitory_Assessment</t>
   </si>
   <si>
@@ -829,6 +844,9 @@
     <t>principal_component_analysis_sn</t>
   </si>
   <si>
+    <t>producing_the_voice_over</t>
+  </si>
+  <si>
     <t>progress_bar</t>
   </si>
   <si>
@@ -1216,12 +1234,12 @@
     <t xml:space="preserve">Ski Patrol Skill for performing a Blood Pressure Reading. </t>
   </si>
   <si>
+    <t xml:space="preserve">Ski Patrol Skill for performing a Respiratory assessment - breathing. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ski Patrol Skill for performing a Respitory assessment - breathing. </t>
   </si>
   <si>
-    <t>https://github.com/JoeEberle/ -- josepheberle@outlook.com</t>
-  </si>
-  <si>
     <t>Click to add a cell.</t>
   </si>
   <si>
@@ -1253,6 +1271,9 @@
   </si>
   <si>
     <t>Principal Component Analysis (PCA) is a dimensionality reduction technique that transforms a large set of variables into a smaller set of uncorrelated variables called principal components, while retaining as much variance in the data as possible.</t>
+  </si>
+  <si>
+    <t>Converts solution documentation to MP3 audio for voice over</t>
   </si>
   <si>
     <t>Solution for Progress Bar</t>
@@ -1429,8 +1450,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1445,13 +1466,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1486,33 +1500,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1550,7 +1566,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1584,6 +1600,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1618,9 +1635,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1793,14 +1811,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128:C130"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,21 +1839,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1836,774 +1861,774 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D22" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C26" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C27" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D28" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D29" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D30" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D31" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D32" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D33" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D34" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D35" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D36" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C37" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D37" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D39" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C40" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D40" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D41" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D44" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D47" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C48" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C50" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C52" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C55" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C56" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C57" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C58" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C59" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C60" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C61" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2611,307 +2636,307 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D62" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D64" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C65" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D65" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C66" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D66" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D68" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D70" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D71" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C72" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D72" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C73" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D73" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C74" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C75" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D75" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C76" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D76" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C77" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D77" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C78" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D78" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C79" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D79" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C80" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D81" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C82" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D82" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D83" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2919,13 +2944,13 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2933,13 +2958,13 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2947,13 +2972,13 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2961,13 +2986,13 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2975,13 +3000,13 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2989,13 +3014,13 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -3003,13 +3028,13 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -3017,13 +3042,13 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -3031,13 +3056,13 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -3045,13 +3070,13 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -3059,13 +3084,13 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -3073,13 +3098,13 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D95" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -3087,13 +3112,13 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -3101,13 +3126,13 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -3115,13 +3140,13 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3129,13 +3154,13 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D99" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -3143,13 +3168,13 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -3157,13 +3182,13 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D101" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -3171,13 +3196,13 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -3185,13 +3210,13 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -3199,13 +3224,13 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -3213,13 +3238,13 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -3227,13 +3252,13 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D106" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -3241,13 +3266,13 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D107" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -3255,13 +3280,13 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -3269,13 +3294,13 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D109" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -3283,13 +3308,13 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D110" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3297,13 +3322,13 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D111" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -3311,13 +3336,13 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D112" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -3325,13 +3350,13 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D113" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -3339,13 +3364,13 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D114" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -3353,13 +3378,13 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -3367,13 +3392,13 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -3381,13 +3406,13 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -3401,617 +3426,623 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C119" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D119" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C120" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D120" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D121" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D122" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C123" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D123" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D124" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C125" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D125" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D126" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="C127" t="s">
+        <v>405</v>
       </c>
       <c r="D127" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>401</v>
+        <v>261</v>
+      </c>
+      <c r="C128" t="s">
+        <v>261</v>
       </c>
       <c r="D128" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>171</v>
+        <v>262</v>
+      </c>
+      <c r="C129" t="s">
+        <v>262</v>
       </c>
       <c r="D129" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="C130" t="s">
-        <v>402</v>
+        <v>173</v>
       </c>
       <c r="D130" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D131" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D132" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C133" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D133" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C134" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D134" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C135" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D135" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C136" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D136" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C137" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D137" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C138" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D138" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C139" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D139" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C140" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D140" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C141" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D141" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C142" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D142" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C143" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D143" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C144" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D144" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C145" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D145" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C146" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D146" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C147" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D147" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C148" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D148" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C149" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D149" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C150" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D150" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C151" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D151" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C152" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D152" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C153" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D153" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C154" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D154" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C155" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D155" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C156" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="D156" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C157" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D157" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C158" t="s">
-        <v>429</v>
+        <v>314</v>
       </c>
       <c r="D158" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C159" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D159" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C160" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D160" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>293</v>
       </c>
       <c r="C161" t="s">
-        <v>297</v>
+        <v>435</v>
       </c>
       <c r="D161" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="C162" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D162" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4019,13 +4050,13 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>433</v>
+        <v>301</v>
       </c>
       <c r="D163" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4033,13 +4064,13 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D164" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4047,13 +4078,13 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D165" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4061,13 +4092,13 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D166" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4075,13 +4106,13 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>166</v>
+        <v>440</v>
       </c>
       <c r="D167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4089,13 +4120,13 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>358</v>
+        <v>441</v>
       </c>
       <c r="D168" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4103,13 +4134,13 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>437</v>
+        <v>168</v>
       </c>
       <c r="D169" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4117,13 +4148,13 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="D170" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4131,13 +4162,13 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D171" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4145,13 +4176,13 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D172" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4159,13 +4190,13 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D173" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4173,13 +4204,13 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D174" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4187,13 +4218,13 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D175" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4201,13 +4232,13 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D176" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4215,16 +4246,41 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>176</v>
+        <v>448</v>
       </c>
       <c r="D177" t="s">
-        <v>176</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>449</v>
+      </c>
+      <c r="D178" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
+        <v>178</v>
+      </c>
+      <c r="D179" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C128" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="478">
   <si>
     <t>solution_name</t>
   </si>
@@ -28,30 +28,252 @@
     <t>solution_description</t>
   </si>
   <si>
+    <t>A.I. Prompt Generator</t>
+  </si>
+  <si>
+    <t>AI_exploration_infrastructure</t>
+  </si>
+  <si>
     <t>Ai Agent</t>
   </si>
   <si>
-    <t>AI_exploration_infrastructure</t>
-  </si>
-  <si>
     <t>Ai Exploration Infrastructure Summary</t>
   </si>
   <si>
     <t>Ai Exploration Infrastructure Technical</t>
   </si>
   <si>
+    <t>Archival Automation</t>
+  </si>
+  <si>
+    <t>Autogen</t>
+  </si>
+  <si>
+    <t>Automated Application Launcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automating Windows Task Scheduler </t>
+  </si>
+  <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>Cancer Care Timeline</t>
+  </si>
+  <si>
+    <t>Cancer Treatment Outcomes</t>
+  </si>
+  <si>
+    <t>Cancer Treatment Side Effects</t>
+  </si>
+  <si>
+    <t>Chat Gpt Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choropleth Map </t>
+  </si>
+  <si>
+    <t>Chronic Disease Registry</t>
+  </si>
+  <si>
+    <t>Clinical Classification System</t>
+  </si>
+  <si>
+    <t>Clinical Classification System Sn</t>
+  </si>
+  <si>
     <t>Common Skiing Injuries</t>
   </si>
   <si>
+    <t>Configuring Settings</t>
+  </si>
+  <si>
+    <t>Convert MS Access to New Technology</t>
+  </si>
+  <si>
+    <t>Corpus</t>
+  </si>
+  <si>
+    <t>Correlation Heatmap</t>
+  </si>
+  <si>
+    <t>Correlation Heatmap Sn</t>
+  </si>
+  <si>
+    <t>Create Readme Md</t>
+  </si>
+  <si>
+    <t>Create Sign</t>
+  </si>
+  <si>
+    <t>Create Solution Definition</t>
+  </si>
+  <si>
+    <t>Create Solution Sign</t>
+  </si>
+  <si>
+    <t>Create Solution Word Cloud</t>
+  </si>
+  <si>
+    <t>Curated Datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Data Loader  </t>
+  </si>
+  <si>
+    <t>Data Analysis Story Board</t>
+  </si>
+  <si>
+    <t>Data Cleansing</t>
+  </si>
+  <si>
+    <t>Data Delta Calculator</t>
+  </si>
+  <si>
+    <t>Data Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Loader Reference Tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Loader Transactional  Tables </t>
+  </si>
+  <si>
+    <t>Data Profiling</t>
+  </si>
+  <si>
+    <t>Data Profiling Sn</t>
+  </si>
+  <si>
+    <t>Data Science Report Generator</t>
+  </si>
+  <si>
+    <t>Data Sets</t>
+  </si>
+  <si>
+    <t>Descriptive Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Goals </t>
+  </si>
+  <si>
+    <t>Diabetes Outcome Analysis</t>
+  </si>
+  <si>
+    <t>Diabetes Risk Stratification Sn</t>
+  </si>
+  <si>
+    <t>Diabetes Risk Stratification.</t>
+  </si>
+  <si>
+    <t>Disease Progression Model</t>
+  </si>
+  <si>
+    <t>Email Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment Testing </t>
+  </si>
+  <si>
+    <t>Epic Training Course Cogito Fundamentals 170 Day 1 Part 2</t>
+  </si>
+  <si>
+    <t>Epidemiology Methodology</t>
+  </si>
+  <si>
+    <t>File Discovery</t>
+  </si>
+  <si>
+    <t>File Manager</t>
+  </si>
+  <si>
+    <t>File Removal</t>
+  </si>
+  <si>
+    <t>File Watchdog</t>
+  </si>
+  <si>
+    <t>Form Validator</t>
+  </si>
+  <si>
+    <t>Getting Started with Django</t>
+  </si>
+  <si>
+    <t>Git Commands</t>
+  </si>
+  <si>
+    <t>Github Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glossary Term </t>
+  </si>
+  <si>
     <t>HTML_to_Document</t>
   </si>
   <si>
+    <t>Happiness Datasets</t>
+  </si>
+  <si>
+    <t>High Risk High Need</t>
+  </si>
+  <si>
+    <t>Hole In One</t>
+  </si>
+  <si>
     <t>Html To Document</t>
   </si>
   <si>
+    <t>Hugging Face Transformers</t>
+  </si>
+  <si>
+    <t>Incremental Imports</t>
+  </si>
+  <si>
+    <t>Infrastructure Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Corpus Learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Data Serialization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Generative Digital Assistant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Chatbot Web Scrapping  </t>
+  </si>
+  <si>
+    <t>Introduction To Pandas</t>
+  </si>
+  <si>
+    <t>Kids Abc Book</t>
+  </si>
+  <si>
     <t>Knowledge Transfer Solution</t>
   </si>
   <si>
+    <t>Library Installer</t>
+  </si>
+  <si>
+    <t>Library for Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Logging And Debugging</t>
+  </si>
+  <si>
+    <t>Managing Personas</t>
+  </si>
+  <si>
+    <t>Mark Down To Html</t>
+  </si>
+  <si>
+    <t>Membership Matching</t>
+  </si>
+  <si>
+    <t>Multi Disciplinary Cancer Care Team</t>
+  </si>
+  <si>
     <t>NSP_OEC_Training_Chapter_1</t>
   </si>
   <si>
@@ -154,6 +376,12 @@
     <t>NSP_OEC_Training_Chapter_9</t>
   </si>
   <si>
+    <t>NSP_common_skiing_injuries</t>
+  </si>
+  <si>
+    <t>Notebook Clone</t>
+  </si>
+  <si>
     <t>Nsp Skill Airway Management</t>
   </si>
   <si>
@@ -172,385 +400,163 @@
     <t>Nsp Skill Respitory Assessment</t>
   </si>
   <si>
-    <t>NSP_common_skiing_injuries</t>
-  </si>
-  <si>
-    <t>A.I. Prompt Generator</t>
-  </si>
-  <si>
-    <t>Archival Automation</t>
-  </si>
-  <si>
-    <t>Autogen</t>
-  </si>
-  <si>
-    <t>Automated Application Launcher</t>
+    <t>Oncology Procedures Classification</t>
+  </si>
+  <si>
+    <t>Oncology Terminology</t>
+  </si>
+  <si>
+    <t>Patient Cancer Risk Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Complexity Index </t>
+  </si>
+  <si>
+    <t>Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
+  </si>
+  <si>
+    <t>Precision Oncology</t>
+  </si>
+  <si>
+    <t>Predicting Breast Cancer</t>
+  </si>
+  <si>
+    <t>Predicting Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>Predicting Diabetes</t>
+  </si>
+  <si>
+    <t>Predicting Lung Cancer</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis Sn</t>
+  </si>
+  <si>
+    <t>Producing The Voice Over</t>
+  </si>
+  <si>
+    <t>Progress Bar</t>
+  </si>
+  <si>
+    <t>Python Foundation</t>
+  </si>
+  <si>
+    <t>Remote Process Automation Excel</t>
+  </si>
+  <si>
+    <t>Rules Engine</t>
+  </si>
+  <si>
+    <t>SQLite Introduction</t>
+  </si>
+  <si>
+    <t>Simple Chatbot Simple Nlp Response</t>
+  </si>
+  <si>
+    <t>Smart Mini Proposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Registry </t>
+  </si>
+  <si>
+    <t>Solution Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervised Learning </t>
+  </si>
+  <si>
+    <t>System Information</t>
+  </si>
+  <si>
+    <t>Talking Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talking Code Library </t>
+  </si>
+  <si>
+    <t>Task Scheduling</t>
+  </si>
+  <si>
+    <t>Unzip Automation</t>
+  </si>
+  <si>
+    <t>Update Solution Images</t>
+  </si>
+  <si>
+    <t>Updating Libraries</t>
+  </si>
+  <si>
+    <t>Web Automation</t>
+  </si>
+  <si>
+    <t>Word Cloud</t>
+  </si>
+  <si>
+    <t>World Mood</t>
   </si>
   <si>
     <t>automating_windows_task_scheduler</t>
   </si>
   <si>
-    <t xml:space="preserve">Automating Windows Task Scheduler </t>
-  </si>
-  <si>
-    <t>Calculator</t>
-  </si>
-  <si>
-    <t>Cancer Care Timeline</t>
-  </si>
-  <si>
-    <t>Cancer Treatment Outcomes</t>
-  </si>
-  <si>
-    <t>Cancer Treatment Side Effects</t>
-  </si>
-  <si>
-    <t>Chat Gpt Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choropleth Map </t>
-  </si>
-  <si>
-    <t>Chronic Disease Registry</t>
-  </si>
-  <si>
-    <t>Clinical Classification System</t>
-  </si>
-  <si>
-    <t>Clinical Classification System Sn</t>
-  </si>
-  <si>
-    <t>Configuring Settings</t>
-  </si>
-  <si>
-    <t>Convert MS Access to New Technology</t>
-  </si>
-  <si>
-    <t>Corpus</t>
-  </si>
-  <si>
     <t>corpus_learning_chatbot</t>
   </si>
   <si>
-    <t>Correlation Heatmap</t>
-  </si>
-  <si>
-    <t>Correlation Heatmap Sn</t>
-  </si>
-  <si>
-    <t>Create Readme Md</t>
-  </si>
-  <si>
-    <t>Create Sign</t>
-  </si>
-  <si>
     <t>create_solution</t>
   </si>
   <si>
-    <t>Create Solution Definition</t>
-  </si>
-  <si>
-    <t>Create Solution Sign</t>
-  </si>
-  <si>
-    <t>Create Solution Word Cloud</t>
-  </si>
-  <si>
-    <t>Curated Datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Data Loader  </t>
-  </si>
-  <si>
     <t>data_analysis_story_board</t>
   </si>
   <si>
-    <t>Data Analysis Story Board</t>
-  </si>
-  <si>
-    <t>Data Cleansing</t>
-  </si>
-  <si>
-    <t>Data Delta Calculator</t>
-  </si>
-  <si>
-    <t>Data Discovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Loader Reference Tables </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Loader Transactional  Tables </t>
-  </si>
-  <si>
-    <t>Data Profiling</t>
-  </si>
-  <si>
-    <t>Data Profiling Sn</t>
-  </si>
-  <si>
-    <t>Data Science Report Generator</t>
-  </si>
-  <si>
-    <t>Data Sets</t>
-  </si>
-  <si>
-    <t>Descriptive Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Goals </t>
-  </si>
-  <si>
-    <t>Diabetes Outcome Analysis</t>
-  </si>
-  <si>
-    <t>Diabetes Risk Stratification.</t>
-  </si>
-  <si>
-    <t>Diabetes Risk Stratification Sn</t>
-  </si>
-  <si>
     <t>diagrams</t>
   </si>
   <si>
-    <t>Disease Progression Model</t>
-  </si>
-  <si>
-    <t>Email Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment Testing </t>
-  </si>
-  <si>
-    <t>Epidemiology Methodology</t>
-  </si>
-  <si>
-    <t>File Discovery</t>
-  </si>
-  <si>
-    <t>File Manager</t>
-  </si>
-  <si>
-    <t>File Removal</t>
-  </si>
-  <si>
-    <t>File Watchdog</t>
-  </si>
-  <si>
-    <t>Form Validator</t>
-  </si>
-  <si>
-    <t>Getting Started with Django</t>
-  </si>
-  <si>
-    <t>Git Commands</t>
-  </si>
-  <si>
-    <t>Github Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glossary Term </t>
-  </si>
-  <si>
-    <t>Happiness Datasets</t>
-  </si>
-  <si>
-    <t>High Risk High Need</t>
-  </si>
-  <si>
-    <t>Hole In One</t>
-  </si>
-  <si>
-    <t>Hugging Face Transformers</t>
-  </si>
-  <si>
     <t>icd_10_cm_analysis</t>
   </si>
   <si>
-    <t>Incremental Imports</t>
-  </si>
-  <si>
-    <t>Infrastructure Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Corpus Learning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Data Serialization </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Generative Digital Assistant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Chatbot Web Scrapping  </t>
-  </si>
-  <si>
-    <t>Introduction To Pandas</t>
-  </si>
-  <si>
     <t>inventory_your_python</t>
   </si>
   <si>
-    <t>Kids Abc Book</t>
-  </si>
-  <si>
-    <t>Library Installer</t>
-  </si>
-  <si>
-    <t>Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Managing Personas</t>
-  </si>
-  <si>
-    <t>Mark Down To Html</t>
-  </si>
-  <si>
     <t>mark_down_to_HTML</t>
   </si>
   <si>
-    <t>Membership Matching</t>
-  </si>
-  <si>
     <t>multi_disciplinary_cancer_care_team</t>
   </si>
   <si>
-    <t>Multi Disciplinary Cancer Care Team</t>
-  </si>
-  <si>
-    <t>Notebook Clone</t>
-  </si>
-  <si>
     <t>oncology_diagnostic_coding</t>
   </si>
   <si>
     <t>oncology_epidemiology</t>
   </si>
   <si>
-    <t>Oncology Procedures Classification</t>
-  </si>
-  <si>
-    <t>Oncology Terminology</t>
-  </si>
-  <si>
     <t>patient_cancer_risk_index</t>
   </si>
   <si>
-    <t>Patient Cancer Risk Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient Complexity Index </t>
-  </si>
-  <si>
     <t>patient_gaps_in_care</t>
   </si>
   <si>
-    <t>Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor Emotional Regulatory Control </t>
-  </si>
-  <si>
-    <t>Precision Oncology</t>
-  </si>
-  <si>
-    <t>Predicting Breast Cancer</t>
-  </si>
-  <si>
-    <t>Predicting Colorectal Cancer</t>
-  </si>
-  <si>
-    <t>Predicting Diabetes</t>
-  </si>
-  <si>
-    <t>Predicting Lung Cancer</t>
-  </si>
-  <si>
-    <t>Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Principal Component Analysis Sn</t>
-  </si>
-  <si>
-    <t>Producing The Voice Over</t>
-  </si>
-  <si>
-    <t>Progress Bar</t>
-  </si>
-  <si>
-    <t>Python Foundation</t>
-  </si>
-  <si>
     <t>quality_of_life_index</t>
   </si>
   <si>
-    <t>Library for Logging And Debugging</t>
-  </si>
-  <si>
-    <t>Remote Process Automation Excel</t>
-  </si>
-  <si>
-    <t>Rules Engine</t>
-  </si>
-  <si>
-    <t>Simple Chatbot Simple Nlp Response</t>
-  </si>
-  <si>
-    <t>Smart Mini Proposal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Registry </t>
-  </si>
-  <si>
-    <t>Solution Template</t>
-  </si>
-  <si>
-    <t>SQLite Introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervised Learning </t>
-  </si>
-  <si>
-    <t>System Information</t>
-  </si>
-  <si>
     <t>taipy_web_gui</t>
   </si>
   <si>
-    <t>Talking Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talking Code Library </t>
-  </si>
-  <si>
-    <t>Task Scheduling</t>
-  </si>
-  <si>
     <t>term_frequency_inverse_document_frequency</t>
   </si>
   <si>
     <t>titanic_survival_analysis</t>
   </si>
   <si>
-    <t>Unzip Automation</t>
-  </si>
-  <si>
-    <t>Update Solution Images</t>
-  </si>
-  <si>
-    <t>Updating Libraries</t>
-  </si>
-  <si>
-    <t>Web Automation</t>
-  </si>
-  <si>
-    <t>Word Cloud</t>
-  </si>
-  <si>
-    <t>World Mood</t>
+    <t>ai_prompt_generator</t>
   </si>
   <si>
     <t>AI_Agent</t>
@@ -562,15 +568,225 @@
     <t>AI_exploration_infrastructure_technical</t>
   </si>
   <si>
+    <t>archival_automation</t>
+  </si>
+  <si>
+    <t>autogen</t>
+  </si>
+  <si>
+    <t>automated_application_launcher</t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>cancer_care_timeline</t>
+  </si>
+  <si>
+    <t>cancer_treatment_outcomes</t>
+  </si>
+  <si>
+    <t>cancer_treatment_side_effects</t>
+  </si>
+  <si>
+    <t>chat_gpt_integration</t>
+  </si>
+  <si>
+    <t>choropleth_map</t>
+  </si>
+  <si>
+    <t>chronic_disease_registry</t>
+  </si>
+  <si>
+    <t>clinical_classification_system</t>
+  </si>
+  <si>
+    <t>clinical_classification_system_sn</t>
+  </si>
+  <si>
     <t>Common_Skiing_Injuries</t>
   </si>
   <si>
+    <t>configuring_settings</t>
+  </si>
+  <si>
+    <t>convert_msaccess</t>
+  </si>
+  <si>
+    <t>corpus</t>
+  </si>
+  <si>
+    <t>correlation_heatmap</t>
+  </si>
+  <si>
+    <t>correlation_heatmap_sn</t>
+  </si>
+  <si>
+    <t>create_readme_md</t>
+  </si>
+  <si>
+    <t>create_sign</t>
+  </si>
+  <si>
+    <t>create_solution_definition</t>
+  </si>
+  <si>
+    <t>create_solution_sign</t>
+  </si>
+  <si>
+    <t>create_solution_word_cloud</t>
+  </si>
+  <si>
+    <t>curated_datasets</t>
+  </si>
+  <si>
+    <t>daily_data_loader</t>
+  </si>
+  <si>
+    <t>data_cleansing</t>
+  </si>
+  <si>
+    <t>data_delta_calculator</t>
+  </si>
+  <si>
+    <t>data_discovery</t>
+  </si>
+  <si>
+    <t>data_loader_reference_tables</t>
+  </si>
+  <si>
+    <t>data_loader_transactional__tables</t>
+  </si>
+  <si>
+    <t>data_profiling</t>
+  </si>
+  <si>
+    <t>data_profiling_sn</t>
+  </si>
+  <si>
+    <t>data_science_report_generator</t>
+  </si>
+  <si>
+    <t>data_sets</t>
+  </si>
+  <si>
+    <t>descriptive_statistics</t>
+  </si>
+  <si>
+    <t>design_goal</t>
+  </si>
+  <si>
+    <t>diabetes_outcome_analysis</t>
+  </si>
+  <si>
+    <t>diabetes_risk_stratification_sn</t>
+  </si>
+  <si>
+    <t>diabetes_risk_stratification</t>
+  </si>
+  <si>
+    <t>disease_progression_model</t>
+  </si>
+  <si>
+    <t>email_automation</t>
+  </si>
+  <si>
+    <t>environment_testing</t>
+  </si>
+  <si>
+    <t>EPIC_Training_course_cogito_fundamentals_170_day_1_part_2</t>
+  </si>
+  <si>
+    <t>epidemiology_methodology</t>
+  </si>
+  <si>
+    <t>file_discovery</t>
+  </si>
+  <si>
+    <t>file_manager</t>
+  </si>
+  <si>
+    <t>file_removal</t>
+  </si>
+  <si>
+    <t>file_watchdog</t>
+  </si>
+  <si>
+    <t>form_validator</t>
+  </si>
+  <si>
+    <t>getting_started_with_django</t>
+  </si>
+  <si>
+    <t>git_commands</t>
+  </si>
+  <si>
+    <t>github_automation</t>
+  </si>
+  <si>
+    <t>glossary_term</t>
+  </si>
+  <si>
+    <t>happiness_datasets</t>
+  </si>
+  <si>
+    <t>high_risk_high_need</t>
+  </si>
+  <si>
+    <t>hole_in_one</t>
+  </si>
+  <si>
     <t>HTML_to_document</t>
   </si>
   <si>
+    <t>hugging_face_transformers</t>
+  </si>
+  <si>
+    <t>incremental_imports</t>
+  </si>
+  <si>
+    <t>infrastructure_setup</t>
+  </si>
+  <si>
+    <t>intelligent_chatbot_corpus_learning</t>
+  </si>
+  <si>
+    <t>intelligent_chatbot_data_serialization</t>
+  </si>
+  <si>
+    <t>intelligent_chatbot_generative_digital_assistant</t>
+  </si>
+  <si>
+    <t>intelligent_chatbot_web_scrapping</t>
+  </si>
+  <si>
+    <t>introduction_to_pandas</t>
+  </si>
+  <si>
+    <t>kids_abc_book</t>
+  </si>
+  <si>
     <t>Knowledge_Transfer_Solution</t>
   </si>
   <si>
+    <t>library_installer</t>
+  </si>
+  <si>
+    <t>quick_logger</t>
+  </si>
+  <si>
+    <t>logging_and_debugging</t>
+  </si>
+  <si>
+    <t>managing_personas</t>
+  </si>
+  <si>
+    <t>membership_matching</t>
+  </si>
+  <si>
+    <t>notebook_clone</t>
+  </si>
+  <si>
     <t>NSP_Skill_Airway_Management</t>
   </si>
   <si>
@@ -589,213 +805,6 @@
     <t>NSP_Skill_Respitory_Assessment</t>
   </si>
   <si>
-    <t>ai_prompt_generator</t>
-  </si>
-  <si>
-    <t>archival_automation</t>
-  </si>
-  <si>
-    <t>autogen</t>
-  </si>
-  <si>
-    <t>automated_application_launcher</t>
-  </si>
-  <si>
-    <t>calculator</t>
-  </si>
-  <si>
-    <t>cancer_care_timeline</t>
-  </si>
-  <si>
-    <t>cancer_treatment_outcomes</t>
-  </si>
-  <si>
-    <t>cancer_treatment_side_effects</t>
-  </si>
-  <si>
-    <t>chat_gpt_integration</t>
-  </si>
-  <si>
-    <t>choropleth_map</t>
-  </si>
-  <si>
-    <t>chronic_disease_registry</t>
-  </si>
-  <si>
-    <t>clinical_classification_system</t>
-  </si>
-  <si>
-    <t>clinical_classification_system_sn</t>
-  </si>
-  <si>
-    <t>configuring_settings</t>
-  </si>
-  <si>
-    <t>convert_msaccess</t>
-  </si>
-  <si>
-    <t>corpus</t>
-  </si>
-  <si>
-    <t>correlation_heatmap</t>
-  </si>
-  <si>
-    <t>correlation_heatmap_sn</t>
-  </si>
-  <si>
-    <t>create_readme_md</t>
-  </si>
-  <si>
-    <t>create_sign</t>
-  </si>
-  <si>
-    <t>create_solution_definition</t>
-  </si>
-  <si>
-    <t>create_solution_sign</t>
-  </si>
-  <si>
-    <t>create_solution_word_cloud</t>
-  </si>
-  <si>
-    <t>curated_datasets</t>
-  </si>
-  <si>
-    <t>daily_data_loader</t>
-  </si>
-  <si>
-    <t>data_cleansing</t>
-  </si>
-  <si>
-    <t>data_delta_calculator</t>
-  </si>
-  <si>
-    <t>data_discovery</t>
-  </si>
-  <si>
-    <t>data_loader_reference_tables</t>
-  </si>
-  <si>
-    <t>data_loader_transactional__tables</t>
-  </si>
-  <si>
-    <t>data_profiling</t>
-  </si>
-  <si>
-    <t>data_profiling_sn</t>
-  </si>
-  <si>
-    <t>data_science_report_generator</t>
-  </si>
-  <si>
-    <t>data_sets</t>
-  </si>
-  <si>
-    <t>descriptive_statistics</t>
-  </si>
-  <si>
-    <t>design_goal</t>
-  </si>
-  <si>
-    <t>diabetes_outcome_analysis</t>
-  </si>
-  <si>
-    <t>diabetes_risk_stratification</t>
-  </si>
-  <si>
-    <t>diabetes_risk_stratification_sn</t>
-  </si>
-  <si>
-    <t>disease_progression_model</t>
-  </si>
-  <si>
-    <t>email_automation</t>
-  </si>
-  <si>
-    <t>environment_testing</t>
-  </si>
-  <si>
-    <t>epidemiology_methodology</t>
-  </si>
-  <si>
-    <t>file_discovery</t>
-  </si>
-  <si>
-    <t>file_manager</t>
-  </si>
-  <si>
-    <t>file_removal</t>
-  </si>
-  <si>
-    <t>file_watchdog</t>
-  </si>
-  <si>
-    <t>form_validator</t>
-  </si>
-  <si>
-    <t>getting_started_with_django</t>
-  </si>
-  <si>
-    <t>git_commands</t>
-  </si>
-  <si>
-    <t>github_automation</t>
-  </si>
-  <si>
-    <t>glossary_term</t>
-  </si>
-  <si>
-    <t>happiness_datasets</t>
-  </si>
-  <si>
-    <t>high_risk_high_need</t>
-  </si>
-  <si>
-    <t>hole_in_one</t>
-  </si>
-  <si>
-    <t>hugging_face_transformers</t>
-  </si>
-  <si>
-    <t>incremental_imports</t>
-  </si>
-  <si>
-    <t>infrastructure_setup</t>
-  </si>
-  <si>
-    <t>intelligent_chatbot_corpus_learning</t>
-  </si>
-  <si>
-    <t>intelligent_chatbot_data_serialization</t>
-  </si>
-  <si>
-    <t>intelligent_chatbot_generative_digital_assistant</t>
-  </si>
-  <si>
-    <t>intelligent_chatbot_web_scrapping</t>
-  </si>
-  <si>
-    <t>introduction_to_pandas</t>
-  </si>
-  <si>
-    <t>kids_abc_book</t>
-  </si>
-  <si>
-    <t>library_installer</t>
-  </si>
-  <si>
-    <t>logging_and_debugging</t>
-  </si>
-  <si>
-    <t>managing_personas</t>
-  </si>
-  <si>
-    <t>membership_matching</t>
-  </si>
-  <si>
-    <t>notebook_clone</t>
-  </si>
-  <si>
     <t>oncology_procedures_classification</t>
   </si>
   <si>
@@ -844,15 +853,15 @@
     <t>python_foundation</t>
   </si>
   <si>
-    <t>quick_logger</t>
-  </si>
-  <si>
     <t>remote_process_automation_excel</t>
   </si>
   <si>
     <t>rules_engine</t>
   </si>
   <si>
+    <t>sqlite_introduction</t>
+  </si>
+  <si>
     <t>simple_chatbot_simple_nlp_response</t>
   </si>
   <si>
@@ -865,9 +874,6 @@
     <t>solution_template</t>
   </si>
   <si>
-    <t>sqlite_introduction</t>
-  </si>
-  <si>
     <t>supervised_learning</t>
   </si>
   <si>
@@ -901,21 +907,219 @@
     <t>world_mood</t>
   </si>
   <si>
+    <t>Produce high quality prompts to get the most out of AI.</t>
+  </si>
+  <si>
+    <t>A sophisticated AI infrastructure that uses AI agents and LLMs to research an query population health data.</t>
+  </si>
+  <si>
     <t>Use uagent to Create AI agents to perform workflows and LLM integrations.</t>
   </si>
   <si>
-    <t>A sophisticated AI infrastructure that uses AI agents and LLMs to research an query population health data.</t>
+    <t>Archival Automation automatically backs up your data and puts a archive  stamp on it.</t>
+  </si>
+  <si>
+    <t>Use autogen AI agents to perform workflows and LLM integrations.</t>
+  </si>
+  <si>
+    <t>Automated Application Launcher launches any application you want on a schedule or through voice commands</t>
+  </si>
+  <si>
+    <t>This solution automates creating python script to run in windows task scheduler.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build a simple calculator using python and tkinter to enhance your programming skills </t>
+  </si>
+  <si>
+    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides a list of measurable outcomes for Cancer Care including remission, ongoing treatment, active surveillance, death, etc.  </t>
+  </si>
+  <si>
+    <t>quantifying of side affects associated with major cancer treatment modalities</t>
+  </si>
+  <si>
+    <t>Solution that demonstrates how to integrate your applications with **Chat GPT**. Utilizes the API to integrate with the LLM **Large Language Model**</t>
+  </si>
+  <si>
+    <t>Mapping solution for global and local choropleth maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A chronic disease registry classifies patients with specific diseases or conditions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This solution extends and enhances the ICD-10-CM diagnosis standard to include disease classifications that can be used for registries and care outreach. </t>
+  </si>
+  <si>
+    <t>This solution extends and enhances the ICD-10-CM diagnosis standard to include disease classifications that can be used for registries and care outreach.</t>
   </si>
   <si>
     <t>A list of common skiing injuries a National Ski Patrol person may face.</t>
   </si>
   <si>
+    <t xml:space="preserve">Solution for Configuring Settings. The config.ini file in Python serves as a centralized repository for storing configuration parameters, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution for converting MS access into a new technology stack. </t>
+  </si>
+  <si>
+    <t>Provide a set of images designed to brand and represent each unique solution.</t>
+  </si>
+  <si>
+    <t>A correlation heatmap provides insights to critical relationships within Data</t>
+  </si>
+  <si>
+    <t>A correlation heatmap provides insights to critical relationships within data.</t>
+  </si>
+  <si>
+    <t>Generate a beautiful and effective readme.md file.</t>
+  </si>
+  <si>
+    <t>A tiny utility to create PNG signs.</t>
+  </si>
+  <si>
+    <t>A utility to create a new definition  for every solution.</t>
+  </si>
+  <si>
+    <t>A utility to create a new PNG sign for every solution.</t>
+  </si>
+  <si>
+    <t>A utility to create a word cloud for every solution.</t>
+  </si>
+  <si>
+    <t>Solution for Curated Datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load a the LATEST DELTA of NEW TRANSACTIONS  into a relational datastore. Run periodically for freshness. </t>
+  </si>
+  <si>
+    <t>A story board document of data amalysis from start to finish.</t>
+  </si>
+  <si>
+    <t>A set of utilities to easily cleans and improve your data</t>
+  </si>
+  <si>
+    <t>Calculates the structural difference between raw data sources. Compares to LAST LOAD to determine what is NEW. This is for loading data incrementally over time so that history isn't constantly re-loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finds ALL the valuable data assets on your system and registers them. </t>
+  </si>
+  <si>
+    <t>Load a series of reference tables into a relational datastore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load a large historical transactional tables into a relational datastore. One Time LOAD </t>
+  </si>
+  <si>
+    <t>Tells you **EVERYTHING** about your data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This project creates a word document for data science projects that produces a report of the scientific </t>
+  </si>
+  <si>
+    <t>A repository of curated datasets for data science projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process used to analyze the data. </t>
+  </si>
+  <si>
+    <t>A analysis of outcomes related to diabetes treatments</t>
+  </si>
+  <si>
+    <t>Machine Learning Risk stratification - 3 different approaches.</t>
+  </si>
+  <si>
+    <t>Machine Learning Risk stratification - 3 different approaches</t>
+  </si>
+  <si>
+    <t>Solution for Disease Progression Model</t>
+  </si>
+  <si>
+    <t>Solution for Email Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes sure all your computing resources are ready to perform complex workflows. </t>
+  </si>
+  <si>
+    <t>EPIC Training course cogito fundamentals 170 ch1 ch2.</t>
+  </si>
+  <si>
+    <t>The epidemiology methodology establishes a versatile data science methodology for epidemiology projects spanning various conditions or diseases The approach begins with comprehensive data collection, encompassing demographics, environmental factors, and relevant health metrics. Employing advanced statistical analyses and machine learning algorithms, the methodology aims to discern patterns, identify risk factors, and optimize predictive models, fostering a holistic understanding of the factors influencing the studied health outcomes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discovers where your critical data is and provides archives. </t>
+  </si>
+  <si>
+    <t>Solution for File Manager</t>
+  </si>
+  <si>
+    <t>Solution for File Removal</t>
+  </si>
+  <si>
+    <t>Solution for File Watchdog</t>
+  </si>
+  <si>
+    <t>Solution for Form Validator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git allows you to quickly download pre-built solutions  </t>
+  </si>
+  <si>
+    <t>Git is a distributed version control system designed to track changes in source code during software development.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glossary of terms </t>
+  </si>
+  <si>
     <t>A utility to create a word document docx out of HTML documents.</t>
   </si>
   <si>
+    <t>A proven holistic approach to a better life with greater happiness.</t>
+  </si>
+  <si>
+    <t>[5]:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Calculate and classify the process performance </t>
+  </si>
+  <si>
+    <t>status = ql.calculate_process_performance(solution_name, start_time)</t>
+  </si>
+  <si>
+    <t>print(ql.append_log_file(solution_name))</t>
+  </si>
+  <si>
+    <t>Pandas is a powerful Python library used for data manipulation and analysis.</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,381 - INFO - START solution_temple Start Time = 2024-03-15 10:39:07</t>
+  </si>
+  <si>
     <t xml:space="preserve">Knowledge Transfer for AI Solutions - Transfering REPOS. </t>
   </si>
   <si>
+    <t>2024-03-15 10:39:07,381 - INFO - solution_temple Step 0 - Initialize the configuration file parser</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,382 - INFO - Process solution_temple Step 0 - Initializing and starting Logging Process.</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple The total process duration was:0.01</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple Stop Time = 2024-03-15 10:39:07</t>
+  </si>
+  <si>
+    <t>A utility to create a web page HTML out of mark down documents.</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple Short process duration less than 3 Seconds:0.01</t>
+  </si>
+  <si>
+    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple Performance optimization is not reccomended</t>
+  </si>
+  <si>
     <t xml:space="preserve">National Ski Patrol - Outdoor Emergency Care chapter 1 </t>
   </si>
   <si>
@@ -1018,6 +1222,9 @@
     <t>National Ski Patrol - Outdoor Emergency Care chapter 9</t>
   </si>
   <si>
+    <t>2024-03-15 10:39:07,391 - INFO - END solution_temple =============================================</t>
+  </si>
+  <si>
     <t xml:space="preserve">Performing fingers swept, inserting tues, applying oxygen . </t>
   </si>
   <si>
@@ -1036,219 +1243,117 @@
     <t xml:space="preserve">Ski Patrol Skill for performing a Respitory assessment - breathing. </t>
   </si>
   <si>
-    <t>Produce high quality prompts to get the most out of AI.</t>
-  </si>
-  <si>
-    <t>Archival Automation automatically backs up your data and puts a archive  stamp on it.</t>
-  </si>
-  <si>
-    <t>Use autogen AI agents to perform workflows and LLM integrations.</t>
-  </si>
-  <si>
-    <t>Automated Application Launcher launches any application you want on a schedule or through voice commands</t>
-  </si>
-  <si>
-    <t>This solution automates creating python script to run in windows task scheduler.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build a simple calculator using python and tkinter to enhance your programming skills </t>
-  </si>
-  <si>
-    <t>Analyzing each patients temporal pathway through their cancer treatment and survivorship.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides a list of measurable outcomes for Cancer Care including remission, ongoing treatment, active surveillance, death, etc.  </t>
-  </si>
-  <si>
-    <t>quantifying of side affects associated with major cancer treatment modalities</t>
-  </si>
-  <si>
-    <t>Solution that demonstrates how to integrate your applications with **Chat GPT**. Utilizes the API to integrate with the LLM **Large Language Model**</t>
-  </si>
-  <si>
-    <t>Mapping solution for global and local choropleth maps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A chronic disease registry classifies patients with specific diseases or conditions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This solution extends and enhances the ICD-10-CM diagnosis standard to include disease classifications that can be used for registries and care outreach. </t>
-  </si>
-  <si>
-    <t>This solution extends and enhances the ICD-10-CM diagnosis standard to include disease classifications that can be used for registries and care outreach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for Configuring Settings. The config.ini file in Python serves as a centralized repository for storing configuration parameters, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution for converting MS access into a new technology stack. </t>
-  </si>
-  <si>
-    <t>Provide a set of images designed to brand and represent each unique solution.</t>
+    <t>Click to add a cell.</t>
+  </si>
+  <si>
+    <t>Solution for Patient Word Cloud</t>
+  </si>
+  <si>
+    <t>Solution for Penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific control behaviors (eating disorders, binge dirking, or substance abuse </t>
+  </si>
+  <si>
+    <t>Analysis of needs for current state of precision oncology.</t>
+  </si>
+  <si>
+    <t>Machine learning for predicting breast cancer.</t>
+  </si>
+  <si>
+    <t>Machine learning for predicting colorectal cancer.</t>
+  </si>
+  <si>
+    <t>Machine learning for predicting diabetes.</t>
+  </si>
+  <si>
+    <t>Machine learning for predicting lung cancer.</t>
+  </si>
+  <si>
+    <t>Solution for Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis (PCA) is a dimensionality reduction technique that transforms a large set of variables into a smaller set of uncorrelated variables called principal components, while retaining as much variance in the data as possible.</t>
+  </si>
+  <si>
+    <t>Converts solution documentation to MP3 audio for voice over</t>
+  </si>
+  <si>
+    <t>Solution for Progress Bar</t>
+  </si>
+  <si>
+    <t>Solution for Python Foundation</t>
+  </si>
+  <si>
+    <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
+  </si>
+  <si>
+    <t>Automated rules engine for dynamically analyzing data quality.</t>
+  </si>
+  <si>
+    <t>SQLite introduction provides an introduction to SQL lite</t>
+  </si>
+  <si>
+    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
+  </si>
+  <si>
+    <t>Creates a mini proposal using a template and SMART criteria.</t>
+  </si>
+  <si>
+    <t>Solution Registry - houses a list of solutions</t>
+  </si>
+  <si>
+    <t>Solution template - Template to Kick start amazing A.I. Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very tiny example of supervised learning. </t>
+  </si>
+  <si>
+    <t>Provides general system information including CURRENT  memory / CPU usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application for building sophisticated text to speech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A library .pie file for text to speech </t>
+  </si>
+  <si>
+    <t>Schedules tasks and executes runtimes</t>
+  </si>
+  <si>
+    <t>Solution for Unzip Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes sure the LATEST technology is used. </t>
+  </si>
+  <si>
+    <t>Solution for Web Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produces a word cloud using the3 most relevant terminology using whatever cloud shape is supplied. </t>
+  </si>
+  <si>
+    <t>Solution for World Mood</t>
   </si>
   <si>
     <t>chatbot that uses Natural language processing NLP to  learn from a specified corpus</t>
   </si>
   <si>
-    <t>A correlation heatmap provides insights to critical relationships within Data</t>
-  </si>
-  <si>
-    <t>A correlation heatmap provides insights to critical relationships within data.</t>
-  </si>
-  <si>
-    <t>Generate a beautiful and effective readme.md file.</t>
-  </si>
-  <si>
-    <t>A tiny utility to create PNG signs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Template for kick starting sophisticated python projects </t>
   </si>
   <si>
-    <t>A utility to create a new definition  for every solution.</t>
-  </si>
-  <si>
-    <t>A utility to create a new PNG sign for every solution.</t>
-  </si>
-  <si>
-    <t>A utility to create a word cloud for every solution.</t>
-  </si>
-  <si>
-    <t>Solution for Curated Datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load a the LATEST DELTA of NEW TRANSACTIONS  into a relational datastore. Run periodically for freshness. </t>
-  </si>
-  <si>
     <t>A story board document of data analysis from start to finish.</t>
   </si>
   <si>
-    <t>A story board document of data amalysis from start to finish.</t>
-  </si>
-  <si>
-    <t>A set of utilities to easily cleans and improve your data</t>
-  </si>
-  <si>
-    <t>Calculates the structural difference between raw data sources. Compares to LAST LOAD to determine what is NEW. This is for loading data incrementally over time so that history isn't constantly re-loaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finds ALL the valuable data assets on your system and registers them. </t>
-  </si>
-  <si>
-    <t>Load a series of reference tables into a relational datastore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load a large historical transactional tables into a relational datastore. One Time LOAD </t>
-  </si>
-  <si>
-    <t>Tells you **EVERYTHING** about your data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This project creates a word document for data science projects that produces a report of the scientific </t>
-  </si>
-  <si>
-    <t>A repository of curated datasets for data science projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">process used to analyze the data. </t>
-  </si>
-  <si>
-    <t>A analysis of outcomes related to diabetes treatments</t>
-  </si>
-  <si>
-    <t>Machine Learning Risk stratification - 3 different approaches</t>
-  </si>
-  <si>
-    <t>Machine Learning Risk stratification - 3 different approaches.</t>
-  </si>
-  <si>
     <t>A repository for diagrams</t>
   </si>
   <si>
-    <t>Solution for Disease Progression Model</t>
-  </si>
-  <si>
-    <t>Solution for Email Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes sure all your computing resources are ready to perform complex workflows. </t>
-  </si>
-  <si>
-    <t>The epidemiology methodology establishes a versatile data science methodology for epidemiology projects spanning various conditions or diseases The approach begins with comprehensive data collection, encompassing demographics, environmental factors, and relevant health metrics. Employing advanced statistical analyses and machine learning algorithms, the methodology aims to discern patterns, identify risk factors, and optimize predictive models, fostering a holistic understanding of the factors influencing the studied health outcomes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discovers where your critical data is and provides archives. </t>
-  </si>
-  <si>
-    <t>Solution for File Manager</t>
-  </si>
-  <si>
-    <t>Solution for File Removal</t>
-  </si>
-  <si>
-    <t>Solution for File Watchdog</t>
-  </si>
-  <si>
-    <t>Solution for Form Validator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git allows you to quickly download pre-built solutions  </t>
-  </si>
-  <si>
-    <t>Git is a distributed version control system designed to track changes in source code during software development.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glossary of terms </t>
-  </si>
-  <si>
-    <t>A proven holistic approach to a better life with greater happiness.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Analyze the Internation Classification of Disease ICD-10-CM </t>
   </si>
   <si>
-    <t>[5]:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Calculate and classify the process performance </t>
-  </si>
-  <si>
-    <t>status = ql.calculate_process_performance(solution_name, start_time)</t>
-  </si>
-  <si>
-    <t>print(ql.append_log_file(solution_name))</t>
-  </si>
-  <si>
-    <t>Pandas is a powerful Python library used for data manipulation and analysis.</t>
-  </si>
-  <si>
-    <t>2024-03-15 10:39:07,381 - INFO - START solution_temple Start Time = 2024-03-15 10:39:07</t>
-  </si>
-  <si>
-    <t>2024-03-15 10:39:07,381 - INFO - solution_temple Step 0 - Initialize the configuration file parser</t>
-  </si>
-  <si>
-    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple The total process duration was:0.01</t>
-  </si>
-  <si>
-    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple Stop Time = 2024-03-15 10:39:07</t>
-  </si>
-  <si>
-    <t>A utility to create a web page HTML out of mark down documents.</t>
-  </si>
-  <si>
-    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple Short process duration less than 3 Seconds:0.01</t>
-  </si>
-  <si>
     <t>Identify the multidisciplinary cancer care team roles and responsibilities in cancer treatment.</t>
   </si>
   <si>
-    <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple Performance optimization is not reccomended</t>
-  </si>
-  <si>
-    <t>2024-03-15 10:39:07,391 - INFO - END solution_temple =============================================</t>
-  </si>
-  <si>
     <t>Define and classify diagnosis for all forms of cancer.</t>
   </si>
   <si>
@@ -1258,114 +1363,18 @@
     <t xml:space="preserve">Solution for calculating  patients lieklihood to develop cancer within the next year. </t>
   </si>
   <si>
-    <t>Click to add a cell.</t>
-  </si>
-  <si>
     <t>A report on specific patients gaps in care</t>
   </si>
   <si>
-    <t>Solution for Patient Word Cloud</t>
-  </si>
-  <si>
-    <t>Solution for Penguins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific control behaviors (eating disorders, binge dirking, or substance abuse </t>
-  </si>
-  <si>
-    <t>Analysis of needs for current state of precision oncology.</t>
-  </si>
-  <si>
-    <t>Machine learning for predicting breast cancer.</t>
-  </si>
-  <si>
-    <t>Machine learning for predicting colorectal cancer.</t>
-  </si>
-  <si>
-    <t>Machine learning for predicting diabetes.</t>
-  </si>
-  <si>
-    <t>Machine learning for predicting lung cancer.</t>
-  </si>
-  <si>
-    <t>Solution for Principal Component Analysis</t>
-  </si>
-  <si>
-    <t>Principal Component Analysis (PCA) is a dimensionality reduction technique that transforms a large set of variables into a smaller set of uncorrelated variables called principal components, while retaining as much variance in the data as possible.</t>
-  </si>
-  <si>
-    <t>Converts solution documentation to MP3 audio for voice over</t>
-  </si>
-  <si>
-    <t>Solution for Progress Bar</t>
-  </si>
-  <si>
-    <t>Solution for Python Foundation</t>
-  </si>
-  <si>
     <t>Calculated index of monthly life quality from initial (denovo) diagnosis of major disease</t>
   </si>
   <si>
-    <t>2024-03-15 10:39:07,382 - INFO - Process solution_temple Step 0 - Initializing and starting Logging Process.</t>
-  </si>
-  <si>
-    <t>Makes excel files pretty, more functional , and easier to use.  This one solution saves hours !!!!</t>
-  </si>
-  <si>
-    <t>Automated rules engine for dynamically analyzing data quality.</t>
-  </si>
-  <si>
-    <t>OLD SCHOOL Chatbot- Like LEXI of olden days with pre-built response lexicon …. But with advanced natural language built in.</t>
-  </si>
-  <si>
-    <t>Creates a mini proposal using a template and SMART criteria.</t>
-  </si>
-  <si>
-    <t>Solution Registry - houses a list of solutions</t>
-  </si>
-  <si>
-    <t>Solution template - Template to Kick start amazing A.I. Applications</t>
-  </si>
-  <si>
-    <t>SQLite introduction provides an introduction to SQL lite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A very tiny example of supervised learning. </t>
-  </si>
-  <si>
-    <t>Provides general system information including CURRENT  memory / CPU usage</t>
-  </si>
-  <si>
     <t>Machine learning with Taipy web GUI and tensorflow ML</t>
   </si>
   <si>
-    <t xml:space="preserve">Application for building sophisticated text to speech </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A library .pie file for text to speech </t>
-  </si>
-  <si>
-    <t>Schedules tasks and executes runtimes</t>
-  </si>
-  <si>
     <t>TF-IDF helps identify important terms within a document by giving higher weights to terms that are frequent in the document but rare in the corpus</t>
   </si>
   <si>
-    <t>Solution for Unzip Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes sure the LATEST technology is used. </t>
-  </si>
-  <si>
-    <t>Solution for Web Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produces a word cloud using the3 most relevant terminology using whatever cloud shape is supplied. </t>
-  </si>
-  <si>
-    <t>Solution for World Mood</t>
-  </si>
-  <si>
     <t>Tells you **EVERYTHING** about your data…  **easily** discover any issues in your data</t>
   </si>
   <si>
@@ -1405,6 +1414,9 @@
     <t>Solution for Library Installer</t>
   </si>
   <si>
+    <t xml:space="preserve">.py library for easily using logging and debugging. </t>
+  </si>
+  <si>
     <t>Solution for Logging And Debugging</t>
   </si>
   <si>
@@ -1430,9 +1442,6 @@
   </si>
   <si>
     <t xml:space="preserve">Calculation and stratification of Risk based upon survey (BRFSS) of specific control behaviors (eating disorders, binge drinking, or substance abuse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.py library for easily using logging and debugging. </t>
   </si>
   <si>
     <t>sqlite_introduction provides an introduction to SQL lite</t>
@@ -1796,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1821,13 +1830,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1838,10 +1847,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1849,13 +1858,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1863,13 +1872,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1877,13 +1886,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1891,13 +1900,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1905,13 +1914,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1919,13 +1928,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1933,13 +1942,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1947,13 +1956,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1961,13 +1970,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1975,13 +1984,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1989,13 +1998,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2003,13 +2012,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2017,13 +2026,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2031,13 +2040,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2045,13 +2054,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2059,13 +2068,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2073,13 +2082,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2087,13 +2096,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2101,13 +2110,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2115,13 +2124,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2129,13 +2138,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2143,13 +2152,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2157,13 +2166,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2171,13 +2180,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2185,13 +2194,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2199,13 +2208,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2213,13 +2222,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="C30" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2227,13 +2236,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="C31" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2241,13 +2250,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2255,13 +2264,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2269,13 +2278,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2283,13 +2292,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2297,13 +2306,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="C36" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2311,13 +2320,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2325,13 +2334,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2339,13 +2348,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="C39" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2353,13 +2362,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="C40" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2367,13 +2376,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="C41" t="s">
-        <v>331</v>
-      </c>
-      <c r="D41" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2381,13 +2387,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="C42" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2395,13 +2401,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2409,13 +2415,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="C44" t="s">
-        <v>334</v>
-      </c>
-      <c r="D44" t="s">
-        <v>334</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2423,13 +2426,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="C45" t="s">
-        <v>335</v>
-      </c>
-      <c r="D45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2437,13 +2437,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="C46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2451,13 +2451,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="C47" t="s">
-        <v>337</v>
-      </c>
-      <c r="D47" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2465,13 +2462,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="C48" t="s">
-        <v>338</v>
-      </c>
-      <c r="D48" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2479,13 +2473,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
-      </c>
-      <c r="D49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2493,13 +2484,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2507,13 +2495,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D51" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2521,13 +2509,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
-      </c>
-      <c r="D52" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2535,13 +2520,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
-      </c>
-      <c r="D53" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2549,13 +2531,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C54" t="s">
-        <v>343</v>
-      </c>
-      <c r="D54" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2563,13 +2542,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="C55" t="s">
-        <v>344</v>
-      </c>
-      <c r="D55" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2577,13 +2553,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="C56" t="s">
-        <v>344</v>
-      </c>
-      <c r="D56" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2591,13 +2564,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>345</v>
-      </c>
-      <c r="D57" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2605,13 +2575,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>346</v>
-      </c>
-      <c r="D58" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2619,13 +2586,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>347</v>
-      </c>
-      <c r="D59" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2633,13 +2597,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s">
-        <v>348</v>
-      </c>
-      <c r="D60" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2647,13 +2608,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="C61" t="s">
-        <v>349</v>
-      </c>
-      <c r="D61" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2661,13 +2619,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D62" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2675,13 +2633,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="C63" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
-        <v>351</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2689,13 +2647,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="C64" t="s">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>352</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2703,7 +2661,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="C65" t="s">
         <v>353</v>
@@ -2717,13 +2675,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D66" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2731,13 +2689,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>355</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2745,13 +2703,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
-        <v>356</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2759,13 +2717,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="D69" t="s">
-        <v>357</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2773,13 +2731,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="C70" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D70" t="s">
-        <v>358</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2787,13 +2745,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C71" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D71" t="s">
-        <v>359</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2801,13 +2759,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="C72" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D72" t="s">
-        <v>360</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2815,13 +2773,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="C73" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D73" t="s">
-        <v>361</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2829,13 +2787,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D74" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2843,13 +2801,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="C75" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D75" t="s">
-        <v>363</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2857,13 +2815,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="C76" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D76" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2871,13 +2829,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="C77" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D77" t="s">
-        <v>365</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2885,13 +2843,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="C78" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D78" t="s">
-        <v>366</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2899,13 +2857,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="C79" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D79" t="s">
-        <v>367</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2913,13 +2871,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="C80" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D80" t="s">
-        <v>368</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2927,13 +2885,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D81" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2941,13 +2899,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="C82" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D82" t="s">
-        <v>370</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2955,13 +2913,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D83" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2969,13 +2927,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D84" t="s">
-        <v>372</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2983,13 +2941,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D85" t="s">
-        <v>373</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2997,13 +2955,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D86" t="s">
-        <v>374</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3011,13 +2969,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D87" t="s">
-        <v>450</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3025,13 +2983,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D88" t="s">
-        <v>375</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3039,10 +2997,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>376</v>
+        <v>373</v>
+      </c>
+      <c r="D89" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3050,13 +3011,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D90" t="s">
-        <v>377</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3064,13 +3025,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D91" t="s">
-        <v>451</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3078,9 +3039,12 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
+        <v>376</v>
+      </c>
+      <c r="D92" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3089,10 +3053,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>379</v>
+        <v>377</v>
+      </c>
+      <c r="D93" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3100,10 +3067,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>380</v>
+        <v>378</v>
+      </c>
+      <c r="D94" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3111,13 +3081,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D95" t="s">
-        <v>381</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3128,10 +3098,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D96" t="s">
-        <v>382</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3139,10 +3109,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>383</v>
+        <v>381</v>
+      </c>
+      <c r="D97" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3150,10 +3123,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>384</v>
+        <v>382</v>
+      </c>
+      <c r="D98" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3161,10 +3137,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>383</v>
+      </c>
+      <c r="D99" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3172,10 +3151,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>386</v>
+        <v>384</v>
+      </c>
+      <c r="D100" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3183,10 +3165,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>387</v>
+        <v>385</v>
+      </c>
+      <c r="D101" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3194,10 +3179,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>388</v>
+        <v>386</v>
+      </c>
+      <c r="D102" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3205,10 +3193,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>389</v>
+        <v>387</v>
+      </c>
+      <c r="D103" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3216,10 +3207,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>390</v>
+        <v>388</v>
+      </c>
+      <c r="D104" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3227,10 +3221,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="D105" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3238,10 +3235,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>392</v>
+        <v>390</v>
+      </c>
+      <c r="D106" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3249,10 +3249,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="D107" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3260,10 +3263,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="D108" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3271,10 +3277,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>394</v>
+        <v>393</v>
+      </c>
+      <c r="D109" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3282,13 +3291,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>243</v>
+        <v>394</v>
       </c>
       <c r="D110" t="s">
-        <v>452</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3296,13 +3305,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>244</v>
+        <v>395</v>
       </c>
       <c r="D111" t="s">
-        <v>453</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3310,13 +3319,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D112" t="s">
-        <v>395</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3324,13 +3333,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>246</v>
+        <v>397</v>
       </c>
       <c r="D113" t="s">
-        <v>454</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3341,10 +3350,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D114" t="s">
-        <v>396</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3352,13 +3361,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>247</v>
+        <v>399</v>
       </c>
       <c r="D115" t="s">
-        <v>455</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3366,13 +3375,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>248</v>
+        <v>400</v>
       </c>
       <c r="D116" t="s">
-        <v>456</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3380,13 +3389,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D117" t="s">
-        <v>457</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3394,13 +3403,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>398</v>
+        <v>120</v>
       </c>
       <c r="D118" t="s">
-        <v>458</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3408,13 +3417,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C119" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D119" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3422,13 +3431,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C120" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D120" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3436,13 +3445,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C121" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D121" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3450,13 +3459,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>259</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>405</v>
       </c>
       <c r="D122" t="s">
-        <v>124</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3464,13 +3473,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C123" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D123" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3478,13 +3487,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C124" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D124" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3492,13 +3501,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C125" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D125" t="s">
-        <v>463</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3506,13 +3515,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C126" t="s">
-        <v>405</v>
+        <v>263</v>
       </c>
       <c r="D126" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3520,13 +3529,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="C127" t="s">
-        <v>406</v>
+        <v>264</v>
       </c>
       <c r="D127" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3534,13 +3543,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C128" t="s">
-        <v>406</v>
+        <v>174</v>
       </c>
       <c r="D128" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3548,13 +3557,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C129" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D129" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3562,13 +3571,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="C130" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D130" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3576,13 +3585,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="C131" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D131" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3590,13 +3599,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C132" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D132" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3604,13 +3613,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="C133" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D133" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3618,13 +3627,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="C134" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D134" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3632,13 +3641,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C135" t="s">
-        <v>260</v>
+        <v>415</v>
       </c>
       <c r="D135" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3646,13 +3655,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C136" t="s">
-        <v>261</v>
+        <v>416</v>
       </c>
       <c r="D136" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3660,13 +3669,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D137" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3674,13 +3683,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="C138" t="s">
-        <v>139</v>
+        <v>418</v>
       </c>
       <c r="D138" t="s">
-        <v>469</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3688,13 +3697,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C139" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D139" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3702,13 +3711,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="C140" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D140" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3716,13 +3725,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C141" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D141" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3730,13 +3739,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C142" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D142" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3744,13 +3753,13 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C143" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D143" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3758,13 +3767,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C144" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D144" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3772,13 +3781,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C145" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D145" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3786,13 +3795,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C146" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D146" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3800,13 +3809,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C147" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D147" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3814,13 +3823,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C148" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D148" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3828,13 +3837,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C149" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D149" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3842,13 +3851,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C150" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D150" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3856,13 +3865,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C151" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D151" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3870,13 +3879,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C152" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D152" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3884,13 +3893,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C153" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D153" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3898,13 +3907,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="C154" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D154" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3912,13 +3921,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C155" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D155" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3926,13 +3935,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C156" t="s">
-        <v>431</v>
+        <v>316</v>
       </c>
       <c r="D156" t="s">
-        <v>431</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3940,13 +3949,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C157" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D157" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3954,13 +3963,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C158" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D158" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3968,13 +3977,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C159" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D159" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3982,13 +3991,13 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C160" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D160" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3996,13 +4005,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>282</v>
+        <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>436</v>
+        <v>303</v>
       </c>
       <c r="D161" t="s">
-        <v>436</v>
+        <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4010,13 +4019,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D162" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4024,13 +4033,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D163" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4038,13 +4047,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>285</v>
+        <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D164" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4055,10 +4064,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D165" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4066,13 +4075,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>286</v>
+        <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D166" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4080,13 +4089,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>287</v>
+        <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>442</v>
+        <v>169</v>
       </c>
       <c r="D167" t="s">
-        <v>474</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4094,13 +4103,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>288</v>
+        <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
       <c r="D168" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4111,10 +4120,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D169" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4125,10 +4134,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>172</v>
+        <v>446</v>
       </c>
       <c r="D170" t="s">
-        <v>172</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4136,13 +4145,13 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D171" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4150,13 +4159,13 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
       <c r="D172" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4164,13 +4173,13 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>291</v>
+        <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D173" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4178,13 +4187,13 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>292</v>
+        <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D174" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4192,13 +4201,13 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>293</v>
+        <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D175" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4206,13 +4215,27 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D176" t="s">
-        <v>449</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="499">
   <si>
     <t>solution_name</t>
   </si>
@@ -175,6 +175,27 @@
     <t xml:space="preserve">Environment Testing </t>
   </si>
   <si>
+    <t>Epic Cogito Ch 1</t>
+  </si>
+  <si>
+    <t>Epic Cogito Ch 2</t>
+  </si>
+  <si>
+    <t>Epic Cogito Ch 3</t>
+  </si>
+  <si>
+    <t>Epic Cogito Ch 4</t>
+  </si>
+  <si>
+    <t>Epic Cogito Ch 5</t>
+  </si>
+  <si>
+    <t>Epic Cogito Ch 6</t>
+  </si>
+  <si>
+    <t>Epic Cogito Ch 7</t>
+  </si>
+  <si>
     <t>Epic Training Course Cogito Fundamentals 170 Day 1 Part 2</t>
   </si>
   <si>
@@ -694,6 +715,27 @@
     <t>environment_testing</t>
   </si>
   <si>
+    <t>EPIC_Cogito_ch_1</t>
+  </si>
+  <si>
+    <t>EPIC_Cogito_ch_2</t>
+  </si>
+  <si>
+    <t>EPIC_Cogito_ch_3</t>
+  </si>
+  <si>
+    <t>EPIC_Cogito_ch_4</t>
+  </si>
+  <si>
+    <t>EPIC_Cogito_ch_5</t>
+  </si>
+  <si>
+    <t>EPIC_Cogito_ch_6</t>
+  </si>
+  <si>
+    <t>EPIC_Cogito_ch_7</t>
+  </si>
+  <si>
     <t>EPIC_Training_course_cogito_fundamentals_170_day_1_part_2</t>
   </si>
   <si>
@@ -1040,6 +1082,27 @@
   </si>
   <si>
     <t xml:space="preserve">Makes sure all your computing resources are ready to perform complex workflows. </t>
+  </si>
+  <si>
+    <t>Epic Cogito Chapter 1.</t>
+  </si>
+  <si>
+    <t>Epic Cogito Chapter 2.</t>
+  </si>
+  <si>
+    <t>Epic Cogito Chapter 3.</t>
+  </si>
+  <si>
+    <t>Epic Cogito Chapter 4.</t>
+  </si>
+  <si>
+    <t>Epic Cogito Chapter 5.</t>
+  </si>
+  <si>
+    <t>Epic Cogito Chapter 6.</t>
+  </si>
+  <si>
+    <t>Epic Cogito Chapter 7.</t>
   </si>
   <si>
     <t>EPIC Training course cogito fundamentals 170 ch1 ch2.</t>
@@ -1805,7 +1868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1830,13 +1893,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1847,10 +1910,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1858,13 +1921,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1872,13 +1935,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1886,13 +1949,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1900,13 +1963,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1914,13 +1977,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1928,13 +1991,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1942,13 +2005,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1956,13 +2019,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1970,13 +2033,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D12" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1984,13 +2047,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D13" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1998,13 +2061,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D14" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2012,13 +2075,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2026,13 +2089,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D16" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2040,13 +2103,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2054,13 +2117,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="D18" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2068,13 +2131,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2082,13 +2145,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D20" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2096,13 +2159,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D21" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2110,13 +2173,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D22" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2124,13 +2187,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D23" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2138,13 +2201,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D24" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2152,13 +2215,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D25" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2166,13 +2229,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2180,13 +2243,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D27" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2194,13 +2257,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="D28" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2208,13 +2271,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D29" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2222,13 +2285,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2236,13 +2299,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C31" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="D31" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2250,13 +2313,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="D32" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2264,13 +2327,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D33" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2278,13 +2341,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C34" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2292,13 +2355,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D35" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2306,13 +2369,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="D36" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2320,13 +2383,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="D37" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2334,13 +2397,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="D38" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2348,13 +2411,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C39" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D39" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2362,13 +2425,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D40" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2376,10 +2439,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2387,13 +2450,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="D42" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2401,13 +2464,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="D43" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2415,7 +2478,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
@@ -2426,10 +2489,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C45" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2437,13 +2500,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="D46" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2451,10 +2514,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C47" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2462,10 +2525,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2473,10 +2536,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C49" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2484,10 +2547,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C50" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2495,13 +2558,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D51" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2509,10 +2572,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>357</v>
+      </c>
+      <c r="D52" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2520,10 +2586,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C53" t="s">
-        <v>344</v>
+        <v>358</v>
+      </c>
+      <c r="D53" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2531,10 +2600,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C54" t="s">
-        <v>345</v>
+        <v>359</v>
+      </c>
+      <c r="D54" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2542,10 +2614,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C55" t="s">
-        <v>346</v>
+        <v>360</v>
+      </c>
+      <c r="D55" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2553,10 +2628,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C56" t="s">
-        <v>347</v>
+        <v>361</v>
+      </c>
+      <c r="D56" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2564,10 +2642,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s">
-        <v>348</v>
+        <v>362</v>
+      </c>
+      <c r="D57" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2575,10 +2656,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C58" t="s">
-        <v>349</v>
+        <v>363</v>
+      </c>
+      <c r="D58" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2586,10 +2670,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C59" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2597,10 +2681,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2608,10 +2692,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2619,13 +2703,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>352</v>
-      </c>
-      <c r="D62" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2633,13 +2714,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2647,13 +2725,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
-      </c>
-      <c r="D64" t="s">
-        <v>456</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2661,13 +2736,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>353</v>
-      </c>
-      <c r="D65" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2675,13 +2747,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s">
-        <v>352</v>
-      </c>
-      <c r="D66" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2689,13 +2758,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
-      </c>
-      <c r="D67" t="s">
-        <v>457</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2703,13 +2769,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
-      </c>
-      <c r="D68" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2717,13 +2780,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="D69" t="s">
-        <v>459</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2731,13 +2794,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C70" t="s">
-        <v>354</v>
+        <v>251</v>
       </c>
       <c r="D70" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2745,13 +2808,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C71" t="s">
-        <v>355</v>
+        <v>252</v>
       </c>
       <c r="D71" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2759,13 +2822,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C72" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="D72" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2773,13 +2836,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C73" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D73" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2787,13 +2850,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C74" t="s">
-        <v>358</v>
+        <v>255</v>
       </c>
       <c r="D74" t="s">
-        <v>358</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2801,13 +2864,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C75" t="s">
-        <v>359</v>
+        <v>256</v>
       </c>
       <c r="D75" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2815,13 +2878,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C76" t="s">
-        <v>360</v>
+        <v>257</v>
       </c>
       <c r="D76" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2829,13 +2892,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C77" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D77" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2843,13 +2906,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C78" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="D78" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2857,13 +2920,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C79" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D79" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2871,13 +2934,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C80" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D80" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2885,13 +2948,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="C81" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="D81" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2899,13 +2962,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C82" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="D82" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2913,13 +2976,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="C83" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D83" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2927,13 +2990,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="C84" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2941,13 +3004,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="C85" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2955,13 +3018,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="C86" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D86" t="s">
-        <v>88</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2969,13 +3032,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
       <c r="C87" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D87" t="s">
-        <v>89</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2983,13 +3046,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="D88" t="s">
-        <v>90</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2997,13 +3060,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="C89" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="D89" t="s">
-        <v>91</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3011,13 +3074,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D90" t="s">
-        <v>92</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3028,7 +3091,7 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D91" t="s">
         <v>93</v>
@@ -3042,7 +3105,7 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D92" t="s">
         <v>94</v>
@@ -3056,7 +3119,7 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="D93" t="s">
         <v>95</v>
@@ -3070,7 +3133,7 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="D94" t="s">
         <v>96</v>
@@ -3084,7 +3147,7 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="D95" t="s">
         <v>97</v>
@@ -3098,7 +3161,7 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D96" t="s">
         <v>98</v>
@@ -3112,7 +3175,7 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="D97" t="s">
         <v>99</v>
@@ -3126,7 +3189,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D98" t="s">
         <v>100</v>
@@ -3140,7 +3203,7 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D99" t="s">
         <v>101</v>
@@ -3154,7 +3217,7 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="D100" t="s">
         <v>102</v>
@@ -3168,7 +3231,7 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D101" t="s">
         <v>103</v>
@@ -3182,7 +3245,7 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D102" t="s">
         <v>104</v>
@@ -3196,7 +3259,7 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="D103" t="s">
         <v>105</v>
@@ -3210,7 +3273,7 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D104" t="s">
         <v>106</v>
@@ -3224,7 +3287,7 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="D105" t="s">
         <v>107</v>
@@ -3238,7 +3301,7 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="D106" t="s">
         <v>108</v>
@@ -3252,7 +3315,7 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D107" t="s">
         <v>109</v>
@@ -3266,7 +3329,7 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="D108" t="s">
         <v>110</v>
@@ -3280,7 +3343,7 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D109" t="s">
         <v>111</v>
@@ -3294,7 +3357,7 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D110" t="s">
         <v>112</v>
@@ -3308,7 +3371,7 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D111" t="s">
         <v>113</v>
@@ -3322,7 +3385,7 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D112" t="s">
         <v>114</v>
@@ -3336,7 +3399,7 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="D113" t="s">
         <v>115</v>
@@ -3350,7 +3413,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="D114" t="s">
         <v>116</v>
@@ -3364,7 +3427,7 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="D115" t="s">
         <v>117</v>
@@ -3378,7 +3441,7 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="D116" t="s">
         <v>118</v>
@@ -3392,7 +3455,7 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D117" t="s">
         <v>119</v>
@@ -3406,7 +3469,7 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>416</v>
       </c>
       <c r="D118" t="s">
         <v>120</v>
@@ -3417,13 +3480,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="D119" t="s">
-        <v>470</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3431,13 +3494,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D120" t="s">
-        <v>403</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3445,13 +3508,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="D121" t="s">
-        <v>404</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3459,13 +3522,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D122" t="s">
-        <v>405</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3473,13 +3536,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="D123" t="s">
-        <v>406</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3487,13 +3550,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="D124" t="s">
-        <v>407</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3501,13 +3564,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>262</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>408</v>
+        <v>127</v>
       </c>
       <c r="D125" t="s">
-        <v>408</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3515,13 +3578,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C126" t="s">
-        <v>263</v>
+        <v>423</v>
       </c>
       <c r="D126" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3529,13 +3592,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C127" t="s">
-        <v>264</v>
+        <v>424</v>
       </c>
       <c r="D127" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3543,13 +3606,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="C128" t="s">
-        <v>174</v>
+        <v>425</v>
       </c>
       <c r="D128" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3557,13 +3620,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C129" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="D129" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3571,13 +3634,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C130" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="D130" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3585,13 +3648,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C131" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="D131" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3599,13 +3662,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C132" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="D132" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3613,13 +3676,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C133" t="s">
-        <v>413</v>
+        <v>277</v>
       </c>
       <c r="D133" t="s">
-        <v>413</v>
+        <v>492</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3627,13 +3690,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C134" t="s">
-        <v>414</v>
+        <v>278</v>
       </c>
       <c r="D134" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3641,13 +3704,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="C135" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="D135" t="s">
-        <v>415</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3655,13 +3718,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C136" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="D136" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3669,13 +3732,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C137" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="D137" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3683,13 +3746,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C138" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="D138" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3697,13 +3760,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C139" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="D139" t="s">
-        <v>419</v>
+        <v>496</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3711,13 +3774,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C140" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D140" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3725,13 +3788,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="D141" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3739,13 +3802,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C142" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="D142" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3753,13 +3816,13 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="D143" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3767,13 +3830,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="D144" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3781,13 +3844,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C145" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="D145" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3795,13 +3858,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C146" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="D146" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3809,13 +3872,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C147" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="D147" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3823,13 +3886,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C148" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="D148" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3837,13 +3900,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C149" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="D149" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3851,13 +3914,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C150" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="D150" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3865,13 +3928,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C151" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="D151" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3879,13 +3942,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C152" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="D152" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3893,13 +3956,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C153" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="D153" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3907,13 +3970,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C154" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="D154" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3921,13 +3984,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C155" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="D155" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3935,13 +3998,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C156" t="s">
-        <v>316</v>
+        <v>450</v>
       </c>
       <c r="D156" t="s">
-        <v>316</v>
+        <v>450</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3949,13 +4012,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C157" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D157" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3963,13 +4026,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C158" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D158" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3977,13 +4040,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C159" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="D159" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3991,13 +4054,13 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C160" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D160" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4005,13 +4068,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="C161" t="s">
-        <v>303</v>
+        <v>455</v>
       </c>
       <c r="D161" t="s">
-        <v>303</v>
+        <v>455</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4019,13 +4082,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>305</v>
       </c>
       <c r="C162" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="D162" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4033,13 +4096,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="C163" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
       <c r="D163" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4047,13 +4110,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="C164" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="D164" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4061,13 +4124,13 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>308</v>
       </c>
       <c r="C165" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="D165" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4075,13 +4138,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="C166" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D166" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4089,13 +4152,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="C167" t="s">
-        <v>169</v>
+        <v>460</v>
       </c>
       <c r="D167" t="s">
-        <v>169</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4106,10 +4169,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="D168" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4120,10 +4183,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="D169" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4134,10 +4197,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="D170" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4148,10 +4211,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="D171" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4162,10 +4225,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="D172" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4176,10 +4239,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="D173" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4190,10 +4253,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>450</v>
+        <v>176</v>
       </c>
       <c r="D174" t="s">
-        <v>450</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4204,10 +4267,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>451</v>
+        <v>386</v>
       </c>
       <c r="D175" t="s">
-        <v>451</v>
+        <v>386</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4218,10 +4281,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="D176" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4232,10 +4295,108 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>179</v>
+        <v>467</v>
       </c>
       <c r="D177" t="s">
-        <v>179</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" t="s">
+        <v>468</v>
+      </c>
+      <c r="D178" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>181</v>
+      </c>
+      <c r="C179" t="s">
+        <v>469</v>
+      </c>
+      <c r="D179" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180" t="s">
+        <v>470</v>
+      </c>
+      <c r="D180" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" t="s">
+        <v>471</v>
+      </c>
+      <c r="D181" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182" t="s">
+        <v>472</v>
+      </c>
+      <c r="D182" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>185</v>
+      </c>
+      <c r="C183" t="s">
+        <v>473</v>
+      </c>
+      <c r="D183" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" t="s">
+        <v>186</v>
+      </c>
+      <c r="D184" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="505">
   <si>
     <t>solution_name</t>
   </si>
@@ -175,6 +175,9 @@
     <t xml:space="preserve">Environment Testing </t>
   </si>
   <si>
+    <t>Epic Caboodle</t>
+  </si>
+  <si>
     <t>Epic Cogito Ch 1</t>
   </si>
   <si>
@@ -292,6 +295,9 @@
     <t>Membership Matching</t>
   </si>
   <si>
+    <t>Microsoft Azure</t>
+  </si>
+  <si>
     <t>Multi Disciplinary Cancer Care Team</t>
   </si>
   <si>
@@ -715,6 +721,9 @@
     <t>environment_testing</t>
   </si>
   <si>
+    <t>epic_caboodle</t>
+  </si>
+  <si>
     <t>EPIC_Cogito_ch_1</t>
   </si>
   <si>
@@ -826,6 +835,9 @@
     <t>membership_matching</t>
   </si>
   <si>
+    <t>microsoft_azure</t>
+  </si>
+  <si>
     <t>notebook_clone</t>
   </si>
   <si>
@@ -1084,6 +1096,9 @@
     <t xml:space="preserve">Makes sure all your computing resources are ready to perform complex workflows. </t>
   </si>
   <si>
+    <t>A learning pathway for epic caboodle certification.</t>
+  </si>
+  <si>
     <t>Epic Cogito Chapter 1.</t>
   </si>
   <si>
@@ -1178,6 +1193,9 @@
   </si>
   <si>
     <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple Short process duration less than 3 Seconds:0.01</t>
+  </si>
+  <si>
+    <t>A learning pathway for microsoft azure AI fundamentals.</t>
   </si>
   <si>
     <t>2024-03-15 10:39:07,391 - INFO - PERFORMANCE solution_temple Performance optimization is not reccomended</t>
@@ -1868,7 +1886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1893,13 +1911,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1910,10 +1928,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1921,13 +1939,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1935,13 +1953,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1949,13 +1967,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1963,13 +1981,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1977,13 +1995,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1991,13 +2009,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2005,13 +2023,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D10" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2019,13 +2037,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2033,13 +2051,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D12" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2047,13 +2065,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D13" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2061,13 +2079,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2075,13 +2093,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D15" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2089,13 +2107,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2103,13 +2121,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D17" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2117,13 +2135,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D18" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2131,13 +2149,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D19" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2145,13 +2163,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D20" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2159,13 +2177,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D21" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2173,13 +2191,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2187,13 +2205,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C23" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D23" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2201,13 +2219,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D24" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2215,13 +2233,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C25" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D25" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2229,13 +2247,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D26" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2243,13 +2261,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D27" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2257,13 +2275,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D28" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2271,13 +2289,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D29" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2285,13 +2303,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C30" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2299,13 +2317,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D31" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2313,13 +2331,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D32" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2327,13 +2345,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D33" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2341,13 +2359,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D34" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2355,13 +2373,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D35" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2369,13 +2387,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D36" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2383,13 +2401,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D37" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2397,13 +2415,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D38" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2411,13 +2429,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D39" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2425,13 +2443,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D40" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2439,10 +2457,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2450,13 +2468,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D42" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2464,13 +2482,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C43" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D43" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2478,7 +2496,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
@@ -2489,10 +2507,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C45" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2500,13 +2518,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D46" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2514,10 +2532,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2525,10 +2543,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2536,10 +2554,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2547,10 +2565,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2558,13 +2576,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C51" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D51" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2572,13 +2590,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D52" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2586,13 +2604,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C53" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2600,13 +2618,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D54" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2614,13 +2632,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C55" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D55" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2628,13 +2646,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C56" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D56" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2642,13 +2660,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C57" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D57" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2656,13 +2674,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D58" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2670,10 +2688,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C59" t="s">
-        <v>364</v>
+        <v>368</v>
+      </c>
+      <c r="D59" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2681,10 +2702,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2692,10 +2713,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2703,10 +2724,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2714,10 +2735,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2725,10 +2746,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C64" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2736,10 +2757,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C65" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2747,10 +2768,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C66" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2758,10 +2779,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2769,10 +2790,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C68" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2780,13 +2801,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="C69" t="s">
-        <v>373</v>
-      </c>
-      <c r="D69" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2794,13 +2812,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>378</v>
       </c>
       <c r="D70" t="s">
-        <v>476</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2808,13 +2826,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D71" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2822,13 +2840,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C72" t="s">
-        <v>374</v>
+        <v>255</v>
       </c>
       <c r="D72" t="s">
-        <v>374</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2836,13 +2854,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C73" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D73" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2850,13 +2868,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C74" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="D74" t="s">
-        <v>478</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2864,13 +2882,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C75" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D75" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2878,13 +2896,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C76" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D76" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2892,13 +2910,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C77" t="s">
-        <v>375</v>
+        <v>260</v>
       </c>
       <c r="D77" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2906,13 +2924,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C78" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D78" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2920,13 +2938,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D79" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2934,13 +2952,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D80" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2948,13 +2966,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C81" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D81" t="s">
-        <v>379</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2962,13 +2980,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C82" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D82" t="s">
-        <v>485</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2976,13 +2994,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C83" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D83" t="s">
-        <v>381</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2990,13 +3008,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D84" t="s">
-        <v>486</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3004,13 +3022,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C85" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D85" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3018,13 +3036,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C86" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D86" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3032,13 +3050,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C87" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D87" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3046,13 +3064,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="C88" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D88" t="s">
-        <v>386</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3060,13 +3078,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D89" t="s">
-        <v>490</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3074,13 +3092,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="C90" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D90" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3088,13 +3106,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3102,13 +3120,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="C92" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D92" t="s">
-        <v>94</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3119,7 +3137,7 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D93" t="s">
         <v>95</v>
@@ -3133,7 +3151,7 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D94" t="s">
         <v>96</v>
@@ -3147,7 +3165,7 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D95" t="s">
         <v>97</v>
@@ -3161,7 +3179,7 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D96" t="s">
         <v>98</v>
@@ -3175,7 +3193,7 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D97" t="s">
         <v>99</v>
@@ -3189,7 +3207,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D98" t="s">
         <v>100</v>
@@ -3203,7 +3221,7 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D99" t="s">
         <v>101</v>
@@ -3217,7 +3235,7 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D100" t="s">
         <v>102</v>
@@ -3231,7 +3249,7 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D101" t="s">
         <v>103</v>
@@ -3245,7 +3263,7 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D102" t="s">
         <v>104</v>
@@ -3259,7 +3277,7 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D103" t="s">
         <v>105</v>
@@ -3273,7 +3291,7 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D104" t="s">
         <v>106</v>
@@ -3287,7 +3305,7 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D105" t="s">
         <v>107</v>
@@ -3301,7 +3319,7 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D106" t="s">
         <v>108</v>
@@ -3315,7 +3333,7 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D107" t="s">
         <v>109</v>
@@ -3329,7 +3347,7 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D108" t="s">
         <v>110</v>
@@ -3343,7 +3361,7 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D109" t="s">
         <v>111</v>
@@ -3357,7 +3375,7 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D110" t="s">
         <v>112</v>
@@ -3371,7 +3389,7 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D111" t="s">
         <v>113</v>
@@ -3385,7 +3403,7 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D112" t="s">
         <v>114</v>
@@ -3399,7 +3417,7 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D113" t="s">
         <v>115</v>
@@ -3413,7 +3431,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D114" t="s">
         <v>116</v>
@@ -3427,7 +3445,7 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D115" t="s">
         <v>117</v>
@@ -3441,7 +3459,7 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D116" t="s">
         <v>118</v>
@@ -3455,7 +3473,7 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D117" t="s">
         <v>119</v>
@@ -3469,7 +3487,7 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D118" t="s">
         <v>120</v>
@@ -3483,7 +3501,7 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D119" t="s">
         <v>121</v>
@@ -3497,7 +3515,7 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D120" t="s">
         <v>122</v>
@@ -3511,7 +3529,7 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D121" t="s">
         <v>123</v>
@@ -3525,7 +3543,7 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D122" t="s">
         <v>124</v>
@@ -3539,7 +3557,7 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D123" t="s">
         <v>125</v>
@@ -3553,7 +3571,7 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D124" t="s">
         <v>126</v>
@@ -3567,7 +3585,7 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>427</v>
       </c>
       <c r="D125" t="s">
         <v>127</v>
@@ -3578,13 +3596,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D126" t="s">
-        <v>491</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3592,13 +3610,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>424</v>
+        <v>129</v>
       </c>
       <c r="D127" t="s">
-        <v>424</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3606,13 +3624,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C128" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D128" t="s">
-        <v>425</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3620,13 +3638,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C129" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D129" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3634,13 +3652,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C130" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D130" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3648,13 +3666,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C131" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D131" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3662,13 +3680,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C132" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3676,13 +3694,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C133" t="s">
-        <v>277</v>
+        <v>434</v>
       </c>
       <c r="D133" t="s">
-        <v>492</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3690,13 +3708,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C134" t="s">
-        <v>278</v>
+        <v>435</v>
       </c>
       <c r="D134" t="s">
-        <v>493</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3704,13 +3722,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="C135" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="D135" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3718,13 +3736,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C136" t="s">
-        <v>430</v>
+        <v>282</v>
       </c>
       <c r="D136" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3732,13 +3750,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="C137" t="s">
-        <v>431</v>
+        <v>183</v>
       </c>
       <c r="D137" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3746,13 +3764,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C138" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D138" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3760,13 +3778,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C139" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D139" t="s">
-        <v>496</v>
+        <v>437</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3774,13 +3792,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C140" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D140" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3788,13 +3806,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C141" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D141" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3802,13 +3820,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C142" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D142" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3816,13 +3834,13 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C143" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D143" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3830,13 +3848,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C144" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D144" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3844,13 +3862,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C145" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D145" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3858,13 +3876,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C146" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D146" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3872,13 +3890,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C147" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D147" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3886,13 +3904,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C148" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D148" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3900,13 +3918,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C149" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D149" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3914,13 +3932,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C150" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D150" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3928,13 +3946,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C151" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D151" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3942,13 +3960,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C152" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D152" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3956,13 +3974,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C153" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D153" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3970,13 +3988,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C154" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D154" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3984,13 +4002,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C155" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D155" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3998,13 +4016,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C156" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D156" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4012,13 +4030,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C157" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D157" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4026,13 +4044,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C158" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D158" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4040,13 +4058,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C159" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D159" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4054,13 +4072,13 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C160" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D160" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4068,13 +4086,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C161" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D161" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4082,13 +4100,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C162" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D162" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4096,13 +4114,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C163" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="D163" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4110,13 +4128,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C164" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D164" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4124,13 +4142,13 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C165" t="s">
-        <v>458</v>
+        <v>334</v>
       </c>
       <c r="D165" t="s">
-        <v>458</v>
+        <v>334</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4138,13 +4156,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C166" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D166" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4152,13 +4170,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C167" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D167" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4166,13 +4184,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>313</v>
       </c>
       <c r="C168" t="s">
-        <v>317</v>
+        <v>465</v>
       </c>
       <c r="D168" t="s">
-        <v>317</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4180,13 +4198,13 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="C169" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D169" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4197,10 +4215,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>462</v>
+        <v>321</v>
       </c>
       <c r="D170" t="s">
-        <v>462</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4211,10 +4229,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D171" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4225,10 +4243,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D172" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4239,10 +4257,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D173" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4253,10 +4271,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>176</v>
+        <v>470</v>
       </c>
       <c r="D174" t="s">
-        <v>176</v>
+        <v>470</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4267,10 +4285,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>386</v>
+        <v>471</v>
       </c>
       <c r="D175" t="s">
-        <v>386</v>
+        <v>471</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4281,10 +4299,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>466</v>
+        <v>178</v>
       </c>
       <c r="D176" t="s">
-        <v>466</v>
+        <v>178</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4295,10 +4313,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>467</v>
+        <v>391</v>
       </c>
       <c r="D177" t="s">
-        <v>467</v>
+        <v>391</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4309,10 +4327,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D178" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4323,10 +4341,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D179" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4337,10 +4355,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D180" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4351,10 +4369,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D181" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4365,10 +4383,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D182" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4379,10 +4397,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D183" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4393,10 +4411,38 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>186</v>
+        <v>478</v>
       </c>
       <c r="D184" t="s">
-        <v>186</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" t="s">
+        <v>479</v>
+      </c>
+      <c r="D185" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" t="s">
+        <v>188</v>
+      </c>
+      <c r="D186" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="508">
   <si>
     <t>solution_name</t>
   </si>
@@ -151,6 +151,9 @@
     <t>Data Sets</t>
   </si>
   <si>
+    <t>Db Analysis</t>
+  </si>
+  <si>
     <t>Descriptive Statistics</t>
   </si>
   <si>
@@ -697,6 +700,9 @@
     <t>data_sets</t>
   </si>
   <si>
+    <t>DB_Analysis</t>
+  </si>
+  <si>
     <t>descriptive_statistics</t>
   </si>
   <si>
@@ -1073,6 +1079,9 @@
   </si>
   <si>
     <t>A repository of curated datasets for data science projects</t>
+  </si>
+  <si>
+    <t>Perform database analysis on ANY database to generate the schema and Data Discription Language.</t>
   </si>
   <si>
     <t xml:space="preserve">process used to analyze the data. </t>
@@ -1886,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1911,13 +1920,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1928,10 +1937,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1939,13 +1948,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1953,13 +1962,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1967,13 +1976,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1981,13 +1990,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1995,13 +2004,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2009,13 +2018,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2023,13 +2032,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2037,13 +2046,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2051,13 +2060,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2065,13 +2074,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2079,13 +2088,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D14" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2093,13 +2102,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2107,13 +2116,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2121,13 +2130,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2135,13 +2144,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2149,13 +2158,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2163,13 +2172,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D20" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2177,13 +2186,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2191,13 +2200,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D22" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2205,13 +2214,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D23" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2219,13 +2228,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D24" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2233,13 +2242,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D25" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2247,13 +2256,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D26" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2261,13 +2270,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2275,13 +2284,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C28" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D28" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2289,13 +2298,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2303,13 +2312,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D30" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2317,13 +2326,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2331,13 +2340,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D32" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2345,13 +2354,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D33" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2359,13 +2368,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D34" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2373,13 +2382,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D35" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2387,13 +2396,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D36" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2401,13 +2410,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C37" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D37" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2415,13 +2424,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C38" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D38" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2429,13 +2438,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C39" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D39" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2443,13 +2452,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D40" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2457,10 +2466,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C41" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2468,13 +2477,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D42" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2482,13 +2491,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C43" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D43" t="s">
-        <v>481</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2496,10 +2505,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>356</v>
+      </c>
+      <c r="D44" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2507,10 +2519,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
-        <v>354</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2518,13 +2530,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C46" t="s">
-        <v>355</v>
-      </c>
-      <c r="D46" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2532,10 +2541,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C47" t="s">
-        <v>356</v>
+        <v>358</v>
+      </c>
+      <c r="D47" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2543,10 +2555,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C48" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2554,10 +2566,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C49" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2565,10 +2577,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2576,13 +2588,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C51" t="s">
-        <v>360</v>
-      </c>
-      <c r="D51" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2590,13 +2599,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C52" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D52" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2604,13 +2613,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C53" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D53" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2618,13 +2627,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C54" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D54" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2632,13 +2641,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D55" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2646,13 +2655,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C56" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D56" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2660,13 +2669,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C57" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D57" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2674,13 +2683,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C58" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D58" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2688,13 +2697,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C59" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D59" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2702,10 +2711,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C60" t="s">
-        <v>369</v>
+        <v>371</v>
+      </c>
+      <c r="D60" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2713,10 +2725,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C61" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2724,10 +2736,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C62" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2735,10 +2747,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C63" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2746,10 +2758,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C64" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2757,10 +2769,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2768,10 +2780,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C66" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2779,10 +2791,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C67" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2790,10 +2802,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C68" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2801,10 +2813,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C69" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2812,13 +2824,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="C70" t="s">
-        <v>378</v>
-      </c>
-      <c r="D70" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2826,13 +2835,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>254</v>
+        <v>381</v>
       </c>
       <c r="D71" t="s">
-        <v>482</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2840,13 +2849,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D72" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2854,13 +2863,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C73" t="s">
-        <v>379</v>
+        <v>257</v>
       </c>
       <c r="D73" t="s">
-        <v>379</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2868,13 +2877,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C74" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D74" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2882,13 +2891,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C75" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
       <c r="D75" t="s">
-        <v>484</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2896,13 +2905,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D76" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2910,13 +2919,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D77" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2924,13 +2933,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C78" t="s">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="D78" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2938,13 +2947,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C79" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D79" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2952,13 +2961,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C80" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D80" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2966,13 +2975,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C81" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D81" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2980,13 +2989,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C82" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D82" t="s">
-        <v>384</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2994,13 +3003,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C83" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D83" t="s">
-        <v>491</v>
+        <v>387</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3008,13 +3017,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C84" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D84" t="s">
-        <v>386</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3022,13 +3031,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C85" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D85" t="s">
-        <v>492</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3036,13 +3045,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C86" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D86" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3050,13 +3059,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C87" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D87" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3064,13 +3073,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C88" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D88" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3078,13 +3087,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="C89" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D89" t="s">
-        <v>391</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3092,13 +3101,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D90" t="s">
-        <v>496</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3106,13 +3115,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D91" t="s">
-        <v>393</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3120,13 +3129,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C92" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D92" t="s">
-        <v>472</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3134,13 +3143,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D93" t="s">
-        <v>95</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3151,7 +3160,7 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D94" t="s">
         <v>96</v>
@@ -3165,7 +3174,7 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D95" t="s">
         <v>97</v>
@@ -3179,7 +3188,7 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D96" t="s">
         <v>98</v>
@@ -3193,7 +3202,7 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D97" t="s">
         <v>99</v>
@@ -3207,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D98" t="s">
         <v>100</v>
@@ -3221,7 +3230,7 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D99" t="s">
         <v>101</v>
@@ -3235,7 +3244,7 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D100" t="s">
         <v>102</v>
@@ -3249,7 +3258,7 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D101" t="s">
         <v>103</v>
@@ -3263,7 +3272,7 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D102" t="s">
         <v>104</v>
@@ -3277,7 +3286,7 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D103" t="s">
         <v>105</v>
@@ -3291,7 +3300,7 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D104" t="s">
         <v>106</v>
@@ -3305,7 +3314,7 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D105" t="s">
         <v>107</v>
@@ -3319,7 +3328,7 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D106" t="s">
         <v>108</v>
@@ -3333,7 +3342,7 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D107" t="s">
         <v>109</v>
@@ -3347,7 +3356,7 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D108" t="s">
         <v>110</v>
@@ -3361,7 +3370,7 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D109" t="s">
         <v>111</v>
@@ -3375,7 +3384,7 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D110" t="s">
         <v>112</v>
@@ -3389,7 +3398,7 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D111" t="s">
         <v>113</v>
@@ -3403,7 +3412,7 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D112" t="s">
         <v>114</v>
@@ -3417,7 +3426,7 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D113" t="s">
         <v>115</v>
@@ -3431,7 +3440,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D114" t="s">
         <v>116</v>
@@ -3445,7 +3454,7 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D115" t="s">
         <v>117</v>
@@ -3459,7 +3468,7 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D116" t="s">
         <v>118</v>
@@ -3473,7 +3482,7 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D117" t="s">
         <v>119</v>
@@ -3487,7 +3496,7 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D118" t="s">
         <v>120</v>
@@ -3501,7 +3510,7 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D119" t="s">
         <v>121</v>
@@ -3515,7 +3524,7 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D120" t="s">
         <v>122</v>
@@ -3529,7 +3538,7 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D121" t="s">
         <v>123</v>
@@ -3543,7 +3552,7 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D122" t="s">
         <v>124</v>
@@ -3557,7 +3566,7 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D123" t="s">
         <v>125</v>
@@ -3571,7 +3580,7 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D124" t="s">
         <v>126</v>
@@ -3585,7 +3594,7 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D125" t="s">
         <v>127</v>
@@ -3599,7 +3608,7 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D126" t="s">
         <v>128</v>
@@ -3613,7 +3622,7 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>129</v>
+        <v>431</v>
       </c>
       <c r="D127" t="s">
         <v>129</v>
@@ -3624,13 +3633,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>429</v>
+        <v>130</v>
       </c>
       <c r="D128" t="s">
-        <v>497</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3638,13 +3647,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C129" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D129" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3652,13 +3661,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C130" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D130" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3666,13 +3675,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C131" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D131" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3680,13 +3689,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C132" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D132" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3694,13 +3703,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C133" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D133" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3708,13 +3717,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C134" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D134" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3722,13 +3731,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C135" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D135" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3736,13 +3745,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D136" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3750,13 +3759,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="D137" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3764,13 +3773,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="C138" t="s">
-        <v>436</v>
+        <v>184</v>
       </c>
       <c r="D138" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3778,13 +3787,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C139" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D139" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3792,13 +3801,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C140" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D140" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3806,13 +3815,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C141" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D141" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3820,13 +3829,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C142" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D142" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3834,13 +3843,13 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C143" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D143" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3848,13 +3857,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C144" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D144" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3862,13 +3871,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C145" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D145" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3876,13 +3885,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C146" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D146" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3890,13 +3899,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C147" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D147" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3904,13 +3913,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C148" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D148" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3918,13 +3927,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C149" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D149" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3932,13 +3941,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D150" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3946,13 +3955,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C151" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D151" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3960,13 +3969,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C152" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D152" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3974,13 +3983,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C153" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D153" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3988,13 +3997,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C154" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D154" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4002,13 +4011,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C155" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D155" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4016,13 +4025,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C156" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D156" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4030,13 +4039,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C157" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D157" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4044,13 +4053,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C158" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D158" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4058,13 +4067,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C159" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D159" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4072,13 +4081,13 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C160" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D160" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4086,13 +4095,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C161" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D161" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4100,13 +4109,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C162" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D162" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4114,13 +4123,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C163" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D163" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4128,13 +4137,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C164" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D164" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4142,13 +4151,13 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C165" t="s">
-        <v>334</v>
+        <v>465</v>
       </c>
       <c r="D165" t="s">
-        <v>334</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4156,13 +4165,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C166" t="s">
-        <v>463</v>
+        <v>336</v>
       </c>
       <c r="D166" t="s">
-        <v>463</v>
+        <v>336</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4170,13 +4179,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C167" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D167" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4184,13 +4193,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C168" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D168" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4198,13 +4207,13 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C169" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D169" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4212,13 +4221,13 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="C170" t="s">
-        <v>321</v>
+        <v>469</v>
       </c>
       <c r="D170" t="s">
-        <v>321</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4229,10 +4238,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>467</v>
+        <v>323</v>
       </c>
       <c r="D171" t="s">
-        <v>467</v>
+        <v>323</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4243,10 +4252,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D172" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4257,10 +4266,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D173" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4271,10 +4280,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D174" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4285,10 +4294,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D175" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4299,10 +4308,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>178</v>
+        <v>474</v>
       </c>
       <c r="D176" t="s">
-        <v>178</v>
+        <v>474</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4313,10 +4322,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>391</v>
+        <v>179</v>
       </c>
       <c r="D177" t="s">
-        <v>391</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4327,10 +4336,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>472</v>
+        <v>394</v>
       </c>
       <c r="D178" t="s">
-        <v>472</v>
+        <v>394</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4341,10 +4350,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D179" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4355,10 +4364,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D180" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4369,10 +4378,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D181" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4383,10 +4392,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D182" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4397,10 +4406,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D183" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4411,10 +4420,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D184" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4425,10 +4434,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D185" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4439,10 +4448,24 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>188</v>
+        <v>482</v>
       </c>
       <c r="D186" t="s">
-        <v>188</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" t="s">
+        <v>189</v>
+      </c>
+      <c r="D187" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/solution_registry.xlsx
+++ b/solution_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="511">
   <si>
     <t>solution_name</t>
   </si>
@@ -181,6 +181,9 @@
     <t>Epic Caboodle</t>
   </si>
   <si>
+    <t>Epic Clarity</t>
+  </si>
+  <si>
     <t>Epic Cogito Ch 1</t>
   </si>
   <si>
@@ -730,6 +733,9 @@
     <t>epic_caboodle</t>
   </si>
   <si>
+    <t>EPIC_Clarity</t>
+  </si>
+  <si>
     <t>EPIC_Cogito_ch_1</t>
   </si>
   <si>
@@ -1106,6 +1112,9 @@
   </si>
   <si>
     <t>A learning pathway for epic caboodle certification.</t>
+  </si>
+  <si>
+    <t>Training materials for EPIC Clarity.</t>
   </si>
   <si>
     <t>Epic Cogito Chapter 1.</t>
@@ -1895,7 +1904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,13 +1929,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1937,10 +1946,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1948,13 +1957,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1962,13 +1971,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1976,13 +1985,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1990,13 +1999,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2004,13 +2013,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2018,13 +2027,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2032,13 +2041,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2046,13 +2055,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2060,13 +2069,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2074,13 +2083,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2088,13 +2097,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2102,13 +2111,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2116,13 +2125,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D16" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2130,13 +2139,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2144,13 +2153,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2158,13 +2167,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2172,13 +2181,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D20" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2186,13 +2195,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2200,13 +2209,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2214,13 +2223,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D23" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2228,13 +2237,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2242,13 +2251,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D25" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2256,13 +2265,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D26" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2270,13 +2279,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D27" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2284,13 +2293,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D28" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2298,13 +2307,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D29" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2312,13 +2321,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D30" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2326,13 +2335,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D31" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2340,13 +2349,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D32" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2354,13 +2363,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D33" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2368,13 +2377,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D34" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2382,13 +2391,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D35" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2396,13 +2405,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C36" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D36" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2410,13 +2419,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D37" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2424,13 +2433,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D38" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2438,13 +2447,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C39" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D39" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2452,13 +2461,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C40" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2466,10 +2475,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C41" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2477,13 +2486,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C42" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D42" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2491,13 +2500,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C43" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D43" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2505,13 +2514,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C44" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D44" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2519,7 +2528,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
@@ -2530,10 +2539,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2541,13 +2550,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D47" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2555,10 +2564,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C48" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2566,10 +2575,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C49" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2577,10 +2586,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C50" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2588,10 +2597,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C51" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2599,13 +2608,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C52" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D52" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2613,13 +2622,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C53" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D53" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2627,13 +2636,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C54" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D54" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2641,13 +2650,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C55" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D55" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2655,13 +2664,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D56" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2669,13 +2678,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C57" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D57" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2683,13 +2692,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C58" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D58" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2697,13 +2706,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C59" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D59" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2711,13 +2720,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C60" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D60" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2725,10 +2734,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C61" t="s">
-        <v>372</v>
+        <v>374</v>
+      </c>
+      <c r="D61" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2736,10 +2748,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C62" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2747,10 +2759,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2758,10 +2770,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C64" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2769,10 +2781,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C65" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2780,10 +2792,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C66" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2791,10 +2803,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2802,10 +2814,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C68" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2813,10 +2825,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C69" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2824,10 +2836,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C70" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2835,13 +2847,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="C71" t="s">
-        <v>381</v>
-      </c>
-      <c r="D71" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2849,13 +2858,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="D72" t="s">
-        <v>485</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2863,13 +2872,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D73" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2877,13 +2886,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C74" t="s">
-        <v>382</v>
+        <v>259</v>
       </c>
       <c r="D74" t="s">
-        <v>382</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2891,13 +2900,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C75" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D75" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2905,13 +2914,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C76" t="s">
-        <v>260</v>
+        <v>384</v>
       </c>
       <c r="D76" t="s">
-        <v>487</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2919,13 +2928,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D77" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2933,13 +2942,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C78" t="s">
-        <v>2